--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>DASTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3818200</v>
+        <v>4450600</v>
       </c>
       <c r="E8" s="3">
-        <v>3544400</v>
+        <v>3851600</v>
       </c>
       <c r="F8" s="3">
-        <v>3355000</v>
+        <v>3575300</v>
       </c>
       <c r="G8" s="3">
-        <v>3117700</v>
+        <v>3384400</v>
       </c>
       <c r="H8" s="3">
-        <v>2519100</v>
+        <v>3145000</v>
       </c>
       <c r="I8" s="3">
-        <v>2268600</v>
+        <v>2541100</v>
       </c>
       <c r="J8" s="3">
+        <v>2288400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2227100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2093000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>560900</v>
+        <v>701800</v>
       </c>
       <c r="E9" s="3">
-        <v>520400</v>
+        <v>565800</v>
       </c>
       <c r="F9" s="3">
-        <v>509000</v>
+        <v>525000</v>
       </c>
       <c r="G9" s="3">
-        <v>480800</v>
+        <v>513500</v>
       </c>
       <c r="H9" s="3">
-        <v>376900</v>
+        <v>485000</v>
       </c>
       <c r="I9" s="3">
-        <v>287000</v>
+        <v>380200</v>
       </c>
       <c r="J9" s="3">
+        <v>289500</v>
+      </c>
+      <c r="K9" s="3">
         <v>293200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>292800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3257300</v>
+        <v>3748800</v>
       </c>
       <c r="E10" s="3">
-        <v>3023900</v>
+        <v>3285800</v>
       </c>
       <c r="F10" s="3">
-        <v>2846000</v>
+        <v>3050400</v>
       </c>
       <c r="G10" s="3">
-        <v>2636900</v>
+        <v>2870900</v>
       </c>
       <c r="H10" s="3">
-        <v>2142200</v>
+        <v>2659900</v>
       </c>
       <c r="I10" s="3">
-        <v>1981700</v>
+        <v>2161000</v>
       </c>
       <c r="J10" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1933900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>692900</v>
+        <v>817300</v>
       </c>
       <c r="E12" s="3">
-        <v>633100</v>
+        <v>699000</v>
       </c>
       <c r="F12" s="3">
-        <v>593500</v>
+        <v>638600</v>
       </c>
       <c r="G12" s="3">
-        <v>540800</v>
+        <v>598700</v>
       </c>
       <c r="H12" s="3">
-        <v>449800</v>
+        <v>545500</v>
       </c>
       <c r="I12" s="3">
-        <v>412300</v>
+        <v>453700</v>
       </c>
       <c r="J12" s="3">
+        <v>415900</v>
+      </c>
+      <c r="K12" s="3">
         <v>404200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>386500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>42200</v>
+        <v>37700</v>
       </c>
       <c r="E14" s="3">
-        <v>32900</v>
+        <v>42500</v>
       </c>
       <c r="F14" s="3">
-        <v>44600</v>
+        <v>33200</v>
       </c>
       <c r="G14" s="3">
-        <v>13400</v>
+        <v>45000</v>
       </c>
       <c r="H14" s="3">
-        <v>40700</v>
+        <v>13500</v>
       </c>
       <c r="I14" s="3">
-        <v>13500</v>
+        <v>41000</v>
       </c>
       <c r="J14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K14" s="3">
         <v>11700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>188400</v>
+        <v>270300</v>
       </c>
       <c r="E15" s="3">
-        <v>176000</v>
+        <v>190100</v>
       </c>
       <c r="F15" s="3">
-        <v>171100</v>
+        <v>177500</v>
       </c>
       <c r="G15" s="3">
-        <v>175200</v>
+        <v>172600</v>
       </c>
       <c r="H15" s="3">
-        <v>146400</v>
+        <v>176700</v>
       </c>
       <c r="I15" s="3">
-        <v>110800</v>
+        <v>147700</v>
       </c>
       <c r="J15" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K15" s="3">
         <v>102900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>98200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2974700</v>
+        <v>3550300</v>
       </c>
       <c r="E17" s="3">
-        <v>2743900</v>
+        <v>3000700</v>
       </c>
       <c r="F17" s="3">
-        <v>2617100</v>
+        <v>2767900</v>
       </c>
       <c r="G17" s="3">
-        <v>2422500</v>
+        <v>2640000</v>
       </c>
       <c r="H17" s="3">
-        <v>2046100</v>
+        <v>2443600</v>
       </c>
       <c r="I17" s="3">
-        <v>1716300</v>
+        <v>2064000</v>
       </c>
       <c r="J17" s="3">
+        <v>1731300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1677100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1590700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>843500</v>
+        <v>900300</v>
       </c>
       <c r="E18" s="3">
-        <v>800400</v>
+        <v>850900</v>
       </c>
       <c r="F18" s="3">
-        <v>737900</v>
+        <v>807400</v>
       </c>
       <c r="G18" s="3">
-        <v>695300</v>
+        <v>744300</v>
       </c>
       <c r="H18" s="3">
-        <v>473000</v>
+        <v>701300</v>
       </c>
       <c r="I18" s="3">
-        <v>552300</v>
+        <v>477200</v>
       </c>
       <c r="J18" s="3">
+        <v>557200</v>
+      </c>
+      <c r="K18" s="3">
         <v>550100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>502300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>34000</v>
+        <v>31300</v>
       </c>
       <c r="E20" s="3">
-        <v>38300</v>
+        <v>34300</v>
       </c>
       <c r="F20" s="3">
+        <v>38600</v>
+      </c>
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>8000</v>
-      </c>
       <c r="H20" s="3">
-        <v>22700</v>
+        <v>8100</v>
       </c>
       <c r="I20" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K20" s="3">
         <v>28400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1138900</v>
+        <v>1367300</v>
       </c>
       <c r="E21" s="3">
-        <v>1078100</v>
+        <v>1146700</v>
       </c>
       <c r="F21" s="3">
-        <v>967300</v>
+        <v>1085600</v>
       </c>
       <c r="G21" s="3">
-        <v>935700</v>
+        <v>973900</v>
       </c>
       <c r="H21" s="3">
-        <v>689700</v>
+        <v>942000</v>
       </c>
       <c r="I21" s="3">
-        <v>730800</v>
+        <v>694100</v>
       </c>
       <c r="J21" s="3">
+        <v>735900</v>
+      </c>
+      <c r="K21" s="3">
         <v>723700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>644800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>16900</v>
+        <v>27900</v>
       </c>
       <c r="E22" s="3">
-        <v>13600</v>
+        <v>17100</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="G22" s="3">
-        <v>8100</v>
+        <v>14100</v>
       </c>
       <c r="H22" s="3">
-        <v>6300</v>
+        <v>8200</v>
       </c>
       <c r="I22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>860600</v>
+        <v>903700</v>
       </c>
       <c r="E23" s="3">
-        <v>825100</v>
+        <v>868100</v>
       </c>
       <c r="F23" s="3">
-        <v>726300</v>
+        <v>832300</v>
       </c>
       <c r="G23" s="3">
-        <v>695100</v>
+        <v>732700</v>
       </c>
       <c r="H23" s="3">
-        <v>489400</v>
+        <v>701200</v>
       </c>
       <c r="I23" s="3">
-        <v>572100</v>
+        <v>493700</v>
       </c>
       <c r="J23" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K23" s="3">
         <v>569900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>503600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>242000</v>
+        <v>232200</v>
       </c>
       <c r="E24" s="3">
-        <v>253900</v>
+        <v>244100</v>
       </c>
       <c r="F24" s="3">
-        <v>229800</v>
+        <v>256200</v>
       </c>
       <c r="G24" s="3">
-        <v>249400</v>
+        <v>231800</v>
       </c>
       <c r="H24" s="3">
-        <v>168300</v>
+        <v>251600</v>
       </c>
       <c r="I24" s="3">
-        <v>182100</v>
+        <v>169800</v>
       </c>
       <c r="J24" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K24" s="3">
         <v>197900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>162600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>618600</v>
+        <v>671500</v>
       </c>
       <c r="E26" s="3">
-        <v>571100</v>
+        <v>624000</v>
       </c>
       <c r="F26" s="3">
-        <v>496500</v>
+        <v>576100</v>
       </c>
       <c r="G26" s="3">
-        <v>445700</v>
+        <v>500900</v>
       </c>
       <c r="H26" s="3">
-        <v>321100</v>
+        <v>449600</v>
       </c>
       <c r="I26" s="3">
-        <v>390000</v>
+        <v>323900</v>
       </c>
       <c r="J26" s="3">
+        <v>393400</v>
+      </c>
+      <c r="K26" s="3">
         <v>372000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>341000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>625200</v>
+        <v>681500</v>
       </c>
       <c r="E27" s="3">
-        <v>570300</v>
+        <v>630700</v>
       </c>
       <c r="F27" s="3">
-        <v>491000</v>
+        <v>575300</v>
       </c>
       <c r="G27" s="3">
-        <v>441600</v>
+        <v>495300</v>
       </c>
       <c r="H27" s="3">
-        <v>319800</v>
+        <v>445500</v>
       </c>
       <c r="I27" s="3">
-        <v>386800</v>
+        <v>322600</v>
       </c>
       <c r="J27" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K27" s="3">
         <v>367600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>339400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-34000</v>
+        <v>-31300</v>
       </c>
       <c r="E32" s="3">
-        <v>-38300</v>
+        <v>-34300</v>
       </c>
       <c r="F32" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-22700</v>
+        <v>-8100</v>
       </c>
       <c r="I32" s="3">
-        <v>-23100</v>
+        <v>-22900</v>
       </c>
       <c r="J32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>625200</v>
+        <v>681500</v>
       </c>
       <c r="E33" s="3">
-        <v>570300</v>
+        <v>630700</v>
       </c>
       <c r="F33" s="3">
-        <v>491000</v>
+        <v>575300</v>
       </c>
       <c r="G33" s="3">
-        <v>441600</v>
+        <v>495300</v>
       </c>
       <c r="H33" s="3">
-        <v>319800</v>
+        <v>445500</v>
       </c>
       <c r="I33" s="3">
-        <v>386800</v>
+        <v>322600</v>
       </c>
       <c r="J33" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K33" s="3">
         <v>367600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>339400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>625200</v>
+        <v>681500</v>
       </c>
       <c r="E35" s="3">
-        <v>570300</v>
+        <v>630700</v>
       </c>
       <c r="F35" s="3">
-        <v>491000</v>
+        <v>575300</v>
       </c>
       <c r="G35" s="3">
-        <v>441600</v>
+        <v>495300</v>
       </c>
       <c r="H35" s="3">
-        <v>319800</v>
+        <v>445500</v>
       </c>
       <c r="I35" s="3">
-        <v>386800</v>
+        <v>322600</v>
       </c>
       <c r="J35" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K35" s="3">
         <v>367600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>339400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,98 +1645,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3084600</v>
+        <v>2158500</v>
       </c>
       <c r="E41" s="3">
-        <v>2700500</v>
+        <v>3117800</v>
       </c>
       <c r="F41" s="3">
-        <v>2675500</v>
+        <v>2729500</v>
       </c>
       <c r="G41" s="3">
-        <v>2504000</v>
+        <v>2704300</v>
       </c>
       <c r="H41" s="3">
-        <v>1212400</v>
+        <v>2530900</v>
       </c>
       <c r="I41" s="3">
-        <v>1908200</v>
+        <v>1225400</v>
       </c>
       <c r="J41" s="3">
+        <v>1928700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1272900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1354900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
-        <v>61600</v>
-      </c>
       <c r="G42" s="3">
-        <v>77700</v>
+        <v>62200</v>
       </c>
       <c r="H42" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="I42" s="3">
-        <v>72200</v>
+        <v>79100</v>
       </c>
       <c r="J42" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K42" s="3">
         <v>175400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>315400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1396400</v>
+        <v>1720300</v>
       </c>
       <c r="E43" s="3">
-        <v>1128900</v>
+        <v>1411400</v>
       </c>
       <c r="F43" s="3">
-        <v>1073800</v>
+        <v>1141000</v>
       </c>
       <c r="G43" s="3">
-        <v>908900</v>
+        <v>1085400</v>
       </c>
       <c r="H43" s="3">
-        <v>1503000</v>
+        <v>918600</v>
       </c>
       <c r="I43" s="3">
-        <v>615200</v>
+        <v>1519100</v>
       </c>
       <c r="J43" s="3">
+        <v>621800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1208000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>693500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1679,159 +1774,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>131900</v>
+        <v>193100</v>
       </c>
       <c r="E45" s="3">
-        <v>121500</v>
+        <v>133300</v>
       </c>
       <c r="F45" s="3">
-        <v>109400</v>
+        <v>122800</v>
       </c>
       <c r="G45" s="3">
-        <v>68200</v>
+        <v>110600</v>
       </c>
       <c r="H45" s="3">
-        <v>264800</v>
+        <v>69000</v>
       </c>
       <c r="I45" s="3">
-        <v>61600</v>
+        <v>267700</v>
       </c>
       <c r="J45" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K45" s="3">
         <v>102600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4613600</v>
+        <v>4071900</v>
       </c>
       <c r="E46" s="3">
-        <v>3952300</v>
+        <v>4663200</v>
       </c>
       <c r="F46" s="3">
-        <v>3920300</v>
+        <v>3994700</v>
       </c>
       <c r="G46" s="3">
-        <v>3558800</v>
+        <v>3962500</v>
       </c>
       <c r="H46" s="3">
-        <v>2174600</v>
+        <v>3597100</v>
       </c>
       <c r="I46" s="3">
-        <v>2657200</v>
+        <v>2198000</v>
       </c>
       <c r="J46" s="3">
+        <v>2685800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2120700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2414200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>183600</v>
+        <v>197400</v>
       </c>
       <c r="E47" s="3">
-        <v>173800</v>
+        <v>185600</v>
       </c>
       <c r="F47" s="3">
-        <v>187700</v>
+        <v>175600</v>
       </c>
       <c r="G47" s="3">
-        <v>136000</v>
+        <v>189700</v>
       </c>
       <c r="H47" s="3">
-        <v>76300</v>
+        <v>137500</v>
       </c>
       <c r="I47" s="3">
-        <v>52900</v>
+        <v>77200</v>
       </c>
       <c r="J47" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K47" s="3">
         <v>54900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>195700</v>
+        <v>998500</v>
       </c>
       <c r="E48" s="3">
-        <v>185500</v>
+        <v>197800</v>
       </c>
       <c r="F48" s="3">
-        <v>148700</v>
+        <v>187500</v>
       </c>
       <c r="G48" s="3">
-        <v>148600</v>
+        <v>150300</v>
       </c>
       <c r="H48" s="3">
-        <v>300200</v>
+        <v>150200</v>
       </c>
       <c r="I48" s="3">
-        <v>110300</v>
+        <v>303500</v>
       </c>
       <c r="J48" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K48" s="3">
         <v>299700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3582000</v>
+        <v>9896100</v>
       </c>
       <c r="E49" s="3">
-        <v>3283200</v>
+        <v>3620500</v>
       </c>
       <c r="F49" s="3">
-        <v>3213300</v>
+        <v>3318500</v>
       </c>
       <c r="G49" s="3">
-        <v>2950500</v>
+        <v>3247800</v>
       </c>
       <c r="H49" s="3">
-        <v>5908000</v>
+        <v>2982200</v>
       </c>
       <c r="I49" s="3">
-        <v>1681900</v>
+        <v>5971500</v>
       </c>
       <c r="J49" s="3">
+        <v>1699900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3942000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1457700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>180600</v>
+        <v>231900</v>
       </c>
       <c r="E52" s="3">
-        <v>124000</v>
+        <v>182600</v>
       </c>
       <c r="F52" s="3">
-        <v>153500</v>
+        <v>125300</v>
       </c>
       <c r="G52" s="3">
-        <v>136100</v>
+        <v>155200</v>
       </c>
       <c r="H52" s="3">
-        <v>266000</v>
+        <v>137500</v>
       </c>
       <c r="I52" s="3">
-        <v>96000</v>
+        <v>268800</v>
       </c>
       <c r="J52" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K52" s="3">
         <v>238500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>8755500</v>
+        <v>15395800</v>
       </c>
       <c r="E54" s="3">
-        <v>7718700</v>
+        <v>8849500</v>
       </c>
       <c r="F54" s="3">
-        <v>7623500</v>
+        <v>7801700</v>
       </c>
       <c r="G54" s="3">
-        <v>6930000</v>
+        <v>7705400</v>
       </c>
       <c r="H54" s="3">
-        <v>5448700</v>
+        <v>7004400</v>
       </c>
       <c r="I54" s="3">
-        <v>4598300</v>
+        <v>5507300</v>
       </c>
       <c r="J54" s="3">
+        <v>4647700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3966400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4128000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>177500</v>
+        <v>244200</v>
       </c>
       <c r="E57" s="3">
-        <v>163900</v>
+        <v>179500</v>
       </c>
       <c r="F57" s="3">
-        <v>159100</v>
+        <v>165700</v>
       </c>
       <c r="G57" s="3">
-        <v>131500</v>
+        <v>160800</v>
       </c>
       <c r="H57" s="3">
-        <v>143100</v>
+        <v>133000</v>
       </c>
       <c r="I57" s="3">
-        <v>93300</v>
+        <v>144600</v>
       </c>
       <c r="J57" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K57" s="3">
         <v>99700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>384300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>51</v>
+        <v>97000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>388400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H58" s="3">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>22000</v>
+        <v>11100</v>
       </c>
       <c r="J58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K58" s="3">
         <v>56100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>503500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1659200</v>
+        <v>2027000</v>
       </c>
       <c r="E59" s="3">
-        <v>1513200</v>
+        <v>1677000</v>
       </c>
       <c r="F59" s="3">
-        <v>1450200</v>
+        <v>1529500</v>
       </c>
       <c r="G59" s="3">
-        <v>1308900</v>
+        <v>1465800</v>
       </c>
       <c r="H59" s="3">
-        <v>1495900</v>
+        <v>1323000</v>
       </c>
       <c r="I59" s="3">
-        <v>928400</v>
+        <v>1512000</v>
       </c>
       <c r="J59" s="3">
+        <v>938300</v>
+      </c>
+      <c r="K59" s="3">
         <v>965900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>950100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2221000</v>
+        <v>2368200</v>
       </c>
       <c r="E60" s="3">
-        <v>1677100</v>
+        <v>2244900</v>
       </c>
       <c r="F60" s="3">
-        <v>1609300</v>
+        <v>1695200</v>
       </c>
       <c r="G60" s="3">
-        <v>1440400</v>
+        <v>1626600</v>
       </c>
       <c r="H60" s="3">
-        <v>1246100</v>
+        <v>1455900</v>
       </c>
       <c r="I60" s="3">
-        <v>975200</v>
+        <v>1259500</v>
       </c>
       <c r="J60" s="3">
+        <v>985700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1019500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1336000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>713700</v>
+        <v>5781600</v>
       </c>
       <c r="E61" s="3">
-        <v>1098000</v>
+        <v>721400</v>
       </c>
       <c r="F61" s="3">
-        <v>1098000</v>
+        <v>1109800</v>
       </c>
       <c r="G61" s="3">
-        <v>1098000</v>
+        <v>1109800</v>
       </c>
       <c r="H61" s="3">
-        <v>384300</v>
+        <v>1109800</v>
       </c>
       <c r="I61" s="3">
-        <v>395300</v>
+        <v>388400</v>
       </c>
       <c r="J61" s="3">
+        <v>399500</v>
+      </c>
+      <c r="K61" s="3">
         <v>42000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>84900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>741500</v>
+        <v>1405700</v>
       </c>
       <c r="E62" s="3">
-        <v>555900</v>
+        <v>749400</v>
       </c>
       <c r="F62" s="3">
-        <v>652900</v>
+        <v>561900</v>
       </c>
       <c r="G62" s="3">
-        <v>562000</v>
+        <v>659900</v>
       </c>
       <c r="H62" s="3">
-        <v>1139800</v>
+        <v>568100</v>
       </c>
       <c r="I62" s="3">
-        <v>580100</v>
+        <v>1152100</v>
       </c>
       <c r="J62" s="3">
+        <v>586400</v>
+      </c>
+      <c r="K62" s="3">
         <v>517900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>267100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3746400</v>
+        <v>9615300</v>
       </c>
       <c r="E66" s="3">
-        <v>3333100</v>
+        <v>3786600</v>
       </c>
       <c r="F66" s="3">
-        <v>3385000</v>
+        <v>3368900</v>
       </c>
       <c r="G66" s="3">
-        <v>3121500</v>
+        <v>3421300</v>
       </c>
       <c r="H66" s="3">
-        <v>2216800</v>
+        <v>3155000</v>
       </c>
       <c r="I66" s="3">
-        <v>1731900</v>
+        <v>2240600</v>
       </c>
       <c r="J66" s="3">
+        <v>1750600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1702700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4395800</v>
+        <v>5164100</v>
       </c>
       <c r="E72" s="3">
-        <v>3929700</v>
+        <v>4443100</v>
       </c>
       <c r="F72" s="3">
-        <v>3484700</v>
+        <v>3972000</v>
       </c>
       <c r="G72" s="3">
-        <v>3071700</v>
+        <v>3522100</v>
       </c>
       <c r="H72" s="3">
-        <v>2733700</v>
+        <v>3104700</v>
       </c>
       <c r="I72" s="3">
-        <v>2543300</v>
+        <v>2763000</v>
       </c>
       <c r="J72" s="3">
+        <v>2570600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2228200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2069500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5009100</v>
+        <v>5780700</v>
       </c>
       <c r="E76" s="3">
-        <v>4385600</v>
+        <v>5062900</v>
       </c>
       <c r="F76" s="3">
-        <v>4238500</v>
+        <v>4432700</v>
       </c>
       <c r="G76" s="3">
-        <v>3808400</v>
+        <v>4284100</v>
       </c>
       <c r="H76" s="3">
-        <v>3231900</v>
+        <v>3849400</v>
       </c>
       <c r="I76" s="3">
-        <v>2866400</v>
+        <v>3266700</v>
       </c>
       <c r="J76" s="3">
+        <v>2897200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2566000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2425300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>625200</v>
+        <v>681500</v>
       </c>
       <c r="E81" s="3">
-        <v>570300</v>
+        <v>630700</v>
       </c>
       <c r="F81" s="3">
-        <v>491000</v>
+        <v>575300</v>
       </c>
       <c r="G81" s="3">
-        <v>441600</v>
+        <v>495300</v>
       </c>
       <c r="H81" s="3">
-        <v>319800</v>
+        <v>445500</v>
       </c>
       <c r="I81" s="3">
-        <v>386800</v>
+        <v>322600</v>
       </c>
       <c r="J81" s="3">
+        <v>390200</v>
+      </c>
+      <c r="K81" s="3">
         <v>367600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>339400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>261000</v>
+        <v>438600</v>
       </c>
       <c r="E83" s="3">
-        <v>239000</v>
+        <v>263300</v>
       </c>
       <c r="F83" s="3">
-        <v>226700</v>
+        <v>241100</v>
       </c>
       <c r="G83" s="3">
-        <v>232100</v>
+        <v>228600</v>
       </c>
       <c r="H83" s="3">
-        <v>193600</v>
+        <v>234100</v>
       </c>
       <c r="I83" s="3">
-        <v>155200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>195300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>986700</v>
+        <v>1313600</v>
       </c>
       <c r="E89" s="3">
-        <v>818000</v>
+        <v>995300</v>
       </c>
       <c r="F89" s="3">
-        <v>682700</v>
+        <v>825200</v>
       </c>
       <c r="G89" s="3">
-        <v>695300</v>
+        <v>688600</v>
       </c>
       <c r="H89" s="3">
-        <v>548400</v>
+        <v>701400</v>
       </c>
       <c r="I89" s="3">
-        <v>556500</v>
+        <v>553200</v>
       </c>
       <c r="J89" s="3">
+        <v>561400</v>
+      </c>
+      <c r="K89" s="3">
         <v>621800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>529200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79500</v>
+        <v>-108900</v>
       </c>
       <c r="E91" s="3">
-        <v>-92800</v>
+        <v>-80200</v>
       </c>
       <c r="F91" s="3">
-        <v>-62200</v>
+        <v>-93600</v>
       </c>
       <c r="G91" s="3">
-        <v>-47800</v>
+        <v>-62800</v>
       </c>
       <c r="H91" s="3">
-        <v>-49800</v>
+        <v>-48300</v>
       </c>
       <c r="I91" s="3">
-        <v>-46500</v>
+        <v>-50300</v>
       </c>
       <c r="J91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-354900</v>
+        <v>-5908800</v>
       </c>
       <c r="E94" s="3">
-        <v>-403400</v>
+        <v>-358000</v>
       </c>
       <c r="F94" s="3">
-        <v>-328200</v>
+        <v>-407000</v>
       </c>
       <c r="G94" s="3">
-        <v>-66500</v>
+        <v>-331100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1098900</v>
+        <v>-67000</v>
       </c>
       <c r="I94" s="3">
-        <v>-185200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1108600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-252200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41700</v>
+        <v>-187000</v>
       </c>
       <c r="E96" s="3">
-        <v>-56300</v>
+        <v>-42100</v>
       </c>
       <c r="F96" s="3">
-        <v>-111900</v>
+        <v>-56800</v>
       </c>
       <c r="G96" s="3">
-        <v>-108100</v>
+        <v>-112900</v>
       </c>
       <c r="H96" s="3">
-        <v>-39300</v>
+        <v>-109000</v>
       </c>
       <c r="I96" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="J96" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-96400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-319300</v>
+        <v>3596900</v>
       </c>
       <c r="E100" s="3">
-        <v>-175000</v>
+        <v>-322100</v>
       </c>
       <c r="F100" s="3">
-        <v>-222200</v>
+        <v>-176600</v>
       </c>
       <c r="G100" s="3">
-        <v>602200</v>
+        <v>-224200</v>
       </c>
       <c r="H100" s="3">
-        <v>-186900</v>
+        <v>607400</v>
       </c>
       <c r="I100" s="3">
-        <v>303300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-188500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>306000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>71700</v>
+        <v>40900</v>
       </c>
       <c r="E101" s="3">
-        <v>-214600</v>
+        <v>72300</v>
       </c>
       <c r="F101" s="3">
-        <v>39200</v>
+        <v>-216500</v>
       </c>
       <c r="G101" s="3">
-        <v>60600</v>
+        <v>39600</v>
       </c>
       <c r="H101" s="3">
-        <v>41700</v>
+        <v>61100</v>
       </c>
       <c r="I101" s="3">
-        <v>-39400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>42100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>384200</v>
+        <v>-957400</v>
       </c>
       <c r="E102" s="3">
-        <v>25000</v>
+        <v>387500</v>
       </c>
       <c r="F102" s="3">
-        <v>171500</v>
+        <v>25200</v>
       </c>
       <c r="G102" s="3">
-        <v>1291600</v>
+        <v>173000</v>
       </c>
       <c r="H102" s="3">
-        <v>-695800</v>
+        <v>1302900</v>
       </c>
       <c r="I102" s="3">
-        <v>635300</v>
+        <v>-701800</v>
       </c>
       <c r="J102" s="3">
+        <v>640800</v>
+      </c>
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>208700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4450600</v>
+        <v>4753100</v>
       </c>
       <c r="E8" s="3">
-        <v>3851600</v>
+        <v>4113400</v>
       </c>
       <c r="F8" s="3">
-        <v>3575300</v>
+        <v>3818400</v>
       </c>
       <c r="G8" s="3">
-        <v>3384400</v>
+        <v>3614500</v>
       </c>
       <c r="H8" s="3">
-        <v>3145000</v>
+        <v>3358800</v>
       </c>
       <c r="I8" s="3">
-        <v>2541100</v>
+        <v>2713900</v>
       </c>
       <c r="J8" s="3">
-        <v>2288400</v>
+        <v>2444000</v>
       </c>
       <c r="K8" s="3">
         <v>2227100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>701800</v>
+        <v>749500</v>
       </c>
       <c r="E9" s="3">
-        <v>565800</v>
+        <v>604200</v>
       </c>
       <c r="F9" s="3">
-        <v>525000</v>
+        <v>560700</v>
       </c>
       <c r="G9" s="3">
-        <v>513500</v>
+        <v>548400</v>
       </c>
       <c r="H9" s="3">
-        <v>485000</v>
+        <v>518000</v>
       </c>
       <c r="I9" s="3">
-        <v>380200</v>
+        <v>406000</v>
       </c>
       <c r="J9" s="3">
-        <v>289500</v>
+        <v>309100</v>
       </c>
       <c r="K9" s="3">
         <v>293200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3748800</v>
+        <v>4003600</v>
       </c>
       <c r="E10" s="3">
-        <v>3285800</v>
+        <v>3509200</v>
       </c>
       <c r="F10" s="3">
-        <v>3050400</v>
+        <v>3257800</v>
       </c>
       <c r="G10" s="3">
-        <v>2870900</v>
+        <v>3066100</v>
       </c>
       <c r="H10" s="3">
-        <v>2659900</v>
+        <v>2840800</v>
       </c>
       <c r="I10" s="3">
-        <v>2161000</v>
+        <v>2307900</v>
       </c>
       <c r="J10" s="3">
-        <v>1999000</v>
+        <v>2134900</v>
       </c>
       <c r="K10" s="3">
         <v>1933900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>817300</v>
+        <v>872900</v>
       </c>
       <c r="E12" s="3">
-        <v>699000</v>
+        <v>746500</v>
       </c>
       <c r="F12" s="3">
-        <v>638600</v>
+        <v>682000</v>
       </c>
       <c r="G12" s="3">
-        <v>598700</v>
+        <v>639400</v>
       </c>
       <c r="H12" s="3">
-        <v>545500</v>
+        <v>582600</v>
       </c>
       <c r="I12" s="3">
-        <v>453700</v>
+        <v>484600</v>
       </c>
       <c r="J12" s="3">
-        <v>415900</v>
+        <v>444200</v>
       </c>
       <c r="K12" s="3">
         <v>404200</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>37700</v>
+        <v>40200</v>
       </c>
       <c r="E14" s="3">
-        <v>42500</v>
+        <v>45400</v>
       </c>
       <c r="F14" s="3">
-        <v>33200</v>
+        <v>35400</v>
       </c>
       <c r="G14" s="3">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="H14" s="3">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="I14" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="J14" s="3">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="K14" s="3">
         <v>11700</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>270300</v>
+        <v>288600</v>
       </c>
       <c r="E15" s="3">
-        <v>190100</v>
+        <v>203000</v>
       </c>
       <c r="F15" s="3">
-        <v>177500</v>
+        <v>189600</v>
       </c>
       <c r="G15" s="3">
-        <v>172600</v>
+        <v>184300</v>
       </c>
       <c r="H15" s="3">
-        <v>176700</v>
+        <v>188700</v>
       </c>
       <c r="I15" s="3">
-        <v>147700</v>
+        <v>157800</v>
       </c>
       <c r="J15" s="3">
-        <v>111800</v>
+        <v>119400</v>
       </c>
       <c r="K15" s="3">
         <v>102900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3550300</v>
+        <v>3791700</v>
       </c>
       <c r="E17" s="3">
-        <v>3000700</v>
+        <v>3204700</v>
       </c>
       <c r="F17" s="3">
-        <v>2767900</v>
+        <v>2956100</v>
       </c>
       <c r="G17" s="3">
-        <v>2640000</v>
+        <v>2819500</v>
       </c>
       <c r="H17" s="3">
-        <v>2443600</v>
+        <v>2609800</v>
       </c>
       <c r="I17" s="3">
-        <v>2064000</v>
+        <v>2204300</v>
       </c>
       <c r="J17" s="3">
-        <v>1731300</v>
+        <v>1849000</v>
       </c>
       <c r="K17" s="3">
         <v>1677100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>900300</v>
+        <v>961500</v>
       </c>
       <c r="E18" s="3">
-        <v>850900</v>
+        <v>908700</v>
       </c>
       <c r="F18" s="3">
-        <v>807400</v>
+        <v>862300</v>
       </c>
       <c r="G18" s="3">
-        <v>744300</v>
+        <v>794900</v>
       </c>
       <c r="H18" s="3">
-        <v>701300</v>
+        <v>749000</v>
       </c>
       <c r="I18" s="3">
-        <v>477200</v>
+        <v>509600</v>
       </c>
       <c r="J18" s="3">
-        <v>557200</v>
+        <v>595000</v>
       </c>
       <c r="K18" s="3">
         <v>550100</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>31300</v>
+        <v>33500</v>
       </c>
       <c r="E20" s="3">
-        <v>34300</v>
+        <v>36700</v>
       </c>
       <c r="F20" s="3">
-        <v>38600</v>
+        <v>41200</v>
       </c>
       <c r="G20" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="I20" s="3">
-        <v>22900</v>
+        <v>24500</v>
       </c>
       <c r="J20" s="3">
-        <v>23300</v>
+        <v>24900</v>
       </c>
       <c r="K20" s="3">
         <v>28400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1367300</v>
+        <v>1463500</v>
       </c>
       <c r="E21" s="3">
-        <v>1146700</v>
+        <v>1226600</v>
       </c>
       <c r="F21" s="3">
-        <v>1085600</v>
+        <v>1161100</v>
       </c>
       <c r="G21" s="3">
-        <v>973900</v>
+        <v>1041800</v>
       </c>
       <c r="H21" s="3">
-        <v>942000</v>
+        <v>1007800</v>
       </c>
       <c r="I21" s="3">
-        <v>694100</v>
+        <v>742700</v>
       </c>
       <c r="J21" s="3">
-        <v>735900</v>
+        <v>787100</v>
       </c>
       <c r="K21" s="3">
         <v>723700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>27900</v>
+        <v>29800</v>
       </c>
       <c r="E22" s="3">
-        <v>17100</v>
+        <v>18200</v>
       </c>
       <c r="F22" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="G22" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="H22" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="J22" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K22" s="3">
         <v>8500</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>903700</v>
+        <v>965100</v>
       </c>
       <c r="E23" s="3">
-        <v>868100</v>
+        <v>927200</v>
       </c>
       <c r="F23" s="3">
-        <v>832300</v>
+        <v>888900</v>
       </c>
       <c r="G23" s="3">
-        <v>732700</v>
+        <v>782500</v>
       </c>
       <c r="H23" s="3">
-        <v>701200</v>
+        <v>748900</v>
       </c>
       <c r="I23" s="3">
-        <v>493700</v>
+        <v>527300</v>
       </c>
       <c r="J23" s="3">
-        <v>577100</v>
+        <v>616300</v>
       </c>
       <c r="K23" s="3">
         <v>569900</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>232200</v>
+        <v>247900</v>
       </c>
       <c r="E24" s="3">
-        <v>244100</v>
+        <v>260700</v>
       </c>
       <c r="F24" s="3">
-        <v>256200</v>
+        <v>273600</v>
       </c>
       <c r="G24" s="3">
-        <v>231800</v>
+        <v>247600</v>
       </c>
       <c r="H24" s="3">
-        <v>251600</v>
+        <v>268700</v>
       </c>
       <c r="I24" s="3">
-        <v>169800</v>
+        <v>181300</v>
       </c>
       <c r="J24" s="3">
-        <v>183700</v>
+        <v>196200</v>
       </c>
       <c r="K24" s="3">
         <v>197900</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>671500</v>
+        <v>717200</v>
       </c>
       <c r="E26" s="3">
-        <v>624000</v>
+        <v>666400</v>
       </c>
       <c r="F26" s="3">
-        <v>576100</v>
+        <v>615300</v>
       </c>
       <c r="G26" s="3">
-        <v>500900</v>
+        <v>534900</v>
       </c>
       <c r="H26" s="3">
-        <v>449600</v>
+        <v>480200</v>
       </c>
       <c r="I26" s="3">
-        <v>323900</v>
+        <v>345900</v>
       </c>
       <c r="J26" s="3">
-        <v>393400</v>
+        <v>420100</v>
       </c>
       <c r="K26" s="3">
         <v>372000</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>681500</v>
+        <v>727800</v>
       </c>
       <c r="E27" s="3">
-        <v>630700</v>
+        <v>673500</v>
       </c>
       <c r="F27" s="3">
-        <v>575300</v>
+        <v>614400</v>
       </c>
       <c r="G27" s="3">
-        <v>495300</v>
+        <v>529000</v>
       </c>
       <c r="H27" s="3">
-        <v>445500</v>
+        <v>475700</v>
       </c>
       <c r="I27" s="3">
-        <v>322600</v>
+        <v>344500</v>
       </c>
       <c r="J27" s="3">
-        <v>390200</v>
+        <v>416700</v>
       </c>
       <c r="K27" s="3">
         <v>367600</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-31300</v>
+        <v>-33500</v>
       </c>
       <c r="E32" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="F32" s="3">
-        <v>-38600</v>
+        <v>-41200</v>
       </c>
       <c r="G32" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8100</v>
+        <v>-8600</v>
       </c>
       <c r="I32" s="3">
-        <v>-22900</v>
+        <v>-24500</v>
       </c>
       <c r="J32" s="3">
-        <v>-23300</v>
+        <v>-24900</v>
       </c>
       <c r="K32" s="3">
         <v>-28400</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>681500</v>
+        <v>727800</v>
       </c>
       <c r="E33" s="3">
-        <v>630700</v>
+        <v>673500</v>
       </c>
       <c r="F33" s="3">
-        <v>575300</v>
+        <v>614400</v>
       </c>
       <c r="G33" s="3">
-        <v>495300</v>
+        <v>529000</v>
       </c>
       <c r="H33" s="3">
-        <v>445500</v>
+        <v>475700</v>
       </c>
       <c r="I33" s="3">
-        <v>322600</v>
+        <v>344500</v>
       </c>
       <c r="J33" s="3">
-        <v>390200</v>
+        <v>416700</v>
       </c>
       <c r="K33" s="3">
         <v>367600</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>681500</v>
+        <v>727800</v>
       </c>
       <c r="E35" s="3">
-        <v>630700</v>
+        <v>673500</v>
       </c>
       <c r="F35" s="3">
-        <v>575300</v>
+        <v>614400</v>
       </c>
       <c r="G35" s="3">
-        <v>495300</v>
+        <v>529000</v>
       </c>
       <c r="H35" s="3">
-        <v>445500</v>
+        <v>475700</v>
       </c>
       <c r="I35" s="3">
-        <v>322600</v>
+        <v>344500</v>
       </c>
       <c r="J35" s="3">
-        <v>390200</v>
+        <v>416700</v>
       </c>
       <c r="K35" s="3">
         <v>367600</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2158500</v>
+        <v>2300600</v>
       </c>
       <c r="E41" s="3">
-        <v>3117800</v>
+        <v>3323100</v>
       </c>
       <c r="F41" s="3">
-        <v>2729500</v>
+        <v>2909300</v>
       </c>
       <c r="G41" s="3">
-        <v>2704300</v>
+        <v>2882400</v>
       </c>
       <c r="H41" s="3">
-        <v>2530900</v>
+        <v>2697600</v>
       </c>
       <c r="I41" s="3">
-        <v>1225400</v>
+        <v>1306200</v>
       </c>
       <c r="J41" s="3">
-        <v>1928700</v>
+        <v>2055700</v>
       </c>
       <c r="K41" s="3">
         <v>1272900</v>
@@ -1691,19 +1691,19 @@
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>62200</v>
+        <v>66300</v>
       </c>
       <c r="H42" s="3">
-        <v>78500</v>
+        <v>83700</v>
       </c>
       <c r="I42" s="3">
-        <v>79100</v>
+        <v>84300</v>
       </c>
       <c r="J42" s="3">
-        <v>73000</v>
+        <v>77800</v>
       </c>
       <c r="K42" s="3">
         <v>175400</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1720300</v>
+        <v>1833600</v>
       </c>
       <c r="E43" s="3">
-        <v>1411400</v>
+        <v>1504400</v>
       </c>
       <c r="F43" s="3">
-        <v>1141000</v>
+        <v>1216200</v>
       </c>
       <c r="G43" s="3">
-        <v>1085400</v>
+        <v>1156900</v>
       </c>
       <c r="H43" s="3">
-        <v>918600</v>
+        <v>979200</v>
       </c>
       <c r="I43" s="3">
-        <v>1519100</v>
+        <v>1619200</v>
       </c>
       <c r="J43" s="3">
-        <v>621800</v>
+        <v>662700</v>
       </c>
       <c r="K43" s="3">
         <v>1208000</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>193100</v>
+        <v>205800</v>
       </c>
       <c r="E45" s="3">
-        <v>133300</v>
+        <v>142100</v>
       </c>
       <c r="F45" s="3">
-        <v>122800</v>
+        <v>130900</v>
       </c>
       <c r="G45" s="3">
-        <v>110600</v>
+        <v>117900</v>
       </c>
       <c r="H45" s="3">
-        <v>69000</v>
+        <v>73500</v>
       </c>
       <c r="I45" s="3">
-        <v>267700</v>
+        <v>285300</v>
       </c>
       <c r="J45" s="3">
-        <v>62300</v>
+        <v>66400</v>
       </c>
       <c r="K45" s="3">
         <v>102600</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4071900</v>
+        <v>4340100</v>
       </c>
       <c r="E46" s="3">
-        <v>4663200</v>
+        <v>4970300</v>
       </c>
       <c r="F46" s="3">
-        <v>3994700</v>
+        <v>4257900</v>
       </c>
       <c r="G46" s="3">
-        <v>3962500</v>
+        <v>4223500</v>
       </c>
       <c r="H46" s="3">
-        <v>3597100</v>
+        <v>3834000</v>
       </c>
       <c r="I46" s="3">
-        <v>2198000</v>
+        <v>2342700</v>
       </c>
       <c r="J46" s="3">
-        <v>2685800</v>
+        <v>2862700</v>
       </c>
       <c r="K46" s="3">
         <v>2120700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>197400</v>
+        <v>210400</v>
       </c>
       <c r="E47" s="3">
-        <v>185600</v>
+        <v>197800</v>
       </c>
       <c r="F47" s="3">
-        <v>175600</v>
+        <v>187200</v>
       </c>
       <c r="G47" s="3">
-        <v>189700</v>
+        <v>202200</v>
       </c>
       <c r="H47" s="3">
-        <v>137500</v>
+        <v>146500</v>
       </c>
       <c r="I47" s="3">
-        <v>77200</v>
+        <v>82200</v>
       </c>
       <c r="J47" s="3">
-        <v>53500</v>
+        <v>57000</v>
       </c>
       <c r="K47" s="3">
         <v>54900</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>998500</v>
+        <v>1064300</v>
       </c>
       <c r="E48" s="3">
-        <v>197800</v>
+        <v>210800</v>
       </c>
       <c r="F48" s="3">
-        <v>187500</v>
+        <v>199900</v>
       </c>
       <c r="G48" s="3">
-        <v>150300</v>
+        <v>160200</v>
       </c>
       <c r="H48" s="3">
-        <v>150200</v>
+        <v>160100</v>
       </c>
       <c r="I48" s="3">
-        <v>303500</v>
+        <v>323400</v>
       </c>
       <c r="J48" s="3">
-        <v>111500</v>
+        <v>118800</v>
       </c>
       <c r="K48" s="3">
         <v>299700</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9896100</v>
+        <v>10547900</v>
       </c>
       <c r="E49" s="3">
-        <v>3620500</v>
+        <v>3859000</v>
       </c>
       <c r="F49" s="3">
-        <v>3318500</v>
+        <v>3537100</v>
       </c>
       <c r="G49" s="3">
-        <v>3247800</v>
+        <v>3461800</v>
       </c>
       <c r="H49" s="3">
-        <v>2982200</v>
+        <v>3178600</v>
       </c>
       <c r="I49" s="3">
-        <v>5971500</v>
+        <v>6364800</v>
       </c>
       <c r="J49" s="3">
-        <v>1699900</v>
+        <v>1811900</v>
       </c>
       <c r="K49" s="3">
         <v>3942000</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>231900</v>
+        <v>247200</v>
       </c>
       <c r="E52" s="3">
-        <v>182600</v>
+        <v>194600</v>
       </c>
       <c r="F52" s="3">
-        <v>125300</v>
+        <v>133600</v>
       </c>
       <c r="G52" s="3">
-        <v>155200</v>
+        <v>165400</v>
       </c>
       <c r="H52" s="3">
-        <v>137500</v>
+        <v>146600</v>
       </c>
       <c r="I52" s="3">
-        <v>268800</v>
+        <v>286600</v>
       </c>
       <c r="J52" s="3">
-        <v>97100</v>
+        <v>103500</v>
       </c>
       <c r="K52" s="3">
         <v>238500</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15395800</v>
+        <v>16409900</v>
       </c>
       <c r="E54" s="3">
-        <v>8849500</v>
+        <v>9432400</v>
       </c>
       <c r="F54" s="3">
-        <v>7801700</v>
+        <v>8315600</v>
       </c>
       <c r="G54" s="3">
-        <v>7705400</v>
+        <v>8213000</v>
       </c>
       <c r="H54" s="3">
-        <v>7004400</v>
+        <v>7465800</v>
       </c>
       <c r="I54" s="3">
-        <v>5507300</v>
+        <v>5870000</v>
       </c>
       <c r="J54" s="3">
-        <v>4647700</v>
+        <v>4953900</v>
       </c>
       <c r="K54" s="3">
         <v>3966400</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>244200</v>
+        <v>260200</v>
       </c>
       <c r="E57" s="3">
-        <v>179500</v>
+        <v>191300</v>
       </c>
       <c r="F57" s="3">
-        <v>165700</v>
+        <v>176600</v>
       </c>
       <c r="G57" s="3">
-        <v>160800</v>
+        <v>171400</v>
       </c>
       <c r="H57" s="3">
-        <v>133000</v>
+        <v>141700</v>
       </c>
       <c r="I57" s="3">
-        <v>144600</v>
+        <v>154200</v>
       </c>
       <c r="J57" s="3">
-        <v>94300</v>
+        <v>100500</v>
       </c>
       <c r="K57" s="3">
         <v>99700</v>
@@ -2177,10 +2177,10 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>97000</v>
+        <v>98200</v>
       </c>
       <c r="E58" s="3">
-        <v>388400</v>
+        <v>414000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>51</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="J58" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="K58" s="3">
         <v>56100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2027000</v>
+        <v>2165800</v>
       </c>
       <c r="E59" s="3">
-        <v>1677000</v>
+        <v>1787500</v>
       </c>
       <c r="F59" s="3">
-        <v>1529500</v>
+        <v>1630200</v>
       </c>
       <c r="G59" s="3">
-        <v>1465800</v>
+        <v>1562400</v>
       </c>
       <c r="H59" s="3">
-        <v>1323000</v>
+        <v>1410100</v>
       </c>
       <c r="I59" s="3">
-        <v>1512000</v>
+        <v>1611500</v>
       </c>
       <c r="J59" s="3">
-        <v>938300</v>
+        <v>1000200</v>
       </c>
       <c r="K59" s="3">
         <v>965900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2368200</v>
+        <v>2524200</v>
       </c>
       <c r="E60" s="3">
-        <v>2244900</v>
+        <v>2392800</v>
       </c>
       <c r="F60" s="3">
-        <v>1695200</v>
+        <v>1806800</v>
       </c>
       <c r="G60" s="3">
-        <v>1626600</v>
+        <v>1733700</v>
       </c>
       <c r="H60" s="3">
-        <v>1455900</v>
+        <v>1551800</v>
       </c>
       <c r="I60" s="3">
-        <v>1259500</v>
+        <v>1342400</v>
       </c>
       <c r="J60" s="3">
-        <v>985700</v>
+        <v>1050600</v>
       </c>
       <c r="K60" s="3">
         <v>1019500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5781600</v>
+        <v>6162400</v>
       </c>
       <c r="E61" s="3">
-        <v>721400</v>
+        <v>768900</v>
       </c>
       <c r="F61" s="3">
-        <v>1109800</v>
+        <v>1182900</v>
       </c>
       <c r="G61" s="3">
-        <v>1109800</v>
+        <v>1182900</v>
       </c>
       <c r="H61" s="3">
-        <v>1109800</v>
+        <v>1182900</v>
       </c>
       <c r="I61" s="3">
-        <v>388400</v>
+        <v>414000</v>
       </c>
       <c r="J61" s="3">
-        <v>399500</v>
+        <v>425900</v>
       </c>
       <c r="K61" s="3">
         <v>42000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1405700</v>
+        <v>1498300</v>
       </c>
       <c r="E62" s="3">
-        <v>749400</v>
+        <v>798800</v>
       </c>
       <c r="F62" s="3">
-        <v>561900</v>
+        <v>598900</v>
       </c>
       <c r="G62" s="3">
-        <v>659900</v>
+        <v>703300</v>
       </c>
       <c r="H62" s="3">
-        <v>568100</v>
+        <v>605500</v>
       </c>
       <c r="I62" s="3">
-        <v>1152100</v>
+        <v>1228000</v>
       </c>
       <c r="J62" s="3">
-        <v>586400</v>
+        <v>625000</v>
       </c>
       <c r="K62" s="3">
         <v>517900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9615300</v>
+        <v>10248600</v>
       </c>
       <c r="E66" s="3">
-        <v>3786600</v>
+        <v>4036100</v>
       </c>
       <c r="F66" s="3">
-        <v>3368900</v>
+        <v>3590800</v>
       </c>
       <c r="G66" s="3">
-        <v>3421300</v>
+        <v>3646700</v>
       </c>
       <c r="H66" s="3">
-        <v>3155000</v>
+        <v>3362900</v>
       </c>
       <c r="I66" s="3">
-        <v>2240600</v>
+        <v>2388200</v>
       </c>
       <c r="J66" s="3">
-        <v>1750600</v>
+        <v>1865900</v>
       </c>
       <c r="K66" s="3">
         <v>1400500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5164100</v>
+        <v>5504300</v>
       </c>
       <c r="E72" s="3">
-        <v>4443100</v>
+        <v>4735700</v>
       </c>
       <c r="F72" s="3">
-        <v>3972000</v>
+        <v>4233600</v>
       </c>
       <c r="G72" s="3">
-        <v>3522100</v>
+        <v>3754100</v>
       </c>
       <c r="H72" s="3">
-        <v>3104700</v>
+        <v>3309200</v>
       </c>
       <c r="I72" s="3">
-        <v>2763000</v>
+        <v>2945000</v>
       </c>
       <c r="J72" s="3">
-        <v>2570600</v>
+        <v>2739900</v>
       </c>
       <c r="K72" s="3">
         <v>2228200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5780700</v>
+        <v>6161500</v>
       </c>
       <c r="E76" s="3">
-        <v>5062900</v>
+        <v>5396400</v>
       </c>
       <c r="F76" s="3">
-        <v>4432700</v>
+        <v>4724700</v>
       </c>
       <c r="G76" s="3">
-        <v>4284100</v>
+        <v>4566300</v>
       </c>
       <c r="H76" s="3">
-        <v>3849400</v>
+        <v>4102900</v>
       </c>
       <c r="I76" s="3">
-        <v>3266700</v>
+        <v>3481800</v>
       </c>
       <c r="J76" s="3">
-        <v>2897200</v>
+        <v>3088000</v>
       </c>
       <c r="K76" s="3">
         <v>2566000</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>681500</v>
+        <v>727800</v>
       </c>
       <c r="E81" s="3">
-        <v>630700</v>
+        <v>673500</v>
       </c>
       <c r="F81" s="3">
-        <v>575300</v>
+        <v>614400</v>
       </c>
       <c r="G81" s="3">
-        <v>495300</v>
+        <v>529000</v>
       </c>
       <c r="H81" s="3">
-        <v>445500</v>
+        <v>475700</v>
       </c>
       <c r="I81" s="3">
-        <v>322600</v>
+        <v>344500</v>
       </c>
       <c r="J81" s="3">
-        <v>390200</v>
+        <v>416700</v>
       </c>
       <c r="K81" s="3">
         <v>367600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>438600</v>
+        <v>468400</v>
       </c>
       <c r="E83" s="3">
-        <v>263300</v>
+        <v>281200</v>
       </c>
       <c r="F83" s="3">
-        <v>241100</v>
+        <v>257500</v>
       </c>
       <c r="G83" s="3">
-        <v>228600</v>
+        <v>244200</v>
       </c>
       <c r="H83" s="3">
-        <v>234100</v>
+        <v>250100</v>
       </c>
       <c r="I83" s="3">
-        <v>195300</v>
+        <v>208600</v>
       </c>
       <c r="J83" s="3">
-        <v>156500</v>
+        <v>167200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1313600</v>
+        <v>1402900</v>
       </c>
       <c r="E89" s="3">
-        <v>995300</v>
+        <v>1063000</v>
       </c>
       <c r="F89" s="3">
-        <v>825200</v>
+        <v>881300</v>
       </c>
       <c r="G89" s="3">
-        <v>688600</v>
+        <v>735500</v>
       </c>
       <c r="H89" s="3">
-        <v>701400</v>
+        <v>749100</v>
       </c>
       <c r="I89" s="3">
-        <v>553200</v>
+        <v>590800</v>
       </c>
       <c r="J89" s="3">
-        <v>561400</v>
+        <v>599500</v>
       </c>
       <c r="K89" s="3">
         <v>621800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108900</v>
+        <v>-116300</v>
       </c>
       <c r="E91" s="3">
-        <v>-80200</v>
+        <v>-85600</v>
       </c>
       <c r="F91" s="3">
-        <v>-93600</v>
+        <v>-100000</v>
       </c>
       <c r="G91" s="3">
-        <v>-62800</v>
+        <v>-67000</v>
       </c>
       <c r="H91" s="3">
-        <v>-48300</v>
+        <v>-51500</v>
       </c>
       <c r="I91" s="3">
-        <v>-50300</v>
+        <v>-53700</v>
       </c>
       <c r="J91" s="3">
-        <v>-47000</v>
+        <v>-50100</v>
       </c>
       <c r="K91" s="3">
         <v>-44600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5908800</v>
+        <v>-6310500</v>
       </c>
       <c r="E94" s="3">
-        <v>-358000</v>
+        <v>-382300</v>
       </c>
       <c r="F94" s="3">
-        <v>-407000</v>
+        <v>-434600</v>
       </c>
       <c r="G94" s="3">
-        <v>-331100</v>
+        <v>-353600</v>
       </c>
       <c r="H94" s="3">
-        <v>-67000</v>
+        <v>-71600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1108600</v>
+        <v>-1183900</v>
       </c>
       <c r="J94" s="3">
-        <v>-186800</v>
+        <v>-199500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-187000</v>
+        <v>-199700</v>
       </c>
       <c r="E96" s="3">
-        <v>-42100</v>
+        <v>-45000</v>
       </c>
       <c r="F96" s="3">
-        <v>-56800</v>
+        <v>-60700</v>
       </c>
       <c r="G96" s="3">
-        <v>-112900</v>
+        <v>-120600</v>
       </c>
       <c r="H96" s="3">
-        <v>-109000</v>
+        <v>-116400</v>
       </c>
       <c r="I96" s="3">
-        <v>-39600</v>
+        <v>-42300</v>
       </c>
       <c r="J96" s="3">
-        <v>-38500</v>
+        <v>-41200</v>
       </c>
       <c r="K96" s="3">
         <v>-96400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3596900</v>
+        <v>3841500</v>
       </c>
       <c r="E100" s="3">
-        <v>-322100</v>
+        <v>-344000</v>
       </c>
       <c r="F100" s="3">
-        <v>-176600</v>
+        <v>-188600</v>
       </c>
       <c r="G100" s="3">
-        <v>-224200</v>
+        <v>-239400</v>
       </c>
       <c r="H100" s="3">
-        <v>607400</v>
+        <v>648700</v>
       </c>
       <c r="I100" s="3">
-        <v>-188500</v>
+        <v>-201300</v>
       </c>
       <c r="J100" s="3">
-        <v>306000</v>
+        <v>326800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40900</v>
+        <v>43600</v>
       </c>
       <c r="E101" s="3">
-        <v>72300</v>
+        <v>77200</v>
       </c>
       <c r="F101" s="3">
-        <v>-216500</v>
+        <v>-231200</v>
       </c>
       <c r="G101" s="3">
-        <v>39600</v>
+        <v>42300</v>
       </c>
       <c r="H101" s="3">
-        <v>61100</v>
+        <v>65300</v>
       </c>
       <c r="I101" s="3">
-        <v>42100</v>
+        <v>44900</v>
       </c>
       <c r="J101" s="3">
-        <v>-39700</v>
+        <v>-42400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-957400</v>
+        <v>-1022500</v>
       </c>
       <c r="E102" s="3">
-        <v>387500</v>
+        <v>413900</v>
       </c>
       <c r="F102" s="3">
-        <v>25200</v>
+        <v>26900</v>
       </c>
       <c r="G102" s="3">
-        <v>173000</v>
+        <v>184700</v>
       </c>
       <c r="H102" s="3">
-        <v>1302900</v>
+        <v>1391500</v>
       </c>
       <c r="I102" s="3">
-        <v>-701800</v>
+        <v>-749500</v>
       </c>
       <c r="J102" s="3">
-        <v>640800</v>
+        <v>684400</v>
       </c>
       <c r="K102" s="3">
         <v>5500</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4753100</v>
+        <v>4806600</v>
       </c>
       <c r="E8" s="3">
-        <v>4113400</v>
+        <v>4159700</v>
       </c>
       <c r="F8" s="3">
-        <v>3818400</v>
+        <v>3861300</v>
       </c>
       <c r="G8" s="3">
-        <v>3614500</v>
+        <v>3655100</v>
       </c>
       <c r="H8" s="3">
-        <v>3358800</v>
+        <v>3396600</v>
       </c>
       <c r="I8" s="3">
-        <v>2713900</v>
+        <v>2744400</v>
       </c>
       <c r="J8" s="3">
-        <v>2444000</v>
+        <v>2471500</v>
       </c>
       <c r="K8" s="3">
         <v>2227100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>749500</v>
+        <v>757900</v>
       </c>
       <c r="E9" s="3">
-        <v>604200</v>
+        <v>611000</v>
       </c>
       <c r="F9" s="3">
-        <v>560700</v>
+        <v>567000</v>
       </c>
       <c r="G9" s="3">
-        <v>548400</v>
+        <v>554600</v>
       </c>
       <c r="H9" s="3">
-        <v>518000</v>
+        <v>523800</v>
       </c>
       <c r="I9" s="3">
-        <v>406000</v>
+        <v>410600</v>
       </c>
       <c r="J9" s="3">
-        <v>309100</v>
+        <v>312600</v>
       </c>
       <c r="K9" s="3">
         <v>293200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4003600</v>
+        <v>4048700</v>
       </c>
       <c r="E10" s="3">
-        <v>3509200</v>
+        <v>3548600</v>
       </c>
       <c r="F10" s="3">
-        <v>3257800</v>
+        <v>3294400</v>
       </c>
       <c r="G10" s="3">
-        <v>3066100</v>
+        <v>3100500</v>
       </c>
       <c r="H10" s="3">
-        <v>2840800</v>
+        <v>2872700</v>
       </c>
       <c r="I10" s="3">
-        <v>2307900</v>
+        <v>2333800</v>
       </c>
       <c r="J10" s="3">
-        <v>2134900</v>
+        <v>2158900</v>
       </c>
       <c r="K10" s="3">
         <v>1933900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>872900</v>
+        <v>882700</v>
       </c>
       <c r="E12" s="3">
-        <v>746500</v>
+        <v>754900</v>
       </c>
       <c r="F12" s="3">
-        <v>682000</v>
+        <v>689700</v>
       </c>
       <c r="G12" s="3">
-        <v>639400</v>
+        <v>646600</v>
       </c>
       <c r="H12" s="3">
-        <v>582600</v>
+        <v>589100</v>
       </c>
       <c r="I12" s="3">
-        <v>484600</v>
+        <v>490000</v>
       </c>
       <c r="J12" s="3">
-        <v>444200</v>
+        <v>449200</v>
       </c>
       <c r="K12" s="3">
         <v>404200</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="E14" s="3">
-        <v>45400</v>
+        <v>45900</v>
       </c>
       <c r="F14" s="3">
-        <v>35400</v>
+        <v>35800</v>
       </c>
       <c r="G14" s="3">
-        <v>48000</v>
+        <v>48600</v>
       </c>
       <c r="H14" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="I14" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="J14" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="K14" s="3">
         <v>11700</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>288600</v>
+        <v>291900</v>
       </c>
       <c r="E15" s="3">
-        <v>203000</v>
+        <v>205300</v>
       </c>
       <c r="F15" s="3">
-        <v>189600</v>
+        <v>191700</v>
       </c>
       <c r="G15" s="3">
-        <v>184300</v>
+        <v>186400</v>
       </c>
       <c r="H15" s="3">
-        <v>188700</v>
+        <v>190900</v>
       </c>
       <c r="I15" s="3">
-        <v>157800</v>
+        <v>159500</v>
       </c>
       <c r="J15" s="3">
-        <v>119400</v>
+        <v>120800</v>
       </c>
       <c r="K15" s="3">
         <v>102900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3791700</v>
+        <v>3834300</v>
       </c>
       <c r="E17" s="3">
-        <v>3204700</v>
+        <v>3240700</v>
       </c>
       <c r="F17" s="3">
-        <v>2956100</v>
+        <v>2989300</v>
       </c>
       <c r="G17" s="3">
-        <v>2819500</v>
+        <v>2851200</v>
       </c>
       <c r="H17" s="3">
-        <v>2609800</v>
+        <v>2639100</v>
       </c>
       <c r="I17" s="3">
-        <v>2204300</v>
+        <v>2229100</v>
       </c>
       <c r="J17" s="3">
-        <v>1849000</v>
+        <v>1869800</v>
       </c>
       <c r="K17" s="3">
         <v>1677100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>961500</v>
+        <v>972300</v>
       </c>
       <c r="E18" s="3">
-        <v>908700</v>
+        <v>918900</v>
       </c>
       <c r="F18" s="3">
-        <v>862300</v>
+        <v>872000</v>
       </c>
       <c r="G18" s="3">
-        <v>794900</v>
+        <v>803900</v>
       </c>
       <c r="H18" s="3">
-        <v>749000</v>
+        <v>757400</v>
       </c>
       <c r="I18" s="3">
-        <v>509600</v>
+        <v>515300</v>
       </c>
       <c r="J18" s="3">
-        <v>595000</v>
+        <v>601700</v>
       </c>
       <c r="K18" s="3">
         <v>550100</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33500</v>
+        <v>33900</v>
       </c>
       <c r="E20" s="3">
-        <v>36700</v>
+        <v>37100</v>
       </c>
       <c r="F20" s="3">
-        <v>41200</v>
+        <v>41700</v>
       </c>
       <c r="G20" s="3">
         <v>2600</v>
       </c>
       <c r="H20" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="J20" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="K20" s="3">
         <v>28400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1463500</v>
+        <v>1477900</v>
       </c>
       <c r="E21" s="3">
-        <v>1226600</v>
+        <v>1239200</v>
       </c>
       <c r="F21" s="3">
-        <v>1161100</v>
+        <v>1173000</v>
       </c>
       <c r="G21" s="3">
-        <v>1041800</v>
+        <v>1052400</v>
       </c>
       <c r="H21" s="3">
-        <v>1007800</v>
+        <v>1018000</v>
       </c>
       <c r="I21" s="3">
-        <v>742700</v>
+        <v>750100</v>
       </c>
       <c r="J21" s="3">
-        <v>787100</v>
+        <v>795200</v>
       </c>
       <c r="K21" s="3">
         <v>723700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>29800</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="F22" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="G22" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="H22" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I22" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K22" s="3">
         <v>8500</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>965100</v>
+        <v>976000</v>
       </c>
       <c r="E23" s="3">
-        <v>927200</v>
+        <v>937600</v>
       </c>
       <c r="F23" s="3">
-        <v>888900</v>
+        <v>898900</v>
       </c>
       <c r="G23" s="3">
-        <v>782500</v>
+        <v>791300</v>
       </c>
       <c r="H23" s="3">
-        <v>748900</v>
+        <v>757300</v>
       </c>
       <c r="I23" s="3">
-        <v>527300</v>
+        <v>533200</v>
       </c>
       <c r="J23" s="3">
-        <v>616300</v>
+        <v>623200</v>
       </c>
       <c r="K23" s="3">
         <v>569900</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>247900</v>
+        <v>250700</v>
       </c>
       <c r="E24" s="3">
-        <v>260700</v>
+        <v>263600</v>
       </c>
       <c r="F24" s="3">
-        <v>273600</v>
+        <v>276700</v>
       </c>
       <c r="G24" s="3">
-        <v>247600</v>
+        <v>250400</v>
       </c>
       <c r="H24" s="3">
-        <v>268700</v>
+        <v>271700</v>
       </c>
       <c r="I24" s="3">
-        <v>181300</v>
+        <v>183400</v>
       </c>
       <c r="J24" s="3">
-        <v>196200</v>
+        <v>198400</v>
       </c>
       <c r="K24" s="3">
         <v>197900</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>717200</v>
+        <v>725300</v>
       </c>
       <c r="E26" s="3">
-        <v>666400</v>
+        <v>673900</v>
       </c>
       <c r="F26" s="3">
-        <v>615300</v>
+        <v>622200</v>
       </c>
       <c r="G26" s="3">
-        <v>534900</v>
+        <v>540900</v>
       </c>
       <c r="H26" s="3">
-        <v>480200</v>
+        <v>485600</v>
       </c>
       <c r="I26" s="3">
-        <v>345900</v>
+        <v>349800</v>
       </c>
       <c r="J26" s="3">
-        <v>420100</v>
+        <v>424900</v>
       </c>
       <c r="K26" s="3">
         <v>372000</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>727800</v>
+        <v>736000</v>
       </c>
       <c r="E27" s="3">
-        <v>673500</v>
+        <v>681100</v>
       </c>
       <c r="F27" s="3">
-        <v>614400</v>
+        <v>621300</v>
       </c>
       <c r="G27" s="3">
-        <v>529000</v>
+        <v>534900</v>
       </c>
       <c r="H27" s="3">
-        <v>475700</v>
+        <v>481100</v>
       </c>
       <c r="I27" s="3">
-        <v>344500</v>
+        <v>348400</v>
       </c>
       <c r="J27" s="3">
-        <v>416700</v>
+        <v>421400</v>
       </c>
       <c r="K27" s="3">
         <v>367600</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-33500</v>
+        <v>-33900</v>
       </c>
       <c r="E32" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="F32" s="3">
-        <v>-41200</v>
+        <v>-41700</v>
       </c>
       <c r="G32" s="3">
         <v>-2600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
-        <v>-24500</v>
+        <v>-24700</v>
       </c>
       <c r="J32" s="3">
-        <v>-24900</v>
+        <v>-25100</v>
       </c>
       <c r="K32" s="3">
         <v>-28400</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>727800</v>
+        <v>736000</v>
       </c>
       <c r="E33" s="3">
-        <v>673500</v>
+        <v>681100</v>
       </c>
       <c r="F33" s="3">
-        <v>614400</v>
+        <v>621300</v>
       </c>
       <c r="G33" s="3">
-        <v>529000</v>
+        <v>534900</v>
       </c>
       <c r="H33" s="3">
-        <v>475700</v>
+        <v>481100</v>
       </c>
       <c r="I33" s="3">
-        <v>344500</v>
+        <v>348400</v>
       </c>
       <c r="J33" s="3">
-        <v>416700</v>
+        <v>421400</v>
       </c>
       <c r="K33" s="3">
         <v>367600</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>727800</v>
+        <v>736000</v>
       </c>
       <c r="E35" s="3">
-        <v>673500</v>
+        <v>681100</v>
       </c>
       <c r="F35" s="3">
-        <v>614400</v>
+        <v>621300</v>
       </c>
       <c r="G35" s="3">
-        <v>529000</v>
+        <v>534900</v>
       </c>
       <c r="H35" s="3">
-        <v>475700</v>
+        <v>481100</v>
       </c>
       <c r="I35" s="3">
-        <v>344500</v>
+        <v>348400</v>
       </c>
       <c r="J35" s="3">
-        <v>416700</v>
+        <v>421400</v>
       </c>
       <c r="K35" s="3">
         <v>367600</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2300600</v>
+        <v>2326500</v>
       </c>
       <c r="E41" s="3">
-        <v>3323100</v>
+        <v>3360500</v>
       </c>
       <c r="F41" s="3">
-        <v>2909300</v>
+        <v>2942000</v>
       </c>
       <c r="G41" s="3">
-        <v>2882400</v>
+        <v>2914800</v>
       </c>
       <c r="H41" s="3">
-        <v>2697600</v>
+        <v>2728000</v>
       </c>
       <c r="I41" s="3">
-        <v>1306200</v>
+        <v>1320900</v>
       </c>
       <c r="J41" s="3">
-        <v>2055700</v>
+        <v>2078800</v>
       </c>
       <c r="K41" s="3">
         <v>1272900</v>
@@ -1694,16 +1694,16 @@
         <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>66300</v>
+        <v>67100</v>
       </c>
       <c r="H42" s="3">
-        <v>83700</v>
+        <v>84600</v>
       </c>
       <c r="I42" s="3">
-        <v>84300</v>
+        <v>85300</v>
       </c>
       <c r="J42" s="3">
-        <v>77800</v>
+        <v>78700</v>
       </c>
       <c r="K42" s="3">
         <v>175400</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1833600</v>
+        <v>1854200</v>
       </c>
       <c r="E43" s="3">
-        <v>1504400</v>
+        <v>1521300</v>
       </c>
       <c r="F43" s="3">
-        <v>1216200</v>
+        <v>1229900</v>
       </c>
       <c r="G43" s="3">
-        <v>1156900</v>
+        <v>1169900</v>
       </c>
       <c r="H43" s="3">
-        <v>979200</v>
+        <v>990200</v>
       </c>
       <c r="I43" s="3">
-        <v>1619200</v>
+        <v>1637400</v>
       </c>
       <c r="J43" s="3">
-        <v>662700</v>
+        <v>670200</v>
       </c>
       <c r="K43" s="3">
         <v>1208000</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="E45" s="3">
-        <v>142100</v>
+        <v>143700</v>
       </c>
       <c r="F45" s="3">
-        <v>130900</v>
+        <v>132400</v>
       </c>
       <c r="G45" s="3">
-        <v>117900</v>
+        <v>119200</v>
       </c>
       <c r="H45" s="3">
-        <v>73500</v>
+        <v>74300</v>
       </c>
       <c r="I45" s="3">
-        <v>285300</v>
+        <v>288500</v>
       </c>
       <c r="J45" s="3">
-        <v>66400</v>
+        <v>67100</v>
       </c>
       <c r="K45" s="3">
         <v>102600</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4340100</v>
+        <v>4388900</v>
       </c>
       <c r="E46" s="3">
-        <v>4970300</v>
+        <v>5026200</v>
       </c>
       <c r="F46" s="3">
-        <v>4257900</v>
+        <v>4305700</v>
       </c>
       <c r="G46" s="3">
-        <v>4223500</v>
+        <v>4271000</v>
       </c>
       <c r="H46" s="3">
-        <v>3834000</v>
+        <v>3877100</v>
       </c>
       <c r="I46" s="3">
-        <v>2342700</v>
+        <v>2369100</v>
       </c>
       <c r="J46" s="3">
-        <v>2862700</v>
+        <v>2894800</v>
       </c>
       <c r="K46" s="3">
         <v>2120700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>210400</v>
+        <v>212800</v>
       </c>
       <c r="E47" s="3">
-        <v>197800</v>
+        <v>200000</v>
       </c>
       <c r="F47" s="3">
-        <v>187200</v>
+        <v>189300</v>
       </c>
       <c r="G47" s="3">
-        <v>202200</v>
+        <v>204400</v>
       </c>
       <c r="H47" s="3">
-        <v>146500</v>
+        <v>148200</v>
       </c>
       <c r="I47" s="3">
-        <v>82200</v>
+        <v>83200</v>
       </c>
       <c r="J47" s="3">
-        <v>57000</v>
+        <v>57700</v>
       </c>
       <c r="K47" s="3">
         <v>54900</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1064300</v>
+        <v>1076200</v>
       </c>
       <c r="E48" s="3">
-        <v>210800</v>
+        <v>213200</v>
       </c>
       <c r="F48" s="3">
-        <v>199900</v>
+        <v>202100</v>
       </c>
       <c r="G48" s="3">
-        <v>160200</v>
+        <v>162000</v>
       </c>
       <c r="H48" s="3">
-        <v>160100</v>
+        <v>161900</v>
       </c>
       <c r="I48" s="3">
-        <v>323400</v>
+        <v>327100</v>
       </c>
       <c r="J48" s="3">
-        <v>118800</v>
+        <v>120200</v>
       </c>
       <c r="K48" s="3">
         <v>299700</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10547900</v>
+        <v>10666500</v>
       </c>
       <c r="E49" s="3">
-        <v>3859000</v>
+        <v>3902400</v>
       </c>
       <c r="F49" s="3">
-        <v>3537100</v>
+        <v>3576800</v>
       </c>
       <c r="G49" s="3">
-        <v>3461800</v>
+        <v>3500700</v>
       </c>
       <c r="H49" s="3">
-        <v>3178600</v>
+        <v>3214400</v>
       </c>
       <c r="I49" s="3">
-        <v>6364800</v>
+        <v>6436400</v>
       </c>
       <c r="J49" s="3">
-        <v>1811900</v>
+        <v>1832300</v>
       </c>
       <c r="K49" s="3">
         <v>3942000</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>247200</v>
+        <v>250000</v>
       </c>
       <c r="E52" s="3">
-        <v>194600</v>
+        <v>196800</v>
       </c>
       <c r="F52" s="3">
-        <v>133600</v>
+        <v>135100</v>
       </c>
       <c r="G52" s="3">
-        <v>165400</v>
+        <v>167200</v>
       </c>
       <c r="H52" s="3">
-        <v>146600</v>
+        <v>148200</v>
       </c>
       <c r="I52" s="3">
-        <v>286600</v>
+        <v>289800</v>
       </c>
       <c r="J52" s="3">
-        <v>103500</v>
+        <v>104600</v>
       </c>
       <c r="K52" s="3">
         <v>238500</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16409900</v>
+        <v>16594400</v>
       </c>
       <c r="E54" s="3">
-        <v>9432400</v>
+        <v>9538500</v>
       </c>
       <c r="F54" s="3">
-        <v>8315600</v>
+        <v>8409100</v>
       </c>
       <c r="G54" s="3">
-        <v>8213000</v>
+        <v>8305300</v>
       </c>
       <c r="H54" s="3">
-        <v>7465800</v>
+        <v>7549700</v>
       </c>
       <c r="I54" s="3">
-        <v>5870000</v>
+        <v>5936000</v>
       </c>
       <c r="J54" s="3">
-        <v>4953900</v>
+        <v>5009600</v>
       </c>
       <c r="K54" s="3">
         <v>3966400</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>260200</v>
+        <v>263200</v>
       </c>
       <c r="E57" s="3">
-        <v>191300</v>
+        <v>193400</v>
       </c>
       <c r="F57" s="3">
-        <v>176600</v>
+        <v>178600</v>
       </c>
       <c r="G57" s="3">
-        <v>171400</v>
+        <v>173300</v>
       </c>
       <c r="H57" s="3">
-        <v>141700</v>
+        <v>143300</v>
       </c>
       <c r="I57" s="3">
-        <v>154200</v>
+        <v>155900</v>
       </c>
       <c r="J57" s="3">
-        <v>100500</v>
+        <v>101600</v>
       </c>
       <c r="K57" s="3">
         <v>99700</v>
@@ -2177,10 +2177,10 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>98200</v>
+        <v>99300</v>
       </c>
       <c r="E58" s="3">
-        <v>414000</v>
+        <v>418700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>51</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="J58" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="K58" s="3">
         <v>56100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2165800</v>
+        <v>2190100</v>
       </c>
       <c r="E59" s="3">
-        <v>1787500</v>
+        <v>1807600</v>
       </c>
       <c r="F59" s="3">
-        <v>1630200</v>
+        <v>1648500</v>
       </c>
       <c r="G59" s="3">
-        <v>1562400</v>
+        <v>1579900</v>
       </c>
       <c r="H59" s="3">
-        <v>1410100</v>
+        <v>1425900</v>
       </c>
       <c r="I59" s="3">
-        <v>1611500</v>
+        <v>1629700</v>
       </c>
       <c r="J59" s="3">
-        <v>1000200</v>
+        <v>1011400</v>
       </c>
       <c r="K59" s="3">
         <v>965900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2524200</v>
+        <v>2552600</v>
       </c>
       <c r="E60" s="3">
-        <v>2392800</v>
+        <v>2419700</v>
       </c>
       <c r="F60" s="3">
-        <v>1806800</v>
+        <v>1827100</v>
       </c>
       <c r="G60" s="3">
-        <v>1733700</v>
+        <v>1753200</v>
       </c>
       <c r="H60" s="3">
-        <v>1551800</v>
+        <v>1569300</v>
       </c>
       <c r="I60" s="3">
-        <v>1342400</v>
+        <v>1357500</v>
       </c>
       <c r="J60" s="3">
-        <v>1050600</v>
+        <v>1062500</v>
       </c>
       <c r="K60" s="3">
         <v>1019500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6162400</v>
+        <v>6231700</v>
       </c>
       <c r="E61" s="3">
-        <v>768900</v>
+        <v>777500</v>
       </c>
       <c r="F61" s="3">
-        <v>1182900</v>
+        <v>1196200</v>
       </c>
       <c r="G61" s="3">
-        <v>1182900</v>
+        <v>1196200</v>
       </c>
       <c r="H61" s="3">
-        <v>1182900</v>
+        <v>1196200</v>
       </c>
       <c r="I61" s="3">
-        <v>414000</v>
+        <v>418700</v>
       </c>
       <c r="J61" s="3">
-        <v>425900</v>
+        <v>430700</v>
       </c>
       <c r="K61" s="3">
         <v>42000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1498300</v>
+        <v>1515100</v>
       </c>
       <c r="E62" s="3">
-        <v>798800</v>
+        <v>807800</v>
       </c>
       <c r="F62" s="3">
-        <v>598900</v>
+        <v>605600</v>
       </c>
       <c r="G62" s="3">
-        <v>703300</v>
+        <v>711300</v>
       </c>
       <c r="H62" s="3">
-        <v>605500</v>
+        <v>612300</v>
       </c>
       <c r="I62" s="3">
-        <v>1228000</v>
+        <v>1241800</v>
       </c>
       <c r="J62" s="3">
-        <v>625000</v>
+        <v>632000</v>
       </c>
       <c r="K62" s="3">
         <v>517900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10248600</v>
+        <v>10363900</v>
       </c>
       <c r="E66" s="3">
-        <v>4036100</v>
+        <v>4081400</v>
       </c>
       <c r="F66" s="3">
-        <v>3590800</v>
+        <v>3631200</v>
       </c>
       <c r="G66" s="3">
-        <v>3646700</v>
+        <v>3687700</v>
       </c>
       <c r="H66" s="3">
-        <v>3362900</v>
+        <v>3400700</v>
       </c>
       <c r="I66" s="3">
-        <v>2388200</v>
+        <v>2415000</v>
       </c>
       <c r="J66" s="3">
-        <v>1865900</v>
+        <v>1886800</v>
       </c>
       <c r="K66" s="3">
         <v>1400500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5504300</v>
+        <v>5566200</v>
       </c>
       <c r="E72" s="3">
-        <v>4735700</v>
+        <v>4789000</v>
       </c>
       <c r="F72" s="3">
-        <v>4233600</v>
+        <v>4281200</v>
       </c>
       <c r="G72" s="3">
-        <v>3754100</v>
+        <v>3796300</v>
       </c>
       <c r="H72" s="3">
-        <v>3309200</v>
+        <v>3346400</v>
       </c>
       <c r="I72" s="3">
-        <v>2945000</v>
+        <v>2978100</v>
       </c>
       <c r="J72" s="3">
-        <v>2739900</v>
+        <v>2770700</v>
       </c>
       <c r="K72" s="3">
         <v>2228200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6161500</v>
+        <v>6230800</v>
       </c>
       <c r="E76" s="3">
-        <v>5396400</v>
+        <v>5457100</v>
       </c>
       <c r="F76" s="3">
-        <v>4724700</v>
+        <v>4777800</v>
       </c>
       <c r="G76" s="3">
-        <v>4566300</v>
+        <v>4617600</v>
       </c>
       <c r="H76" s="3">
-        <v>4102900</v>
+        <v>4149100</v>
       </c>
       <c r="I76" s="3">
-        <v>3481800</v>
+        <v>3521000</v>
       </c>
       <c r="J76" s="3">
-        <v>3088000</v>
+        <v>3122700</v>
       </c>
       <c r="K76" s="3">
         <v>2566000</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>727800</v>
+        <v>736000</v>
       </c>
       <c r="E81" s="3">
-        <v>673500</v>
+        <v>681100</v>
       </c>
       <c r="F81" s="3">
-        <v>614400</v>
+        <v>621300</v>
       </c>
       <c r="G81" s="3">
-        <v>529000</v>
+        <v>534900</v>
       </c>
       <c r="H81" s="3">
-        <v>475700</v>
+        <v>481100</v>
       </c>
       <c r="I81" s="3">
-        <v>344500</v>
+        <v>348400</v>
       </c>
       <c r="J81" s="3">
-        <v>416700</v>
+        <v>421400</v>
       </c>
       <c r="K81" s="3">
         <v>367600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>468400</v>
+        <v>473700</v>
       </c>
       <c r="E83" s="3">
-        <v>281200</v>
+        <v>284300</v>
       </c>
       <c r="F83" s="3">
-        <v>257500</v>
+        <v>260400</v>
       </c>
       <c r="G83" s="3">
-        <v>244200</v>
+        <v>246900</v>
       </c>
       <c r="H83" s="3">
-        <v>250100</v>
+        <v>252900</v>
       </c>
       <c r="I83" s="3">
-        <v>208600</v>
+        <v>210900</v>
       </c>
       <c r="J83" s="3">
-        <v>167200</v>
+        <v>169100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1402900</v>
+        <v>1418700</v>
       </c>
       <c r="E89" s="3">
-        <v>1063000</v>
+        <v>1074900</v>
       </c>
       <c r="F89" s="3">
-        <v>881300</v>
+        <v>891200</v>
       </c>
       <c r="G89" s="3">
-        <v>735500</v>
+        <v>743700</v>
       </c>
       <c r="H89" s="3">
-        <v>749100</v>
+        <v>757500</v>
       </c>
       <c r="I89" s="3">
-        <v>590800</v>
+        <v>597400</v>
       </c>
       <c r="J89" s="3">
-        <v>599500</v>
+        <v>606300</v>
       </c>
       <c r="K89" s="3">
         <v>621800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-116300</v>
+        <v>-117600</v>
       </c>
       <c r="E91" s="3">
-        <v>-85600</v>
+        <v>-86600</v>
       </c>
       <c r="F91" s="3">
-        <v>-100000</v>
+        <v>-101100</v>
       </c>
       <c r="G91" s="3">
-        <v>-67000</v>
+        <v>-67800</v>
       </c>
       <c r="H91" s="3">
-        <v>-51500</v>
+        <v>-52100</v>
       </c>
       <c r="I91" s="3">
-        <v>-53700</v>
+        <v>-54300</v>
       </c>
       <c r="J91" s="3">
-        <v>-50100</v>
+        <v>-50700</v>
       </c>
       <c r="K91" s="3">
         <v>-44600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6310500</v>
+        <v>-6381500</v>
       </c>
       <c r="E94" s="3">
-        <v>-382300</v>
+        <v>-386600</v>
       </c>
       <c r="F94" s="3">
-        <v>-434600</v>
+        <v>-439500</v>
       </c>
       <c r="G94" s="3">
-        <v>-353600</v>
+        <v>-357600</v>
       </c>
       <c r="H94" s="3">
-        <v>-71600</v>
+        <v>-72400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1183900</v>
+        <v>-1197200</v>
       </c>
       <c r="J94" s="3">
-        <v>-199500</v>
+        <v>-201700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199700</v>
+        <v>-201900</v>
       </c>
       <c r="E96" s="3">
-        <v>-45000</v>
+        <v>-45500</v>
       </c>
       <c r="F96" s="3">
-        <v>-60700</v>
+        <v>-61300</v>
       </c>
       <c r="G96" s="3">
-        <v>-120600</v>
+        <v>-121900</v>
       </c>
       <c r="H96" s="3">
-        <v>-116400</v>
+        <v>-117700</v>
       </c>
       <c r="I96" s="3">
-        <v>-42300</v>
+        <v>-42800</v>
       </c>
       <c r="J96" s="3">
-        <v>-41200</v>
+        <v>-41600</v>
       </c>
       <c r="K96" s="3">
         <v>-96400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3841500</v>
+        <v>3884700</v>
       </c>
       <c r="E100" s="3">
-        <v>-344000</v>
+        <v>-347900</v>
       </c>
       <c r="F100" s="3">
-        <v>-188600</v>
+        <v>-190700</v>
       </c>
       <c r="G100" s="3">
-        <v>-239400</v>
+        <v>-242100</v>
       </c>
       <c r="H100" s="3">
-        <v>648700</v>
+        <v>656000</v>
       </c>
       <c r="I100" s="3">
-        <v>-201300</v>
+        <v>-203600</v>
       </c>
       <c r="J100" s="3">
-        <v>326800</v>
+        <v>330400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43600</v>
+        <v>44100</v>
       </c>
       <c r="E101" s="3">
-        <v>77200</v>
+        <v>78100</v>
       </c>
       <c r="F101" s="3">
-        <v>-231200</v>
+        <v>-233800</v>
       </c>
       <c r="G101" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="H101" s="3">
-        <v>65300</v>
+        <v>66000</v>
       </c>
       <c r="I101" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="J101" s="3">
-        <v>-42400</v>
+        <v>-42900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1022500</v>
+        <v>-1034000</v>
       </c>
       <c r="E102" s="3">
-        <v>413900</v>
+        <v>418600</v>
       </c>
       <c r="F102" s="3">
-        <v>26900</v>
+        <v>27200</v>
       </c>
       <c r="G102" s="3">
-        <v>184700</v>
+        <v>186800</v>
       </c>
       <c r="H102" s="3">
-        <v>1391500</v>
+        <v>1407100</v>
       </c>
       <c r="I102" s="3">
-        <v>-749500</v>
+        <v>-758000</v>
       </c>
       <c r="J102" s="3">
-        <v>684400</v>
+        <v>692100</v>
       </c>
       <c r="K102" s="3">
         <v>5500</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>DASTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4806600</v>
+        <v>5237600</v>
       </c>
       <c r="E8" s="3">
-        <v>4159700</v>
+        <v>4727000</v>
       </c>
       <c r="F8" s="3">
-        <v>3861300</v>
+        <v>4090800</v>
       </c>
       <c r="G8" s="3">
-        <v>3655100</v>
+        <v>3797400</v>
       </c>
       <c r="H8" s="3">
-        <v>3396600</v>
+        <v>3594600</v>
       </c>
       <c r="I8" s="3">
-        <v>2744400</v>
+        <v>3340300</v>
       </c>
       <c r="J8" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2471500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2227100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2093000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>757900</v>
+        <v>881800</v>
       </c>
       <c r="E9" s="3">
-        <v>611000</v>
+        <v>745400</v>
       </c>
       <c r="F9" s="3">
-        <v>567000</v>
+        <v>600900</v>
       </c>
       <c r="G9" s="3">
-        <v>554600</v>
+        <v>557600</v>
       </c>
       <c r="H9" s="3">
-        <v>523800</v>
+        <v>545400</v>
       </c>
       <c r="I9" s="3">
-        <v>410600</v>
+        <v>515200</v>
       </c>
       <c r="J9" s="3">
+        <v>403800</v>
+      </c>
+      <c r="K9" s="3">
         <v>312600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>293200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>292800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4048700</v>
+        <v>4355700</v>
       </c>
       <c r="E10" s="3">
-        <v>3548600</v>
+        <v>3981600</v>
       </c>
       <c r="F10" s="3">
-        <v>3294400</v>
+        <v>3489900</v>
       </c>
       <c r="G10" s="3">
-        <v>3100500</v>
+        <v>3239800</v>
       </c>
       <c r="H10" s="3">
-        <v>2872700</v>
+        <v>3049200</v>
       </c>
       <c r="I10" s="3">
-        <v>2333800</v>
+        <v>2825200</v>
       </c>
       <c r="J10" s="3">
+        <v>2295200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2158900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1933900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>882700</v>
+        <v>89100</v>
       </c>
       <c r="E12" s="3">
-        <v>754900</v>
+        <v>81800</v>
       </c>
       <c r="F12" s="3">
-        <v>689700</v>
+        <v>742400</v>
       </c>
       <c r="G12" s="3">
-        <v>646600</v>
+        <v>678300</v>
       </c>
       <c r="H12" s="3">
-        <v>589100</v>
+        <v>635900</v>
       </c>
       <c r="I12" s="3">
-        <v>490000</v>
+        <v>579400</v>
       </c>
       <c r="J12" s="3">
+        <v>481900</v>
+      </c>
+      <c r="K12" s="3">
         <v>449200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>404200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>386500</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40700</v>
+        <v>65800</v>
       </c>
       <c r="E14" s="3">
-        <v>45900</v>
+        <v>40000</v>
       </c>
       <c r="F14" s="3">
-        <v>35800</v>
+        <v>45200</v>
       </c>
       <c r="G14" s="3">
-        <v>48600</v>
+        <v>35200</v>
       </c>
       <c r="H14" s="3">
-        <v>14600</v>
+        <v>47800</v>
       </c>
       <c r="I14" s="3">
-        <v>44300</v>
+        <v>14300</v>
       </c>
       <c r="J14" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K14" s="3">
         <v>14700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>291900</v>
+        <v>464100</v>
       </c>
       <c r="E15" s="3">
-        <v>205300</v>
+        <v>287000</v>
       </c>
       <c r="F15" s="3">
-        <v>191700</v>
+        <v>201900</v>
       </c>
       <c r="G15" s="3">
-        <v>186400</v>
+        <v>188600</v>
       </c>
       <c r="H15" s="3">
-        <v>190900</v>
+        <v>183300</v>
       </c>
       <c r="I15" s="3">
-        <v>159500</v>
+        <v>187700</v>
       </c>
       <c r="J15" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K15" s="3">
         <v>120800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>102900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>98200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3834300</v>
+        <v>4449700</v>
       </c>
       <c r="E17" s="3">
-        <v>3240700</v>
+        <v>3770800</v>
       </c>
       <c r="F17" s="3">
-        <v>2989300</v>
+        <v>3187100</v>
       </c>
       <c r="G17" s="3">
-        <v>2851200</v>
+        <v>2939800</v>
       </c>
       <c r="H17" s="3">
-        <v>2639100</v>
+        <v>2804000</v>
       </c>
       <c r="I17" s="3">
-        <v>2229100</v>
+        <v>2595400</v>
       </c>
       <c r="J17" s="3">
+        <v>2192200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1869800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1677100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1590700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>972300</v>
+        <v>787800</v>
       </c>
       <c r="E18" s="3">
-        <v>918900</v>
+        <v>956200</v>
       </c>
       <c r="F18" s="3">
-        <v>872000</v>
+        <v>903700</v>
       </c>
       <c r="G18" s="3">
-        <v>803900</v>
+        <v>857600</v>
       </c>
       <c r="H18" s="3">
-        <v>757400</v>
+        <v>790600</v>
       </c>
       <c r="I18" s="3">
-        <v>515300</v>
+        <v>744900</v>
       </c>
       <c r="J18" s="3">
+        <v>506800</v>
+      </c>
+      <c r="K18" s="3">
         <v>601700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>550100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>502300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33900</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
-        <v>37100</v>
+        <v>33300</v>
       </c>
       <c r="F20" s="3">
-        <v>41700</v>
+        <v>36500</v>
       </c>
       <c r="G20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>8700</v>
-      </c>
       <c r="I20" s="3">
-        <v>24700</v>
+        <v>8600</v>
       </c>
       <c r="J20" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K20" s="3">
         <v>25100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1477900</v>
+        <v>1518100</v>
       </c>
       <c r="E21" s="3">
-        <v>1239200</v>
+        <v>1457200</v>
       </c>
       <c r="F21" s="3">
-        <v>1173000</v>
+        <v>1221000</v>
       </c>
       <c r="G21" s="3">
-        <v>1052400</v>
+        <v>1155700</v>
       </c>
       <c r="H21" s="3">
-        <v>1018000</v>
+        <v>1037000</v>
       </c>
       <c r="I21" s="3">
-        <v>750100</v>
+        <v>1003200</v>
       </c>
       <c r="J21" s="3">
+        <v>739400</v>
+      </c>
+      <c r="K21" s="3">
         <v>795200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>723700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>644800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>43800</v>
       </c>
       <c r="E22" s="3">
-        <v>18400</v>
+        <v>29600</v>
       </c>
       <c r="F22" s="3">
-        <v>14900</v>
+        <v>18100</v>
       </c>
       <c r="G22" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="H22" s="3">
-        <v>8900</v>
+        <v>15000</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="J22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>976000</v>
+        <v>760300</v>
       </c>
       <c r="E23" s="3">
-        <v>937600</v>
+        <v>959800</v>
       </c>
       <c r="F23" s="3">
-        <v>898900</v>
+        <v>922100</v>
       </c>
       <c r="G23" s="3">
-        <v>791300</v>
+        <v>884000</v>
       </c>
       <c r="H23" s="3">
-        <v>757300</v>
+        <v>778200</v>
       </c>
       <c r="I23" s="3">
-        <v>533200</v>
+        <v>744800</v>
       </c>
       <c r="J23" s="3">
+        <v>524400</v>
+      </c>
+      <c r="K23" s="3">
         <v>623200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>569900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>503600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>250700</v>
+        <v>189200</v>
       </c>
       <c r="E24" s="3">
-        <v>263600</v>
+        <v>246600</v>
       </c>
       <c r="F24" s="3">
-        <v>276700</v>
+        <v>259300</v>
       </c>
       <c r="G24" s="3">
-        <v>250400</v>
+        <v>272100</v>
       </c>
       <c r="H24" s="3">
-        <v>271700</v>
+        <v>246200</v>
       </c>
       <c r="I24" s="3">
-        <v>183400</v>
+        <v>267200</v>
       </c>
       <c r="J24" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K24" s="3">
         <v>198400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>197900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>162600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>725300</v>
+        <v>571100</v>
       </c>
       <c r="E26" s="3">
-        <v>673900</v>
+        <v>713300</v>
       </c>
       <c r="F26" s="3">
-        <v>622200</v>
+        <v>662800</v>
       </c>
       <c r="G26" s="3">
-        <v>540900</v>
+        <v>611900</v>
       </c>
       <c r="H26" s="3">
-        <v>485600</v>
+        <v>532000</v>
       </c>
       <c r="I26" s="3">
-        <v>349800</v>
+        <v>477600</v>
       </c>
       <c r="J26" s="3">
+        <v>344000</v>
+      </c>
+      <c r="K26" s="3">
         <v>424900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>372000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>341000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>736000</v>
+        <v>577600</v>
       </c>
       <c r="E27" s="3">
-        <v>681100</v>
+        <v>723800</v>
       </c>
       <c r="F27" s="3">
-        <v>621300</v>
+        <v>669800</v>
       </c>
       <c r="G27" s="3">
-        <v>534900</v>
+        <v>611000</v>
       </c>
       <c r="H27" s="3">
-        <v>481100</v>
+        <v>526100</v>
       </c>
       <c r="I27" s="3">
-        <v>348400</v>
+        <v>473100</v>
       </c>
       <c r="J27" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K27" s="3">
         <v>421400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>367600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>339400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-33900</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
-        <v>-37100</v>
+        <v>-33300</v>
       </c>
       <c r="F32" s="3">
-        <v>-41700</v>
+        <v>-36500</v>
       </c>
       <c r="G32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8700</v>
-      </c>
       <c r="I32" s="3">
-        <v>-24700</v>
+        <v>-8600</v>
       </c>
       <c r="J32" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>736000</v>
+        <v>577600</v>
       </c>
       <c r="E33" s="3">
-        <v>681100</v>
+        <v>723800</v>
       </c>
       <c r="F33" s="3">
-        <v>621300</v>
+        <v>669800</v>
       </c>
       <c r="G33" s="3">
-        <v>534900</v>
+        <v>611000</v>
       </c>
       <c r="H33" s="3">
-        <v>481100</v>
+        <v>526100</v>
       </c>
       <c r="I33" s="3">
-        <v>348400</v>
+        <v>473100</v>
       </c>
       <c r="J33" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K33" s="3">
         <v>421400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>367600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>339400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>736000</v>
+        <v>577600</v>
       </c>
       <c r="E35" s="3">
-        <v>681100</v>
+        <v>723800</v>
       </c>
       <c r="F35" s="3">
-        <v>621300</v>
+        <v>669800</v>
       </c>
       <c r="G35" s="3">
-        <v>534900</v>
+        <v>611000</v>
       </c>
       <c r="H35" s="3">
-        <v>481100</v>
+        <v>526100</v>
       </c>
       <c r="I35" s="3">
-        <v>348400</v>
+        <v>473100</v>
       </c>
       <c r="J35" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K35" s="3">
         <v>421400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>367600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>339400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,107 +1731,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2326500</v>
+        <v>2528000</v>
       </c>
       <c r="E41" s="3">
-        <v>3360500</v>
+        <v>2288000</v>
       </c>
       <c r="F41" s="3">
-        <v>2942000</v>
+        <v>3304900</v>
       </c>
       <c r="G41" s="3">
-        <v>2914800</v>
+        <v>2893300</v>
       </c>
       <c r="H41" s="3">
-        <v>2728000</v>
+        <v>2866500</v>
       </c>
       <c r="I41" s="3">
-        <v>1320900</v>
+        <v>2682800</v>
       </c>
       <c r="J41" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2078800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1272900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1354900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1500</v>
       </c>
-      <c r="G42" s="3">
-        <v>67100</v>
-      </c>
       <c r="H42" s="3">
-        <v>84600</v>
+        <v>66000</v>
       </c>
       <c r="I42" s="3">
-        <v>85300</v>
+        <v>83200</v>
       </c>
       <c r="J42" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K42" s="3">
         <v>78700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>175400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>315400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1854200</v>
+        <v>1701200</v>
       </c>
       <c r="E43" s="3">
-        <v>1521300</v>
+        <v>1823500</v>
       </c>
       <c r="F43" s="3">
-        <v>1229900</v>
+        <v>1496100</v>
       </c>
       <c r="G43" s="3">
-        <v>1169900</v>
+        <v>1209500</v>
       </c>
       <c r="H43" s="3">
-        <v>990200</v>
+        <v>1150500</v>
       </c>
       <c r="I43" s="3">
-        <v>1637400</v>
+        <v>973800</v>
       </c>
       <c r="J43" s="3">
+        <v>1610300</v>
+      </c>
+      <c r="K43" s="3">
         <v>670200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1208000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>693500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1777,174 +1872,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>208100</v>
+        <v>194500</v>
       </c>
       <c r="E45" s="3">
-        <v>143700</v>
+        <v>204700</v>
       </c>
       <c r="F45" s="3">
-        <v>132400</v>
+        <v>141300</v>
       </c>
       <c r="G45" s="3">
-        <v>119200</v>
+        <v>130200</v>
       </c>
       <c r="H45" s="3">
-        <v>74300</v>
+        <v>117200</v>
       </c>
       <c r="I45" s="3">
-        <v>288500</v>
+        <v>73100</v>
       </c>
       <c r="J45" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K45" s="3">
         <v>67100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>102600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4388900</v>
+        <v>4423600</v>
       </c>
       <c r="E46" s="3">
-        <v>5026200</v>
+        <v>4316200</v>
       </c>
       <c r="F46" s="3">
-        <v>4305700</v>
+        <v>4943000</v>
       </c>
       <c r="G46" s="3">
-        <v>4271000</v>
+        <v>4234500</v>
       </c>
       <c r="H46" s="3">
-        <v>3877100</v>
+        <v>4200300</v>
       </c>
       <c r="I46" s="3">
-        <v>2369100</v>
+        <v>3812900</v>
       </c>
       <c r="J46" s="3">
+        <v>2329900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2894800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2120700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2414200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>212800</v>
+        <v>204200</v>
       </c>
       <c r="E47" s="3">
-        <v>200000</v>
+        <v>209300</v>
       </c>
       <c r="F47" s="3">
-        <v>189300</v>
+        <v>196700</v>
       </c>
       <c r="G47" s="3">
-        <v>204400</v>
+        <v>186200</v>
       </c>
       <c r="H47" s="3">
-        <v>148200</v>
+        <v>201000</v>
       </c>
       <c r="I47" s="3">
-        <v>83200</v>
+        <v>145700</v>
       </c>
       <c r="J47" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K47" s="3">
         <v>57700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1076200</v>
+        <v>1013000</v>
       </c>
       <c r="E48" s="3">
-        <v>213200</v>
+        <v>1058400</v>
       </c>
       <c r="F48" s="3">
-        <v>202100</v>
+        <v>209600</v>
       </c>
       <c r="G48" s="3">
-        <v>162000</v>
+        <v>198800</v>
       </c>
       <c r="H48" s="3">
-        <v>161900</v>
+        <v>159300</v>
       </c>
       <c r="I48" s="3">
-        <v>327100</v>
+        <v>159200</v>
       </c>
       <c r="J48" s="3">
+        <v>321700</v>
+      </c>
+      <c r="K48" s="3">
         <v>120200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>299700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10666500</v>
+        <v>9337400</v>
       </c>
       <c r="E49" s="3">
-        <v>3902400</v>
+        <v>10490000</v>
       </c>
       <c r="F49" s="3">
-        <v>3576800</v>
+        <v>3837800</v>
       </c>
       <c r="G49" s="3">
-        <v>3500700</v>
+        <v>3517600</v>
       </c>
       <c r="H49" s="3">
-        <v>3214400</v>
+        <v>3442800</v>
       </c>
       <c r="I49" s="3">
-        <v>6436400</v>
+        <v>3161200</v>
       </c>
       <c r="J49" s="3">
+        <v>6329800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1832300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3942000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1457700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>250000</v>
+        <v>272800</v>
       </c>
       <c r="E52" s="3">
-        <v>196800</v>
+        <v>245900</v>
       </c>
       <c r="F52" s="3">
-        <v>135100</v>
+        <v>193500</v>
       </c>
       <c r="G52" s="3">
-        <v>167200</v>
+        <v>132800</v>
       </c>
       <c r="H52" s="3">
-        <v>148200</v>
+        <v>164500</v>
       </c>
       <c r="I52" s="3">
-        <v>289800</v>
+        <v>145800</v>
       </c>
       <c r="J52" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K52" s="3">
         <v>104600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>238500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16594400</v>
+        <v>15251100</v>
       </c>
       <c r="E54" s="3">
-        <v>9538500</v>
+        <v>16319700</v>
       </c>
       <c r="F54" s="3">
-        <v>8409100</v>
+        <v>9380600</v>
       </c>
       <c r="G54" s="3">
-        <v>8305300</v>
+        <v>8269900</v>
       </c>
       <c r="H54" s="3">
-        <v>7549700</v>
+        <v>8167800</v>
       </c>
       <c r="I54" s="3">
-        <v>5936000</v>
+        <v>7424800</v>
       </c>
       <c r="J54" s="3">
+        <v>5837700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5009600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3966400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4128000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>263200</v>
+        <v>202000</v>
       </c>
       <c r="E57" s="3">
-        <v>193400</v>
+        <v>258800</v>
       </c>
       <c r="F57" s="3">
-        <v>178600</v>
+        <v>190200</v>
       </c>
       <c r="G57" s="3">
-        <v>173300</v>
+        <v>175700</v>
       </c>
       <c r="H57" s="3">
-        <v>143300</v>
+        <v>170400</v>
       </c>
       <c r="I57" s="3">
-        <v>155900</v>
+        <v>140900</v>
       </c>
       <c r="J57" s="3">
+        <v>153300</v>
+      </c>
+      <c r="K57" s="3">
         <v>101600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>99700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>99300</v>
+        <v>108800</v>
       </c>
       <c r="E58" s="3">
-        <v>418700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>51</v>
+        <v>97600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>411700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I58" s="3">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>503500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2190100</v>
+        <v>2144200</v>
       </c>
       <c r="E59" s="3">
-        <v>1807600</v>
+        <v>2153900</v>
       </c>
       <c r="F59" s="3">
-        <v>1648500</v>
+        <v>1777700</v>
       </c>
       <c r="G59" s="3">
-        <v>1579900</v>
+        <v>1621200</v>
       </c>
       <c r="H59" s="3">
-        <v>1425900</v>
+        <v>1553800</v>
       </c>
       <c r="I59" s="3">
-        <v>1629700</v>
+        <v>1402300</v>
       </c>
       <c r="J59" s="3">
+        <v>1602700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1011400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>965900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>950100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2552600</v>
+        <v>2455000</v>
       </c>
       <c r="E60" s="3">
-        <v>2419700</v>
+        <v>2510300</v>
       </c>
       <c r="F60" s="3">
-        <v>1827100</v>
+        <v>2379600</v>
       </c>
       <c r="G60" s="3">
-        <v>1753200</v>
+        <v>1796900</v>
       </c>
       <c r="H60" s="3">
-        <v>1569300</v>
+        <v>1724200</v>
       </c>
       <c r="I60" s="3">
-        <v>1357500</v>
+        <v>1543300</v>
       </c>
       <c r="J60" s="3">
+        <v>1335100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1062500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1019500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1336000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6231700</v>
+        <v>5574700</v>
       </c>
       <c r="E61" s="3">
-        <v>777500</v>
+        <v>6128600</v>
       </c>
       <c r="F61" s="3">
-        <v>1196200</v>
+        <v>764700</v>
       </c>
       <c r="G61" s="3">
-        <v>1196200</v>
+        <v>1176400</v>
       </c>
       <c r="H61" s="3">
-        <v>1196200</v>
+        <v>1176400</v>
       </c>
       <c r="I61" s="3">
-        <v>418700</v>
+        <v>1176400</v>
       </c>
       <c r="J61" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K61" s="3">
         <v>430700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>84900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1515100</v>
+        <v>1214500</v>
       </c>
       <c r="E62" s="3">
-        <v>807800</v>
+        <v>1490000</v>
       </c>
       <c r="F62" s="3">
-        <v>605600</v>
+        <v>794400</v>
       </c>
       <c r="G62" s="3">
-        <v>711300</v>
+        <v>595600</v>
       </c>
       <c r="H62" s="3">
-        <v>612300</v>
+        <v>699500</v>
       </c>
       <c r="I62" s="3">
-        <v>1241800</v>
+        <v>602200</v>
       </c>
       <c r="J62" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="K62" s="3">
         <v>632000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>517900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>267100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10363900</v>
+        <v>9297000</v>
       </c>
       <c r="E66" s="3">
-        <v>4081400</v>
+        <v>10192300</v>
       </c>
       <c r="F66" s="3">
-        <v>3631200</v>
+        <v>4013900</v>
       </c>
       <c r="G66" s="3">
-        <v>3687700</v>
+        <v>3571100</v>
       </c>
       <c r="H66" s="3">
-        <v>3400700</v>
+        <v>3626700</v>
       </c>
       <c r="I66" s="3">
-        <v>2415000</v>
+        <v>3344400</v>
       </c>
       <c r="J66" s="3">
+        <v>2375100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1886800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1702700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5566200</v>
+        <v>5933400</v>
       </c>
       <c r="E72" s="3">
-        <v>4789000</v>
+        <v>5474000</v>
       </c>
       <c r="F72" s="3">
-        <v>4281200</v>
+        <v>4709700</v>
       </c>
       <c r="G72" s="3">
-        <v>3796300</v>
+        <v>4210300</v>
       </c>
       <c r="H72" s="3">
-        <v>3346400</v>
+        <v>3733500</v>
       </c>
       <c r="I72" s="3">
-        <v>2978100</v>
+        <v>3291000</v>
       </c>
       <c r="J72" s="3">
+        <v>2928800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2770700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2228200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2069500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6230800</v>
+        <v>5954200</v>
       </c>
       <c r="E76" s="3">
-        <v>5457100</v>
+        <v>6127600</v>
       </c>
       <c r="F76" s="3">
-        <v>4777800</v>
+        <v>5366700</v>
       </c>
       <c r="G76" s="3">
-        <v>4617600</v>
+        <v>4698800</v>
       </c>
       <c r="H76" s="3">
-        <v>4149100</v>
+        <v>4541200</v>
       </c>
       <c r="I76" s="3">
-        <v>3521000</v>
+        <v>4080400</v>
       </c>
       <c r="J76" s="3">
+        <v>3462700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3122700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2566000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2425300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>736000</v>
+        <v>577600</v>
       </c>
       <c r="E81" s="3">
-        <v>681100</v>
+        <v>723800</v>
       </c>
       <c r="F81" s="3">
-        <v>621300</v>
+        <v>669800</v>
       </c>
       <c r="G81" s="3">
-        <v>534900</v>
+        <v>611000</v>
       </c>
       <c r="H81" s="3">
-        <v>481100</v>
+        <v>526100</v>
       </c>
       <c r="I81" s="3">
-        <v>348400</v>
+        <v>473100</v>
       </c>
       <c r="J81" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K81" s="3">
         <v>421400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>367600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>339400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>473700</v>
+        <v>711100</v>
       </c>
       <c r="E83" s="3">
-        <v>284300</v>
+        <v>465900</v>
       </c>
       <c r="F83" s="3">
-        <v>260400</v>
+        <v>279600</v>
       </c>
       <c r="G83" s="3">
-        <v>246900</v>
+        <v>256100</v>
       </c>
       <c r="H83" s="3">
-        <v>252900</v>
+        <v>242900</v>
       </c>
       <c r="I83" s="3">
-        <v>210900</v>
+        <v>248700</v>
       </c>
       <c r="J83" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K83" s="3">
         <v>169100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1418700</v>
+        <v>1460300</v>
       </c>
       <c r="E89" s="3">
-        <v>1074900</v>
+        <v>1395200</v>
       </c>
       <c r="F89" s="3">
-        <v>891200</v>
+        <v>1057100</v>
       </c>
       <c r="G89" s="3">
-        <v>743700</v>
+        <v>876400</v>
       </c>
       <c r="H89" s="3">
-        <v>757500</v>
+        <v>731400</v>
       </c>
       <c r="I89" s="3">
-        <v>597400</v>
+        <v>745000</v>
       </c>
       <c r="J89" s="3">
+        <v>587600</v>
+      </c>
+      <c r="K89" s="3">
         <v>606300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>621800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>529200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117600</v>
+        <v>-149400</v>
       </c>
       <c r="E91" s="3">
-        <v>-86600</v>
+        <v>-115600</v>
       </c>
       <c r="F91" s="3">
-        <v>-101100</v>
+        <v>-85200</v>
       </c>
       <c r="G91" s="3">
-        <v>-67800</v>
+        <v>-99500</v>
       </c>
       <c r="H91" s="3">
-        <v>-52100</v>
+        <v>-66600</v>
       </c>
       <c r="I91" s="3">
-        <v>-54300</v>
+        <v>-51300</v>
       </c>
       <c r="J91" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6381500</v>
+        <v>-244700</v>
       </c>
       <c r="E94" s="3">
-        <v>-386600</v>
+        <v>-6275900</v>
       </c>
       <c r="F94" s="3">
-        <v>-439500</v>
+        <v>-380200</v>
       </c>
       <c r="G94" s="3">
-        <v>-357600</v>
+        <v>-432300</v>
       </c>
       <c r="H94" s="3">
-        <v>-72400</v>
+        <v>-351700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1197200</v>
+        <v>-71200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1177400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-201700</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-252200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-201900</v>
+        <v>-214700</v>
       </c>
       <c r="E96" s="3">
-        <v>-45500</v>
+        <v>-198600</v>
       </c>
       <c r="F96" s="3">
-        <v>-61300</v>
+        <v>-44700</v>
       </c>
       <c r="G96" s="3">
-        <v>-121900</v>
+        <v>-60300</v>
       </c>
       <c r="H96" s="3">
-        <v>-117700</v>
+        <v>-119900</v>
       </c>
       <c r="I96" s="3">
-        <v>-42800</v>
+        <v>-115800</v>
       </c>
       <c r="J96" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-41600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-96400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3884700</v>
+        <v>-872800</v>
       </c>
       <c r="E100" s="3">
-        <v>-347900</v>
+        <v>3820400</v>
       </c>
       <c r="F100" s="3">
-        <v>-190700</v>
+        <v>-342100</v>
       </c>
       <c r="G100" s="3">
-        <v>-242100</v>
+        <v>-187500</v>
       </c>
       <c r="H100" s="3">
-        <v>656000</v>
+        <v>-238100</v>
       </c>
       <c r="I100" s="3">
-        <v>-203600</v>
+        <v>645200</v>
       </c>
       <c r="J100" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="K100" s="3">
         <v>330400</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44100</v>
+        <v>-102800</v>
       </c>
       <c r="E101" s="3">
-        <v>78100</v>
+        <v>43400</v>
       </c>
       <c r="F101" s="3">
-        <v>-233800</v>
+        <v>76800</v>
       </c>
       <c r="G101" s="3">
-        <v>42700</v>
+        <v>-229900</v>
       </c>
       <c r="H101" s="3">
-        <v>66000</v>
+        <v>42000</v>
       </c>
       <c r="I101" s="3">
-        <v>45400</v>
+        <v>64900</v>
       </c>
       <c r="J101" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-42900</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1034000</v>
+        <v>240000</v>
       </c>
       <c r="E102" s="3">
-        <v>418600</v>
+        <v>-1016900</v>
       </c>
       <c r="F102" s="3">
-        <v>27200</v>
+        <v>411600</v>
       </c>
       <c r="G102" s="3">
-        <v>186800</v>
+        <v>26800</v>
       </c>
       <c r="H102" s="3">
-        <v>1407100</v>
+        <v>183700</v>
       </c>
       <c r="I102" s="3">
-        <v>-758000</v>
+        <v>1383800</v>
       </c>
       <c r="J102" s="3">
+        <v>-745400</v>
+      </c>
+      <c r="K102" s="3">
         <v>692100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>208700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5237600</v>
+        <v>5453900</v>
       </c>
       <c r="E8" s="3">
-        <v>4727000</v>
+        <v>4922300</v>
       </c>
       <c r="F8" s="3">
-        <v>4090800</v>
+        <v>4259800</v>
       </c>
       <c r="G8" s="3">
-        <v>3797400</v>
+        <v>3954300</v>
       </c>
       <c r="H8" s="3">
-        <v>3594600</v>
+        <v>3743100</v>
       </c>
       <c r="I8" s="3">
-        <v>3340300</v>
+        <v>3478300</v>
       </c>
       <c r="J8" s="3">
-        <v>2699000</v>
+        <v>2810500</v>
       </c>
       <c r="K8" s="3">
         <v>2471500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>881800</v>
+        <v>918300</v>
       </c>
       <c r="E9" s="3">
-        <v>745400</v>
+        <v>776200</v>
       </c>
       <c r="F9" s="3">
-        <v>600900</v>
+        <v>625700</v>
       </c>
       <c r="G9" s="3">
-        <v>557600</v>
+        <v>580600</v>
       </c>
       <c r="H9" s="3">
-        <v>545400</v>
+        <v>567900</v>
       </c>
       <c r="I9" s="3">
-        <v>515200</v>
+        <v>536400</v>
       </c>
       <c r="J9" s="3">
-        <v>403800</v>
+        <v>420500</v>
       </c>
       <c r="K9" s="3">
         <v>312600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4355700</v>
+        <v>4535600</v>
       </c>
       <c r="E10" s="3">
-        <v>3981600</v>
+        <v>4146100</v>
       </c>
       <c r="F10" s="3">
-        <v>3489900</v>
+        <v>3634100</v>
       </c>
       <c r="G10" s="3">
-        <v>3239800</v>
+        <v>3373700</v>
       </c>
       <c r="H10" s="3">
-        <v>3049200</v>
+        <v>3175200</v>
       </c>
       <c r="I10" s="3">
-        <v>2825200</v>
+        <v>2941900</v>
       </c>
       <c r="J10" s="3">
-        <v>2295200</v>
+        <v>2390000</v>
       </c>
       <c r="K10" s="3">
         <v>2158900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89100</v>
+        <v>92700</v>
       </c>
       <c r="E12" s="3">
-        <v>81800</v>
+        <v>85100</v>
       </c>
       <c r="F12" s="3">
-        <v>742400</v>
+        <v>773100</v>
       </c>
       <c r="G12" s="3">
-        <v>678300</v>
+        <v>706300</v>
       </c>
       <c r="H12" s="3">
-        <v>635900</v>
+        <v>662100</v>
       </c>
       <c r="I12" s="3">
-        <v>579400</v>
+        <v>603300</v>
       </c>
       <c r="J12" s="3">
-        <v>481900</v>
+        <v>501800</v>
       </c>
       <c r="K12" s="3">
         <v>449200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>65800</v>
+        <v>68500</v>
       </c>
       <c r="E14" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="F14" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="G14" s="3">
-        <v>35200</v>
+        <v>36700</v>
       </c>
       <c r="H14" s="3">
-        <v>47800</v>
+        <v>49700</v>
       </c>
       <c r="I14" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="J14" s="3">
-        <v>43600</v>
+        <v>45400</v>
       </c>
       <c r="K14" s="3">
         <v>14700</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>464100</v>
+        <v>483300</v>
       </c>
       <c r="E15" s="3">
-        <v>287000</v>
+        <v>298900</v>
       </c>
       <c r="F15" s="3">
-        <v>201900</v>
+        <v>210200</v>
       </c>
       <c r="G15" s="3">
-        <v>188600</v>
+        <v>196300</v>
       </c>
       <c r="H15" s="3">
-        <v>183300</v>
+        <v>190900</v>
       </c>
       <c r="I15" s="3">
-        <v>187700</v>
+        <v>195500</v>
       </c>
       <c r="J15" s="3">
-        <v>156900</v>
+        <v>163400</v>
       </c>
       <c r="K15" s="3">
         <v>120800</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4449700</v>
+        <v>4633500</v>
       </c>
       <c r="E17" s="3">
-        <v>3770800</v>
+        <v>3926600</v>
       </c>
       <c r="F17" s="3">
-        <v>3187100</v>
+        <v>3318700</v>
       </c>
       <c r="G17" s="3">
-        <v>2939800</v>
+        <v>3061300</v>
       </c>
       <c r="H17" s="3">
-        <v>2804000</v>
+        <v>2919800</v>
       </c>
       <c r="I17" s="3">
-        <v>2595400</v>
+        <v>2702600</v>
       </c>
       <c r="J17" s="3">
-        <v>2192200</v>
+        <v>2282700</v>
       </c>
       <c r="K17" s="3">
         <v>1869800</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>787800</v>
+        <v>820400</v>
       </c>
       <c r="E18" s="3">
-        <v>956200</v>
+        <v>995700</v>
       </c>
       <c r="F18" s="3">
-        <v>903700</v>
+        <v>941000</v>
       </c>
       <c r="G18" s="3">
-        <v>857600</v>
+        <v>893000</v>
       </c>
       <c r="H18" s="3">
-        <v>790600</v>
+        <v>823200</v>
       </c>
       <c r="I18" s="3">
-        <v>744900</v>
+        <v>775700</v>
       </c>
       <c r="J18" s="3">
-        <v>506800</v>
+        <v>527700</v>
       </c>
       <c r="K18" s="3">
         <v>601700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>33300</v>
+        <v>34700</v>
       </c>
       <c r="F20" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="G20" s="3">
-        <v>41000</v>
+        <v>42700</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="J20" s="3">
-        <v>24300</v>
+        <v>25300</v>
       </c>
       <c r="K20" s="3">
         <v>25100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1518100</v>
+        <v>1575700</v>
       </c>
       <c r="E21" s="3">
-        <v>1457200</v>
+        <v>1514000</v>
       </c>
       <c r="F21" s="3">
-        <v>1221000</v>
+        <v>1269400</v>
       </c>
       <c r="G21" s="3">
-        <v>1155700</v>
+        <v>1201600</v>
       </c>
       <c r="H21" s="3">
-        <v>1037000</v>
+        <v>1078100</v>
       </c>
       <c r="I21" s="3">
-        <v>1003200</v>
+        <v>1042800</v>
       </c>
       <c r="J21" s="3">
-        <v>739400</v>
+        <v>768500</v>
       </c>
       <c r="K21" s="3">
         <v>795200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>43800</v>
+        <v>45600</v>
       </c>
       <c r="E22" s="3">
-        <v>29600</v>
+        <v>30900</v>
       </c>
       <c r="F22" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="G22" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="H22" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="I22" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="J22" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K22" s="3">
         <v>3700</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>760300</v>
+        <v>791700</v>
       </c>
       <c r="E23" s="3">
-        <v>959800</v>
+        <v>999500</v>
       </c>
       <c r="F23" s="3">
-        <v>922100</v>
+        <v>960100</v>
       </c>
       <c r="G23" s="3">
-        <v>884000</v>
+        <v>920500</v>
       </c>
       <c r="H23" s="3">
-        <v>778200</v>
+        <v>810300</v>
       </c>
       <c r="I23" s="3">
-        <v>744800</v>
+        <v>775500</v>
       </c>
       <c r="J23" s="3">
-        <v>524400</v>
+        <v>546000</v>
       </c>
       <c r="K23" s="3">
         <v>623200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>189200</v>
+        <v>197000</v>
       </c>
       <c r="E24" s="3">
-        <v>246600</v>
+        <v>256800</v>
       </c>
       <c r="F24" s="3">
-        <v>259300</v>
+        <v>270000</v>
       </c>
       <c r="G24" s="3">
-        <v>272100</v>
+        <v>283300</v>
       </c>
       <c r="H24" s="3">
-        <v>246200</v>
+        <v>256400</v>
       </c>
       <c r="I24" s="3">
-        <v>267200</v>
+        <v>278200</v>
       </c>
       <c r="J24" s="3">
-        <v>180300</v>
+        <v>187800</v>
       </c>
       <c r="K24" s="3">
         <v>198400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>571100</v>
+        <v>594700</v>
       </c>
       <c r="E26" s="3">
-        <v>713300</v>
+        <v>742700</v>
       </c>
       <c r="F26" s="3">
-        <v>662800</v>
+        <v>690200</v>
       </c>
       <c r="G26" s="3">
-        <v>611900</v>
+        <v>637200</v>
       </c>
       <c r="H26" s="3">
-        <v>532000</v>
+        <v>553900</v>
       </c>
       <c r="I26" s="3">
-        <v>477600</v>
+        <v>497300</v>
       </c>
       <c r="J26" s="3">
-        <v>344000</v>
+        <v>358200</v>
       </c>
       <c r="K26" s="3">
         <v>424900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="E27" s="3">
-        <v>723800</v>
+        <v>753700</v>
       </c>
       <c r="F27" s="3">
-        <v>669800</v>
+        <v>697500</v>
       </c>
       <c r="G27" s="3">
-        <v>611000</v>
+        <v>636300</v>
       </c>
       <c r="H27" s="3">
-        <v>526100</v>
+        <v>547800</v>
       </c>
       <c r="I27" s="3">
-        <v>473100</v>
+        <v>492700</v>
       </c>
       <c r="J27" s="3">
-        <v>342600</v>
+        <v>356800</v>
       </c>
       <c r="K27" s="3">
         <v>421400</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-33300</v>
+        <v>-34700</v>
       </c>
       <c r="F32" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="G32" s="3">
-        <v>-41000</v>
+        <v>-42700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="J32" s="3">
-        <v>-24300</v>
+        <v>-25300</v>
       </c>
       <c r="K32" s="3">
         <v>-25100</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="E33" s="3">
-        <v>723800</v>
+        <v>753700</v>
       </c>
       <c r="F33" s="3">
-        <v>669800</v>
+        <v>697500</v>
       </c>
       <c r="G33" s="3">
-        <v>611000</v>
+        <v>636300</v>
       </c>
       <c r="H33" s="3">
-        <v>526100</v>
+        <v>547800</v>
       </c>
       <c r="I33" s="3">
-        <v>473100</v>
+        <v>492700</v>
       </c>
       <c r="J33" s="3">
-        <v>342600</v>
+        <v>356800</v>
       </c>
       <c r="K33" s="3">
         <v>421400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="E35" s="3">
-        <v>723800</v>
+        <v>753700</v>
       </c>
       <c r="F35" s="3">
-        <v>669800</v>
+        <v>697500</v>
       </c>
       <c r="G35" s="3">
-        <v>611000</v>
+        <v>636300</v>
       </c>
       <c r="H35" s="3">
-        <v>526100</v>
+        <v>547800</v>
       </c>
       <c r="I35" s="3">
-        <v>473100</v>
+        <v>492700</v>
       </c>
       <c r="J35" s="3">
-        <v>342600</v>
+        <v>356800</v>
       </c>
       <c r="K35" s="3">
         <v>421400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2528000</v>
+        <v>2632400</v>
       </c>
       <c r="E41" s="3">
-        <v>2288000</v>
+        <v>2382500</v>
       </c>
       <c r="F41" s="3">
-        <v>3304900</v>
+        <v>3441400</v>
       </c>
       <c r="G41" s="3">
-        <v>2893300</v>
+        <v>3012800</v>
       </c>
       <c r="H41" s="3">
-        <v>2866500</v>
+        <v>2984900</v>
       </c>
       <c r="I41" s="3">
-        <v>2682800</v>
+        <v>2793600</v>
       </c>
       <c r="J41" s="3">
-        <v>1299000</v>
+        <v>1352600</v>
       </c>
       <c r="K41" s="3">
         <v>2078800</v>
@@ -1783,16 +1783,16 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>66000</v>
+        <v>68700</v>
       </c>
       <c r="I42" s="3">
-        <v>83200</v>
+        <v>86700</v>
       </c>
       <c r="J42" s="3">
-        <v>83900</v>
+        <v>87300</v>
       </c>
       <c r="K42" s="3">
         <v>78700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1701200</v>
+        <v>1771500</v>
       </c>
       <c r="E43" s="3">
-        <v>1823500</v>
+        <v>1898900</v>
       </c>
       <c r="F43" s="3">
-        <v>1496100</v>
+        <v>1557900</v>
       </c>
       <c r="G43" s="3">
-        <v>1209500</v>
+        <v>1259500</v>
       </c>
       <c r="H43" s="3">
-        <v>1150500</v>
+        <v>1198000</v>
       </c>
       <c r="I43" s="3">
-        <v>973800</v>
+        <v>1014000</v>
       </c>
       <c r="J43" s="3">
-        <v>1610300</v>
+        <v>1676800</v>
       </c>
       <c r="K43" s="3">
         <v>670200</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>194500</v>
+        <v>202500</v>
       </c>
       <c r="E45" s="3">
-        <v>204700</v>
+        <v>213100</v>
       </c>
       <c r="F45" s="3">
-        <v>141300</v>
+        <v>147100</v>
       </c>
       <c r="G45" s="3">
-        <v>130200</v>
+        <v>135500</v>
       </c>
       <c r="H45" s="3">
-        <v>117200</v>
+        <v>122100</v>
       </c>
       <c r="I45" s="3">
-        <v>73100</v>
+        <v>76100</v>
       </c>
       <c r="J45" s="3">
-        <v>283700</v>
+        <v>295500</v>
       </c>
       <c r="K45" s="3">
         <v>67100</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4423600</v>
+        <v>4606300</v>
       </c>
       <c r="E46" s="3">
-        <v>4316200</v>
+        <v>4494500</v>
       </c>
       <c r="F46" s="3">
-        <v>4943000</v>
+        <v>5147200</v>
       </c>
       <c r="G46" s="3">
-        <v>4234500</v>
+        <v>4409400</v>
       </c>
       <c r="H46" s="3">
-        <v>4200300</v>
+        <v>4373700</v>
       </c>
       <c r="I46" s="3">
-        <v>3812900</v>
+        <v>3970400</v>
       </c>
       <c r="J46" s="3">
-        <v>2329900</v>
+        <v>2426100</v>
       </c>
       <c r="K46" s="3">
         <v>2894800</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>204200</v>
+        <v>212700</v>
       </c>
       <c r="E47" s="3">
-        <v>209300</v>
+        <v>217900</v>
       </c>
       <c r="F47" s="3">
-        <v>196700</v>
+        <v>204800</v>
       </c>
       <c r="G47" s="3">
-        <v>186200</v>
+        <v>193900</v>
       </c>
       <c r="H47" s="3">
-        <v>201000</v>
+        <v>209400</v>
       </c>
       <c r="I47" s="3">
-        <v>145700</v>
+        <v>151700</v>
       </c>
       <c r="J47" s="3">
-        <v>81800</v>
+        <v>85200</v>
       </c>
       <c r="K47" s="3">
         <v>57700</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1013000</v>
+        <v>1054800</v>
       </c>
       <c r="E48" s="3">
-        <v>1058400</v>
+        <v>1102100</v>
       </c>
       <c r="F48" s="3">
-        <v>209600</v>
+        <v>218300</v>
       </c>
       <c r="G48" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="H48" s="3">
-        <v>159300</v>
+        <v>165900</v>
       </c>
       <c r="I48" s="3">
-        <v>159200</v>
+        <v>165800</v>
       </c>
       <c r="J48" s="3">
-        <v>321700</v>
+        <v>335000</v>
       </c>
       <c r="K48" s="3">
         <v>120200</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9337400</v>
+        <v>9723100</v>
       </c>
       <c r="E49" s="3">
-        <v>10490000</v>
+        <v>10923200</v>
       </c>
       <c r="F49" s="3">
-        <v>3837800</v>
+        <v>3996300</v>
       </c>
       <c r="G49" s="3">
-        <v>3517600</v>
+        <v>3662900</v>
       </c>
       <c r="H49" s="3">
-        <v>3442800</v>
+        <v>3585000</v>
       </c>
       <c r="I49" s="3">
-        <v>3161200</v>
+        <v>3291700</v>
       </c>
       <c r="J49" s="3">
-        <v>6329800</v>
+        <v>6591300</v>
       </c>
       <c r="K49" s="3">
         <v>1832300</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>272800</v>
+        <v>284100</v>
       </c>
       <c r="E52" s="3">
-        <v>245900</v>
+        <v>256000</v>
       </c>
       <c r="F52" s="3">
-        <v>193500</v>
+        <v>201500</v>
       </c>
       <c r="G52" s="3">
-        <v>132800</v>
+        <v>138300</v>
       </c>
       <c r="H52" s="3">
-        <v>164500</v>
+        <v>171300</v>
       </c>
       <c r="I52" s="3">
-        <v>145800</v>
+        <v>151800</v>
       </c>
       <c r="J52" s="3">
-        <v>285000</v>
+        <v>296700</v>
       </c>
       <c r="K52" s="3">
         <v>104600</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15251100</v>
+        <v>15881000</v>
       </c>
       <c r="E54" s="3">
-        <v>16319700</v>
+        <v>16993800</v>
       </c>
       <c r="F54" s="3">
-        <v>9380600</v>
+        <v>9768100</v>
       </c>
       <c r="G54" s="3">
-        <v>8269900</v>
+        <v>8611400</v>
       </c>
       <c r="H54" s="3">
-        <v>8167800</v>
+        <v>8505200</v>
       </c>
       <c r="I54" s="3">
-        <v>7424800</v>
+        <v>7731400</v>
       </c>
       <c r="J54" s="3">
-        <v>5837700</v>
+        <v>6078900</v>
       </c>
       <c r="K54" s="3">
         <v>5009600</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>202000</v>
+        <v>210300</v>
       </c>
       <c r="E57" s="3">
-        <v>258800</v>
+        <v>269500</v>
       </c>
       <c r="F57" s="3">
-        <v>190200</v>
+        <v>198100</v>
       </c>
       <c r="G57" s="3">
-        <v>175700</v>
+        <v>182900</v>
       </c>
       <c r="H57" s="3">
-        <v>170400</v>
+        <v>177500</v>
       </c>
       <c r="I57" s="3">
-        <v>140900</v>
+        <v>146800</v>
       </c>
       <c r="J57" s="3">
-        <v>153300</v>
+        <v>159600</v>
       </c>
       <c r="K57" s="3">
         <v>101600</v>
@@ -2310,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>108800</v>
+        <v>113300</v>
       </c>
       <c r="E58" s="3">
-        <v>97600</v>
+        <v>101700</v>
       </c>
       <c r="F58" s="3">
-        <v>411700</v>
+        <v>428700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>51</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="K58" s="3">
         <v>24000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2144200</v>
+        <v>2232800</v>
       </c>
       <c r="E59" s="3">
-        <v>2153900</v>
+        <v>2242800</v>
       </c>
       <c r="F59" s="3">
-        <v>1777700</v>
+        <v>1851100</v>
       </c>
       <c r="G59" s="3">
-        <v>1621200</v>
+        <v>1688200</v>
       </c>
       <c r="H59" s="3">
-        <v>1553800</v>
+        <v>1617900</v>
       </c>
       <c r="I59" s="3">
-        <v>1402300</v>
+        <v>1460300</v>
       </c>
       <c r="J59" s="3">
-        <v>1602700</v>
+        <v>1668900</v>
       </c>
       <c r="K59" s="3">
         <v>1011400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2455000</v>
+        <v>2556400</v>
       </c>
       <c r="E60" s="3">
-        <v>2510300</v>
+        <v>2614000</v>
       </c>
       <c r="F60" s="3">
-        <v>2379600</v>
+        <v>2477900</v>
       </c>
       <c r="G60" s="3">
-        <v>1796900</v>
+        <v>1871100</v>
       </c>
       <c r="H60" s="3">
-        <v>1724200</v>
+        <v>1795400</v>
       </c>
       <c r="I60" s="3">
-        <v>1543300</v>
+        <v>1607000</v>
       </c>
       <c r="J60" s="3">
-        <v>1335100</v>
+        <v>1390200</v>
       </c>
       <c r="K60" s="3">
         <v>1062500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5574700</v>
+        <v>5805000</v>
       </c>
       <c r="E61" s="3">
-        <v>6128600</v>
+        <v>6381700</v>
       </c>
       <c r="F61" s="3">
-        <v>764700</v>
+        <v>796200</v>
       </c>
       <c r="G61" s="3">
-        <v>1176400</v>
+        <v>1225000</v>
       </c>
       <c r="H61" s="3">
-        <v>1176400</v>
+        <v>1225000</v>
       </c>
       <c r="I61" s="3">
-        <v>1176400</v>
+        <v>1225000</v>
       </c>
       <c r="J61" s="3">
-        <v>411700</v>
+        <v>428700</v>
       </c>
       <c r="K61" s="3">
         <v>430700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1214500</v>
+        <v>1264700</v>
       </c>
       <c r="E62" s="3">
-        <v>1490000</v>
+        <v>1551600</v>
       </c>
       <c r="F62" s="3">
-        <v>794400</v>
+        <v>827200</v>
       </c>
       <c r="G62" s="3">
-        <v>595600</v>
+        <v>620200</v>
       </c>
       <c r="H62" s="3">
-        <v>699500</v>
+        <v>728400</v>
       </c>
       <c r="I62" s="3">
-        <v>602200</v>
+        <v>627000</v>
       </c>
       <c r="J62" s="3">
-        <v>1221200</v>
+        <v>1271700</v>
       </c>
       <c r="K62" s="3">
         <v>632000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9297000</v>
+        <v>9681000</v>
       </c>
       <c r="E66" s="3">
-        <v>10192300</v>
+        <v>10613300</v>
       </c>
       <c r="F66" s="3">
-        <v>4013900</v>
+        <v>4179700</v>
       </c>
       <c r="G66" s="3">
-        <v>3571100</v>
+        <v>3718600</v>
       </c>
       <c r="H66" s="3">
-        <v>3626700</v>
+        <v>3776400</v>
       </c>
       <c r="I66" s="3">
-        <v>3344400</v>
+        <v>3482500</v>
       </c>
       <c r="J66" s="3">
-        <v>2375100</v>
+        <v>2473200</v>
       </c>
       <c r="K66" s="3">
         <v>1886800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5933400</v>
+        <v>6178500</v>
       </c>
       <c r="E72" s="3">
-        <v>5474000</v>
+        <v>5700100</v>
       </c>
       <c r="F72" s="3">
-        <v>4709700</v>
+        <v>4904200</v>
       </c>
       <c r="G72" s="3">
-        <v>4210300</v>
+        <v>4384200</v>
       </c>
       <c r="H72" s="3">
-        <v>3733500</v>
+        <v>3887700</v>
       </c>
       <c r="I72" s="3">
-        <v>3291000</v>
+        <v>3427000</v>
       </c>
       <c r="J72" s="3">
-        <v>2928800</v>
+        <v>3049800</v>
       </c>
       <c r="K72" s="3">
         <v>2770700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5954200</v>
+        <v>6200200</v>
       </c>
       <c r="E76" s="3">
-        <v>6127600</v>
+        <v>6380700</v>
       </c>
       <c r="F76" s="3">
-        <v>5366700</v>
+        <v>5588400</v>
       </c>
       <c r="G76" s="3">
-        <v>4698800</v>
+        <v>4892800</v>
       </c>
       <c r="H76" s="3">
-        <v>4541200</v>
+        <v>4728700</v>
       </c>
       <c r="I76" s="3">
-        <v>4080400</v>
+        <v>4248900</v>
       </c>
       <c r="J76" s="3">
-        <v>3462700</v>
+        <v>3605700</v>
       </c>
       <c r="K76" s="3">
         <v>3122700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="E81" s="3">
-        <v>723800</v>
+        <v>753700</v>
       </c>
       <c r="F81" s="3">
-        <v>669800</v>
+        <v>697500</v>
       </c>
       <c r="G81" s="3">
-        <v>611000</v>
+        <v>636300</v>
       </c>
       <c r="H81" s="3">
-        <v>526100</v>
+        <v>547800</v>
       </c>
       <c r="I81" s="3">
-        <v>473100</v>
+        <v>492700</v>
       </c>
       <c r="J81" s="3">
-        <v>342600</v>
+        <v>356800</v>
       </c>
       <c r="K81" s="3">
         <v>421400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>711100</v>
+        <v>740500</v>
       </c>
       <c r="E83" s="3">
-        <v>465900</v>
+        <v>485100</v>
       </c>
       <c r="F83" s="3">
-        <v>279600</v>
+        <v>291200</v>
       </c>
       <c r="G83" s="3">
-        <v>256100</v>
+        <v>266700</v>
       </c>
       <c r="H83" s="3">
-        <v>242900</v>
+        <v>252900</v>
       </c>
       <c r="I83" s="3">
-        <v>248700</v>
+        <v>259000</v>
       </c>
       <c r="J83" s="3">
-        <v>207400</v>
+        <v>216000</v>
       </c>
       <c r="K83" s="3">
         <v>169100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1460300</v>
+        <v>1520600</v>
       </c>
       <c r="E89" s="3">
-        <v>1395200</v>
+        <v>1452800</v>
       </c>
       <c r="F89" s="3">
-        <v>1057100</v>
+        <v>1100800</v>
       </c>
       <c r="G89" s="3">
-        <v>876400</v>
+        <v>912600</v>
       </c>
       <c r="H89" s="3">
-        <v>731400</v>
+        <v>761600</v>
       </c>
       <c r="I89" s="3">
-        <v>745000</v>
+        <v>775700</v>
       </c>
       <c r="J89" s="3">
-        <v>587600</v>
+        <v>611800</v>
       </c>
       <c r="K89" s="3">
         <v>606300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-149400</v>
+        <v>-155600</v>
       </c>
       <c r="E91" s="3">
-        <v>-115600</v>
+        <v>-120400</v>
       </c>
       <c r="F91" s="3">
-        <v>-85200</v>
+        <v>-88700</v>
       </c>
       <c r="G91" s="3">
-        <v>-99500</v>
+        <v>-103600</v>
       </c>
       <c r="H91" s="3">
-        <v>-66600</v>
+        <v>-69400</v>
       </c>
       <c r="I91" s="3">
-        <v>-51300</v>
+        <v>-53400</v>
       </c>
       <c r="J91" s="3">
-        <v>-53400</v>
+        <v>-55600</v>
       </c>
       <c r="K91" s="3">
         <v>-50700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-244700</v>
+        <v>-254800</v>
       </c>
       <c r="E94" s="3">
-        <v>-6275900</v>
+        <v>-6535100</v>
       </c>
       <c r="F94" s="3">
-        <v>-380200</v>
+        <v>-395900</v>
       </c>
       <c r="G94" s="3">
-        <v>-432300</v>
+        <v>-450100</v>
       </c>
       <c r="H94" s="3">
-        <v>-351700</v>
+        <v>-366200</v>
       </c>
       <c r="I94" s="3">
-        <v>-71200</v>
+        <v>-74100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1177400</v>
+        <v>-1226000</v>
       </c>
       <c r="K94" s="3">
         <v>-201700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-214700</v>
+        <v>-223600</v>
       </c>
       <c r="E96" s="3">
-        <v>-198600</v>
+        <v>-206800</v>
       </c>
       <c r="F96" s="3">
-        <v>-44700</v>
+        <v>-46500</v>
       </c>
       <c r="G96" s="3">
-        <v>-60300</v>
+        <v>-62800</v>
       </c>
       <c r="H96" s="3">
-        <v>-119900</v>
+        <v>-124900</v>
       </c>
       <c r="I96" s="3">
-        <v>-115800</v>
+        <v>-120600</v>
       </c>
       <c r="J96" s="3">
-        <v>-42100</v>
+        <v>-43800</v>
       </c>
       <c r="K96" s="3">
         <v>-41600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-872800</v>
+        <v>-908800</v>
       </c>
       <c r="E100" s="3">
-        <v>3820400</v>
+        <v>3978200</v>
       </c>
       <c r="F100" s="3">
-        <v>-342100</v>
+        <v>-356200</v>
       </c>
       <c r="G100" s="3">
-        <v>-187500</v>
+        <v>-195300</v>
       </c>
       <c r="H100" s="3">
-        <v>-238100</v>
+        <v>-247900</v>
       </c>
       <c r="I100" s="3">
-        <v>645200</v>
+        <v>671800</v>
       </c>
       <c r="J100" s="3">
-        <v>-200200</v>
+        <v>-208500</v>
       </c>
       <c r="K100" s="3">
         <v>330400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-102800</v>
+        <v>-107100</v>
       </c>
       <c r="E101" s="3">
-        <v>43400</v>
+        <v>45200</v>
       </c>
       <c r="F101" s="3">
-        <v>76800</v>
+        <v>80000</v>
       </c>
       <c r="G101" s="3">
-        <v>-229900</v>
+        <v>-239400</v>
       </c>
       <c r="H101" s="3">
-        <v>42000</v>
+        <v>43800</v>
       </c>
       <c r="I101" s="3">
-        <v>64900</v>
+        <v>67600</v>
       </c>
       <c r="J101" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="K101" s="3">
         <v>-42900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>240000</v>
+        <v>249900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1016900</v>
+        <v>-1058900</v>
       </c>
       <c r="F102" s="3">
-        <v>411600</v>
+        <v>428600</v>
       </c>
       <c r="G102" s="3">
-        <v>26800</v>
+        <v>27900</v>
       </c>
       <c r="H102" s="3">
-        <v>183700</v>
+        <v>191300</v>
       </c>
       <c r="I102" s="3">
-        <v>1383800</v>
+        <v>1441000</v>
       </c>
       <c r="J102" s="3">
-        <v>-745400</v>
+        <v>-776200</v>
       </c>
       <c r="K102" s="3">
         <v>692100</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5453900</v>
+        <v>5197500</v>
       </c>
       <c r="E8" s="3">
-        <v>4922300</v>
+        <v>4690900</v>
       </c>
       <c r="F8" s="3">
-        <v>4259800</v>
+        <v>4059600</v>
       </c>
       <c r="G8" s="3">
-        <v>3954300</v>
+        <v>3768400</v>
       </c>
       <c r="H8" s="3">
-        <v>3743100</v>
+        <v>3567100</v>
       </c>
       <c r="I8" s="3">
-        <v>3478300</v>
+        <v>3314800</v>
       </c>
       <c r="J8" s="3">
-        <v>2810500</v>
+        <v>2678400</v>
       </c>
       <c r="K8" s="3">
         <v>2471500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>918300</v>
+        <v>875100</v>
       </c>
       <c r="E9" s="3">
-        <v>776200</v>
+        <v>739700</v>
       </c>
       <c r="F9" s="3">
-        <v>625700</v>
+        <v>596300</v>
       </c>
       <c r="G9" s="3">
-        <v>580600</v>
+        <v>553300</v>
       </c>
       <c r="H9" s="3">
-        <v>567900</v>
+        <v>541200</v>
       </c>
       <c r="I9" s="3">
-        <v>536400</v>
+        <v>511200</v>
       </c>
       <c r="J9" s="3">
-        <v>420500</v>
+        <v>400700</v>
       </c>
       <c r="K9" s="3">
         <v>312600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4535600</v>
+        <v>4322500</v>
       </c>
       <c r="E10" s="3">
-        <v>4146100</v>
+        <v>3951200</v>
       </c>
       <c r="F10" s="3">
-        <v>3634100</v>
+        <v>3463200</v>
       </c>
       <c r="G10" s="3">
-        <v>3373700</v>
+        <v>3215100</v>
       </c>
       <c r="H10" s="3">
-        <v>3175200</v>
+        <v>3025900</v>
       </c>
       <c r="I10" s="3">
-        <v>2941900</v>
+        <v>2803600</v>
       </c>
       <c r="J10" s="3">
-        <v>2390000</v>
+        <v>2277700</v>
       </c>
       <c r="K10" s="3">
         <v>2158900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>92700</v>
+        <v>88400</v>
       </c>
       <c r="E12" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="F12" s="3">
-        <v>773100</v>
+        <v>736800</v>
       </c>
       <c r="G12" s="3">
-        <v>706300</v>
+        <v>673100</v>
       </c>
       <c r="H12" s="3">
-        <v>662100</v>
+        <v>631000</v>
       </c>
       <c r="I12" s="3">
-        <v>603300</v>
+        <v>574900</v>
       </c>
       <c r="J12" s="3">
-        <v>501800</v>
+        <v>478200</v>
       </c>
       <c r="K12" s="3">
         <v>449200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>68500</v>
+        <v>65300</v>
       </c>
       <c r="E14" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="F14" s="3">
-        <v>47000</v>
+        <v>44800</v>
       </c>
       <c r="G14" s="3">
-        <v>36700</v>
+        <v>34900</v>
       </c>
       <c r="H14" s="3">
-        <v>49700</v>
+        <v>47400</v>
       </c>
       <c r="I14" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="J14" s="3">
-        <v>45400</v>
+        <v>43200</v>
       </c>
       <c r="K14" s="3">
         <v>14700</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>483300</v>
+        <v>460500</v>
       </c>
       <c r="E15" s="3">
-        <v>298900</v>
+        <v>284800</v>
       </c>
       <c r="F15" s="3">
-        <v>210200</v>
+        <v>200300</v>
       </c>
       <c r="G15" s="3">
-        <v>196300</v>
+        <v>187100</v>
       </c>
       <c r="H15" s="3">
-        <v>190900</v>
+        <v>181900</v>
       </c>
       <c r="I15" s="3">
-        <v>195500</v>
+        <v>186300</v>
       </c>
       <c r="J15" s="3">
-        <v>163400</v>
+        <v>155700</v>
       </c>
       <c r="K15" s="3">
         <v>120800</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4633500</v>
+        <v>4415700</v>
       </c>
       <c r="E17" s="3">
-        <v>3926600</v>
+        <v>3742000</v>
       </c>
       <c r="F17" s="3">
-        <v>3318700</v>
+        <v>3162700</v>
       </c>
       <c r="G17" s="3">
-        <v>3061300</v>
+        <v>2917400</v>
       </c>
       <c r="H17" s="3">
-        <v>2919800</v>
+        <v>2782600</v>
       </c>
       <c r="I17" s="3">
-        <v>2702600</v>
+        <v>2575600</v>
       </c>
       <c r="J17" s="3">
-        <v>2282700</v>
+        <v>2175400</v>
       </c>
       <c r="K17" s="3">
         <v>1869800</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>820400</v>
+        <v>781800</v>
       </c>
       <c r="E18" s="3">
-        <v>995700</v>
+        <v>948900</v>
       </c>
       <c r="F18" s="3">
-        <v>941000</v>
+        <v>896800</v>
       </c>
       <c r="G18" s="3">
-        <v>893000</v>
+        <v>851000</v>
       </c>
       <c r="H18" s="3">
-        <v>823200</v>
+        <v>784500</v>
       </c>
       <c r="I18" s="3">
-        <v>775700</v>
+        <v>739200</v>
       </c>
       <c r="J18" s="3">
-        <v>527700</v>
+        <v>502900</v>
       </c>
       <c r="K18" s="3">
         <v>601700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="E20" s="3">
-        <v>34700</v>
+        <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="G20" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="J20" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="K20" s="3">
         <v>25100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1575700</v>
+        <v>1505800</v>
       </c>
       <c r="E21" s="3">
-        <v>1514000</v>
+        <v>1445600</v>
       </c>
       <c r="F21" s="3">
-        <v>1269400</v>
+        <v>1211300</v>
       </c>
       <c r="G21" s="3">
-        <v>1201600</v>
+        <v>1146600</v>
       </c>
       <c r="H21" s="3">
-        <v>1078100</v>
+        <v>1028800</v>
       </c>
       <c r="I21" s="3">
-        <v>1042800</v>
+        <v>995300</v>
       </c>
       <c r="J21" s="3">
-        <v>768500</v>
+        <v>733600</v>
       </c>
       <c r="K21" s="3">
         <v>795200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="E22" s="3">
-        <v>30900</v>
+        <v>29400</v>
       </c>
       <c r="F22" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="G22" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="H22" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="I22" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="J22" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="K22" s="3">
         <v>3700</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>791700</v>
+        <v>754500</v>
       </c>
       <c r="E23" s="3">
-        <v>999500</v>
+        <v>952500</v>
       </c>
       <c r="F23" s="3">
-        <v>960100</v>
+        <v>915000</v>
       </c>
       <c r="G23" s="3">
-        <v>920500</v>
+        <v>877200</v>
       </c>
       <c r="H23" s="3">
-        <v>810300</v>
+        <v>772200</v>
       </c>
       <c r="I23" s="3">
-        <v>775500</v>
+        <v>739100</v>
       </c>
       <c r="J23" s="3">
-        <v>546000</v>
+        <v>520400</v>
       </c>
       <c r="K23" s="3">
         <v>623200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>197000</v>
+        <v>187700</v>
       </c>
       <c r="E24" s="3">
-        <v>256800</v>
+        <v>244700</v>
       </c>
       <c r="F24" s="3">
+        <v>257300</v>
+      </c>
+      <c r="G24" s="3">
         <v>270000</v>
       </c>
-      <c r="G24" s="3">
-        <v>283300</v>
-      </c>
       <c r="H24" s="3">
-        <v>256400</v>
+        <v>244300</v>
       </c>
       <c r="I24" s="3">
-        <v>278200</v>
+        <v>265200</v>
       </c>
       <c r="J24" s="3">
-        <v>187800</v>
+        <v>179000</v>
       </c>
       <c r="K24" s="3">
         <v>198400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>594700</v>
+        <v>566800</v>
       </c>
       <c r="E26" s="3">
-        <v>742700</v>
+        <v>707800</v>
       </c>
       <c r="F26" s="3">
-        <v>690200</v>
+        <v>657700</v>
       </c>
       <c r="G26" s="3">
-        <v>637200</v>
+        <v>607200</v>
       </c>
       <c r="H26" s="3">
-        <v>553900</v>
+        <v>527900</v>
       </c>
       <c r="I26" s="3">
-        <v>497300</v>
+        <v>473900</v>
       </c>
       <c r="J26" s="3">
-        <v>358200</v>
+        <v>341400</v>
       </c>
       <c r="K26" s="3">
         <v>424900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="E27" s="3">
-        <v>753700</v>
+        <v>718300</v>
       </c>
       <c r="F27" s="3">
-        <v>697500</v>
+        <v>664700</v>
       </c>
       <c r="G27" s="3">
-        <v>636300</v>
+        <v>606400</v>
       </c>
       <c r="H27" s="3">
-        <v>547800</v>
+        <v>522100</v>
       </c>
       <c r="I27" s="3">
-        <v>492700</v>
+        <v>469500</v>
       </c>
       <c r="J27" s="3">
-        <v>356800</v>
+        <v>340000</v>
       </c>
       <c r="K27" s="3">
         <v>421400</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="E32" s="3">
-        <v>-34700</v>
+        <v>-33000</v>
       </c>
       <c r="F32" s="3">
-        <v>-38000</v>
+        <v>-36200</v>
       </c>
       <c r="G32" s="3">
-        <v>-42700</v>
+        <v>-40700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="J32" s="3">
-        <v>-25300</v>
+        <v>-24100</v>
       </c>
       <c r="K32" s="3">
         <v>-25100</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="E33" s="3">
-        <v>753700</v>
+        <v>718300</v>
       </c>
       <c r="F33" s="3">
-        <v>697500</v>
+        <v>664700</v>
       </c>
       <c r="G33" s="3">
-        <v>636300</v>
+        <v>606400</v>
       </c>
       <c r="H33" s="3">
-        <v>547800</v>
+        <v>522100</v>
       </c>
       <c r="I33" s="3">
-        <v>492700</v>
+        <v>469500</v>
       </c>
       <c r="J33" s="3">
-        <v>356800</v>
+        <v>340000</v>
       </c>
       <c r="K33" s="3">
         <v>421400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="E35" s="3">
-        <v>753700</v>
+        <v>718300</v>
       </c>
       <c r="F35" s="3">
-        <v>697500</v>
+        <v>664700</v>
       </c>
       <c r="G35" s="3">
-        <v>636300</v>
+        <v>606400</v>
       </c>
       <c r="H35" s="3">
-        <v>547800</v>
+        <v>522100</v>
       </c>
       <c r="I35" s="3">
-        <v>492700</v>
+        <v>469500</v>
       </c>
       <c r="J35" s="3">
-        <v>356800</v>
+        <v>340000</v>
       </c>
       <c r="K35" s="3">
         <v>421400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2632400</v>
+        <v>2508600</v>
       </c>
       <c r="E41" s="3">
-        <v>2382500</v>
+        <v>2270500</v>
       </c>
       <c r="F41" s="3">
-        <v>3441400</v>
+        <v>3279600</v>
       </c>
       <c r="G41" s="3">
-        <v>3012800</v>
+        <v>2871200</v>
       </c>
       <c r="H41" s="3">
-        <v>2984900</v>
+        <v>2844600</v>
       </c>
       <c r="I41" s="3">
-        <v>2793600</v>
+        <v>2662300</v>
       </c>
       <c r="J41" s="3">
-        <v>1352600</v>
+        <v>1289100</v>
       </c>
       <c r="K41" s="3">
         <v>2078800</v>
@@ -1783,16 +1783,16 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="3">
-        <v>68700</v>
+        <v>65400</v>
       </c>
       <c r="I42" s="3">
-        <v>86700</v>
+        <v>82600</v>
       </c>
       <c r="J42" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="K42" s="3">
         <v>78700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1771500</v>
+        <v>1688200</v>
       </c>
       <c r="E43" s="3">
-        <v>1898900</v>
+        <v>1809600</v>
       </c>
       <c r="F43" s="3">
-        <v>1557900</v>
+        <v>1484700</v>
       </c>
       <c r="G43" s="3">
-        <v>1259500</v>
+        <v>1200300</v>
       </c>
       <c r="H43" s="3">
-        <v>1198000</v>
+        <v>1141700</v>
       </c>
       <c r="I43" s="3">
-        <v>1014000</v>
+        <v>966300</v>
       </c>
       <c r="J43" s="3">
-        <v>1676800</v>
+        <v>1598000</v>
       </c>
       <c r="K43" s="3">
         <v>670200</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>202500</v>
+        <v>193000</v>
       </c>
       <c r="E45" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="F45" s="3">
-        <v>147100</v>
+        <v>140200</v>
       </c>
       <c r="G45" s="3">
-        <v>135500</v>
+        <v>129200</v>
       </c>
       <c r="H45" s="3">
-        <v>122100</v>
+        <v>116400</v>
       </c>
       <c r="I45" s="3">
-        <v>76100</v>
+        <v>72500</v>
       </c>
       <c r="J45" s="3">
-        <v>295500</v>
+        <v>281600</v>
       </c>
       <c r="K45" s="3">
         <v>67100</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4606300</v>
+        <v>4389800</v>
       </c>
       <c r="E46" s="3">
-        <v>4494500</v>
+        <v>4283200</v>
       </c>
       <c r="F46" s="3">
-        <v>5147200</v>
+        <v>4905200</v>
       </c>
       <c r="G46" s="3">
-        <v>4409400</v>
+        <v>4202100</v>
       </c>
       <c r="H46" s="3">
-        <v>4373700</v>
+        <v>4168200</v>
       </c>
       <c r="I46" s="3">
-        <v>3970400</v>
+        <v>3783800</v>
       </c>
       <c r="J46" s="3">
-        <v>2426100</v>
+        <v>2312100</v>
       </c>
       <c r="K46" s="3">
         <v>2894800</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>212700</v>
+        <v>202700</v>
       </c>
       <c r="E47" s="3">
-        <v>217900</v>
+        <v>207700</v>
       </c>
       <c r="F47" s="3">
-        <v>204800</v>
+        <v>195200</v>
       </c>
       <c r="G47" s="3">
-        <v>193900</v>
+        <v>184800</v>
       </c>
       <c r="H47" s="3">
-        <v>209400</v>
+        <v>199500</v>
       </c>
       <c r="I47" s="3">
-        <v>151700</v>
+        <v>144600</v>
       </c>
       <c r="J47" s="3">
-        <v>85200</v>
+        <v>81200</v>
       </c>
       <c r="K47" s="3">
         <v>57700</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1054800</v>
+        <v>1005300</v>
       </c>
       <c r="E48" s="3">
-        <v>1102100</v>
+        <v>1050300</v>
       </c>
       <c r="F48" s="3">
-        <v>218300</v>
+        <v>208000</v>
       </c>
       <c r="G48" s="3">
-        <v>207000</v>
+        <v>197200</v>
       </c>
       <c r="H48" s="3">
-        <v>165900</v>
+        <v>158100</v>
       </c>
       <c r="I48" s="3">
-        <v>165800</v>
+        <v>158000</v>
       </c>
       <c r="J48" s="3">
-        <v>335000</v>
+        <v>319200</v>
       </c>
       <c r="K48" s="3">
         <v>120200</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9723100</v>
+        <v>9266100</v>
       </c>
       <c r="E49" s="3">
-        <v>10923200</v>
+        <v>10409800</v>
       </c>
       <c r="F49" s="3">
-        <v>3996300</v>
+        <v>3808400</v>
       </c>
       <c r="G49" s="3">
-        <v>3662900</v>
+        <v>3490700</v>
       </c>
       <c r="H49" s="3">
-        <v>3585000</v>
+        <v>3416400</v>
       </c>
       <c r="I49" s="3">
-        <v>3291700</v>
+        <v>3137000</v>
       </c>
       <c r="J49" s="3">
-        <v>6591300</v>
+        <v>6281400</v>
       </c>
       <c r="K49" s="3">
         <v>1832300</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>284100</v>
+        <v>270700</v>
       </c>
       <c r="E52" s="3">
-        <v>256000</v>
+        <v>244000</v>
       </c>
       <c r="F52" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="G52" s="3">
-        <v>138300</v>
+        <v>131800</v>
       </c>
       <c r="H52" s="3">
-        <v>171300</v>
+        <v>163200</v>
       </c>
       <c r="I52" s="3">
-        <v>151800</v>
+        <v>144700</v>
       </c>
       <c r="J52" s="3">
-        <v>296700</v>
+        <v>282800</v>
       </c>
       <c r="K52" s="3">
         <v>104600</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15881000</v>
+        <v>15134500</v>
       </c>
       <c r="E54" s="3">
-        <v>16993800</v>
+        <v>16195000</v>
       </c>
       <c r="F54" s="3">
-        <v>9768100</v>
+        <v>9308900</v>
       </c>
       <c r="G54" s="3">
-        <v>8611400</v>
+        <v>8206700</v>
       </c>
       <c r="H54" s="3">
-        <v>8505200</v>
+        <v>8105400</v>
       </c>
       <c r="I54" s="3">
-        <v>7731400</v>
+        <v>7368000</v>
       </c>
       <c r="J54" s="3">
-        <v>6078900</v>
+        <v>5793100</v>
       </c>
       <c r="K54" s="3">
         <v>5009600</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>210300</v>
+        <v>200400</v>
       </c>
       <c r="E57" s="3">
-        <v>269500</v>
+        <v>256800</v>
       </c>
       <c r="F57" s="3">
-        <v>198100</v>
+        <v>188800</v>
       </c>
       <c r="G57" s="3">
-        <v>182900</v>
+        <v>174300</v>
       </c>
       <c r="H57" s="3">
-        <v>177500</v>
+        <v>169100</v>
       </c>
       <c r="I57" s="3">
-        <v>146800</v>
+        <v>139900</v>
       </c>
       <c r="J57" s="3">
-        <v>159600</v>
+        <v>152100</v>
       </c>
       <c r="K57" s="3">
         <v>101600</v>
@@ -2310,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>113300</v>
+        <v>108000</v>
       </c>
       <c r="E58" s="3">
-        <v>101700</v>
+        <v>96900</v>
       </c>
       <c r="F58" s="3">
-        <v>428700</v>
+        <v>408600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>51</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="K58" s="3">
         <v>24000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2232800</v>
+        <v>2127800</v>
       </c>
       <c r="E59" s="3">
-        <v>2242800</v>
+        <v>2137400</v>
       </c>
       <c r="F59" s="3">
-        <v>1851100</v>
+        <v>1764100</v>
       </c>
       <c r="G59" s="3">
-        <v>1688200</v>
+        <v>1608900</v>
       </c>
       <c r="H59" s="3">
-        <v>1617900</v>
+        <v>1541900</v>
       </c>
       <c r="I59" s="3">
-        <v>1460300</v>
+        <v>1391600</v>
       </c>
       <c r="J59" s="3">
-        <v>1668900</v>
+        <v>1590400</v>
       </c>
       <c r="K59" s="3">
         <v>1011400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2556400</v>
+        <v>2436300</v>
       </c>
       <c r="E60" s="3">
-        <v>2614000</v>
+        <v>2491100</v>
       </c>
       <c r="F60" s="3">
-        <v>2477900</v>
+        <v>2361400</v>
       </c>
       <c r="G60" s="3">
-        <v>1871100</v>
+        <v>1783200</v>
       </c>
       <c r="H60" s="3">
-        <v>1795400</v>
+        <v>1711000</v>
       </c>
       <c r="I60" s="3">
-        <v>1607000</v>
+        <v>1531500</v>
       </c>
       <c r="J60" s="3">
-        <v>1390200</v>
+        <v>1324900</v>
       </c>
       <c r="K60" s="3">
         <v>1062500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5805000</v>
+        <v>5532100</v>
       </c>
       <c r="E61" s="3">
-        <v>6381700</v>
+        <v>6081700</v>
       </c>
       <c r="F61" s="3">
-        <v>796200</v>
+        <v>758800</v>
       </c>
       <c r="G61" s="3">
-        <v>1225000</v>
+        <v>1167400</v>
       </c>
       <c r="H61" s="3">
-        <v>1225000</v>
+        <v>1167400</v>
       </c>
       <c r="I61" s="3">
-        <v>1225000</v>
+        <v>1167400</v>
       </c>
       <c r="J61" s="3">
-        <v>428700</v>
+        <v>408600</v>
       </c>
       <c r="K61" s="3">
         <v>430700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1264700</v>
+        <v>1205200</v>
       </c>
       <c r="E62" s="3">
-        <v>1551600</v>
+        <v>1478600</v>
       </c>
       <c r="F62" s="3">
-        <v>827200</v>
+        <v>788400</v>
       </c>
       <c r="G62" s="3">
-        <v>620200</v>
+        <v>591100</v>
       </c>
       <c r="H62" s="3">
-        <v>728400</v>
+        <v>694100</v>
       </c>
       <c r="I62" s="3">
-        <v>627000</v>
+        <v>597600</v>
       </c>
       <c r="J62" s="3">
-        <v>1271700</v>
+        <v>1211900</v>
       </c>
       <c r="K62" s="3">
         <v>632000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9681000</v>
+        <v>9225900</v>
       </c>
       <c r="E66" s="3">
-        <v>10613300</v>
+        <v>10114400</v>
       </c>
       <c r="F66" s="3">
-        <v>4179700</v>
+        <v>3983200</v>
       </c>
       <c r="G66" s="3">
-        <v>3718600</v>
+        <v>3543800</v>
       </c>
       <c r="H66" s="3">
-        <v>3776400</v>
+        <v>3598900</v>
       </c>
       <c r="I66" s="3">
-        <v>3482500</v>
+        <v>3318800</v>
       </c>
       <c r="J66" s="3">
-        <v>2473200</v>
+        <v>2356900</v>
       </c>
       <c r="K66" s="3">
         <v>1886800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6178500</v>
+        <v>5888100</v>
       </c>
       <c r="E72" s="3">
-        <v>5700100</v>
+        <v>5432200</v>
       </c>
       <c r="F72" s="3">
-        <v>4904200</v>
+        <v>4673700</v>
       </c>
       <c r="G72" s="3">
-        <v>4384200</v>
+        <v>4178100</v>
       </c>
       <c r="H72" s="3">
-        <v>3887700</v>
+        <v>3704900</v>
       </c>
       <c r="I72" s="3">
-        <v>3427000</v>
+        <v>3265900</v>
       </c>
       <c r="J72" s="3">
-        <v>3049800</v>
+        <v>2906500</v>
       </c>
       <c r="K72" s="3">
         <v>2770700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6200200</v>
+        <v>5908700</v>
       </c>
       <c r="E76" s="3">
-        <v>6380700</v>
+        <v>6080800</v>
       </c>
       <c r="F76" s="3">
-        <v>5588400</v>
+        <v>5325700</v>
       </c>
       <c r="G76" s="3">
-        <v>4892800</v>
+        <v>4662800</v>
       </c>
       <c r="H76" s="3">
-        <v>4728700</v>
+        <v>4506500</v>
       </c>
       <c r="I76" s="3">
-        <v>4248900</v>
+        <v>4049200</v>
       </c>
       <c r="J76" s="3">
-        <v>3605700</v>
+        <v>3436200</v>
       </c>
       <c r="K76" s="3">
         <v>3122700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="E81" s="3">
-        <v>753700</v>
+        <v>718300</v>
       </c>
       <c r="F81" s="3">
-        <v>697500</v>
+        <v>664700</v>
       </c>
       <c r="G81" s="3">
-        <v>636300</v>
+        <v>606400</v>
       </c>
       <c r="H81" s="3">
-        <v>547800</v>
+        <v>522100</v>
       </c>
       <c r="I81" s="3">
-        <v>492700</v>
+        <v>469500</v>
       </c>
       <c r="J81" s="3">
-        <v>356800</v>
+        <v>340000</v>
       </c>
       <c r="K81" s="3">
         <v>421400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>740500</v>
+        <v>705700</v>
       </c>
       <c r="E83" s="3">
-        <v>485100</v>
+        <v>462300</v>
       </c>
       <c r="F83" s="3">
-        <v>291200</v>
+        <v>277500</v>
       </c>
       <c r="G83" s="3">
-        <v>266700</v>
+        <v>254100</v>
       </c>
       <c r="H83" s="3">
-        <v>252900</v>
+        <v>241000</v>
       </c>
       <c r="I83" s="3">
-        <v>259000</v>
+        <v>246800</v>
       </c>
       <c r="J83" s="3">
-        <v>216000</v>
+        <v>205900</v>
       </c>
       <c r="K83" s="3">
         <v>169100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1520600</v>
+        <v>1449100</v>
       </c>
       <c r="E89" s="3">
-        <v>1452800</v>
+        <v>1384500</v>
       </c>
       <c r="F89" s="3">
-        <v>1100800</v>
+        <v>1049000</v>
       </c>
       <c r="G89" s="3">
-        <v>912600</v>
+        <v>869700</v>
       </c>
       <c r="H89" s="3">
-        <v>761600</v>
+        <v>725800</v>
       </c>
       <c r="I89" s="3">
-        <v>775700</v>
+        <v>739300</v>
       </c>
       <c r="J89" s="3">
-        <v>611800</v>
+        <v>583100</v>
       </c>
       <c r="K89" s="3">
         <v>606300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155600</v>
+        <v>-148300</v>
       </c>
       <c r="E91" s="3">
-        <v>-120400</v>
+        <v>-114800</v>
       </c>
       <c r="F91" s="3">
-        <v>-88700</v>
+        <v>-84500</v>
       </c>
       <c r="G91" s="3">
-        <v>-103600</v>
+        <v>-98700</v>
       </c>
       <c r="H91" s="3">
-        <v>-69400</v>
+        <v>-66100</v>
       </c>
       <c r="I91" s="3">
-        <v>-53400</v>
+        <v>-50900</v>
       </c>
       <c r="J91" s="3">
-        <v>-55600</v>
+        <v>-53000</v>
       </c>
       <c r="K91" s="3">
         <v>-50700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-254800</v>
+        <v>-242800</v>
       </c>
       <c r="E94" s="3">
-        <v>-6535100</v>
+        <v>-6227900</v>
       </c>
       <c r="F94" s="3">
-        <v>-395900</v>
+        <v>-377300</v>
       </c>
       <c r="G94" s="3">
-        <v>-450100</v>
+        <v>-428900</v>
       </c>
       <c r="H94" s="3">
-        <v>-366200</v>
+        <v>-349000</v>
       </c>
       <c r="I94" s="3">
-        <v>-74100</v>
+        <v>-70700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1226000</v>
+        <v>-1168400</v>
       </c>
       <c r="K94" s="3">
         <v>-201700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-223600</v>
+        <v>-213100</v>
       </c>
       <c r="E96" s="3">
-        <v>-206800</v>
+        <v>-197100</v>
       </c>
       <c r="F96" s="3">
-        <v>-46500</v>
+        <v>-44400</v>
       </c>
       <c r="G96" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H96" s="3">
-        <v>-124900</v>
+        <v>-119000</v>
       </c>
       <c r="I96" s="3">
-        <v>-120600</v>
+        <v>-114900</v>
       </c>
       <c r="J96" s="3">
-        <v>-43800</v>
+        <v>-41800</v>
       </c>
       <c r="K96" s="3">
         <v>-41600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-908800</v>
+        <v>-866100</v>
       </c>
       <c r="E100" s="3">
-        <v>3978200</v>
+        <v>3791200</v>
       </c>
       <c r="F100" s="3">
-        <v>-356200</v>
+        <v>-339500</v>
       </c>
       <c r="G100" s="3">
-        <v>-195300</v>
+        <v>-186100</v>
       </c>
       <c r="H100" s="3">
-        <v>-247900</v>
+        <v>-236300</v>
       </c>
       <c r="I100" s="3">
-        <v>671800</v>
+        <v>640200</v>
       </c>
       <c r="J100" s="3">
-        <v>-208500</v>
+        <v>-198700</v>
       </c>
       <c r="K100" s="3">
         <v>330400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-107100</v>
+        <v>-102000</v>
       </c>
       <c r="E101" s="3">
-        <v>45200</v>
+        <v>43100</v>
       </c>
       <c r="F101" s="3">
-        <v>80000</v>
+        <v>76200</v>
       </c>
       <c r="G101" s="3">
-        <v>-239400</v>
+        <v>-228200</v>
       </c>
       <c r="H101" s="3">
-        <v>43800</v>
+        <v>41700</v>
       </c>
       <c r="I101" s="3">
-        <v>67600</v>
+        <v>64400</v>
       </c>
       <c r="J101" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="K101" s="3">
         <v>-42900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>249900</v>
+        <v>238200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1058900</v>
+        <v>-1009100</v>
       </c>
       <c r="F102" s="3">
-        <v>428600</v>
+        <v>408500</v>
       </c>
       <c r="G102" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="H102" s="3">
-        <v>191300</v>
+        <v>182300</v>
       </c>
       <c r="I102" s="3">
-        <v>1441000</v>
+        <v>1373300</v>
       </c>
       <c r="J102" s="3">
-        <v>-776200</v>
+        <v>-739700</v>
       </c>
       <c r="K102" s="3">
         <v>692100</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5197500</v>
+        <v>5027000</v>
       </c>
       <c r="E8" s="3">
-        <v>4690900</v>
+        <v>4536900</v>
       </c>
       <c r="F8" s="3">
-        <v>4059600</v>
+        <v>3926300</v>
       </c>
       <c r="G8" s="3">
-        <v>3768400</v>
+        <v>3644700</v>
       </c>
       <c r="H8" s="3">
-        <v>3567100</v>
+        <v>3450100</v>
       </c>
       <c r="I8" s="3">
-        <v>3314800</v>
+        <v>3206000</v>
       </c>
       <c r="J8" s="3">
-        <v>2678400</v>
+        <v>2590500</v>
       </c>
       <c r="K8" s="3">
         <v>2471500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>875100</v>
+        <v>846400</v>
       </c>
       <c r="E9" s="3">
-        <v>739700</v>
+        <v>715400</v>
       </c>
       <c r="F9" s="3">
-        <v>596300</v>
+        <v>576700</v>
       </c>
       <c r="G9" s="3">
-        <v>553300</v>
+        <v>535200</v>
       </c>
       <c r="H9" s="3">
-        <v>541200</v>
+        <v>523400</v>
       </c>
       <c r="I9" s="3">
-        <v>511200</v>
+        <v>494500</v>
       </c>
       <c r="J9" s="3">
-        <v>400700</v>
+        <v>387600</v>
       </c>
       <c r="K9" s="3">
         <v>312600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4322500</v>
+        <v>4180600</v>
       </c>
       <c r="E10" s="3">
-        <v>3951200</v>
+        <v>3821600</v>
       </c>
       <c r="F10" s="3">
-        <v>3463200</v>
+        <v>3349600</v>
       </c>
       <c r="G10" s="3">
-        <v>3215100</v>
+        <v>3109600</v>
       </c>
       <c r="H10" s="3">
-        <v>3025900</v>
+        <v>2926600</v>
       </c>
       <c r="I10" s="3">
-        <v>2803600</v>
+        <v>2711600</v>
       </c>
       <c r="J10" s="3">
-        <v>2277700</v>
+        <v>2202900</v>
       </c>
       <c r="K10" s="3">
         <v>2158900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>88400</v>
+        <v>85500</v>
       </c>
       <c r="E12" s="3">
-        <v>81100</v>
+        <v>78500</v>
       </c>
       <c r="F12" s="3">
-        <v>736800</v>
+        <v>712600</v>
       </c>
       <c r="G12" s="3">
-        <v>673100</v>
+        <v>651000</v>
       </c>
       <c r="H12" s="3">
-        <v>631000</v>
+        <v>610300</v>
       </c>
       <c r="I12" s="3">
-        <v>574900</v>
+        <v>556100</v>
       </c>
       <c r="J12" s="3">
-        <v>478200</v>
+        <v>462500</v>
       </c>
       <c r="K12" s="3">
         <v>449200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>65300</v>
+        <v>63100</v>
       </c>
       <c r="E14" s="3">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="F14" s="3">
-        <v>44800</v>
+        <v>43400</v>
       </c>
       <c r="G14" s="3">
-        <v>34900</v>
+        <v>33800</v>
       </c>
       <c r="H14" s="3">
-        <v>47400</v>
+        <v>45800</v>
       </c>
       <c r="I14" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="J14" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="K14" s="3">
         <v>14700</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>460500</v>
+        <v>445400</v>
       </c>
       <c r="E15" s="3">
-        <v>284800</v>
+        <v>275500</v>
       </c>
       <c r="F15" s="3">
-        <v>200300</v>
+        <v>193800</v>
       </c>
       <c r="G15" s="3">
-        <v>187100</v>
+        <v>181000</v>
       </c>
       <c r="H15" s="3">
-        <v>181900</v>
+        <v>175900</v>
       </c>
       <c r="I15" s="3">
-        <v>186300</v>
+        <v>180200</v>
       </c>
       <c r="J15" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="K15" s="3">
         <v>120800</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4415700</v>
+        <v>4270800</v>
       </c>
       <c r="E17" s="3">
-        <v>3742000</v>
+        <v>3619200</v>
       </c>
       <c r="F17" s="3">
-        <v>3162700</v>
+        <v>3059000</v>
       </c>
       <c r="G17" s="3">
-        <v>2917400</v>
+        <v>2821600</v>
       </c>
       <c r="H17" s="3">
-        <v>2782600</v>
+        <v>2691300</v>
       </c>
       <c r="I17" s="3">
-        <v>2575600</v>
+        <v>2491100</v>
       </c>
       <c r="J17" s="3">
-        <v>2175400</v>
+        <v>2104000</v>
       </c>
       <c r="K17" s="3">
         <v>1869800</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>781800</v>
+        <v>756200</v>
       </c>
       <c r="E18" s="3">
-        <v>948900</v>
+        <v>917700</v>
       </c>
       <c r="F18" s="3">
-        <v>896800</v>
+        <v>867400</v>
       </c>
       <c r="G18" s="3">
-        <v>851000</v>
+        <v>823100</v>
       </c>
       <c r="H18" s="3">
-        <v>784500</v>
+        <v>758800</v>
       </c>
       <c r="I18" s="3">
-        <v>739200</v>
+        <v>715000</v>
       </c>
       <c r="J18" s="3">
-        <v>502900</v>
+        <v>486400</v>
       </c>
       <c r="K18" s="3">
         <v>601700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="F20" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="G20" s="3">
-        <v>40700</v>
+        <v>39300</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="J20" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="K20" s="3">
         <v>25100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1505800</v>
+        <v>1455900</v>
       </c>
       <c r="E21" s="3">
-        <v>1445600</v>
+        <v>1397800</v>
       </c>
       <c r="F21" s="3">
-        <v>1211300</v>
+        <v>1171400</v>
       </c>
       <c r="G21" s="3">
-        <v>1146600</v>
+        <v>1108800</v>
       </c>
       <c r="H21" s="3">
-        <v>1028800</v>
+        <v>994900</v>
       </c>
       <c r="I21" s="3">
-        <v>995300</v>
+        <v>962400</v>
       </c>
       <c r="J21" s="3">
-        <v>733600</v>
+        <v>709300</v>
       </c>
       <c r="K21" s="3">
         <v>795200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="E22" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="F22" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="G22" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H22" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="I22" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J22" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="K22" s="3">
         <v>3700</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>754500</v>
+        <v>729700</v>
       </c>
       <c r="E23" s="3">
-        <v>952500</v>
+        <v>921200</v>
       </c>
       <c r="F23" s="3">
-        <v>915000</v>
+        <v>885000</v>
       </c>
       <c r="G23" s="3">
-        <v>877200</v>
+        <v>848400</v>
       </c>
       <c r="H23" s="3">
-        <v>772200</v>
+        <v>746900</v>
       </c>
       <c r="I23" s="3">
-        <v>739100</v>
+        <v>714800</v>
       </c>
       <c r="J23" s="3">
-        <v>520400</v>
+        <v>503300</v>
       </c>
       <c r="K23" s="3">
         <v>623200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>187700</v>
+        <v>181600</v>
       </c>
       <c r="E24" s="3">
-        <v>244700</v>
+        <v>236700</v>
       </c>
       <c r="F24" s="3">
-        <v>257300</v>
+        <v>248900</v>
       </c>
       <c r="G24" s="3">
-        <v>270000</v>
+        <v>261100</v>
       </c>
       <c r="H24" s="3">
-        <v>244300</v>
+        <v>236300</v>
       </c>
       <c r="I24" s="3">
-        <v>265200</v>
+        <v>256500</v>
       </c>
       <c r="J24" s="3">
-        <v>179000</v>
+        <v>173100</v>
       </c>
       <c r="K24" s="3">
         <v>198400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>566800</v>
+        <v>548200</v>
       </c>
       <c r="E26" s="3">
-        <v>707800</v>
+        <v>684600</v>
       </c>
       <c r="F26" s="3">
-        <v>657700</v>
+        <v>636100</v>
       </c>
       <c r="G26" s="3">
-        <v>607200</v>
+        <v>587300</v>
       </c>
       <c r="H26" s="3">
-        <v>527900</v>
+        <v>510600</v>
       </c>
       <c r="I26" s="3">
-        <v>473900</v>
+        <v>458400</v>
       </c>
       <c r="J26" s="3">
-        <v>341400</v>
+        <v>330200</v>
       </c>
       <c r="K26" s="3">
         <v>424900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="E27" s="3">
-        <v>718300</v>
+        <v>694700</v>
       </c>
       <c r="F27" s="3">
-        <v>664700</v>
+        <v>642900</v>
       </c>
       <c r="G27" s="3">
-        <v>606400</v>
+        <v>586500</v>
       </c>
       <c r="H27" s="3">
-        <v>522100</v>
+        <v>504900</v>
       </c>
       <c r="I27" s="3">
-        <v>469500</v>
+        <v>454100</v>
       </c>
       <c r="J27" s="3">
-        <v>340000</v>
+        <v>328800</v>
       </c>
       <c r="K27" s="3">
         <v>421400</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16100</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="F32" s="3">
-        <v>-36200</v>
+        <v>-35000</v>
       </c>
       <c r="G32" s="3">
-        <v>-40700</v>
+        <v>-39300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="J32" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="K32" s="3">
         <v>-25100</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="E33" s="3">
-        <v>718300</v>
+        <v>694700</v>
       </c>
       <c r="F33" s="3">
-        <v>664700</v>
+        <v>642900</v>
       </c>
       <c r="G33" s="3">
-        <v>606400</v>
+        <v>586500</v>
       </c>
       <c r="H33" s="3">
-        <v>522100</v>
+        <v>504900</v>
       </c>
       <c r="I33" s="3">
-        <v>469500</v>
+        <v>454100</v>
       </c>
       <c r="J33" s="3">
-        <v>340000</v>
+        <v>328800</v>
       </c>
       <c r="K33" s="3">
         <v>421400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="E35" s="3">
-        <v>718300</v>
+        <v>694700</v>
       </c>
       <c r="F35" s="3">
-        <v>664700</v>
+        <v>642900</v>
       </c>
       <c r="G35" s="3">
-        <v>606400</v>
+        <v>586500</v>
       </c>
       <c r="H35" s="3">
-        <v>522100</v>
+        <v>504900</v>
       </c>
       <c r="I35" s="3">
-        <v>469500</v>
+        <v>454100</v>
       </c>
       <c r="J35" s="3">
-        <v>340000</v>
+        <v>328800</v>
       </c>
       <c r="K35" s="3">
         <v>421400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2508600</v>
+        <v>2426300</v>
       </c>
       <c r="E41" s="3">
-        <v>2270500</v>
+        <v>2196000</v>
       </c>
       <c r="F41" s="3">
-        <v>3279600</v>
+        <v>3172000</v>
       </c>
       <c r="G41" s="3">
-        <v>2871200</v>
+        <v>2777000</v>
       </c>
       <c r="H41" s="3">
-        <v>2844600</v>
+        <v>2751300</v>
       </c>
       <c r="I41" s="3">
-        <v>2662300</v>
+        <v>2575000</v>
       </c>
       <c r="J41" s="3">
-        <v>1289100</v>
+        <v>1246800</v>
       </c>
       <c r="K41" s="3">
         <v>2078800</v>
@@ -1783,16 +1783,16 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H42" s="3">
-        <v>65400</v>
+        <v>63300</v>
       </c>
       <c r="I42" s="3">
-        <v>82600</v>
+        <v>79900</v>
       </c>
       <c r="J42" s="3">
-        <v>83200</v>
+        <v>80500</v>
       </c>
       <c r="K42" s="3">
         <v>78700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1688200</v>
+        <v>1632800</v>
       </c>
       <c r="E43" s="3">
-        <v>1809600</v>
+        <v>1750200</v>
       </c>
       <c r="F43" s="3">
-        <v>1484700</v>
+        <v>1436000</v>
       </c>
       <c r="G43" s="3">
-        <v>1200300</v>
+        <v>1160900</v>
       </c>
       <c r="H43" s="3">
-        <v>1141700</v>
+        <v>1104300</v>
       </c>
       <c r="I43" s="3">
-        <v>966300</v>
+        <v>934600</v>
       </c>
       <c r="J43" s="3">
-        <v>1598000</v>
+        <v>1545500</v>
       </c>
       <c r="K43" s="3">
         <v>670200</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>193000</v>
+        <v>186600</v>
       </c>
       <c r="E45" s="3">
-        <v>203100</v>
+        <v>196500</v>
       </c>
       <c r="F45" s="3">
-        <v>140200</v>
+        <v>135600</v>
       </c>
       <c r="G45" s="3">
-        <v>129200</v>
+        <v>124900</v>
       </c>
       <c r="H45" s="3">
-        <v>116400</v>
+        <v>112500</v>
       </c>
       <c r="I45" s="3">
-        <v>72500</v>
+        <v>70200</v>
       </c>
       <c r="J45" s="3">
-        <v>281600</v>
+        <v>272300</v>
       </c>
       <c r="K45" s="3">
         <v>67100</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4389800</v>
+        <v>4245800</v>
       </c>
       <c r="E46" s="3">
-        <v>4283200</v>
+        <v>4142700</v>
       </c>
       <c r="F46" s="3">
-        <v>4905200</v>
+        <v>4744300</v>
       </c>
       <c r="G46" s="3">
-        <v>4202100</v>
+        <v>4064200</v>
       </c>
       <c r="H46" s="3">
-        <v>4168200</v>
+        <v>4031400</v>
       </c>
       <c r="I46" s="3">
-        <v>3783800</v>
+        <v>3659600</v>
       </c>
       <c r="J46" s="3">
-        <v>2312100</v>
+        <v>2236200</v>
       </c>
       <c r="K46" s="3">
         <v>2894800</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>202700</v>
+        <v>196000</v>
       </c>
       <c r="E47" s="3">
-        <v>207700</v>
+        <v>200900</v>
       </c>
       <c r="F47" s="3">
-        <v>195200</v>
+        <v>188800</v>
       </c>
       <c r="G47" s="3">
-        <v>184800</v>
+        <v>178700</v>
       </c>
       <c r="H47" s="3">
-        <v>199500</v>
+        <v>193000</v>
       </c>
       <c r="I47" s="3">
-        <v>144600</v>
+        <v>139800</v>
       </c>
       <c r="J47" s="3">
-        <v>81200</v>
+        <v>78500</v>
       </c>
       <c r="K47" s="3">
         <v>57700</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1005300</v>
+        <v>972300</v>
       </c>
       <c r="E48" s="3">
-        <v>1050300</v>
+        <v>1015900</v>
       </c>
       <c r="F48" s="3">
-        <v>208000</v>
+        <v>201200</v>
       </c>
       <c r="G48" s="3">
-        <v>197200</v>
+        <v>190800</v>
       </c>
       <c r="H48" s="3">
-        <v>158100</v>
+        <v>152900</v>
       </c>
       <c r="I48" s="3">
-        <v>158000</v>
+        <v>152800</v>
       </c>
       <c r="J48" s="3">
-        <v>319200</v>
+        <v>308700</v>
       </c>
       <c r="K48" s="3">
         <v>120200</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>9266100</v>
+        <v>8962000</v>
       </c>
       <c r="E49" s="3">
-        <v>10409800</v>
+        <v>10068200</v>
       </c>
       <c r="F49" s="3">
-        <v>3808400</v>
+        <v>3683500</v>
       </c>
       <c r="G49" s="3">
-        <v>3490700</v>
+        <v>3376200</v>
       </c>
       <c r="H49" s="3">
-        <v>3416400</v>
+        <v>3304300</v>
       </c>
       <c r="I49" s="3">
-        <v>3137000</v>
+        <v>3034100</v>
       </c>
       <c r="J49" s="3">
-        <v>6281400</v>
+        <v>6075300</v>
       </c>
       <c r="K49" s="3">
         <v>1832300</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>270700</v>
+        <v>261800</v>
       </c>
       <c r="E52" s="3">
-        <v>244000</v>
+        <v>236000</v>
       </c>
       <c r="F52" s="3">
-        <v>192000</v>
+        <v>185700</v>
       </c>
       <c r="G52" s="3">
-        <v>131800</v>
+        <v>127500</v>
       </c>
       <c r="H52" s="3">
-        <v>163200</v>
+        <v>157900</v>
       </c>
       <c r="I52" s="3">
-        <v>144700</v>
+        <v>139900</v>
       </c>
       <c r="J52" s="3">
-        <v>282800</v>
+        <v>273500</v>
       </c>
       <c r="K52" s="3">
         <v>104600</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15134500</v>
+        <v>14637900</v>
       </c>
       <c r="E54" s="3">
-        <v>16195000</v>
+        <v>15663600</v>
       </c>
       <c r="F54" s="3">
-        <v>9308900</v>
+        <v>9003400</v>
       </c>
       <c r="G54" s="3">
-        <v>8206700</v>
+        <v>7937400</v>
       </c>
       <c r="H54" s="3">
-        <v>8105400</v>
+        <v>7839400</v>
       </c>
       <c r="I54" s="3">
-        <v>7368000</v>
+        <v>7126200</v>
       </c>
       <c r="J54" s="3">
-        <v>5793100</v>
+        <v>5603000</v>
       </c>
       <c r="K54" s="3">
         <v>5009600</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>200400</v>
+        <v>193900</v>
       </c>
       <c r="E57" s="3">
-        <v>256800</v>
+        <v>248400</v>
       </c>
       <c r="F57" s="3">
-        <v>188800</v>
+        <v>182600</v>
       </c>
       <c r="G57" s="3">
-        <v>174300</v>
+        <v>168600</v>
       </c>
       <c r="H57" s="3">
-        <v>169100</v>
+        <v>163600</v>
       </c>
       <c r="I57" s="3">
-        <v>139900</v>
+        <v>135300</v>
       </c>
       <c r="J57" s="3">
-        <v>152100</v>
+        <v>147200</v>
       </c>
       <c r="K57" s="3">
         <v>101600</v>
@@ -2310,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>108000</v>
+        <v>104400</v>
       </c>
       <c r="E58" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="F58" s="3">
-        <v>408600</v>
+        <v>395200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>51</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="K58" s="3">
         <v>24000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2127800</v>
+        <v>2058000</v>
       </c>
       <c r="E59" s="3">
-        <v>2137400</v>
+        <v>2067300</v>
       </c>
       <c r="F59" s="3">
-        <v>1764100</v>
+        <v>1706200</v>
       </c>
       <c r="G59" s="3">
-        <v>1608900</v>
+        <v>1556100</v>
       </c>
       <c r="H59" s="3">
-        <v>1541900</v>
+        <v>1491300</v>
       </c>
       <c r="I59" s="3">
-        <v>1391600</v>
+        <v>1346000</v>
       </c>
       <c r="J59" s="3">
-        <v>1590400</v>
+        <v>1538200</v>
       </c>
       <c r="K59" s="3">
         <v>1011400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2436300</v>
+        <v>2356300</v>
       </c>
       <c r="E60" s="3">
-        <v>2491100</v>
+        <v>2409400</v>
       </c>
       <c r="F60" s="3">
-        <v>2361400</v>
+        <v>2283900</v>
       </c>
       <c r="G60" s="3">
-        <v>1783200</v>
+        <v>1724700</v>
       </c>
       <c r="H60" s="3">
-        <v>1711000</v>
+        <v>1654900</v>
       </c>
       <c r="I60" s="3">
-        <v>1531500</v>
+        <v>1481200</v>
       </c>
       <c r="J60" s="3">
-        <v>1324900</v>
+        <v>1281400</v>
       </c>
       <c r="K60" s="3">
         <v>1062500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5532100</v>
+        <v>5350600</v>
       </c>
       <c r="E61" s="3">
-        <v>6081700</v>
+        <v>5882200</v>
       </c>
       <c r="F61" s="3">
-        <v>758800</v>
+        <v>733900</v>
       </c>
       <c r="G61" s="3">
-        <v>1167400</v>
+        <v>1129100</v>
       </c>
       <c r="H61" s="3">
-        <v>1167400</v>
+        <v>1129100</v>
       </c>
       <c r="I61" s="3">
-        <v>1167400</v>
+        <v>1129100</v>
       </c>
       <c r="J61" s="3">
-        <v>408600</v>
+        <v>395200</v>
       </c>
       <c r="K61" s="3">
         <v>430700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1205200</v>
+        <v>1165700</v>
       </c>
       <c r="E62" s="3">
-        <v>1478600</v>
+        <v>1430100</v>
       </c>
       <c r="F62" s="3">
-        <v>788400</v>
+        <v>762500</v>
       </c>
       <c r="G62" s="3">
-        <v>591100</v>
+        <v>571700</v>
       </c>
       <c r="H62" s="3">
-        <v>694100</v>
+        <v>671400</v>
       </c>
       <c r="I62" s="3">
-        <v>597600</v>
+        <v>577900</v>
       </c>
       <c r="J62" s="3">
-        <v>1211900</v>
+        <v>1172100</v>
       </c>
       <c r="K62" s="3">
         <v>632000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9225900</v>
+        <v>8923200</v>
       </c>
       <c r="E66" s="3">
-        <v>10114400</v>
+        <v>9782500</v>
       </c>
       <c r="F66" s="3">
-        <v>3983200</v>
+        <v>3852500</v>
       </c>
       <c r="G66" s="3">
-        <v>3543800</v>
+        <v>3427500</v>
       </c>
       <c r="H66" s="3">
-        <v>3598900</v>
+        <v>3480800</v>
       </c>
       <c r="I66" s="3">
-        <v>3318800</v>
+        <v>3209900</v>
       </c>
       <c r="J66" s="3">
-        <v>2356900</v>
+        <v>2279600</v>
       </c>
       <c r="K66" s="3">
         <v>1886800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5888100</v>
+        <v>5694800</v>
       </c>
       <c r="E72" s="3">
-        <v>5432200</v>
+        <v>5253900</v>
       </c>
       <c r="F72" s="3">
-        <v>4673700</v>
+        <v>4520400</v>
       </c>
       <c r="G72" s="3">
-        <v>4178100</v>
+        <v>4041000</v>
       </c>
       <c r="H72" s="3">
-        <v>3704900</v>
+        <v>3583400</v>
       </c>
       <c r="I72" s="3">
-        <v>3265900</v>
+        <v>3158700</v>
       </c>
       <c r="J72" s="3">
-        <v>2906500</v>
+        <v>2811100</v>
       </c>
       <c r="K72" s="3">
         <v>2770700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5908700</v>
+        <v>5714800</v>
       </c>
       <c r="E76" s="3">
-        <v>6080800</v>
+        <v>5881300</v>
       </c>
       <c r="F76" s="3">
-        <v>5325700</v>
+        <v>5151000</v>
       </c>
       <c r="G76" s="3">
-        <v>4662800</v>
+        <v>4509800</v>
       </c>
       <c r="H76" s="3">
-        <v>4506500</v>
+        <v>4358600</v>
       </c>
       <c r="I76" s="3">
-        <v>4049200</v>
+        <v>3916300</v>
       </c>
       <c r="J76" s="3">
-        <v>3436200</v>
+        <v>3323500</v>
       </c>
       <c r="K76" s="3">
         <v>3122700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="E81" s="3">
-        <v>718300</v>
+        <v>694700</v>
       </c>
       <c r="F81" s="3">
-        <v>664700</v>
+        <v>642900</v>
       </c>
       <c r="G81" s="3">
-        <v>606400</v>
+        <v>586500</v>
       </c>
       <c r="H81" s="3">
-        <v>522100</v>
+        <v>504900</v>
       </c>
       <c r="I81" s="3">
-        <v>469500</v>
+        <v>454100</v>
       </c>
       <c r="J81" s="3">
-        <v>340000</v>
+        <v>328800</v>
       </c>
       <c r="K81" s="3">
         <v>421400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>705700</v>
+        <v>682500</v>
       </c>
       <c r="E83" s="3">
-        <v>462300</v>
+        <v>447100</v>
       </c>
       <c r="F83" s="3">
-        <v>277500</v>
+        <v>268400</v>
       </c>
       <c r="G83" s="3">
-        <v>254100</v>
+        <v>245800</v>
       </c>
       <c r="H83" s="3">
-        <v>241000</v>
+        <v>233100</v>
       </c>
       <c r="I83" s="3">
-        <v>246800</v>
+        <v>238700</v>
       </c>
       <c r="J83" s="3">
-        <v>205900</v>
+        <v>199100</v>
       </c>
       <c r="K83" s="3">
         <v>169100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1449100</v>
+        <v>1401600</v>
       </c>
       <c r="E89" s="3">
-        <v>1384500</v>
+        <v>1339100</v>
       </c>
       <c r="F89" s="3">
-        <v>1049000</v>
+        <v>1014600</v>
       </c>
       <c r="G89" s="3">
-        <v>869700</v>
+        <v>841200</v>
       </c>
       <c r="H89" s="3">
-        <v>725800</v>
+        <v>702000</v>
       </c>
       <c r="I89" s="3">
-        <v>739300</v>
+        <v>715000</v>
       </c>
       <c r="J89" s="3">
-        <v>583100</v>
+        <v>563900</v>
       </c>
       <c r="K89" s="3">
         <v>606300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-148300</v>
+        <v>-143400</v>
       </c>
       <c r="E91" s="3">
-        <v>-114800</v>
+        <v>-111000</v>
       </c>
       <c r="F91" s="3">
-        <v>-84500</v>
+        <v>-81700</v>
       </c>
       <c r="G91" s="3">
-        <v>-98700</v>
+        <v>-95500</v>
       </c>
       <c r="H91" s="3">
-        <v>-66100</v>
+        <v>-64000</v>
       </c>
       <c r="I91" s="3">
-        <v>-50900</v>
+        <v>-49200</v>
       </c>
       <c r="J91" s="3">
-        <v>-53000</v>
+        <v>-51300</v>
       </c>
       <c r="K91" s="3">
         <v>-50700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-242800</v>
+        <v>-234900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6227900</v>
+        <v>-6023500</v>
       </c>
       <c r="F94" s="3">
-        <v>-377300</v>
+        <v>-364900</v>
       </c>
       <c r="G94" s="3">
-        <v>-428900</v>
+        <v>-414900</v>
       </c>
       <c r="H94" s="3">
-        <v>-349000</v>
+        <v>-337500</v>
       </c>
       <c r="I94" s="3">
-        <v>-70700</v>
+        <v>-68300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1168400</v>
+        <v>-1130100</v>
       </c>
       <c r="K94" s="3">
         <v>-201700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-213100</v>
+        <v>-206100</v>
       </c>
       <c r="E96" s="3">
-        <v>-197100</v>
+        <v>-190600</v>
       </c>
       <c r="F96" s="3">
-        <v>-44400</v>
+        <v>-42900</v>
       </c>
       <c r="G96" s="3">
-        <v>-59900</v>
+        <v>-57900</v>
       </c>
       <c r="H96" s="3">
-        <v>-119000</v>
+        <v>-115100</v>
       </c>
       <c r="I96" s="3">
-        <v>-114900</v>
+        <v>-111100</v>
       </c>
       <c r="J96" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="K96" s="3">
         <v>-41600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-866100</v>
+        <v>-837700</v>
       </c>
       <c r="E100" s="3">
-        <v>3791200</v>
+        <v>3666800</v>
       </c>
       <c r="F100" s="3">
-        <v>-339500</v>
+        <v>-328300</v>
       </c>
       <c r="G100" s="3">
-        <v>-186100</v>
+        <v>-180000</v>
       </c>
       <c r="H100" s="3">
-        <v>-236300</v>
+        <v>-228500</v>
       </c>
       <c r="I100" s="3">
-        <v>640200</v>
+        <v>619200</v>
       </c>
       <c r="J100" s="3">
-        <v>-198700</v>
+        <v>-192200</v>
       </c>
       <c r="K100" s="3">
         <v>330400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-102000</v>
+        <v>-98700</v>
       </c>
       <c r="E101" s="3">
-        <v>43100</v>
+        <v>41700</v>
       </c>
       <c r="F101" s="3">
-        <v>76200</v>
+        <v>73700</v>
       </c>
       <c r="G101" s="3">
-        <v>-228200</v>
+        <v>-220700</v>
       </c>
       <c r="H101" s="3">
-        <v>41700</v>
+        <v>40300</v>
       </c>
       <c r="I101" s="3">
-        <v>64400</v>
+        <v>62300</v>
       </c>
       <c r="J101" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="K101" s="3">
         <v>-42900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>238200</v>
+        <v>230300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1009100</v>
+        <v>-976000</v>
       </c>
       <c r="F102" s="3">
-        <v>408500</v>
+        <v>395100</v>
       </c>
       <c r="G102" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="H102" s="3">
-        <v>182300</v>
+        <v>176300</v>
       </c>
       <c r="I102" s="3">
-        <v>1373300</v>
+        <v>1328200</v>
       </c>
       <c r="J102" s="3">
-        <v>-739700</v>
+        <v>-715500</v>
       </c>
       <c r="K102" s="3">
         <v>692100</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5027000</v>
+        <v>4856900</v>
       </c>
       <c r="E8" s="3">
-        <v>4536900</v>
+        <v>4383500</v>
       </c>
       <c r="F8" s="3">
-        <v>3926300</v>
+        <v>3793500</v>
       </c>
       <c r="G8" s="3">
-        <v>3644700</v>
+        <v>3521500</v>
       </c>
       <c r="H8" s="3">
-        <v>3450100</v>
+        <v>3333400</v>
       </c>
       <c r="I8" s="3">
-        <v>3206000</v>
+        <v>3097600</v>
       </c>
       <c r="J8" s="3">
-        <v>2590500</v>
+        <v>2502900</v>
       </c>
       <c r="K8" s="3">
         <v>2471500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>846400</v>
+        <v>817700</v>
       </c>
       <c r="E9" s="3">
-        <v>715400</v>
+        <v>691200</v>
       </c>
       <c r="F9" s="3">
-        <v>576700</v>
+        <v>557200</v>
       </c>
       <c r="G9" s="3">
-        <v>535200</v>
+        <v>517100</v>
       </c>
       <c r="H9" s="3">
-        <v>523400</v>
+        <v>505700</v>
       </c>
       <c r="I9" s="3">
-        <v>494500</v>
+        <v>477700</v>
       </c>
       <c r="J9" s="3">
-        <v>387600</v>
+        <v>374500</v>
       </c>
       <c r="K9" s="3">
         <v>312600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4180600</v>
+        <v>4039200</v>
       </c>
       <c r="E10" s="3">
-        <v>3821600</v>
+        <v>3692300</v>
       </c>
       <c r="F10" s="3">
-        <v>3349600</v>
+        <v>3236300</v>
       </c>
       <c r="G10" s="3">
-        <v>3109600</v>
+        <v>3004400</v>
       </c>
       <c r="H10" s="3">
-        <v>2926600</v>
+        <v>2827600</v>
       </c>
       <c r="I10" s="3">
-        <v>2711600</v>
+        <v>2619900</v>
       </c>
       <c r="J10" s="3">
-        <v>2202900</v>
+        <v>2128400</v>
       </c>
       <c r="K10" s="3">
         <v>2158900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>85500</v>
+        <v>82600</v>
       </c>
       <c r="E12" s="3">
-        <v>78500</v>
+        <v>75800</v>
       </c>
       <c r="F12" s="3">
-        <v>712600</v>
+        <v>688500</v>
       </c>
       <c r="G12" s="3">
-        <v>651000</v>
+        <v>629000</v>
       </c>
       <c r="H12" s="3">
-        <v>610300</v>
+        <v>589600</v>
       </c>
       <c r="I12" s="3">
-        <v>556100</v>
+        <v>537300</v>
       </c>
       <c r="J12" s="3">
-        <v>462500</v>
+        <v>446900</v>
       </c>
       <c r="K12" s="3">
         <v>449200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>63100</v>
+        <v>61000</v>
       </c>
       <c r="E14" s="3">
-        <v>38400</v>
+        <v>37100</v>
       </c>
       <c r="F14" s="3">
-        <v>43400</v>
+        <v>41900</v>
       </c>
       <c r="G14" s="3">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="H14" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="I14" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="J14" s="3">
-        <v>41800</v>
+        <v>40400</v>
       </c>
       <c r="K14" s="3">
         <v>14700</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>445400</v>
+        <v>430400</v>
       </c>
       <c r="E15" s="3">
-        <v>275500</v>
+        <v>266200</v>
       </c>
       <c r="F15" s="3">
-        <v>193800</v>
+        <v>187200</v>
       </c>
       <c r="G15" s="3">
-        <v>181000</v>
+        <v>174900</v>
       </c>
       <c r="H15" s="3">
-        <v>175900</v>
+        <v>170000</v>
       </c>
       <c r="I15" s="3">
-        <v>180200</v>
+        <v>174100</v>
       </c>
       <c r="J15" s="3">
-        <v>150600</v>
+        <v>145500</v>
       </c>
       <c r="K15" s="3">
         <v>120800</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4270800</v>
+        <v>4126400</v>
       </c>
       <c r="E17" s="3">
-        <v>3619200</v>
+        <v>3496800</v>
       </c>
       <c r="F17" s="3">
-        <v>3059000</v>
+        <v>2955500</v>
       </c>
       <c r="G17" s="3">
-        <v>2821600</v>
+        <v>2726200</v>
       </c>
       <c r="H17" s="3">
-        <v>2691300</v>
+        <v>2600200</v>
       </c>
       <c r="I17" s="3">
-        <v>2491100</v>
+        <v>2406800</v>
       </c>
       <c r="J17" s="3">
-        <v>2104000</v>
+        <v>2032900</v>
       </c>
       <c r="K17" s="3">
         <v>1869800</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>756200</v>
+        <v>730600</v>
       </c>
       <c r="E18" s="3">
-        <v>917700</v>
+        <v>886700</v>
       </c>
       <c r="F18" s="3">
-        <v>867400</v>
+        <v>838000</v>
       </c>
       <c r="G18" s="3">
-        <v>823100</v>
+        <v>795300</v>
       </c>
       <c r="H18" s="3">
-        <v>758800</v>
+        <v>733100</v>
       </c>
       <c r="I18" s="3">
-        <v>715000</v>
+        <v>690800</v>
       </c>
       <c r="J18" s="3">
-        <v>486400</v>
+        <v>470000</v>
       </c>
       <c r="K18" s="3">
         <v>601700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E20" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="F20" s="3">
-        <v>35000</v>
+        <v>33800</v>
       </c>
       <c r="G20" s="3">
-        <v>39300</v>
+        <v>38000</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I20" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="J20" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="K20" s="3">
         <v>25100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1455900</v>
+        <v>1415100</v>
       </c>
       <c r="E21" s="3">
-        <v>1397800</v>
+        <v>1356100</v>
       </c>
       <c r="F21" s="3">
-        <v>1171400</v>
+        <v>1135100</v>
       </c>
       <c r="G21" s="3">
-        <v>1108800</v>
+        <v>1074400</v>
       </c>
       <c r="H21" s="3">
-        <v>994900</v>
+        <v>964200</v>
       </c>
       <c r="I21" s="3">
-        <v>962400</v>
+        <v>932800</v>
       </c>
       <c r="J21" s="3">
-        <v>709300</v>
+        <v>687800</v>
       </c>
       <c r="K21" s="3">
         <v>795200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="E22" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="G22" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="H22" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="I22" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="J22" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K22" s="3">
         <v>3700</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>729700</v>
+        <v>705100</v>
       </c>
       <c r="E23" s="3">
-        <v>921200</v>
+        <v>890100</v>
       </c>
       <c r="F23" s="3">
-        <v>885000</v>
+        <v>855100</v>
       </c>
       <c r="G23" s="3">
-        <v>848400</v>
+        <v>819700</v>
       </c>
       <c r="H23" s="3">
-        <v>746900</v>
+        <v>721600</v>
       </c>
       <c r="I23" s="3">
-        <v>714800</v>
+        <v>690600</v>
       </c>
       <c r="J23" s="3">
-        <v>503300</v>
+        <v>486300</v>
       </c>
       <c r="K23" s="3">
         <v>623200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>181600</v>
+        <v>175400</v>
       </c>
       <c r="E24" s="3">
-        <v>236700</v>
+        <v>228700</v>
       </c>
       <c r="F24" s="3">
-        <v>248900</v>
+        <v>240400</v>
       </c>
       <c r="G24" s="3">
-        <v>261100</v>
+        <v>252300</v>
       </c>
       <c r="H24" s="3">
-        <v>236300</v>
+        <v>228300</v>
       </c>
       <c r="I24" s="3">
-        <v>256500</v>
+        <v>247800</v>
       </c>
       <c r="J24" s="3">
-        <v>173100</v>
+        <v>167200</v>
       </c>
       <c r="K24" s="3">
         <v>198400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>548200</v>
+        <v>529600</v>
       </c>
       <c r="E26" s="3">
-        <v>684600</v>
+        <v>661400</v>
       </c>
       <c r="F26" s="3">
-        <v>636100</v>
+        <v>614600</v>
       </c>
       <c r="G26" s="3">
-        <v>587300</v>
+        <v>567400</v>
       </c>
       <c r="H26" s="3">
-        <v>510600</v>
+        <v>493300</v>
       </c>
       <c r="I26" s="3">
-        <v>458400</v>
+        <v>442900</v>
       </c>
       <c r="J26" s="3">
-        <v>330200</v>
+        <v>319000</v>
       </c>
       <c r="K26" s="3">
         <v>424900</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>554400</v>
+        <v>535600</v>
       </c>
       <c r="E27" s="3">
-        <v>694700</v>
+        <v>671200</v>
       </c>
       <c r="F27" s="3">
-        <v>642900</v>
+        <v>621200</v>
       </c>
       <c r="G27" s="3">
-        <v>586500</v>
+        <v>566600</v>
       </c>
       <c r="H27" s="3">
-        <v>504900</v>
+        <v>487800</v>
       </c>
       <c r="I27" s="3">
-        <v>454100</v>
+        <v>438700</v>
       </c>
       <c r="J27" s="3">
-        <v>328800</v>
+        <v>317700</v>
       </c>
       <c r="K27" s="3">
         <v>421400</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="E32" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="F32" s="3">
-        <v>-35000</v>
+        <v>-33800</v>
       </c>
       <c r="G32" s="3">
-        <v>-39300</v>
+        <v>-38000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="J32" s="3">
-        <v>-23300</v>
+        <v>-22600</v>
       </c>
       <c r="K32" s="3">
         <v>-25100</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>554400</v>
+        <v>535600</v>
       </c>
       <c r="E33" s="3">
-        <v>694700</v>
+        <v>671200</v>
       </c>
       <c r="F33" s="3">
-        <v>642900</v>
+        <v>621200</v>
       </c>
       <c r="G33" s="3">
-        <v>586500</v>
+        <v>566600</v>
       </c>
       <c r="H33" s="3">
-        <v>504900</v>
+        <v>487800</v>
       </c>
       <c r="I33" s="3">
-        <v>454100</v>
+        <v>438700</v>
       </c>
       <c r="J33" s="3">
-        <v>328800</v>
+        <v>317700</v>
       </c>
       <c r="K33" s="3">
         <v>421400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>554400</v>
+        <v>535600</v>
       </c>
       <c r="E35" s="3">
-        <v>694700</v>
+        <v>671200</v>
       </c>
       <c r="F35" s="3">
-        <v>642900</v>
+        <v>621200</v>
       </c>
       <c r="G35" s="3">
-        <v>586500</v>
+        <v>566600</v>
       </c>
       <c r="H35" s="3">
-        <v>504900</v>
+        <v>487800</v>
       </c>
       <c r="I35" s="3">
-        <v>454100</v>
+        <v>438700</v>
       </c>
       <c r="J35" s="3">
-        <v>328800</v>
+        <v>317700</v>
       </c>
       <c r="K35" s="3">
         <v>421400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2426300</v>
+        <v>2344300</v>
       </c>
       <c r="E41" s="3">
-        <v>2196000</v>
+        <v>2121700</v>
       </c>
       <c r="F41" s="3">
-        <v>3172000</v>
+        <v>3064700</v>
       </c>
       <c r="G41" s="3">
-        <v>2777000</v>
+        <v>2683000</v>
       </c>
       <c r="H41" s="3">
-        <v>2751300</v>
+        <v>2658200</v>
       </c>
       <c r="I41" s="3">
-        <v>2575000</v>
+        <v>2487900</v>
       </c>
       <c r="J41" s="3">
-        <v>1246800</v>
+        <v>1204600</v>
       </c>
       <c r="K41" s="3">
         <v>2078800</v>
@@ -1786,13 +1786,13 @@
         <v>1400</v>
       </c>
       <c r="H42" s="3">
-        <v>63300</v>
+        <v>61200</v>
       </c>
       <c r="I42" s="3">
-        <v>79900</v>
+        <v>77200</v>
       </c>
       <c r="J42" s="3">
-        <v>80500</v>
+        <v>77800</v>
       </c>
       <c r="K42" s="3">
         <v>78700</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1632800</v>
+        <v>1577600</v>
       </c>
       <c r="E43" s="3">
-        <v>1750200</v>
+        <v>1691000</v>
       </c>
       <c r="F43" s="3">
-        <v>1436000</v>
+        <v>1387400</v>
       </c>
       <c r="G43" s="3">
-        <v>1160900</v>
+        <v>1121600</v>
       </c>
       <c r="H43" s="3">
-        <v>1104300</v>
+        <v>1066900</v>
       </c>
       <c r="I43" s="3">
-        <v>934600</v>
+        <v>903000</v>
       </c>
       <c r="J43" s="3">
-        <v>1545500</v>
+        <v>1493300</v>
       </c>
       <c r="K43" s="3">
         <v>670200</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>186600</v>
+        <v>180300</v>
       </c>
       <c r="E45" s="3">
-        <v>196500</v>
+        <v>189800</v>
       </c>
       <c r="F45" s="3">
-        <v>135600</v>
+        <v>131000</v>
       </c>
       <c r="G45" s="3">
-        <v>124900</v>
+        <v>120700</v>
       </c>
       <c r="H45" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="I45" s="3">
-        <v>70200</v>
+        <v>67800</v>
       </c>
       <c r="J45" s="3">
-        <v>272300</v>
+        <v>263100</v>
       </c>
       <c r="K45" s="3">
         <v>67100</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4245800</v>
+        <v>4102100</v>
       </c>
       <c r="E46" s="3">
-        <v>4142700</v>
+        <v>4002500</v>
       </c>
       <c r="F46" s="3">
-        <v>4744300</v>
+        <v>4583800</v>
       </c>
       <c r="G46" s="3">
-        <v>4064200</v>
+        <v>3926700</v>
       </c>
       <c r="H46" s="3">
-        <v>4031400</v>
+        <v>3895000</v>
       </c>
       <c r="I46" s="3">
-        <v>3659600</v>
+        <v>3535800</v>
       </c>
       <c r="J46" s="3">
-        <v>2236200</v>
+        <v>2160600</v>
       </c>
       <c r="K46" s="3">
         <v>2894800</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>196000</v>
+        <v>189400</v>
       </c>
       <c r="E47" s="3">
-        <v>200900</v>
+        <v>194100</v>
       </c>
       <c r="F47" s="3">
-        <v>188800</v>
+        <v>182400</v>
       </c>
       <c r="G47" s="3">
-        <v>178700</v>
+        <v>172600</v>
       </c>
       <c r="H47" s="3">
-        <v>193000</v>
+        <v>186400</v>
       </c>
       <c r="I47" s="3">
-        <v>139800</v>
+        <v>135100</v>
       </c>
       <c r="J47" s="3">
-        <v>78500</v>
+        <v>75800</v>
       </c>
       <c r="K47" s="3">
         <v>57700</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>972300</v>
+        <v>939400</v>
       </c>
       <c r="E48" s="3">
-        <v>1015900</v>
+        <v>981500</v>
       </c>
       <c r="F48" s="3">
-        <v>201200</v>
+        <v>194400</v>
       </c>
       <c r="G48" s="3">
-        <v>190800</v>
+        <v>184300</v>
       </c>
       <c r="H48" s="3">
-        <v>152900</v>
+        <v>147700</v>
       </c>
       <c r="I48" s="3">
-        <v>152800</v>
+        <v>147600</v>
       </c>
       <c r="J48" s="3">
-        <v>308700</v>
+        <v>298300</v>
       </c>
       <c r="K48" s="3">
         <v>120200</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8962000</v>
+        <v>8658900</v>
       </c>
       <c r="E49" s="3">
-        <v>10068200</v>
+        <v>9727600</v>
       </c>
       <c r="F49" s="3">
-        <v>3683500</v>
+        <v>3558900</v>
       </c>
       <c r="G49" s="3">
-        <v>3376200</v>
+        <v>3262000</v>
       </c>
       <c r="H49" s="3">
-        <v>3304300</v>
+        <v>3192600</v>
       </c>
       <c r="I49" s="3">
-        <v>3034100</v>
+        <v>2931400</v>
       </c>
       <c r="J49" s="3">
-        <v>6075300</v>
+        <v>5869800</v>
       </c>
       <c r="K49" s="3">
         <v>1832300</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>261800</v>
+        <v>253000</v>
       </c>
       <c r="E52" s="3">
-        <v>236000</v>
+        <v>228000</v>
       </c>
       <c r="F52" s="3">
-        <v>185700</v>
+        <v>179500</v>
       </c>
       <c r="G52" s="3">
-        <v>127500</v>
+        <v>123200</v>
       </c>
       <c r="H52" s="3">
-        <v>157900</v>
+        <v>152500</v>
       </c>
       <c r="I52" s="3">
-        <v>139900</v>
+        <v>135200</v>
       </c>
       <c r="J52" s="3">
-        <v>273500</v>
+        <v>264300</v>
       </c>
       <c r="K52" s="3">
         <v>104600</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14637900</v>
+        <v>14142800</v>
       </c>
       <c r="E54" s="3">
-        <v>15663600</v>
+        <v>15133800</v>
       </c>
       <c r="F54" s="3">
-        <v>9003400</v>
+        <v>8698900</v>
       </c>
       <c r="G54" s="3">
-        <v>7937400</v>
+        <v>7668900</v>
       </c>
       <c r="H54" s="3">
-        <v>7839400</v>
+        <v>7574300</v>
       </c>
       <c r="I54" s="3">
-        <v>7126200</v>
+        <v>6885200</v>
       </c>
       <c r="J54" s="3">
-        <v>5603000</v>
+        <v>5413500</v>
       </c>
       <c r="K54" s="3">
         <v>5009600</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>193900</v>
+        <v>187300</v>
       </c>
       <c r="E57" s="3">
-        <v>248400</v>
+        <v>240000</v>
       </c>
       <c r="F57" s="3">
-        <v>182600</v>
+        <v>176400</v>
       </c>
       <c r="G57" s="3">
-        <v>168600</v>
+        <v>162900</v>
       </c>
       <c r="H57" s="3">
-        <v>163600</v>
+        <v>158000</v>
       </c>
       <c r="I57" s="3">
-        <v>135300</v>
+        <v>130700</v>
       </c>
       <c r="J57" s="3">
-        <v>147200</v>
+        <v>142200</v>
       </c>
       <c r="K57" s="3">
         <v>101600</v>
@@ -2310,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>104400</v>
+        <v>100900</v>
       </c>
       <c r="E58" s="3">
-        <v>93700</v>
+        <v>90500</v>
       </c>
       <c r="F58" s="3">
-        <v>395200</v>
+        <v>381800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>51</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K58" s="3">
         <v>24000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2058000</v>
+        <v>1988400</v>
       </c>
       <c r="E59" s="3">
-        <v>2067300</v>
+        <v>1997300</v>
       </c>
       <c r="F59" s="3">
-        <v>1706200</v>
+        <v>1648500</v>
       </c>
       <c r="G59" s="3">
-        <v>1556100</v>
+        <v>1503400</v>
       </c>
       <c r="H59" s="3">
-        <v>1491300</v>
+        <v>1440900</v>
       </c>
       <c r="I59" s="3">
-        <v>1346000</v>
+        <v>1300400</v>
       </c>
       <c r="J59" s="3">
-        <v>1538200</v>
+        <v>1486200</v>
       </c>
       <c r="K59" s="3">
         <v>1011400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2356300</v>
+        <v>2276600</v>
       </c>
       <c r="E60" s="3">
-        <v>2409400</v>
+        <v>2327900</v>
       </c>
       <c r="F60" s="3">
-        <v>2283900</v>
+        <v>2206700</v>
       </c>
       <c r="G60" s="3">
-        <v>1724700</v>
+        <v>1666300</v>
       </c>
       <c r="H60" s="3">
-        <v>1654900</v>
+        <v>1598900</v>
       </c>
       <c r="I60" s="3">
-        <v>1481200</v>
+        <v>1431100</v>
       </c>
       <c r="J60" s="3">
-        <v>1281400</v>
+        <v>1238000</v>
       </c>
       <c r="K60" s="3">
         <v>1062500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5350600</v>
+        <v>5169600</v>
       </c>
       <c r="E61" s="3">
-        <v>5882200</v>
+        <v>5683200</v>
       </c>
       <c r="F61" s="3">
-        <v>733900</v>
+        <v>709100</v>
       </c>
       <c r="G61" s="3">
-        <v>1129100</v>
+        <v>1090900</v>
       </c>
       <c r="H61" s="3">
-        <v>1129100</v>
+        <v>1090900</v>
       </c>
       <c r="I61" s="3">
-        <v>1129100</v>
+        <v>1090900</v>
       </c>
       <c r="J61" s="3">
-        <v>395200</v>
+        <v>381800</v>
       </c>
       <c r="K61" s="3">
         <v>430700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1165700</v>
+        <v>1126300</v>
       </c>
       <c r="E62" s="3">
-        <v>1430100</v>
+        <v>1381700</v>
       </c>
       <c r="F62" s="3">
-        <v>762500</v>
+        <v>736700</v>
       </c>
       <c r="G62" s="3">
-        <v>571700</v>
+        <v>552300</v>
       </c>
       <c r="H62" s="3">
-        <v>671400</v>
+        <v>648600</v>
       </c>
       <c r="I62" s="3">
-        <v>577900</v>
+        <v>558400</v>
       </c>
       <c r="J62" s="3">
-        <v>1172100</v>
+        <v>1132500</v>
       </c>
       <c r="K62" s="3">
         <v>632000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8923200</v>
+        <v>8621400</v>
       </c>
       <c r="E66" s="3">
-        <v>9782500</v>
+        <v>9451600</v>
       </c>
       <c r="F66" s="3">
-        <v>3852500</v>
+        <v>3722200</v>
       </c>
       <c r="G66" s="3">
-        <v>3427500</v>
+        <v>3311600</v>
       </c>
       <c r="H66" s="3">
-        <v>3480800</v>
+        <v>3363100</v>
       </c>
       <c r="I66" s="3">
-        <v>3209900</v>
+        <v>3101300</v>
       </c>
       <c r="J66" s="3">
-        <v>2279600</v>
+        <v>2202500</v>
       </c>
       <c r="K66" s="3">
         <v>1886800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5694800</v>
+        <v>5502200</v>
       </c>
       <c r="E72" s="3">
-        <v>5253900</v>
+        <v>5076200</v>
       </c>
       <c r="F72" s="3">
-        <v>4520400</v>
+        <v>4367500</v>
       </c>
       <c r="G72" s="3">
-        <v>4041000</v>
+        <v>3904400</v>
       </c>
       <c r="H72" s="3">
-        <v>3583400</v>
+        <v>3462200</v>
       </c>
       <c r="I72" s="3">
-        <v>3158700</v>
+        <v>3051900</v>
       </c>
       <c r="J72" s="3">
-        <v>2811100</v>
+        <v>2716000</v>
       </c>
       <c r="K72" s="3">
         <v>2770700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5714800</v>
+        <v>5521500</v>
       </c>
       <c r="E76" s="3">
-        <v>5881300</v>
+        <v>5682300</v>
       </c>
       <c r="F76" s="3">
-        <v>5151000</v>
+        <v>4976700</v>
       </c>
       <c r="G76" s="3">
-        <v>4509800</v>
+        <v>4357300</v>
       </c>
       <c r="H76" s="3">
-        <v>4358600</v>
+        <v>4211200</v>
       </c>
       <c r="I76" s="3">
-        <v>3916300</v>
+        <v>3783900</v>
       </c>
       <c r="J76" s="3">
-        <v>3323500</v>
+        <v>3211000</v>
       </c>
       <c r="K76" s="3">
         <v>3122700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>554400</v>
+        <v>535600</v>
       </c>
       <c r="E81" s="3">
-        <v>694700</v>
+        <v>671200</v>
       </c>
       <c r="F81" s="3">
-        <v>642900</v>
+        <v>621200</v>
       </c>
       <c r="G81" s="3">
-        <v>586500</v>
+        <v>566600</v>
       </c>
       <c r="H81" s="3">
-        <v>504900</v>
+        <v>487800</v>
       </c>
       <c r="I81" s="3">
-        <v>454100</v>
+        <v>438700</v>
       </c>
       <c r="J81" s="3">
-        <v>328800</v>
+        <v>317700</v>
       </c>
       <c r="K81" s="3">
         <v>421400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>682500</v>
+        <v>659500</v>
       </c>
       <c r="E83" s="3">
-        <v>447100</v>
+        <v>432000</v>
       </c>
       <c r="F83" s="3">
-        <v>268400</v>
+        <v>259300</v>
       </c>
       <c r="G83" s="3">
-        <v>245800</v>
+        <v>237500</v>
       </c>
       <c r="H83" s="3">
-        <v>233100</v>
+        <v>225200</v>
       </c>
       <c r="I83" s="3">
-        <v>238700</v>
+        <v>230600</v>
       </c>
       <c r="J83" s="3">
-        <v>199100</v>
+        <v>192400</v>
       </c>
       <c r="K83" s="3">
         <v>169100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1401600</v>
+        <v>1354100</v>
       </c>
       <c r="E89" s="3">
-        <v>1339100</v>
+        <v>1293800</v>
       </c>
       <c r="F89" s="3">
-        <v>1014600</v>
+        <v>980300</v>
       </c>
       <c r="G89" s="3">
-        <v>841200</v>
+        <v>812800</v>
       </c>
       <c r="H89" s="3">
-        <v>702000</v>
+        <v>678300</v>
       </c>
       <c r="I89" s="3">
-        <v>715000</v>
+        <v>690800</v>
       </c>
       <c r="J89" s="3">
-        <v>563900</v>
+        <v>544900</v>
       </c>
       <c r="K89" s="3">
         <v>606300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-143400</v>
+        <v>-138500</v>
       </c>
       <c r="E91" s="3">
-        <v>-111000</v>
+        <v>-107200</v>
       </c>
       <c r="F91" s="3">
-        <v>-81700</v>
+        <v>-79000</v>
       </c>
       <c r="G91" s="3">
-        <v>-95500</v>
+        <v>-92200</v>
       </c>
       <c r="H91" s="3">
-        <v>-64000</v>
+        <v>-61800</v>
       </c>
       <c r="I91" s="3">
-        <v>-49200</v>
+        <v>-47500</v>
       </c>
       <c r="J91" s="3">
-        <v>-51300</v>
+        <v>-49500</v>
       </c>
       <c r="K91" s="3">
         <v>-50700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-234900</v>
+        <v>-226900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6023500</v>
+        <v>-5819800</v>
       </c>
       <c r="F94" s="3">
-        <v>-364900</v>
+        <v>-352600</v>
       </c>
       <c r="G94" s="3">
-        <v>-414900</v>
+        <v>-400800</v>
       </c>
       <c r="H94" s="3">
-        <v>-337500</v>
+        <v>-326100</v>
       </c>
       <c r="I94" s="3">
-        <v>-68300</v>
+        <v>-66000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1130100</v>
+        <v>-1091800</v>
       </c>
       <c r="K94" s="3">
         <v>-201700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-206100</v>
+        <v>-199100</v>
       </c>
       <c r="E96" s="3">
-        <v>-190600</v>
+        <v>-184100</v>
       </c>
       <c r="F96" s="3">
-        <v>-42900</v>
+        <v>-41500</v>
       </c>
       <c r="G96" s="3">
-        <v>-57900</v>
+        <v>-55900</v>
       </c>
       <c r="H96" s="3">
-        <v>-115100</v>
+        <v>-111200</v>
       </c>
       <c r="I96" s="3">
-        <v>-111100</v>
+        <v>-107400</v>
       </c>
       <c r="J96" s="3">
-        <v>-40400</v>
+        <v>-39000</v>
       </c>
       <c r="K96" s="3">
         <v>-41600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-837700</v>
+        <v>-809300</v>
       </c>
       <c r="E100" s="3">
-        <v>3666800</v>
+        <v>3542700</v>
       </c>
       <c r="F100" s="3">
-        <v>-328300</v>
+        <v>-317200</v>
       </c>
       <c r="G100" s="3">
-        <v>-180000</v>
+        <v>-173900</v>
       </c>
       <c r="H100" s="3">
-        <v>-228500</v>
+        <v>-220800</v>
       </c>
       <c r="I100" s="3">
-        <v>619200</v>
+        <v>598300</v>
       </c>
       <c r="J100" s="3">
-        <v>-192200</v>
+        <v>-185700</v>
       </c>
       <c r="K100" s="3">
         <v>330400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-98700</v>
+        <v>-95300</v>
       </c>
       <c r="E101" s="3">
-        <v>41700</v>
+        <v>40300</v>
       </c>
       <c r="F101" s="3">
-        <v>73700</v>
+        <v>71200</v>
       </c>
       <c r="G101" s="3">
-        <v>-220700</v>
+        <v>-213200</v>
       </c>
       <c r="H101" s="3">
-        <v>40300</v>
+        <v>39000</v>
       </c>
       <c r="I101" s="3">
-        <v>62300</v>
+        <v>60200</v>
       </c>
       <c r="J101" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="K101" s="3">
         <v>-42900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>230300</v>
+        <v>222500</v>
       </c>
       <c r="E102" s="3">
-        <v>-976000</v>
+        <v>-943000</v>
       </c>
       <c r="F102" s="3">
-        <v>395100</v>
+        <v>381700</v>
       </c>
       <c r="G102" s="3">
-        <v>25700</v>
+        <v>24800</v>
       </c>
       <c r="H102" s="3">
-        <v>176300</v>
+        <v>170400</v>
       </c>
       <c r="I102" s="3">
-        <v>1328200</v>
+        <v>1283300</v>
       </c>
       <c r="J102" s="3">
-        <v>-715500</v>
+        <v>-691300</v>
       </c>
       <c r="K102" s="3">
         <v>692100</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>DASTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4856900</v>
+        <v>5044300</v>
       </c>
       <c r="E8" s="3">
-        <v>4383500</v>
+        <v>4620900</v>
       </c>
       <c r="F8" s="3">
-        <v>3793500</v>
+        <v>4170500</v>
       </c>
       <c r="G8" s="3">
-        <v>3521500</v>
+        <v>3609200</v>
       </c>
       <c r="H8" s="3">
-        <v>3333400</v>
+        <v>3350300</v>
       </c>
       <c r="I8" s="3">
-        <v>3097600</v>
+        <v>3171400</v>
       </c>
       <c r="J8" s="3">
+        <v>2947100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2502900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2471500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2227100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2093000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>817700</v>
+        <v>820300</v>
       </c>
       <c r="E9" s="3">
-        <v>691200</v>
+        <v>778000</v>
       </c>
       <c r="F9" s="3">
-        <v>557200</v>
+        <v>657600</v>
       </c>
       <c r="G9" s="3">
-        <v>517100</v>
+        <v>530200</v>
       </c>
       <c r="H9" s="3">
-        <v>505700</v>
+        <v>491900</v>
       </c>
       <c r="I9" s="3">
-        <v>477700</v>
+        <v>481200</v>
       </c>
       <c r="J9" s="3">
+        <v>454500</v>
+      </c>
+      <c r="K9" s="3">
         <v>374500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>312600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>293200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>292800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4039200</v>
+        <v>4224000</v>
       </c>
       <c r="E10" s="3">
-        <v>3692300</v>
+        <v>3842900</v>
       </c>
       <c r="F10" s="3">
-        <v>3236300</v>
+        <v>3512900</v>
       </c>
       <c r="G10" s="3">
-        <v>3004400</v>
+        <v>3079000</v>
       </c>
       <c r="H10" s="3">
-        <v>2827600</v>
+        <v>2858400</v>
       </c>
       <c r="I10" s="3">
-        <v>2619900</v>
+        <v>2690200</v>
       </c>
       <c r="J10" s="3">
+        <v>2492600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2128400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2158900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1933900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82600</v>
+        <v>87800</v>
       </c>
       <c r="E12" s="3">
-        <v>75800</v>
+        <v>78600</v>
       </c>
       <c r="F12" s="3">
-        <v>688500</v>
+        <v>72100</v>
       </c>
       <c r="G12" s="3">
-        <v>629000</v>
+        <v>655000</v>
       </c>
       <c r="H12" s="3">
-        <v>589600</v>
+        <v>598400</v>
       </c>
       <c r="I12" s="3">
-        <v>537300</v>
+        <v>561000</v>
       </c>
       <c r="J12" s="3">
+        <v>511200</v>
+      </c>
+      <c r="K12" s="3">
         <v>446900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>449200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>404200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>386500</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>61000</v>
+        <v>32600</v>
       </c>
       <c r="E14" s="3">
-        <v>37100</v>
+        <v>58000</v>
       </c>
       <c r="F14" s="3">
-        <v>41900</v>
+        <v>35300</v>
       </c>
       <c r="G14" s="3">
-        <v>32700</v>
+        <v>39900</v>
       </c>
       <c r="H14" s="3">
-        <v>44300</v>
+        <v>31100</v>
       </c>
       <c r="I14" s="3">
-        <v>13300</v>
+        <v>42100</v>
       </c>
       <c r="J14" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K14" s="3">
         <v>40400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>430400</v>
+        <v>383000</v>
       </c>
       <c r="E15" s="3">
-        <v>266200</v>
+        <v>409500</v>
       </c>
       <c r="F15" s="3">
-        <v>187200</v>
+        <v>253200</v>
       </c>
       <c r="G15" s="3">
-        <v>174900</v>
+        <v>178100</v>
       </c>
       <c r="H15" s="3">
-        <v>170000</v>
+        <v>166400</v>
       </c>
       <c r="I15" s="3">
-        <v>174100</v>
+        <v>161700</v>
       </c>
       <c r="J15" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K15" s="3">
         <v>145500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>120800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>102900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>98200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4126400</v>
+        <v>3986300</v>
       </c>
       <c r="E17" s="3">
-        <v>3496800</v>
+        <v>3925900</v>
       </c>
       <c r="F17" s="3">
-        <v>2955500</v>
+        <v>3326900</v>
       </c>
       <c r="G17" s="3">
-        <v>2726200</v>
+        <v>2811900</v>
       </c>
       <c r="H17" s="3">
-        <v>2600200</v>
+        <v>2593700</v>
       </c>
       <c r="I17" s="3">
-        <v>2406800</v>
+        <v>2473900</v>
       </c>
       <c r="J17" s="3">
+        <v>2289900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2032900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1869800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1677100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1590700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>730600</v>
+        <v>1058000</v>
       </c>
       <c r="E18" s="3">
-        <v>886700</v>
+        <v>695100</v>
       </c>
       <c r="F18" s="3">
-        <v>838000</v>
+        <v>843600</v>
       </c>
       <c r="G18" s="3">
-        <v>795300</v>
+        <v>797300</v>
       </c>
       <c r="H18" s="3">
-        <v>733100</v>
+        <v>756600</v>
       </c>
       <c r="I18" s="3">
-        <v>690800</v>
+        <v>697500</v>
       </c>
       <c r="J18" s="3">
+        <v>657200</v>
+      </c>
+      <c r="K18" s="3">
         <v>470000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>601700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>550100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>502300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>15100</v>
+        <v>13600</v>
       </c>
       <c r="E20" s="3">
-        <v>30900</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
-        <v>33800</v>
+        <v>29400</v>
       </c>
       <c r="G20" s="3">
-        <v>38000</v>
+        <v>32200</v>
       </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>36200</v>
       </c>
       <c r="I20" s="3">
-        <v>7900</v>
+        <v>2300</v>
       </c>
       <c r="J20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>22600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1415100</v>
+        <v>1660800</v>
       </c>
       <c r="E21" s="3">
-        <v>1356100</v>
+        <v>1344800</v>
       </c>
       <c r="F21" s="3">
-        <v>1135100</v>
+        <v>1289200</v>
       </c>
       <c r="G21" s="3">
-        <v>1074400</v>
+        <v>1079300</v>
       </c>
       <c r="H21" s="3">
-        <v>964200</v>
+        <v>1021600</v>
       </c>
       <c r="I21" s="3">
-        <v>932800</v>
+        <v>916800</v>
       </c>
       <c r="J21" s="3">
+        <v>887000</v>
+      </c>
+      <c r="K21" s="3">
         <v>687800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>795200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>723700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>644800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>40600</v>
+        <v>29300</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>38600</v>
       </c>
       <c r="F22" s="3">
-        <v>16800</v>
+        <v>26200</v>
       </c>
       <c r="G22" s="3">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="H22" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="I22" s="3">
-        <v>8100</v>
+        <v>13200</v>
       </c>
       <c r="J22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>705100</v>
+        <v>1042400</v>
       </c>
       <c r="E23" s="3">
-        <v>890100</v>
+        <v>670800</v>
       </c>
       <c r="F23" s="3">
-        <v>855100</v>
+        <v>846800</v>
       </c>
       <c r="G23" s="3">
-        <v>819700</v>
+        <v>813500</v>
       </c>
       <c r="H23" s="3">
-        <v>721600</v>
+        <v>779900</v>
       </c>
       <c r="I23" s="3">
-        <v>690600</v>
+        <v>686600</v>
       </c>
       <c r="J23" s="3">
+        <v>657100</v>
+      </c>
+      <c r="K23" s="3">
         <v>486300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>623200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>503600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>175400</v>
+        <v>239100</v>
       </c>
       <c r="E24" s="3">
-        <v>228700</v>
+        <v>166900</v>
       </c>
       <c r="F24" s="3">
-        <v>240400</v>
+        <v>217500</v>
       </c>
       <c r="G24" s="3">
-        <v>252300</v>
+        <v>228800</v>
       </c>
       <c r="H24" s="3">
-        <v>228300</v>
+        <v>240000</v>
       </c>
       <c r="I24" s="3">
-        <v>247800</v>
+        <v>217200</v>
       </c>
       <c r="J24" s="3">
+        <v>235700</v>
+      </c>
+      <c r="K24" s="3">
         <v>167200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>198400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>197900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>162600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>529600</v>
+        <v>803200</v>
       </c>
       <c r="E26" s="3">
-        <v>661400</v>
+        <v>503900</v>
       </c>
       <c r="F26" s="3">
-        <v>614600</v>
+        <v>629300</v>
       </c>
       <c r="G26" s="3">
-        <v>567400</v>
+        <v>584800</v>
       </c>
       <c r="H26" s="3">
-        <v>493300</v>
+        <v>539900</v>
       </c>
       <c r="I26" s="3">
-        <v>442900</v>
+        <v>469300</v>
       </c>
       <c r="J26" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K26" s="3">
         <v>319000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>424900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>372000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>341000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>535600</v>
+        <v>803000</v>
       </c>
       <c r="E27" s="3">
-        <v>671200</v>
+        <v>509600</v>
       </c>
       <c r="F27" s="3">
-        <v>621200</v>
+        <v>638600</v>
       </c>
       <c r="G27" s="3">
-        <v>566600</v>
+        <v>591000</v>
       </c>
       <c r="H27" s="3">
-        <v>487800</v>
+        <v>539100</v>
       </c>
       <c r="I27" s="3">
-        <v>438700</v>
+        <v>464100</v>
       </c>
       <c r="J27" s="3">
+        <v>417400</v>
+      </c>
+      <c r="K27" s="3">
         <v>317700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>367600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>339400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-15100</v>
+        <v>-13600</v>
       </c>
       <c r="E32" s="3">
-        <v>-30900</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
-        <v>-33800</v>
+        <v>-29400</v>
       </c>
       <c r="G32" s="3">
-        <v>-38000</v>
+        <v>-32200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>-36200</v>
       </c>
       <c r="I32" s="3">
-        <v>-7900</v>
+        <v>-2300</v>
       </c>
       <c r="J32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>535600</v>
+        <v>803000</v>
       </c>
       <c r="E33" s="3">
-        <v>671200</v>
+        <v>509600</v>
       </c>
       <c r="F33" s="3">
-        <v>621200</v>
+        <v>638600</v>
       </c>
       <c r="G33" s="3">
-        <v>566600</v>
+        <v>591000</v>
       </c>
       <c r="H33" s="3">
-        <v>487800</v>
+        <v>539100</v>
       </c>
       <c r="I33" s="3">
-        <v>438700</v>
+        <v>464100</v>
       </c>
       <c r="J33" s="3">
+        <v>417400</v>
+      </c>
+      <c r="K33" s="3">
         <v>317700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>367600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>339400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>535600</v>
+        <v>803000</v>
       </c>
       <c r="E35" s="3">
-        <v>671200</v>
+        <v>509600</v>
       </c>
       <c r="F35" s="3">
-        <v>621200</v>
+        <v>638600</v>
       </c>
       <c r="G35" s="3">
-        <v>566600</v>
+        <v>591000</v>
       </c>
       <c r="H35" s="3">
-        <v>487800</v>
+        <v>539100</v>
       </c>
       <c r="I35" s="3">
-        <v>438700</v>
+        <v>464100</v>
       </c>
       <c r="J35" s="3">
+        <v>417400</v>
+      </c>
+      <c r="K35" s="3">
         <v>317700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>367600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>339400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2344300</v>
+        <v>3092400</v>
       </c>
       <c r="E41" s="3">
-        <v>2121700</v>
+        <v>2230300</v>
       </c>
       <c r="F41" s="3">
-        <v>3064700</v>
+        <v>2018600</v>
       </c>
       <c r="G41" s="3">
-        <v>2683000</v>
+        <v>2915800</v>
       </c>
       <c r="H41" s="3">
-        <v>2658200</v>
+        <v>2552700</v>
       </c>
       <c r="I41" s="3">
-        <v>2487900</v>
+        <v>2529100</v>
       </c>
       <c r="J41" s="3">
+        <v>2367000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1204600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2078800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1272900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1354900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1779,69 +1868,75 @@
       <c r="E42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="3">
-        <v>700</v>
+      <c r="F42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G42" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>61200</v>
+        <v>1300</v>
       </c>
       <c r="I42" s="3">
-        <v>77200</v>
+        <v>58200</v>
       </c>
       <c r="J42" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K42" s="3">
         <v>77800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>175400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>315400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1577600</v>
+        <v>1589200</v>
       </c>
       <c r="E43" s="3">
-        <v>1691000</v>
+        <v>1500900</v>
       </c>
       <c r="F43" s="3">
-        <v>1387400</v>
+        <v>1608800</v>
       </c>
       <c r="G43" s="3">
-        <v>1121600</v>
+        <v>1320000</v>
       </c>
       <c r="H43" s="3">
-        <v>1066900</v>
+        <v>1067100</v>
       </c>
       <c r="I43" s="3">
-        <v>903000</v>
+        <v>1015100</v>
       </c>
       <c r="J43" s="3">
+        <v>859100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1493300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>670200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1208000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>693500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1875,189 +1970,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>180300</v>
+        <v>216200</v>
       </c>
       <c r="E45" s="3">
-        <v>189800</v>
+        <v>171600</v>
       </c>
       <c r="F45" s="3">
-        <v>131000</v>
+        <v>180600</v>
       </c>
       <c r="G45" s="3">
-        <v>120700</v>
+        <v>124700</v>
       </c>
       <c r="H45" s="3">
-        <v>108700</v>
+        <v>114800</v>
       </c>
       <c r="I45" s="3">
-        <v>67800</v>
+        <v>103400</v>
       </c>
       <c r="J45" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K45" s="3">
         <v>263100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>67100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>102600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4102100</v>
+        <v>4897900</v>
       </c>
       <c r="E46" s="3">
-        <v>4002500</v>
+        <v>3902800</v>
       </c>
       <c r="F46" s="3">
-        <v>4583800</v>
+        <v>3808100</v>
       </c>
       <c r="G46" s="3">
-        <v>3926700</v>
+        <v>4361000</v>
       </c>
       <c r="H46" s="3">
-        <v>3895000</v>
+        <v>3735900</v>
       </c>
       <c r="I46" s="3">
-        <v>3535800</v>
+        <v>3705800</v>
       </c>
       <c r="J46" s="3">
+        <v>3364000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2160600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2894800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2120700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2414200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>189400</v>
+        <v>213900</v>
       </c>
       <c r="E47" s="3">
-        <v>194100</v>
+        <v>180200</v>
       </c>
       <c r="F47" s="3">
-        <v>182400</v>
+        <v>184600</v>
       </c>
       <c r="G47" s="3">
-        <v>172600</v>
+        <v>173500</v>
       </c>
       <c r="H47" s="3">
-        <v>186400</v>
+        <v>164300</v>
       </c>
       <c r="I47" s="3">
-        <v>135100</v>
+        <v>177400</v>
       </c>
       <c r="J47" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K47" s="3">
         <v>75800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>939400</v>
+        <v>848000</v>
       </c>
       <c r="E48" s="3">
-        <v>981500</v>
+        <v>893700</v>
       </c>
       <c r="F48" s="3">
-        <v>194400</v>
+        <v>933800</v>
       </c>
       <c r="G48" s="3">
-        <v>184300</v>
+        <v>185000</v>
       </c>
       <c r="H48" s="3">
-        <v>147700</v>
+        <v>175400</v>
       </c>
       <c r="I48" s="3">
-        <v>147600</v>
+        <v>140500</v>
       </c>
       <c r="J48" s="3">
+        <v>140500</v>
+      </c>
+      <c r="K48" s="3">
         <v>298300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>299700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8658900</v>
+        <v>8484700</v>
       </c>
       <c r="E49" s="3">
-        <v>9727600</v>
+        <v>8238100</v>
       </c>
       <c r="F49" s="3">
-        <v>3558900</v>
+        <v>9255000</v>
       </c>
       <c r="G49" s="3">
-        <v>3262000</v>
+        <v>3385900</v>
       </c>
       <c r="H49" s="3">
-        <v>3192600</v>
+        <v>3103500</v>
       </c>
       <c r="I49" s="3">
-        <v>2931400</v>
+        <v>3037400</v>
       </c>
       <c r="J49" s="3">
+        <v>2789000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5869800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1832300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3942000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1457700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>253000</v>
+        <v>313100</v>
       </c>
       <c r="E52" s="3">
-        <v>228000</v>
+        <v>240700</v>
       </c>
       <c r="F52" s="3">
-        <v>179500</v>
+        <v>216900</v>
       </c>
       <c r="G52" s="3">
-        <v>123200</v>
+        <v>170700</v>
       </c>
       <c r="H52" s="3">
-        <v>152500</v>
+        <v>117200</v>
       </c>
       <c r="I52" s="3">
-        <v>135200</v>
+        <v>145100</v>
       </c>
       <c r="J52" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K52" s="3">
         <v>264300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>238500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>117200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14142800</v>
+        <v>14757600</v>
       </c>
       <c r="E54" s="3">
-        <v>15133800</v>
+        <v>13455500</v>
       </c>
       <c r="F54" s="3">
-        <v>8698900</v>
+        <v>14398400</v>
       </c>
       <c r="G54" s="3">
-        <v>7668900</v>
+        <v>8276200</v>
       </c>
       <c r="H54" s="3">
-        <v>7574300</v>
+        <v>7296200</v>
       </c>
       <c r="I54" s="3">
-        <v>6885200</v>
+        <v>7206200</v>
       </c>
       <c r="J54" s="3">
+        <v>6550600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5413500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5009600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3966400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4128000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>187300</v>
+        <v>199700</v>
       </c>
       <c r="E57" s="3">
-        <v>240000</v>
+        <v>178200</v>
       </c>
       <c r="F57" s="3">
-        <v>176400</v>
+        <v>228300</v>
       </c>
       <c r="G57" s="3">
-        <v>162900</v>
+        <v>167800</v>
       </c>
       <c r="H57" s="3">
-        <v>158000</v>
+        <v>155000</v>
       </c>
       <c r="I57" s="3">
-        <v>130700</v>
+        <v>150400</v>
       </c>
       <c r="J57" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K57" s="3">
         <v>142200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>99700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>100900</v>
+        <v>1022200</v>
       </c>
       <c r="E58" s="3">
-        <v>90500</v>
+        <v>96000</v>
       </c>
       <c r="F58" s="3">
-        <v>381800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>51</v>
+        <v>86100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>363300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>10900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>503500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1988400</v>
+        <v>2379900</v>
       </c>
       <c r="E59" s="3">
-        <v>1997300</v>
+        <v>1891800</v>
       </c>
       <c r="F59" s="3">
-        <v>1648500</v>
+        <v>1900300</v>
       </c>
       <c r="G59" s="3">
-        <v>1503400</v>
+        <v>1568400</v>
       </c>
       <c r="H59" s="3">
-        <v>1440900</v>
+        <v>1430400</v>
       </c>
       <c r="I59" s="3">
-        <v>1300400</v>
+        <v>1370800</v>
       </c>
       <c r="J59" s="3">
+        <v>1237200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1486200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1011400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>965900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>950100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2276600</v>
+        <v>3601800</v>
       </c>
       <c r="E60" s="3">
-        <v>2327900</v>
+        <v>2166000</v>
       </c>
       <c r="F60" s="3">
-        <v>2206700</v>
+        <v>2214800</v>
       </c>
       <c r="G60" s="3">
-        <v>1666300</v>
+        <v>2099500</v>
       </c>
       <c r="H60" s="3">
-        <v>1598900</v>
+        <v>1585300</v>
       </c>
       <c r="I60" s="3">
-        <v>1431100</v>
+        <v>1521200</v>
       </c>
       <c r="J60" s="3">
+        <v>1361600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1238000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1062500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1019500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1336000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5169600</v>
+        <v>3616000</v>
       </c>
       <c r="E61" s="3">
-        <v>5683200</v>
+        <v>4918400</v>
       </c>
       <c r="F61" s="3">
-        <v>709100</v>
+        <v>5407000</v>
       </c>
       <c r="G61" s="3">
-        <v>1090900</v>
+        <v>674600</v>
       </c>
       <c r="H61" s="3">
-        <v>1090900</v>
+        <v>1037900</v>
       </c>
       <c r="I61" s="3">
-        <v>1090900</v>
+        <v>1037900</v>
       </c>
       <c r="J61" s="3">
+        <v>1037900</v>
+      </c>
+      <c r="K61" s="3">
         <v>381800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>430700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1126300</v>
+        <v>1093300</v>
       </c>
       <c r="E62" s="3">
-        <v>1381700</v>
+        <v>1071500</v>
       </c>
       <c r="F62" s="3">
-        <v>736700</v>
+        <v>1314600</v>
       </c>
       <c r="G62" s="3">
-        <v>552300</v>
+        <v>700900</v>
       </c>
       <c r="H62" s="3">
-        <v>648600</v>
+        <v>525500</v>
       </c>
       <c r="I62" s="3">
-        <v>558400</v>
+        <v>617100</v>
       </c>
       <c r="J62" s="3">
+        <v>531300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1132500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>632000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>517900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>267100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8621400</v>
+        <v>8325400</v>
       </c>
       <c r="E66" s="3">
-        <v>9451600</v>
+        <v>8202400</v>
       </c>
       <c r="F66" s="3">
-        <v>3722200</v>
+        <v>8992400</v>
       </c>
       <c r="G66" s="3">
-        <v>3311600</v>
+        <v>3541300</v>
       </c>
       <c r="H66" s="3">
-        <v>3363100</v>
+        <v>3150700</v>
       </c>
       <c r="I66" s="3">
-        <v>3101300</v>
+        <v>3199700</v>
       </c>
       <c r="J66" s="3">
+        <v>2950600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2202500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1886800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1702700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5502200</v>
+        <v>5929100</v>
       </c>
       <c r="E72" s="3">
-        <v>5076200</v>
+        <v>5234900</v>
       </c>
       <c r="F72" s="3">
-        <v>4367500</v>
+        <v>4829600</v>
       </c>
       <c r="G72" s="3">
-        <v>3904400</v>
+        <v>4155200</v>
       </c>
       <c r="H72" s="3">
-        <v>3462200</v>
+        <v>3714600</v>
       </c>
       <c r="I72" s="3">
-        <v>3051900</v>
+        <v>3293900</v>
       </c>
       <c r="J72" s="3">
+        <v>2903600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2716000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2770700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2228200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2069500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5521500</v>
+        <v>6432200</v>
       </c>
       <c r="E76" s="3">
-        <v>5682300</v>
+        <v>5253200</v>
       </c>
       <c r="F76" s="3">
-        <v>4976700</v>
+        <v>5406200</v>
       </c>
       <c r="G76" s="3">
-        <v>4357300</v>
+        <v>4734900</v>
       </c>
       <c r="H76" s="3">
-        <v>4211200</v>
+        <v>4145600</v>
       </c>
       <c r="I76" s="3">
-        <v>3783900</v>
+        <v>4006500</v>
       </c>
       <c r="J76" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3211000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3122700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2566000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2425300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>535600</v>
+        <v>803000</v>
       </c>
       <c r="E81" s="3">
-        <v>671200</v>
+        <v>509600</v>
       </c>
       <c r="F81" s="3">
-        <v>621200</v>
+        <v>638600</v>
       </c>
       <c r="G81" s="3">
-        <v>566600</v>
+        <v>591000</v>
       </c>
       <c r="H81" s="3">
-        <v>487800</v>
+        <v>539100</v>
       </c>
       <c r="I81" s="3">
-        <v>438700</v>
+        <v>464100</v>
       </c>
       <c r="J81" s="3">
+        <v>417400</v>
+      </c>
+      <c r="K81" s="3">
         <v>317700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>367600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>339400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>659500</v>
+        <v>581700</v>
       </c>
       <c r="E83" s="3">
-        <v>432000</v>
+        <v>627400</v>
       </c>
       <c r="F83" s="3">
-        <v>259300</v>
+        <v>411000</v>
       </c>
       <c r="G83" s="3">
-        <v>237500</v>
+        <v>246700</v>
       </c>
       <c r="H83" s="3">
-        <v>225200</v>
+        <v>225900</v>
       </c>
       <c r="I83" s="3">
-        <v>230600</v>
+        <v>214300</v>
       </c>
       <c r="J83" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K83" s="3">
         <v>192400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>169100</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>131800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1354100</v>
+        <v>1674200</v>
       </c>
       <c r="E89" s="3">
-        <v>1293800</v>
+        <v>1288300</v>
       </c>
       <c r="F89" s="3">
-        <v>980300</v>
+        <v>1230900</v>
       </c>
       <c r="G89" s="3">
-        <v>812800</v>
+        <v>932700</v>
       </c>
       <c r="H89" s="3">
-        <v>678300</v>
+        <v>773300</v>
       </c>
       <c r="I89" s="3">
-        <v>690800</v>
+        <v>645300</v>
       </c>
       <c r="J89" s="3">
+        <v>657300</v>
+      </c>
+      <c r="K89" s="3">
         <v>544900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>606300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>621800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>529200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-138500</v>
+        <v>-107600</v>
       </c>
       <c r="E91" s="3">
-        <v>-107200</v>
+        <v>-131800</v>
       </c>
       <c r="F91" s="3">
-        <v>-79000</v>
+        <v>-102000</v>
       </c>
       <c r="G91" s="3">
-        <v>-92200</v>
+        <v>-75100</v>
       </c>
       <c r="H91" s="3">
-        <v>-61800</v>
+        <v>-87700</v>
       </c>
       <c r="I91" s="3">
-        <v>-47500</v>
+        <v>-58800</v>
       </c>
       <c r="J91" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-49500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-226900</v>
+        <v>-166500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5819800</v>
+        <v>-215900</v>
       </c>
       <c r="F94" s="3">
-        <v>-352600</v>
+        <v>-5537000</v>
       </c>
       <c r="G94" s="3">
-        <v>-400800</v>
+        <v>-335400</v>
       </c>
       <c r="H94" s="3">
-        <v>-326100</v>
+        <v>-381400</v>
       </c>
       <c r="I94" s="3">
-        <v>-66000</v>
+        <v>-310300</v>
       </c>
       <c r="J94" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1091800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-201700</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-252200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199100</v>
+        <v>-152700</v>
       </c>
       <c r="E96" s="3">
-        <v>-184100</v>
+        <v>-189400</v>
       </c>
       <c r="F96" s="3">
-        <v>-41500</v>
+        <v>-175200</v>
       </c>
       <c r="G96" s="3">
-        <v>-55900</v>
+        <v>-39400</v>
       </c>
       <c r="H96" s="3">
-        <v>-111200</v>
+        <v>-53200</v>
       </c>
       <c r="I96" s="3">
-        <v>-107400</v>
+        <v>-105800</v>
       </c>
       <c r="J96" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-39000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-41600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-96400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-809300</v>
+        <v>-738900</v>
       </c>
       <c r="E100" s="3">
-        <v>3542700</v>
+        <v>-770000</v>
       </c>
       <c r="F100" s="3">
-        <v>-317200</v>
+        <v>3370600</v>
       </c>
       <c r="G100" s="3">
-        <v>-173900</v>
+        <v>-301800</v>
       </c>
       <c r="H100" s="3">
-        <v>-220800</v>
+        <v>-165400</v>
       </c>
       <c r="I100" s="3">
-        <v>598300</v>
+        <v>-210000</v>
       </c>
       <c r="J100" s="3">
+        <v>569200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-185700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>330400</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-95300</v>
+        <v>93200</v>
       </c>
       <c r="E101" s="3">
-        <v>40300</v>
+        <v>-90700</v>
       </c>
       <c r="F101" s="3">
-        <v>71200</v>
+        <v>38300</v>
       </c>
       <c r="G101" s="3">
-        <v>-213200</v>
+        <v>67800</v>
       </c>
       <c r="H101" s="3">
-        <v>39000</v>
+        <v>-202800</v>
       </c>
       <c r="I101" s="3">
-        <v>60200</v>
+        <v>37100</v>
       </c>
       <c r="J101" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K101" s="3">
         <v>41400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42900</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222500</v>
+        <v>862100</v>
       </c>
       <c r="E102" s="3">
-        <v>-943000</v>
+        <v>211700</v>
       </c>
       <c r="F102" s="3">
-        <v>381700</v>
+        <v>-897200</v>
       </c>
       <c r="G102" s="3">
-        <v>24800</v>
+        <v>363200</v>
       </c>
       <c r="H102" s="3">
-        <v>170400</v>
+        <v>23600</v>
       </c>
       <c r="I102" s="3">
-        <v>1283300</v>
+        <v>162100</v>
       </c>
       <c r="J102" s="3">
+        <v>1220900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-691300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>692100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>208700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5044300</v>
+        <v>4847500</v>
       </c>
       <c r="E8" s="3">
-        <v>4620900</v>
+        <v>4440600</v>
       </c>
       <c r="F8" s="3">
-        <v>4170500</v>
+        <v>4007800</v>
       </c>
       <c r="G8" s="3">
-        <v>3609200</v>
+        <v>3468400</v>
       </c>
       <c r="H8" s="3">
-        <v>3350300</v>
+        <v>3219600</v>
       </c>
       <c r="I8" s="3">
-        <v>3171400</v>
+        <v>3047600</v>
       </c>
       <c r="J8" s="3">
-        <v>2947100</v>
+        <v>2832100</v>
       </c>
       <c r="K8" s="3">
         <v>2502900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>820300</v>
+        <v>788200</v>
       </c>
       <c r="E9" s="3">
-        <v>778000</v>
+        <v>747700</v>
       </c>
       <c r="F9" s="3">
-        <v>657600</v>
+        <v>632000</v>
       </c>
       <c r="G9" s="3">
-        <v>530200</v>
+        <v>509500</v>
       </c>
       <c r="H9" s="3">
-        <v>491900</v>
+        <v>472700</v>
       </c>
       <c r="I9" s="3">
-        <v>481200</v>
+        <v>462400</v>
       </c>
       <c r="J9" s="3">
-        <v>454500</v>
+        <v>436800</v>
       </c>
       <c r="K9" s="3">
         <v>374500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4224000</v>
+        <v>4059200</v>
       </c>
       <c r="E10" s="3">
-        <v>3842900</v>
+        <v>3693000</v>
       </c>
       <c r="F10" s="3">
-        <v>3512900</v>
+        <v>3375800</v>
       </c>
       <c r="G10" s="3">
-        <v>3079000</v>
+        <v>2958900</v>
       </c>
       <c r="H10" s="3">
-        <v>2858400</v>
+        <v>2746900</v>
       </c>
       <c r="I10" s="3">
-        <v>2690200</v>
+        <v>2585300</v>
       </c>
       <c r="J10" s="3">
-        <v>2492600</v>
+        <v>2395300</v>
       </c>
       <c r="K10" s="3">
         <v>2128400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>87800</v>
+        <v>84400</v>
       </c>
       <c r="E12" s="3">
-        <v>78600</v>
+        <v>75500</v>
       </c>
       <c r="F12" s="3">
-        <v>72100</v>
+        <v>69300</v>
       </c>
       <c r="G12" s="3">
-        <v>655000</v>
+        <v>629500</v>
       </c>
       <c r="H12" s="3">
-        <v>598400</v>
+        <v>575100</v>
       </c>
       <c r="I12" s="3">
-        <v>561000</v>
+        <v>539100</v>
       </c>
       <c r="J12" s="3">
-        <v>511200</v>
+        <v>491200</v>
       </c>
       <c r="K12" s="3">
         <v>446900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="E14" s="3">
-        <v>58000</v>
+        <v>55800</v>
       </c>
       <c r="F14" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="G14" s="3">
-        <v>39900</v>
+        <v>38300</v>
       </c>
       <c r="H14" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="I14" s="3">
-        <v>42100</v>
+        <v>40500</v>
       </c>
       <c r="J14" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="K14" s="3">
         <v>40400</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>383000</v>
+        <v>368000</v>
       </c>
       <c r="E15" s="3">
-        <v>409500</v>
+        <v>393500</v>
       </c>
       <c r="F15" s="3">
-        <v>253200</v>
+        <v>243400</v>
       </c>
       <c r="G15" s="3">
-        <v>178100</v>
+        <v>171200</v>
       </c>
       <c r="H15" s="3">
-        <v>166400</v>
+        <v>159900</v>
       </c>
       <c r="I15" s="3">
-        <v>161700</v>
+        <v>155400</v>
       </c>
       <c r="J15" s="3">
-        <v>165600</v>
+        <v>159100</v>
       </c>
       <c r="K15" s="3">
         <v>145500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3986300</v>
+        <v>3830700</v>
       </c>
       <c r="E17" s="3">
-        <v>3925900</v>
+        <v>3772700</v>
       </c>
       <c r="F17" s="3">
-        <v>3326900</v>
+        <v>3197100</v>
       </c>
       <c r="G17" s="3">
-        <v>2811900</v>
+        <v>2702200</v>
       </c>
       <c r="H17" s="3">
-        <v>2593700</v>
+        <v>2492500</v>
       </c>
       <c r="I17" s="3">
-        <v>2473900</v>
+        <v>2377400</v>
       </c>
       <c r="J17" s="3">
-        <v>2289900</v>
+        <v>2200500</v>
       </c>
       <c r="K17" s="3">
         <v>2032900</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1058000</v>
+        <v>1016700</v>
       </c>
       <c r="E18" s="3">
-        <v>695100</v>
+        <v>668000</v>
       </c>
       <c r="F18" s="3">
-        <v>843600</v>
+        <v>810700</v>
       </c>
       <c r="G18" s="3">
-        <v>797300</v>
+        <v>766200</v>
       </c>
       <c r="H18" s="3">
-        <v>756600</v>
+        <v>727100</v>
       </c>
       <c r="I18" s="3">
-        <v>697500</v>
+        <v>670300</v>
       </c>
       <c r="J18" s="3">
-        <v>657200</v>
+        <v>631600</v>
       </c>
       <c r="K18" s="3">
         <v>470000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="E20" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="F20" s="3">
-        <v>29400</v>
+        <v>28200</v>
       </c>
       <c r="G20" s="3">
-        <v>32200</v>
+        <v>30900</v>
       </c>
       <c r="H20" s="3">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J20" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="K20" s="3">
         <v>22600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1660800</v>
+        <v>1588400</v>
       </c>
       <c r="E21" s="3">
-        <v>1344800</v>
+        <v>1284100</v>
       </c>
       <c r="F21" s="3">
-        <v>1289200</v>
+        <v>1233500</v>
       </c>
       <c r="G21" s="3">
-        <v>1079300</v>
+        <v>1034000</v>
       </c>
       <c r="H21" s="3">
-        <v>1021600</v>
+        <v>978800</v>
       </c>
       <c r="I21" s="3">
-        <v>916800</v>
+        <v>878200</v>
       </c>
       <c r="J21" s="3">
-        <v>887000</v>
+        <v>849500</v>
       </c>
       <c r="K21" s="3">
         <v>687800</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>29300</v>
+        <v>28100</v>
       </c>
       <c r="E22" s="3">
-        <v>38600</v>
+        <v>37100</v>
       </c>
       <c r="F22" s="3">
-        <v>26200</v>
+        <v>25100</v>
       </c>
       <c r="G22" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="H22" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="I22" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="J22" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K22" s="3">
         <v>6300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1042400</v>
+        <v>1001700</v>
       </c>
       <c r="E23" s="3">
-        <v>670800</v>
+        <v>644600</v>
       </c>
       <c r="F23" s="3">
-        <v>846800</v>
+        <v>813800</v>
       </c>
       <c r="G23" s="3">
-        <v>813500</v>
+        <v>781800</v>
       </c>
       <c r="H23" s="3">
-        <v>779900</v>
+        <v>749500</v>
       </c>
       <c r="I23" s="3">
-        <v>686600</v>
+        <v>659800</v>
       </c>
       <c r="J23" s="3">
-        <v>657100</v>
+        <v>631400</v>
       </c>
       <c r="K23" s="3">
         <v>486300</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>239100</v>
+        <v>229800</v>
       </c>
       <c r="E24" s="3">
-        <v>166900</v>
+        <v>160400</v>
       </c>
       <c r="F24" s="3">
-        <v>217500</v>
+        <v>209100</v>
       </c>
       <c r="G24" s="3">
-        <v>228800</v>
+        <v>219800</v>
       </c>
       <c r="H24" s="3">
-        <v>240000</v>
+        <v>230700</v>
       </c>
       <c r="I24" s="3">
-        <v>217200</v>
+        <v>208700</v>
       </c>
       <c r="J24" s="3">
-        <v>235700</v>
+        <v>226500</v>
       </c>
       <c r="K24" s="3">
         <v>167200</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>803200</v>
+        <v>771900</v>
       </c>
       <c r="E26" s="3">
-        <v>503900</v>
+        <v>484200</v>
       </c>
       <c r="F26" s="3">
-        <v>629300</v>
+        <v>604700</v>
       </c>
       <c r="G26" s="3">
-        <v>584800</v>
+        <v>561900</v>
       </c>
       <c r="H26" s="3">
-        <v>539900</v>
+        <v>518800</v>
       </c>
       <c r="I26" s="3">
-        <v>469300</v>
+        <v>451000</v>
       </c>
       <c r="J26" s="3">
-        <v>421300</v>
+        <v>404900</v>
       </c>
       <c r="K26" s="3">
         <v>319000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>803000</v>
+        <v>771700</v>
       </c>
       <c r="E27" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="F27" s="3">
-        <v>638600</v>
+        <v>613700</v>
       </c>
       <c r="G27" s="3">
-        <v>591000</v>
+        <v>567900</v>
       </c>
       <c r="H27" s="3">
-        <v>539100</v>
+        <v>518100</v>
       </c>
       <c r="I27" s="3">
-        <v>464100</v>
+        <v>446000</v>
       </c>
       <c r="J27" s="3">
-        <v>417400</v>
+        <v>401100</v>
       </c>
       <c r="K27" s="3">
         <v>317700</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="E32" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="F32" s="3">
-        <v>-29400</v>
+        <v>-28200</v>
       </c>
       <c r="G32" s="3">
-        <v>-32200</v>
+        <v>-30900</v>
       </c>
       <c r="H32" s="3">
-        <v>-36200</v>
+        <v>-34700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="K32" s="3">
         <v>-22600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>803000</v>
+        <v>771700</v>
       </c>
       <c r="E33" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="F33" s="3">
-        <v>638600</v>
+        <v>613700</v>
       </c>
       <c r="G33" s="3">
-        <v>591000</v>
+        <v>567900</v>
       </c>
       <c r="H33" s="3">
-        <v>539100</v>
+        <v>518100</v>
       </c>
       <c r="I33" s="3">
-        <v>464100</v>
+        <v>446000</v>
       </c>
       <c r="J33" s="3">
-        <v>417400</v>
+        <v>401100</v>
       </c>
       <c r="K33" s="3">
         <v>317700</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>803000</v>
+        <v>771700</v>
       </c>
       <c r="E35" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="F35" s="3">
-        <v>638600</v>
+        <v>613700</v>
       </c>
       <c r="G35" s="3">
-        <v>591000</v>
+        <v>567900</v>
       </c>
       <c r="H35" s="3">
-        <v>539100</v>
+        <v>518100</v>
       </c>
       <c r="I35" s="3">
-        <v>464100</v>
+        <v>446000</v>
       </c>
       <c r="J35" s="3">
-        <v>417400</v>
+        <v>401100</v>
       </c>
       <c r="K35" s="3">
         <v>317700</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3092400</v>
+        <v>2971800</v>
       </c>
       <c r="E41" s="3">
-        <v>2230300</v>
+        <v>2143300</v>
       </c>
       <c r="F41" s="3">
-        <v>2018600</v>
+        <v>1939800</v>
       </c>
       <c r="G41" s="3">
-        <v>2915800</v>
+        <v>2802000</v>
       </c>
       <c r="H41" s="3">
-        <v>2552700</v>
+        <v>2453100</v>
       </c>
       <c r="I41" s="3">
-        <v>2529100</v>
+        <v>2430400</v>
       </c>
       <c r="J41" s="3">
-        <v>2367000</v>
+        <v>2274600</v>
       </c>
       <c r="K41" s="3">
         <v>1204600</v>
@@ -1878,10 +1878,10 @@
         <v>1300</v>
       </c>
       <c r="I42" s="3">
-        <v>58200</v>
+        <v>55900</v>
       </c>
       <c r="J42" s="3">
-        <v>73400</v>
+        <v>70600</v>
       </c>
       <c r="K42" s="3">
         <v>77800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1589200</v>
+        <v>1527200</v>
       </c>
       <c r="E43" s="3">
-        <v>1500900</v>
+        <v>1442300</v>
       </c>
       <c r="F43" s="3">
-        <v>1608800</v>
+        <v>1546100</v>
       </c>
       <c r="G43" s="3">
-        <v>1320000</v>
+        <v>1268500</v>
       </c>
       <c r="H43" s="3">
-        <v>1067100</v>
+        <v>1025500</v>
       </c>
       <c r="I43" s="3">
-        <v>1015100</v>
+        <v>975500</v>
       </c>
       <c r="J43" s="3">
-        <v>859100</v>
+        <v>825600</v>
       </c>
       <c r="K43" s="3">
         <v>1493300</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>216200</v>
+        <v>207800</v>
       </c>
       <c r="E45" s="3">
-        <v>171600</v>
+        <v>164900</v>
       </c>
       <c r="F45" s="3">
-        <v>180600</v>
+        <v>173500</v>
       </c>
       <c r="G45" s="3">
-        <v>124700</v>
+        <v>119800</v>
       </c>
       <c r="H45" s="3">
-        <v>114800</v>
+        <v>110400</v>
       </c>
       <c r="I45" s="3">
-        <v>103400</v>
+        <v>99400</v>
       </c>
       <c r="J45" s="3">
-        <v>64500</v>
+        <v>62000</v>
       </c>
       <c r="K45" s="3">
         <v>263100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4897900</v>
+        <v>4706700</v>
       </c>
       <c r="E46" s="3">
-        <v>3902800</v>
+        <v>3750500</v>
       </c>
       <c r="F46" s="3">
-        <v>3808100</v>
+        <v>3659500</v>
       </c>
       <c r="G46" s="3">
-        <v>4361000</v>
+        <v>4190900</v>
       </c>
       <c r="H46" s="3">
-        <v>3735900</v>
+        <v>3590100</v>
       </c>
       <c r="I46" s="3">
-        <v>3705800</v>
+        <v>3561200</v>
       </c>
       <c r="J46" s="3">
-        <v>3364000</v>
+        <v>3232800</v>
       </c>
       <c r="K46" s="3">
         <v>2160600</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>213900</v>
+        <v>205600</v>
       </c>
       <c r="E47" s="3">
-        <v>180200</v>
+        <v>173100</v>
       </c>
       <c r="F47" s="3">
-        <v>184600</v>
+        <v>177400</v>
       </c>
       <c r="G47" s="3">
-        <v>173500</v>
+        <v>166800</v>
       </c>
       <c r="H47" s="3">
-        <v>164300</v>
+        <v>157800</v>
       </c>
       <c r="I47" s="3">
-        <v>177400</v>
+        <v>170500</v>
       </c>
       <c r="J47" s="3">
-        <v>128500</v>
+        <v>123500</v>
       </c>
       <c r="K47" s="3">
         <v>75800</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>848000</v>
+        <v>814900</v>
       </c>
       <c r="E48" s="3">
-        <v>893700</v>
+        <v>858900</v>
       </c>
       <c r="F48" s="3">
-        <v>933800</v>
+        <v>897400</v>
       </c>
       <c r="G48" s="3">
-        <v>185000</v>
+        <v>177700</v>
       </c>
       <c r="H48" s="3">
-        <v>175400</v>
+        <v>168500</v>
       </c>
       <c r="I48" s="3">
-        <v>140500</v>
+        <v>135000</v>
       </c>
       <c r="J48" s="3">
-        <v>140500</v>
+        <v>135000</v>
       </c>
       <c r="K48" s="3">
         <v>298300</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8484700</v>
+        <v>8153600</v>
       </c>
       <c r="E49" s="3">
-        <v>8238100</v>
+        <v>7916700</v>
       </c>
       <c r="F49" s="3">
-        <v>9255000</v>
+        <v>8893800</v>
       </c>
       <c r="G49" s="3">
-        <v>3385900</v>
+        <v>3253800</v>
       </c>
       <c r="H49" s="3">
-        <v>3103500</v>
+        <v>2982400</v>
       </c>
       <c r="I49" s="3">
-        <v>3037400</v>
+        <v>2918900</v>
       </c>
       <c r="J49" s="3">
-        <v>2789000</v>
+        <v>2680200</v>
       </c>
       <c r="K49" s="3">
         <v>5869800</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>313100</v>
+        <v>300900</v>
       </c>
       <c r="E52" s="3">
-        <v>240700</v>
+        <v>231300</v>
       </c>
       <c r="F52" s="3">
-        <v>216900</v>
+        <v>208500</v>
       </c>
       <c r="G52" s="3">
-        <v>170700</v>
+        <v>164100</v>
       </c>
       <c r="H52" s="3">
-        <v>117200</v>
+        <v>112600</v>
       </c>
       <c r="I52" s="3">
-        <v>145100</v>
+        <v>139400</v>
       </c>
       <c r="J52" s="3">
-        <v>128600</v>
+        <v>123600</v>
       </c>
       <c r="K52" s="3">
         <v>264300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14757600</v>
+        <v>14181700</v>
       </c>
       <c r="E54" s="3">
-        <v>13455500</v>
+        <v>12930500</v>
       </c>
       <c r="F54" s="3">
-        <v>14398400</v>
+        <v>13836500</v>
       </c>
       <c r="G54" s="3">
-        <v>8276200</v>
+        <v>7953300</v>
       </c>
       <c r="H54" s="3">
-        <v>7296200</v>
+        <v>7011500</v>
       </c>
       <c r="I54" s="3">
-        <v>7206200</v>
+        <v>6925000</v>
       </c>
       <c r="J54" s="3">
-        <v>6550600</v>
+        <v>6295000</v>
       </c>
       <c r="K54" s="3">
         <v>5413500</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>199700</v>
+        <v>191900</v>
       </c>
       <c r="E57" s="3">
-        <v>178200</v>
+        <v>171300</v>
       </c>
       <c r="F57" s="3">
-        <v>228300</v>
+        <v>219400</v>
       </c>
       <c r="G57" s="3">
-        <v>167800</v>
+        <v>161300</v>
       </c>
       <c r="H57" s="3">
-        <v>155000</v>
+        <v>148900</v>
       </c>
       <c r="I57" s="3">
-        <v>150400</v>
+        <v>144500</v>
       </c>
       <c r="J57" s="3">
-        <v>124300</v>
+        <v>119500</v>
       </c>
       <c r="K57" s="3">
         <v>142200</v>
@@ -2443,16 +2443,16 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1022200</v>
+        <v>982300</v>
       </c>
       <c r="E58" s="3">
-        <v>96000</v>
+        <v>92300</v>
       </c>
       <c r="F58" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="G58" s="3">
-        <v>363300</v>
+        <v>349100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>51</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2379900</v>
+        <v>2287000</v>
       </c>
       <c r="E59" s="3">
-        <v>1891800</v>
+        <v>1818000</v>
       </c>
       <c r="F59" s="3">
-        <v>1900300</v>
+        <v>1826100</v>
       </c>
       <c r="G59" s="3">
-        <v>1568400</v>
+        <v>1507200</v>
       </c>
       <c r="H59" s="3">
-        <v>1430400</v>
+        <v>1374600</v>
       </c>
       <c r="I59" s="3">
-        <v>1370800</v>
+        <v>1317300</v>
       </c>
       <c r="J59" s="3">
-        <v>1237200</v>
+        <v>1189000</v>
       </c>
       <c r="K59" s="3">
         <v>1486200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3601800</v>
+        <v>3461300</v>
       </c>
       <c r="E60" s="3">
-        <v>2166000</v>
+        <v>2081500</v>
       </c>
       <c r="F60" s="3">
-        <v>2214800</v>
+        <v>2128400</v>
       </c>
       <c r="G60" s="3">
-        <v>2099500</v>
+        <v>2017500</v>
       </c>
       <c r="H60" s="3">
-        <v>1585300</v>
+        <v>1523500</v>
       </c>
       <c r="I60" s="3">
-        <v>1521200</v>
+        <v>1461800</v>
       </c>
       <c r="J60" s="3">
-        <v>1361600</v>
+        <v>1308500</v>
       </c>
       <c r="K60" s="3">
         <v>1238000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3616000</v>
+        <v>3474900</v>
       </c>
       <c r="E61" s="3">
-        <v>4918400</v>
+        <v>4726500</v>
       </c>
       <c r="F61" s="3">
-        <v>5407000</v>
+        <v>5196100</v>
       </c>
       <c r="G61" s="3">
-        <v>674600</v>
+        <v>648300</v>
       </c>
       <c r="H61" s="3">
-        <v>1037900</v>
+        <v>997400</v>
       </c>
       <c r="I61" s="3">
-        <v>1037900</v>
+        <v>997400</v>
       </c>
       <c r="J61" s="3">
-        <v>1037900</v>
+        <v>997400</v>
       </c>
       <c r="K61" s="3">
         <v>381800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1093300</v>
+        <v>1050700</v>
       </c>
       <c r="E62" s="3">
-        <v>1071500</v>
+        <v>1029700</v>
       </c>
       <c r="F62" s="3">
-        <v>1314600</v>
+        <v>1263300</v>
       </c>
       <c r="G62" s="3">
-        <v>700900</v>
+        <v>673500</v>
       </c>
       <c r="H62" s="3">
-        <v>525500</v>
+        <v>505000</v>
       </c>
       <c r="I62" s="3">
-        <v>617100</v>
+        <v>593000</v>
       </c>
       <c r="J62" s="3">
-        <v>531300</v>
+        <v>510500</v>
       </c>
       <c r="K62" s="3">
         <v>1132500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8325400</v>
+        <v>8000500</v>
       </c>
       <c r="E66" s="3">
-        <v>8202400</v>
+        <v>7882400</v>
       </c>
       <c r="F66" s="3">
-        <v>8992400</v>
+        <v>8641500</v>
       </c>
       <c r="G66" s="3">
-        <v>3541300</v>
+        <v>3403100</v>
       </c>
       <c r="H66" s="3">
-        <v>3150700</v>
+        <v>3027700</v>
       </c>
       <c r="I66" s="3">
-        <v>3199700</v>
+        <v>3074800</v>
       </c>
       <c r="J66" s="3">
-        <v>2950600</v>
+        <v>2835500</v>
       </c>
       <c r="K66" s="3">
         <v>2202500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5929100</v>
+        <v>5697700</v>
       </c>
       <c r="E72" s="3">
-        <v>5234900</v>
+        <v>5030600</v>
       </c>
       <c r="F72" s="3">
-        <v>4829600</v>
+        <v>4641100</v>
       </c>
       <c r="G72" s="3">
-        <v>4155200</v>
+        <v>3993100</v>
       </c>
       <c r="H72" s="3">
-        <v>3714600</v>
+        <v>3569700</v>
       </c>
       <c r="I72" s="3">
-        <v>3293900</v>
+        <v>3165400</v>
       </c>
       <c r="J72" s="3">
-        <v>2903600</v>
+        <v>2790300</v>
       </c>
       <c r="K72" s="3">
         <v>2716000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6432200</v>
+        <v>6181200</v>
       </c>
       <c r="E76" s="3">
-        <v>5253200</v>
+        <v>5048200</v>
       </c>
       <c r="F76" s="3">
-        <v>5406200</v>
+        <v>5195300</v>
       </c>
       <c r="G76" s="3">
-        <v>4734900</v>
+        <v>4550100</v>
       </c>
       <c r="H76" s="3">
-        <v>4145600</v>
+        <v>3983800</v>
       </c>
       <c r="I76" s="3">
-        <v>4006500</v>
+        <v>3850200</v>
       </c>
       <c r="J76" s="3">
-        <v>3600000</v>
+        <v>3459500</v>
       </c>
       <c r="K76" s="3">
         <v>3211000</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>803000</v>
+        <v>771700</v>
       </c>
       <c r="E81" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="F81" s="3">
-        <v>638600</v>
+        <v>613700</v>
       </c>
       <c r="G81" s="3">
-        <v>591000</v>
+        <v>567900</v>
       </c>
       <c r="H81" s="3">
-        <v>539100</v>
+        <v>518100</v>
       </c>
       <c r="I81" s="3">
-        <v>464100</v>
+        <v>446000</v>
       </c>
       <c r="J81" s="3">
-        <v>417400</v>
+        <v>401100</v>
       </c>
       <c r="K81" s="3">
         <v>317700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>581700</v>
+        <v>559000</v>
       </c>
       <c r="E83" s="3">
-        <v>627400</v>
+        <v>602900</v>
       </c>
       <c r="F83" s="3">
-        <v>411000</v>
+        <v>395000</v>
       </c>
       <c r="G83" s="3">
-        <v>246700</v>
+        <v>237100</v>
       </c>
       <c r="H83" s="3">
-        <v>225900</v>
+        <v>217100</v>
       </c>
       <c r="I83" s="3">
-        <v>214300</v>
+        <v>205900</v>
       </c>
       <c r="J83" s="3">
-        <v>219400</v>
+        <v>210800</v>
       </c>
       <c r="K83" s="3">
         <v>192400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1674200</v>
+        <v>1608900</v>
       </c>
       <c r="E89" s="3">
-        <v>1288300</v>
+        <v>1238100</v>
       </c>
       <c r="F89" s="3">
-        <v>1230900</v>
+        <v>1182900</v>
       </c>
       <c r="G89" s="3">
-        <v>932700</v>
+        <v>896300</v>
       </c>
       <c r="H89" s="3">
-        <v>773300</v>
+        <v>743100</v>
       </c>
       <c r="I89" s="3">
-        <v>645300</v>
+        <v>620100</v>
       </c>
       <c r="J89" s="3">
-        <v>657300</v>
+        <v>631600</v>
       </c>
       <c r="K89" s="3">
         <v>544900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107600</v>
+        <v>-103400</v>
       </c>
       <c r="E91" s="3">
-        <v>-131800</v>
+        <v>-126700</v>
       </c>
       <c r="F91" s="3">
-        <v>-102000</v>
+        <v>-98000</v>
       </c>
       <c r="G91" s="3">
-        <v>-75100</v>
+        <v>-72200</v>
       </c>
       <c r="H91" s="3">
-        <v>-87700</v>
+        <v>-84300</v>
       </c>
       <c r="I91" s="3">
-        <v>-58800</v>
+        <v>-56500</v>
       </c>
       <c r="J91" s="3">
-        <v>-45200</v>
+        <v>-43500</v>
       </c>
       <c r="K91" s="3">
         <v>-49500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-166500</v>
+        <v>-160000</v>
       </c>
       <c r="E94" s="3">
-        <v>-215900</v>
+        <v>-207500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5537000</v>
+        <v>-5320900</v>
       </c>
       <c r="G94" s="3">
-        <v>-335400</v>
+        <v>-322400</v>
       </c>
       <c r="H94" s="3">
-        <v>-381400</v>
+        <v>-366500</v>
       </c>
       <c r="I94" s="3">
-        <v>-310300</v>
+        <v>-298100</v>
       </c>
       <c r="J94" s="3">
-        <v>-62800</v>
+        <v>-60400</v>
       </c>
       <c r="K94" s="3">
         <v>-1091800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-152700</v>
+        <v>-146700</v>
       </c>
       <c r="E96" s="3">
-        <v>-189400</v>
+        <v>-182000</v>
       </c>
       <c r="F96" s="3">
-        <v>-175200</v>
+        <v>-168400</v>
       </c>
       <c r="G96" s="3">
-        <v>-39400</v>
+        <v>-37900</v>
       </c>
       <c r="H96" s="3">
-        <v>-53200</v>
+        <v>-51100</v>
       </c>
       <c r="I96" s="3">
-        <v>-105800</v>
+        <v>-101700</v>
       </c>
       <c r="J96" s="3">
-        <v>-102100</v>
+        <v>-98200</v>
       </c>
       <c r="K96" s="3">
         <v>-39000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-738900</v>
+        <v>-710000</v>
       </c>
       <c r="E100" s="3">
-        <v>-770000</v>
+        <v>-740000</v>
       </c>
       <c r="F100" s="3">
-        <v>3370600</v>
+        <v>3239100</v>
       </c>
       <c r="G100" s="3">
-        <v>-301800</v>
+        <v>-290000</v>
       </c>
       <c r="H100" s="3">
-        <v>-165400</v>
+        <v>-159000</v>
       </c>
       <c r="I100" s="3">
-        <v>-210000</v>
+        <v>-201800</v>
       </c>
       <c r="J100" s="3">
-        <v>569200</v>
+        <v>547000</v>
       </c>
       <c r="K100" s="3">
         <v>-185700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>93200</v>
+        <v>89600</v>
       </c>
       <c r="E101" s="3">
-        <v>-90700</v>
+        <v>-87200</v>
       </c>
       <c r="F101" s="3">
-        <v>38300</v>
+        <v>36800</v>
       </c>
       <c r="G101" s="3">
-        <v>67800</v>
+        <v>65100</v>
       </c>
       <c r="H101" s="3">
-        <v>-202800</v>
+        <v>-194900</v>
       </c>
       <c r="I101" s="3">
-        <v>37100</v>
+        <v>35600</v>
       </c>
       <c r="J101" s="3">
-        <v>57300</v>
+        <v>55000</v>
       </c>
       <c r="K101" s="3">
         <v>41400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>862100</v>
+        <v>828400</v>
       </c>
       <c r="E102" s="3">
-        <v>211700</v>
+        <v>203500</v>
       </c>
       <c r="F102" s="3">
-        <v>-897200</v>
+        <v>-862200</v>
       </c>
       <c r="G102" s="3">
-        <v>363200</v>
+        <v>349000</v>
       </c>
       <c r="H102" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="I102" s="3">
-        <v>162100</v>
+        <v>155800</v>
       </c>
       <c r="J102" s="3">
-        <v>1220900</v>
+        <v>1173300</v>
       </c>
       <c r="K102" s="3">
         <v>-691300</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4847500</v>
+        <v>4961200</v>
       </c>
       <c r="E8" s="3">
-        <v>4440600</v>
+        <v>4544800</v>
       </c>
       <c r="F8" s="3">
-        <v>4007800</v>
+        <v>4101800</v>
       </c>
       <c r="G8" s="3">
-        <v>3468400</v>
+        <v>3549700</v>
       </c>
       <c r="H8" s="3">
-        <v>3219600</v>
+        <v>3295200</v>
       </c>
       <c r="I8" s="3">
-        <v>3047600</v>
+        <v>3119100</v>
       </c>
       <c r="J8" s="3">
-        <v>2832100</v>
+        <v>2898500</v>
       </c>
       <c r="K8" s="3">
         <v>2502900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>788200</v>
+        <v>806700</v>
       </c>
       <c r="E9" s="3">
-        <v>747700</v>
+        <v>765200</v>
       </c>
       <c r="F9" s="3">
-        <v>632000</v>
+        <v>646800</v>
       </c>
       <c r="G9" s="3">
-        <v>509500</v>
+        <v>521400</v>
       </c>
       <c r="H9" s="3">
-        <v>472700</v>
+        <v>483800</v>
       </c>
       <c r="I9" s="3">
-        <v>462400</v>
+        <v>473200</v>
       </c>
       <c r="J9" s="3">
-        <v>436800</v>
+        <v>447000</v>
       </c>
       <c r="K9" s="3">
         <v>374500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4059200</v>
+        <v>4154500</v>
       </c>
       <c r="E10" s="3">
-        <v>3693000</v>
+        <v>3779600</v>
       </c>
       <c r="F10" s="3">
-        <v>3375800</v>
+        <v>3455000</v>
       </c>
       <c r="G10" s="3">
-        <v>2958900</v>
+        <v>3028300</v>
       </c>
       <c r="H10" s="3">
-        <v>2746900</v>
+        <v>2811300</v>
       </c>
       <c r="I10" s="3">
-        <v>2585300</v>
+        <v>2645900</v>
       </c>
       <c r="J10" s="3">
-        <v>2395300</v>
+        <v>2451500</v>
       </c>
       <c r="K10" s="3">
         <v>2128400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>84400</v>
+        <v>86400</v>
       </c>
       <c r="E12" s="3">
-        <v>75500</v>
+        <v>77300</v>
       </c>
       <c r="F12" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="G12" s="3">
-        <v>629500</v>
+        <v>644200</v>
       </c>
       <c r="H12" s="3">
-        <v>575100</v>
+        <v>588600</v>
       </c>
       <c r="I12" s="3">
-        <v>539100</v>
+        <v>551700</v>
       </c>
       <c r="J12" s="3">
-        <v>491200</v>
+        <v>502700</v>
       </c>
       <c r="K12" s="3">
         <v>446900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="E14" s="3">
-        <v>55800</v>
+        <v>57100</v>
       </c>
       <c r="F14" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="G14" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="H14" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="I14" s="3">
-        <v>40500</v>
+        <v>41400</v>
       </c>
       <c r="J14" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="K14" s="3">
         <v>40400</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>368000</v>
+        <v>376700</v>
       </c>
       <c r="E15" s="3">
-        <v>393500</v>
+        <v>402700</v>
       </c>
       <c r="F15" s="3">
-        <v>243400</v>
+        <v>249100</v>
       </c>
       <c r="G15" s="3">
-        <v>171200</v>
+        <v>175200</v>
       </c>
       <c r="H15" s="3">
-        <v>159900</v>
+        <v>163600</v>
       </c>
       <c r="I15" s="3">
-        <v>155400</v>
+        <v>159100</v>
       </c>
       <c r="J15" s="3">
-        <v>159100</v>
+        <v>162900</v>
       </c>
       <c r="K15" s="3">
         <v>145500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3830700</v>
+        <v>3920600</v>
       </c>
       <c r="E17" s="3">
-        <v>3772700</v>
+        <v>3861200</v>
       </c>
       <c r="F17" s="3">
-        <v>3197100</v>
+        <v>3272100</v>
       </c>
       <c r="G17" s="3">
-        <v>2702200</v>
+        <v>2765600</v>
       </c>
       <c r="H17" s="3">
-        <v>2492500</v>
+        <v>2551000</v>
       </c>
       <c r="I17" s="3">
-        <v>2377400</v>
+        <v>2433100</v>
       </c>
       <c r="J17" s="3">
-        <v>2200500</v>
+        <v>2252100</v>
       </c>
       <c r="K17" s="3">
         <v>2032900</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1016700</v>
+        <v>1040600</v>
       </c>
       <c r="E18" s="3">
-        <v>668000</v>
+        <v>683600</v>
       </c>
       <c r="F18" s="3">
-        <v>810700</v>
+        <v>829700</v>
       </c>
       <c r="G18" s="3">
-        <v>766200</v>
+        <v>784200</v>
       </c>
       <c r="H18" s="3">
-        <v>727100</v>
+        <v>744200</v>
       </c>
       <c r="I18" s="3">
-        <v>670300</v>
+        <v>686000</v>
       </c>
       <c r="J18" s="3">
-        <v>631600</v>
+        <v>646400</v>
       </c>
       <c r="K18" s="3">
         <v>470000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="E20" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="G20" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="H20" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="I20" s="3">
         <v>2200</v>
       </c>
       <c r="J20" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K20" s="3">
         <v>22600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1588400</v>
+        <v>1615100</v>
       </c>
       <c r="E21" s="3">
-        <v>1284100</v>
+        <v>1302900</v>
       </c>
       <c r="F21" s="3">
-        <v>1233500</v>
+        <v>1255000</v>
       </c>
       <c r="G21" s="3">
-        <v>1034000</v>
+        <v>1053800</v>
       </c>
       <c r="H21" s="3">
-        <v>978800</v>
+        <v>997700</v>
       </c>
       <c r="I21" s="3">
-        <v>878200</v>
+        <v>894900</v>
       </c>
       <c r="J21" s="3">
-        <v>849500</v>
+        <v>865400</v>
       </c>
       <c r="K21" s="3">
         <v>687800</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="E22" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="F22" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="G22" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H22" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="I22" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="J22" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="K22" s="3">
         <v>6300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1001700</v>
+        <v>1025200</v>
       </c>
       <c r="E23" s="3">
-        <v>644600</v>
+        <v>659700</v>
       </c>
       <c r="F23" s="3">
-        <v>813800</v>
+        <v>832900</v>
       </c>
       <c r="G23" s="3">
-        <v>781800</v>
+        <v>800100</v>
       </c>
       <c r="H23" s="3">
-        <v>749500</v>
+        <v>767100</v>
       </c>
       <c r="I23" s="3">
-        <v>659800</v>
+        <v>675300</v>
       </c>
       <c r="J23" s="3">
-        <v>631400</v>
+        <v>646300</v>
       </c>
       <c r="K23" s="3">
         <v>486300</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>229800</v>
+        <v>235200</v>
       </c>
       <c r="E24" s="3">
-        <v>160400</v>
+        <v>164100</v>
       </c>
       <c r="F24" s="3">
-        <v>209100</v>
+        <v>214000</v>
       </c>
       <c r="G24" s="3">
-        <v>219800</v>
+        <v>225000</v>
       </c>
       <c r="H24" s="3">
-        <v>230700</v>
+        <v>236100</v>
       </c>
       <c r="I24" s="3">
-        <v>208700</v>
+        <v>213600</v>
       </c>
       <c r="J24" s="3">
-        <v>226500</v>
+        <v>231900</v>
       </c>
       <c r="K24" s="3">
         <v>167200</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>771900</v>
+        <v>790000</v>
       </c>
       <c r="E26" s="3">
-        <v>484200</v>
+        <v>495600</v>
       </c>
       <c r="F26" s="3">
-        <v>604700</v>
+        <v>618900</v>
       </c>
       <c r="G26" s="3">
-        <v>561900</v>
+        <v>575100</v>
       </c>
       <c r="H26" s="3">
-        <v>518800</v>
+        <v>531000</v>
       </c>
       <c r="I26" s="3">
-        <v>451000</v>
+        <v>461600</v>
       </c>
       <c r="J26" s="3">
-        <v>404900</v>
+        <v>414400</v>
       </c>
       <c r="K26" s="3">
         <v>319000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>771700</v>
+        <v>789800</v>
       </c>
       <c r="E27" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="F27" s="3">
-        <v>613700</v>
+        <v>628100</v>
       </c>
       <c r="G27" s="3">
-        <v>567900</v>
+        <v>581200</v>
       </c>
       <c r="H27" s="3">
-        <v>518100</v>
+        <v>530200</v>
       </c>
       <c r="I27" s="3">
-        <v>446000</v>
+        <v>456500</v>
       </c>
       <c r="J27" s="3">
-        <v>401100</v>
+        <v>410500</v>
       </c>
       <c r="K27" s="3">
         <v>317700</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="F32" s="3">
-        <v>-28200</v>
+        <v>-28900</v>
       </c>
       <c r="G32" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="H32" s="3">
-        <v>-34700</v>
+        <v>-35600</v>
       </c>
       <c r="I32" s="3">
         <v>-2200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="K32" s="3">
         <v>-22600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>771700</v>
+        <v>789800</v>
       </c>
       <c r="E33" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="F33" s="3">
-        <v>613700</v>
+        <v>628100</v>
       </c>
       <c r="G33" s="3">
-        <v>567900</v>
+        <v>581200</v>
       </c>
       <c r="H33" s="3">
-        <v>518100</v>
+        <v>530200</v>
       </c>
       <c r="I33" s="3">
-        <v>446000</v>
+        <v>456500</v>
       </c>
       <c r="J33" s="3">
-        <v>401100</v>
+        <v>410500</v>
       </c>
       <c r="K33" s="3">
         <v>317700</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>771700</v>
+        <v>789800</v>
       </c>
       <c r="E35" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="F35" s="3">
-        <v>613700</v>
+        <v>628100</v>
       </c>
       <c r="G35" s="3">
-        <v>567900</v>
+        <v>581200</v>
       </c>
       <c r="H35" s="3">
-        <v>518100</v>
+        <v>530200</v>
       </c>
       <c r="I35" s="3">
-        <v>446000</v>
+        <v>456500</v>
       </c>
       <c r="J35" s="3">
-        <v>401100</v>
+        <v>410500</v>
       </c>
       <c r="K35" s="3">
         <v>317700</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2971800</v>
+        <v>3041500</v>
       </c>
       <c r="E41" s="3">
-        <v>2143300</v>
+        <v>2193600</v>
       </c>
       <c r="F41" s="3">
-        <v>1939800</v>
+        <v>1985400</v>
       </c>
       <c r="G41" s="3">
-        <v>2802000</v>
+        <v>2867700</v>
       </c>
       <c r="H41" s="3">
-        <v>2453100</v>
+        <v>2510600</v>
       </c>
       <c r="I41" s="3">
-        <v>2430400</v>
+        <v>2487400</v>
       </c>
       <c r="J41" s="3">
-        <v>2274600</v>
+        <v>2328000</v>
       </c>
       <c r="K41" s="3">
         <v>1204600</v>
@@ -1878,10 +1878,10 @@
         <v>1300</v>
       </c>
       <c r="I42" s="3">
-        <v>55900</v>
+        <v>57200</v>
       </c>
       <c r="J42" s="3">
-        <v>70600</v>
+        <v>72200</v>
       </c>
       <c r="K42" s="3">
         <v>77800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1527200</v>
+        <v>1563000</v>
       </c>
       <c r="E43" s="3">
-        <v>1442300</v>
+        <v>1476200</v>
       </c>
       <c r="F43" s="3">
-        <v>1546100</v>
+        <v>1582300</v>
       </c>
       <c r="G43" s="3">
-        <v>1268500</v>
+        <v>1298300</v>
       </c>
       <c r="H43" s="3">
-        <v>1025500</v>
+        <v>1049500</v>
       </c>
       <c r="I43" s="3">
-        <v>975500</v>
+        <v>998300</v>
       </c>
       <c r="J43" s="3">
-        <v>825600</v>
+        <v>845000</v>
       </c>
       <c r="K43" s="3">
         <v>1493300</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>207800</v>
+        <v>212600</v>
       </c>
       <c r="E45" s="3">
-        <v>164900</v>
+        <v>168700</v>
       </c>
       <c r="F45" s="3">
-        <v>173500</v>
+        <v>177600</v>
       </c>
       <c r="G45" s="3">
-        <v>119800</v>
+        <v>122600</v>
       </c>
       <c r="H45" s="3">
-        <v>110400</v>
+        <v>112900</v>
       </c>
       <c r="I45" s="3">
-        <v>99400</v>
+        <v>101700</v>
       </c>
       <c r="J45" s="3">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="K45" s="3">
         <v>263100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4706700</v>
+        <v>4817200</v>
       </c>
       <c r="E46" s="3">
-        <v>3750500</v>
+        <v>3838500</v>
       </c>
       <c r="F46" s="3">
-        <v>3659500</v>
+        <v>3745300</v>
       </c>
       <c r="G46" s="3">
-        <v>4190900</v>
+        <v>4289200</v>
       </c>
       <c r="H46" s="3">
-        <v>3590100</v>
+        <v>3674400</v>
       </c>
       <c r="I46" s="3">
-        <v>3561200</v>
+        <v>3644700</v>
       </c>
       <c r="J46" s="3">
-        <v>3232800</v>
+        <v>3308600</v>
       </c>
       <c r="K46" s="3">
         <v>2160600</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>205600</v>
+        <v>210400</v>
       </c>
       <c r="E47" s="3">
-        <v>173100</v>
+        <v>177200</v>
       </c>
       <c r="F47" s="3">
-        <v>177400</v>
+        <v>181600</v>
       </c>
       <c r="G47" s="3">
-        <v>166800</v>
+        <v>170700</v>
       </c>
       <c r="H47" s="3">
-        <v>157800</v>
+        <v>161500</v>
       </c>
       <c r="I47" s="3">
-        <v>170500</v>
+        <v>174500</v>
       </c>
       <c r="J47" s="3">
-        <v>123500</v>
+        <v>126400</v>
       </c>
       <c r="K47" s="3">
         <v>75800</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>814900</v>
+        <v>834000</v>
       </c>
       <c r="E48" s="3">
-        <v>858900</v>
+        <v>879000</v>
       </c>
       <c r="F48" s="3">
-        <v>897400</v>
+        <v>918400</v>
       </c>
       <c r="G48" s="3">
-        <v>177700</v>
+        <v>181900</v>
       </c>
       <c r="H48" s="3">
-        <v>168500</v>
+        <v>172500</v>
       </c>
       <c r="I48" s="3">
-        <v>135000</v>
+        <v>138200</v>
       </c>
       <c r="J48" s="3">
-        <v>135000</v>
+        <v>138100</v>
       </c>
       <c r="K48" s="3">
         <v>298300</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8153600</v>
+        <v>8344900</v>
       </c>
       <c r="E49" s="3">
-        <v>7916700</v>
+        <v>8102400</v>
       </c>
       <c r="F49" s="3">
-        <v>8893800</v>
+        <v>9102500</v>
       </c>
       <c r="G49" s="3">
-        <v>3253800</v>
+        <v>3330200</v>
       </c>
       <c r="H49" s="3">
-        <v>2982400</v>
+        <v>3052400</v>
       </c>
       <c r="I49" s="3">
-        <v>2918900</v>
+        <v>2987400</v>
       </c>
       <c r="J49" s="3">
-        <v>2680200</v>
+        <v>2743000</v>
       </c>
       <c r="K49" s="3">
         <v>5869800</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>300900</v>
+        <v>308000</v>
       </c>
       <c r="E52" s="3">
-        <v>231300</v>
+        <v>236700</v>
       </c>
       <c r="F52" s="3">
-        <v>208500</v>
+        <v>213300</v>
       </c>
       <c r="G52" s="3">
-        <v>164100</v>
+        <v>167900</v>
       </c>
       <c r="H52" s="3">
-        <v>112600</v>
+        <v>115300</v>
       </c>
       <c r="I52" s="3">
-        <v>139400</v>
+        <v>142700</v>
       </c>
       <c r="J52" s="3">
-        <v>123600</v>
+        <v>126500</v>
       </c>
       <c r="K52" s="3">
         <v>264300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14181700</v>
+        <v>14514400</v>
       </c>
       <c r="E54" s="3">
-        <v>12930500</v>
+        <v>13233900</v>
       </c>
       <c r="F54" s="3">
-        <v>13836500</v>
+        <v>14161200</v>
       </c>
       <c r="G54" s="3">
-        <v>7953300</v>
+        <v>8139900</v>
       </c>
       <c r="H54" s="3">
-        <v>7011500</v>
+        <v>7176000</v>
       </c>
       <c r="I54" s="3">
-        <v>6925000</v>
+        <v>7087500</v>
       </c>
       <c r="J54" s="3">
-        <v>6295000</v>
+        <v>6442700</v>
       </c>
       <c r="K54" s="3">
         <v>5413500</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>191900</v>
+        <v>196400</v>
       </c>
       <c r="E57" s="3">
-        <v>171300</v>
+        <v>175300</v>
       </c>
       <c r="F57" s="3">
-        <v>219400</v>
+        <v>224600</v>
       </c>
       <c r="G57" s="3">
-        <v>161300</v>
+        <v>165100</v>
       </c>
       <c r="H57" s="3">
-        <v>148900</v>
+        <v>152400</v>
       </c>
       <c r="I57" s="3">
-        <v>144500</v>
+        <v>147900</v>
       </c>
       <c r="J57" s="3">
-        <v>119500</v>
+        <v>122300</v>
       </c>
       <c r="K57" s="3">
         <v>142200</v>
@@ -2443,16 +2443,16 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>982300</v>
+        <v>1005400</v>
       </c>
       <c r="E58" s="3">
-        <v>92300</v>
+        <v>94400</v>
       </c>
       <c r="F58" s="3">
-        <v>82800</v>
+        <v>84700</v>
       </c>
       <c r="G58" s="3">
-        <v>349100</v>
+        <v>357300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>51</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2287000</v>
+        <v>2340700</v>
       </c>
       <c r="E59" s="3">
-        <v>1818000</v>
+        <v>1860600</v>
       </c>
       <c r="F59" s="3">
-        <v>1826100</v>
+        <v>1869000</v>
       </c>
       <c r="G59" s="3">
-        <v>1507200</v>
+        <v>1542500</v>
       </c>
       <c r="H59" s="3">
-        <v>1374600</v>
+        <v>1406800</v>
       </c>
       <c r="I59" s="3">
-        <v>1317300</v>
+        <v>1348300</v>
       </c>
       <c r="J59" s="3">
-        <v>1189000</v>
+        <v>1216900</v>
       </c>
       <c r="K59" s="3">
         <v>1486200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3461300</v>
+        <v>3542500</v>
       </c>
       <c r="E60" s="3">
-        <v>2081500</v>
+        <v>2130300</v>
       </c>
       <c r="F60" s="3">
-        <v>2128400</v>
+        <v>2178300</v>
       </c>
       <c r="G60" s="3">
-        <v>2017500</v>
+        <v>2064900</v>
       </c>
       <c r="H60" s="3">
-        <v>1523500</v>
+        <v>1559200</v>
       </c>
       <c r="I60" s="3">
-        <v>1461800</v>
+        <v>1496100</v>
       </c>
       <c r="J60" s="3">
-        <v>1308500</v>
+        <v>1339200</v>
       </c>
       <c r="K60" s="3">
         <v>1238000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3474900</v>
+        <v>3556500</v>
       </c>
       <c r="E61" s="3">
-        <v>4726500</v>
+        <v>4837400</v>
       </c>
       <c r="F61" s="3">
-        <v>5196100</v>
+        <v>5318000</v>
       </c>
       <c r="G61" s="3">
-        <v>648300</v>
+        <v>663500</v>
       </c>
       <c r="H61" s="3">
-        <v>997400</v>
+        <v>1020800</v>
       </c>
       <c r="I61" s="3">
-        <v>997400</v>
+        <v>1020800</v>
       </c>
       <c r="J61" s="3">
-        <v>997400</v>
+        <v>1020800</v>
       </c>
       <c r="K61" s="3">
         <v>381800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1050700</v>
+        <v>1075300</v>
       </c>
       <c r="E62" s="3">
-        <v>1029700</v>
+        <v>1053900</v>
       </c>
       <c r="F62" s="3">
-        <v>1263300</v>
+        <v>1292900</v>
       </c>
       <c r="G62" s="3">
-        <v>673500</v>
+        <v>689300</v>
       </c>
       <c r="H62" s="3">
-        <v>505000</v>
+        <v>516800</v>
       </c>
       <c r="I62" s="3">
-        <v>593000</v>
+        <v>607000</v>
       </c>
       <c r="J62" s="3">
-        <v>510500</v>
+        <v>522500</v>
       </c>
       <c r="K62" s="3">
         <v>1132500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8000500</v>
+        <v>8188200</v>
       </c>
       <c r="E66" s="3">
-        <v>7882400</v>
+        <v>8067300</v>
       </c>
       <c r="F66" s="3">
-        <v>8641500</v>
+        <v>8844200</v>
       </c>
       <c r="G66" s="3">
-        <v>3403100</v>
+        <v>3483000</v>
       </c>
       <c r="H66" s="3">
-        <v>3027700</v>
+        <v>3098800</v>
       </c>
       <c r="I66" s="3">
-        <v>3074800</v>
+        <v>3147000</v>
       </c>
       <c r="J66" s="3">
-        <v>2835500</v>
+        <v>2902000</v>
       </c>
       <c r="K66" s="3">
         <v>2202500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5697700</v>
+        <v>5831400</v>
       </c>
       <c r="E72" s="3">
-        <v>5030600</v>
+        <v>5148600</v>
       </c>
       <c r="F72" s="3">
-        <v>4641100</v>
+        <v>4750000</v>
       </c>
       <c r="G72" s="3">
-        <v>3993100</v>
+        <v>4086800</v>
       </c>
       <c r="H72" s="3">
-        <v>3569700</v>
+        <v>3653400</v>
       </c>
       <c r="I72" s="3">
-        <v>3165400</v>
+        <v>3239700</v>
       </c>
       <c r="J72" s="3">
-        <v>2790300</v>
+        <v>2855700</v>
       </c>
       <c r="K72" s="3">
         <v>2716000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6181200</v>
+        <v>6326200</v>
       </c>
       <c r="E76" s="3">
-        <v>5048200</v>
+        <v>5166700</v>
       </c>
       <c r="F76" s="3">
-        <v>5195300</v>
+        <v>5317100</v>
       </c>
       <c r="G76" s="3">
-        <v>4550100</v>
+        <v>4656900</v>
       </c>
       <c r="H76" s="3">
-        <v>3983800</v>
+        <v>4077300</v>
       </c>
       <c r="I76" s="3">
-        <v>3850200</v>
+        <v>3940500</v>
       </c>
       <c r="J76" s="3">
-        <v>3459500</v>
+        <v>3540700</v>
       </c>
       <c r="K76" s="3">
         <v>3211000</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>771700</v>
+        <v>789800</v>
       </c>
       <c r="E81" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="F81" s="3">
-        <v>613700</v>
+        <v>628100</v>
       </c>
       <c r="G81" s="3">
-        <v>567900</v>
+        <v>581200</v>
       </c>
       <c r="H81" s="3">
-        <v>518100</v>
+        <v>530200</v>
       </c>
       <c r="I81" s="3">
-        <v>446000</v>
+        <v>456500</v>
       </c>
       <c r="J81" s="3">
-        <v>401100</v>
+        <v>410500</v>
       </c>
       <c r="K81" s="3">
         <v>317700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>559000</v>
+        <v>572200</v>
       </c>
       <c r="E83" s="3">
-        <v>602900</v>
+        <v>617100</v>
       </c>
       <c r="F83" s="3">
-        <v>395000</v>
+        <v>404200</v>
       </c>
       <c r="G83" s="3">
-        <v>237100</v>
+        <v>242600</v>
       </c>
       <c r="H83" s="3">
-        <v>217100</v>
+        <v>222200</v>
       </c>
       <c r="I83" s="3">
-        <v>205900</v>
+        <v>210700</v>
       </c>
       <c r="J83" s="3">
-        <v>210800</v>
+        <v>215800</v>
       </c>
       <c r="K83" s="3">
         <v>192400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1608900</v>
+        <v>1646700</v>
       </c>
       <c r="E89" s="3">
-        <v>1238100</v>
+        <v>1267100</v>
       </c>
       <c r="F89" s="3">
-        <v>1182900</v>
+        <v>1210700</v>
       </c>
       <c r="G89" s="3">
-        <v>896300</v>
+        <v>917300</v>
       </c>
       <c r="H89" s="3">
-        <v>743100</v>
+        <v>760500</v>
       </c>
       <c r="I89" s="3">
-        <v>620100</v>
+        <v>634700</v>
       </c>
       <c r="J89" s="3">
-        <v>631600</v>
+        <v>646400</v>
       </c>
       <c r="K89" s="3">
         <v>544900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-103400</v>
+        <v>-105900</v>
       </c>
       <c r="E91" s="3">
-        <v>-126700</v>
+        <v>-129600</v>
       </c>
       <c r="F91" s="3">
-        <v>-98000</v>
+        <v>-100300</v>
       </c>
       <c r="G91" s="3">
-        <v>-72200</v>
+        <v>-73900</v>
       </c>
       <c r="H91" s="3">
-        <v>-84300</v>
+        <v>-86300</v>
       </c>
       <c r="I91" s="3">
-        <v>-56500</v>
+        <v>-57800</v>
       </c>
       <c r="J91" s="3">
-        <v>-43500</v>
+        <v>-44500</v>
       </c>
       <c r="K91" s="3">
         <v>-49500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-160000</v>
+        <v>-163700</v>
       </c>
       <c r="E94" s="3">
-        <v>-207500</v>
+        <v>-212300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5320900</v>
+        <v>-5445800</v>
       </c>
       <c r="G94" s="3">
-        <v>-322400</v>
+        <v>-329900</v>
       </c>
       <c r="H94" s="3">
-        <v>-366500</v>
+        <v>-375100</v>
       </c>
       <c r="I94" s="3">
-        <v>-298100</v>
+        <v>-305100</v>
       </c>
       <c r="J94" s="3">
-        <v>-60400</v>
+        <v>-61800</v>
       </c>
       <c r="K94" s="3">
         <v>-1091800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-146700</v>
+        <v>-150200</v>
       </c>
       <c r="E96" s="3">
-        <v>-182000</v>
+        <v>-186300</v>
       </c>
       <c r="F96" s="3">
-        <v>-168400</v>
+        <v>-172300</v>
       </c>
       <c r="G96" s="3">
-        <v>-37900</v>
+        <v>-38800</v>
       </c>
       <c r="H96" s="3">
-        <v>-51100</v>
+        <v>-52300</v>
       </c>
       <c r="I96" s="3">
-        <v>-101700</v>
+        <v>-104100</v>
       </c>
       <c r="J96" s="3">
-        <v>-98200</v>
+        <v>-100500</v>
       </c>
       <c r="K96" s="3">
         <v>-39000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-710000</v>
+        <v>-726700</v>
       </c>
       <c r="E100" s="3">
-        <v>-740000</v>
+        <v>-757300</v>
       </c>
       <c r="F100" s="3">
-        <v>3239100</v>
+        <v>3315000</v>
       </c>
       <c r="G100" s="3">
-        <v>-290000</v>
+        <v>-296800</v>
       </c>
       <c r="H100" s="3">
-        <v>-159000</v>
+        <v>-162700</v>
       </c>
       <c r="I100" s="3">
-        <v>-201800</v>
+        <v>-206600</v>
       </c>
       <c r="J100" s="3">
-        <v>547000</v>
+        <v>559800</v>
       </c>
       <c r="K100" s="3">
         <v>-185700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>89600</v>
+        <v>91700</v>
       </c>
       <c r="E101" s="3">
-        <v>-87200</v>
+        <v>-89200</v>
       </c>
       <c r="F101" s="3">
-        <v>36800</v>
+        <v>37700</v>
       </c>
       <c r="G101" s="3">
-        <v>65100</v>
+        <v>66700</v>
       </c>
       <c r="H101" s="3">
-        <v>-194900</v>
+        <v>-199500</v>
       </c>
       <c r="I101" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="J101" s="3">
-        <v>55000</v>
+        <v>56300</v>
       </c>
       <c r="K101" s="3">
         <v>41400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>828400</v>
+        <v>847900</v>
       </c>
       <c r="E102" s="3">
-        <v>203500</v>
+        <v>208200</v>
       </c>
       <c r="F102" s="3">
-        <v>-862200</v>
+        <v>-882400</v>
       </c>
       <c r="G102" s="3">
-        <v>349000</v>
+        <v>357200</v>
       </c>
       <c r="H102" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="I102" s="3">
-        <v>155800</v>
+        <v>159400</v>
       </c>
       <c r="J102" s="3">
-        <v>1173300</v>
+        <v>1200800</v>
       </c>
       <c r="K102" s="3">
         <v>-691300</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>DASTY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4961200</v>
+        <v>5142000</v>
       </c>
       <c r="E8" s="3">
-        <v>4544800</v>
+        <v>4710400</v>
       </c>
       <c r="F8" s="3">
-        <v>4101800</v>
+        <v>4251300</v>
       </c>
       <c r="G8" s="3">
-        <v>3549700</v>
+        <v>3679100</v>
       </c>
       <c r="H8" s="3">
-        <v>3295200</v>
+        <v>3415200</v>
       </c>
       <c r="I8" s="3">
-        <v>3119100</v>
+        <v>3232800</v>
       </c>
       <c r="J8" s="3">
-        <v>2898500</v>
+        <v>3004100</v>
       </c>
       <c r="K8" s="3">
         <v>2502900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>806700</v>
+        <v>836100</v>
       </c>
       <c r="E9" s="3">
-        <v>765200</v>
+        <v>793100</v>
       </c>
       <c r="F9" s="3">
-        <v>646800</v>
+        <v>670300</v>
       </c>
       <c r="G9" s="3">
-        <v>521400</v>
+        <v>540400</v>
       </c>
       <c r="H9" s="3">
-        <v>483800</v>
+        <v>501500</v>
       </c>
       <c r="I9" s="3">
-        <v>473200</v>
+        <v>490500</v>
       </c>
       <c r="J9" s="3">
-        <v>447000</v>
+        <v>463300</v>
       </c>
       <c r="K9" s="3">
         <v>374500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4154500</v>
+        <v>4305800</v>
       </c>
       <c r="E10" s="3">
-        <v>3779600</v>
+        <v>3917400</v>
       </c>
       <c r="F10" s="3">
-        <v>3455000</v>
+        <v>3580900</v>
       </c>
       <c r="G10" s="3">
-        <v>3028300</v>
+        <v>3138700</v>
       </c>
       <c r="H10" s="3">
-        <v>2811300</v>
+        <v>2913800</v>
       </c>
       <c r="I10" s="3">
-        <v>2645900</v>
+        <v>2742300</v>
       </c>
       <c r="J10" s="3">
-        <v>2451500</v>
+        <v>2540800</v>
       </c>
       <c r="K10" s="3">
         <v>2128400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>86400</v>
+        <v>89500</v>
       </c>
       <c r="E12" s="3">
-        <v>77300</v>
+        <v>80100</v>
       </c>
       <c r="F12" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="G12" s="3">
-        <v>644200</v>
+        <v>667700</v>
       </c>
       <c r="H12" s="3">
-        <v>588600</v>
+        <v>610000</v>
       </c>
       <c r="I12" s="3">
-        <v>551700</v>
+        <v>571900</v>
       </c>
       <c r="J12" s="3">
-        <v>502700</v>
+        <v>521100</v>
       </c>
       <c r="K12" s="3">
         <v>446900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>32100</v>
+        <v>33200</v>
       </c>
       <c r="E14" s="3">
-        <v>57100</v>
+        <v>59100</v>
       </c>
       <c r="F14" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G14" s="3">
-        <v>39200</v>
+        <v>40600</v>
       </c>
       <c r="H14" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="I14" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="J14" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="K14" s="3">
         <v>40400</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>376700</v>
+        <v>390400</v>
       </c>
       <c r="E15" s="3">
-        <v>402700</v>
+        <v>417400</v>
       </c>
       <c r="F15" s="3">
-        <v>249100</v>
+        <v>258200</v>
       </c>
       <c r="G15" s="3">
-        <v>175200</v>
+        <v>181600</v>
       </c>
       <c r="H15" s="3">
-        <v>163600</v>
+        <v>169600</v>
       </c>
       <c r="I15" s="3">
-        <v>159100</v>
+        <v>164900</v>
       </c>
       <c r="J15" s="3">
-        <v>162900</v>
+        <v>168800</v>
       </c>
       <c r="K15" s="3">
         <v>145500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3920600</v>
+        <v>4063500</v>
       </c>
       <c r="E17" s="3">
-        <v>3861200</v>
+        <v>4001900</v>
       </c>
       <c r="F17" s="3">
-        <v>3272100</v>
+        <v>3391300</v>
       </c>
       <c r="G17" s="3">
-        <v>2765600</v>
+        <v>2866300</v>
       </c>
       <c r="H17" s="3">
-        <v>2551000</v>
+        <v>2643900</v>
       </c>
       <c r="I17" s="3">
-        <v>2433100</v>
+        <v>2521800</v>
       </c>
       <c r="J17" s="3">
-        <v>2252100</v>
+        <v>2334200</v>
       </c>
       <c r="K17" s="3">
         <v>2032900</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1040600</v>
+        <v>1078500</v>
       </c>
       <c r="E18" s="3">
-        <v>683600</v>
+        <v>708500</v>
       </c>
       <c r="F18" s="3">
-        <v>829700</v>
+        <v>859900</v>
       </c>
       <c r="G18" s="3">
-        <v>784200</v>
+        <v>812800</v>
       </c>
       <c r="H18" s="3">
-        <v>744200</v>
+        <v>771300</v>
       </c>
       <c r="I18" s="3">
-        <v>686000</v>
+        <v>711000</v>
       </c>
       <c r="J18" s="3">
-        <v>646400</v>
+        <v>669900</v>
       </c>
       <c r="K18" s="3">
         <v>470000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="F20" s="3">
-        <v>28900</v>
+        <v>29900</v>
       </c>
       <c r="G20" s="3">
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="H20" s="3">
-        <v>35600</v>
+        <v>36900</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J20" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K20" s="3">
         <v>22600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1615100</v>
+        <v>1729800</v>
       </c>
       <c r="E21" s="3">
-        <v>1302900</v>
+        <v>1140700</v>
       </c>
       <c r="F21" s="3">
-        <v>1255000</v>
+        <v>1140500</v>
       </c>
       <c r="G21" s="3">
-        <v>1053800</v>
+        <v>1075100</v>
       </c>
       <c r="H21" s="3">
-        <v>997700</v>
+        <v>1025800</v>
       </c>
       <c r="I21" s="3">
-        <v>894900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>865400</v>
+        <v>936200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K21" s="3">
         <v>687800</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>28800</v>
+        <v>29800</v>
       </c>
       <c r="E22" s="3">
-        <v>38000</v>
+        <v>39400</v>
       </c>
       <c r="F22" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="G22" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="H22" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="I22" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="J22" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="K22" s="3">
         <v>6300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1025200</v>
+        <v>1062500</v>
       </c>
       <c r="E23" s="3">
-        <v>659700</v>
+        <v>683800</v>
       </c>
       <c r="F23" s="3">
-        <v>832900</v>
+        <v>863200</v>
       </c>
       <c r="G23" s="3">
-        <v>800100</v>
+        <v>829300</v>
       </c>
       <c r="H23" s="3">
-        <v>767100</v>
+        <v>795000</v>
       </c>
       <c r="I23" s="3">
-        <v>675300</v>
+        <v>699900</v>
       </c>
       <c r="J23" s="3">
-        <v>646300</v>
+        <v>669800</v>
       </c>
       <c r="K23" s="3">
         <v>486300</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>235200</v>
+        <v>243800</v>
       </c>
       <c r="E24" s="3">
-        <v>164100</v>
+        <v>170100</v>
       </c>
       <c r="F24" s="3">
-        <v>214000</v>
+        <v>221800</v>
       </c>
       <c r="G24" s="3">
-        <v>225000</v>
+        <v>233200</v>
       </c>
       <c r="H24" s="3">
-        <v>236100</v>
+        <v>244700</v>
       </c>
       <c r="I24" s="3">
-        <v>213600</v>
+        <v>221400</v>
       </c>
       <c r="J24" s="3">
-        <v>231900</v>
+        <v>240300</v>
       </c>
       <c r="K24" s="3">
         <v>167200</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>790000</v>
+        <v>818800</v>
       </c>
       <c r="E26" s="3">
-        <v>495600</v>
+        <v>513700</v>
       </c>
       <c r="F26" s="3">
-        <v>618900</v>
+        <v>641500</v>
       </c>
       <c r="G26" s="3">
-        <v>575100</v>
+        <v>596100</v>
       </c>
       <c r="H26" s="3">
-        <v>531000</v>
+        <v>550300</v>
       </c>
       <c r="I26" s="3">
-        <v>461600</v>
+        <v>478400</v>
       </c>
       <c r="J26" s="3">
-        <v>414400</v>
+        <v>429500</v>
       </c>
       <c r="K26" s="3">
         <v>319000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>789800</v>
+        <v>818600</v>
       </c>
       <c r="E27" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="F27" s="3">
-        <v>628100</v>
+        <v>651000</v>
       </c>
       <c r="G27" s="3">
-        <v>581200</v>
+        <v>602400</v>
       </c>
       <c r="H27" s="3">
-        <v>530200</v>
+        <v>549500</v>
       </c>
       <c r="I27" s="3">
-        <v>456500</v>
+        <v>473100</v>
       </c>
       <c r="J27" s="3">
-        <v>410500</v>
+        <v>425500</v>
       </c>
       <c r="K27" s="3">
         <v>317700</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="F32" s="3">
-        <v>-28900</v>
+        <v>-29900</v>
       </c>
       <c r="G32" s="3">
-        <v>-31600</v>
+        <v>-32800</v>
       </c>
       <c r="H32" s="3">
-        <v>-35600</v>
+        <v>-36900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J32" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="K32" s="3">
         <v>-22600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>789800</v>
+        <v>818600</v>
       </c>
       <c r="E33" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="F33" s="3">
-        <v>628100</v>
+        <v>651000</v>
       </c>
       <c r="G33" s="3">
-        <v>581200</v>
+        <v>602400</v>
       </c>
       <c r="H33" s="3">
-        <v>530200</v>
+        <v>549500</v>
       </c>
       <c r="I33" s="3">
-        <v>456500</v>
+        <v>473100</v>
       </c>
       <c r="J33" s="3">
-        <v>410500</v>
+        <v>425500</v>
       </c>
       <c r="K33" s="3">
         <v>317700</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>789800</v>
+        <v>818600</v>
       </c>
       <c r="E35" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="F35" s="3">
-        <v>628100</v>
+        <v>651000</v>
       </c>
       <c r="G35" s="3">
-        <v>581200</v>
+        <v>602400</v>
       </c>
       <c r="H35" s="3">
-        <v>530200</v>
+        <v>549500</v>
       </c>
       <c r="I35" s="3">
-        <v>456500</v>
+        <v>473100</v>
       </c>
       <c r="J35" s="3">
-        <v>410500</v>
+        <v>425500</v>
       </c>
       <c r="K35" s="3">
         <v>317700</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3041500</v>
+        <v>3152300</v>
       </c>
       <c r="E41" s="3">
-        <v>2193600</v>
+        <v>2273500</v>
       </c>
       <c r="F41" s="3">
-        <v>1985400</v>
+        <v>2057700</v>
       </c>
       <c r="G41" s="3">
-        <v>2867700</v>
+        <v>2972200</v>
       </c>
       <c r="H41" s="3">
-        <v>2510600</v>
+        <v>2602100</v>
       </c>
       <c r="I41" s="3">
-        <v>2487400</v>
+        <v>2578000</v>
       </c>
       <c r="J41" s="3">
-        <v>2328000</v>
+        <v>2412800</v>
       </c>
       <c r="K41" s="3">
         <v>1204600</v>
@@ -1875,13 +1875,13 @@
         <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I42" s="3">
-        <v>57200</v>
+        <v>59300</v>
       </c>
       <c r="J42" s="3">
-        <v>72200</v>
+        <v>74900</v>
       </c>
       <c r="K42" s="3">
         <v>77800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1563000</v>
+        <v>1620000</v>
       </c>
       <c r="E43" s="3">
-        <v>1476200</v>
+        <v>1530000</v>
       </c>
       <c r="F43" s="3">
-        <v>1582300</v>
+        <v>1640000</v>
       </c>
       <c r="G43" s="3">
-        <v>1298300</v>
+        <v>1345600</v>
       </c>
       <c r="H43" s="3">
-        <v>1049500</v>
+        <v>1087800</v>
       </c>
       <c r="I43" s="3">
-        <v>998300</v>
+        <v>1034700</v>
       </c>
       <c r="J43" s="3">
-        <v>845000</v>
+        <v>875800</v>
       </c>
       <c r="K43" s="3">
         <v>1493300</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>212600</v>
+        <v>220400</v>
       </c>
       <c r="E45" s="3">
-        <v>168700</v>
+        <v>174900</v>
       </c>
       <c r="F45" s="3">
-        <v>177600</v>
+        <v>184100</v>
       </c>
       <c r="G45" s="3">
-        <v>122600</v>
+        <v>127100</v>
       </c>
       <c r="H45" s="3">
-        <v>112900</v>
+        <v>117100</v>
       </c>
       <c r="I45" s="3">
-        <v>101700</v>
+        <v>105400</v>
       </c>
       <c r="J45" s="3">
-        <v>63400</v>
+        <v>65700</v>
       </c>
       <c r="K45" s="3">
         <v>263100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4817200</v>
+        <v>4992700</v>
       </c>
       <c r="E46" s="3">
-        <v>3838500</v>
+        <v>3978400</v>
       </c>
       <c r="F46" s="3">
-        <v>3745300</v>
+        <v>3881800</v>
       </c>
       <c r="G46" s="3">
-        <v>4289200</v>
+        <v>4445500</v>
       </c>
       <c r="H46" s="3">
-        <v>3674400</v>
+        <v>3808300</v>
       </c>
       <c r="I46" s="3">
-        <v>3644700</v>
+        <v>3777500</v>
       </c>
       <c r="J46" s="3">
-        <v>3308600</v>
+        <v>3429200</v>
       </c>
       <c r="K46" s="3">
         <v>2160600</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>210400</v>
+        <v>218100</v>
       </c>
       <c r="E47" s="3">
-        <v>177200</v>
+        <v>183700</v>
       </c>
       <c r="F47" s="3">
-        <v>181600</v>
+        <v>188200</v>
       </c>
       <c r="G47" s="3">
-        <v>170700</v>
+        <v>176900</v>
       </c>
       <c r="H47" s="3">
-        <v>161500</v>
+        <v>167400</v>
       </c>
       <c r="I47" s="3">
-        <v>174500</v>
+        <v>180800</v>
       </c>
       <c r="J47" s="3">
-        <v>126400</v>
+        <v>131000</v>
       </c>
       <c r="K47" s="3">
         <v>75800</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>834000</v>
+        <v>864400</v>
       </c>
       <c r="E48" s="3">
-        <v>879000</v>
+        <v>911000</v>
       </c>
       <c r="F48" s="3">
-        <v>918400</v>
+        <v>951900</v>
       </c>
       <c r="G48" s="3">
-        <v>181900</v>
+        <v>188500</v>
       </c>
       <c r="H48" s="3">
-        <v>172500</v>
+        <v>178800</v>
       </c>
       <c r="I48" s="3">
-        <v>138200</v>
+        <v>143300</v>
       </c>
       <c r="J48" s="3">
-        <v>138100</v>
+        <v>143200</v>
       </c>
       <c r="K48" s="3">
         <v>298300</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8344900</v>
+        <v>8649000</v>
       </c>
       <c r="E49" s="3">
-        <v>8102400</v>
+        <v>8397700</v>
       </c>
       <c r="F49" s="3">
-        <v>9102500</v>
+        <v>9434200</v>
       </c>
       <c r="G49" s="3">
-        <v>3330200</v>
+        <v>3451500</v>
       </c>
       <c r="H49" s="3">
-        <v>3052400</v>
+        <v>3163600</v>
       </c>
       <c r="I49" s="3">
-        <v>2987400</v>
+        <v>3096300</v>
       </c>
       <c r="J49" s="3">
-        <v>2743000</v>
+        <v>2843000</v>
       </c>
       <c r="K49" s="3">
         <v>5869800</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>308000</v>
+        <v>319200</v>
       </c>
       <c r="E52" s="3">
-        <v>236700</v>
+        <v>245400</v>
       </c>
       <c r="F52" s="3">
-        <v>213300</v>
+        <v>221100</v>
       </c>
       <c r="G52" s="3">
-        <v>167900</v>
+        <v>174000</v>
       </c>
       <c r="H52" s="3">
-        <v>115300</v>
+        <v>119500</v>
       </c>
       <c r="I52" s="3">
-        <v>142700</v>
+        <v>147900</v>
       </c>
       <c r="J52" s="3">
-        <v>126500</v>
+        <v>131100</v>
       </c>
       <c r="K52" s="3">
         <v>264300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14514400</v>
+        <v>15043400</v>
       </c>
       <c r="E54" s="3">
-        <v>13233900</v>
+        <v>13716100</v>
       </c>
       <c r="F54" s="3">
-        <v>14161200</v>
+        <v>14677200</v>
       </c>
       <c r="G54" s="3">
-        <v>8139900</v>
+        <v>8436500</v>
       </c>
       <c r="H54" s="3">
-        <v>7176000</v>
+        <v>7437500</v>
       </c>
       <c r="I54" s="3">
-        <v>7087500</v>
+        <v>7345800</v>
       </c>
       <c r="J54" s="3">
-        <v>6442700</v>
+        <v>6677500</v>
       </c>
       <c r="K54" s="3">
         <v>5413500</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>196400</v>
+        <v>203600</v>
       </c>
       <c r="E57" s="3">
-        <v>175300</v>
+        <v>181700</v>
       </c>
       <c r="F57" s="3">
-        <v>224600</v>
+        <v>232800</v>
       </c>
       <c r="G57" s="3">
-        <v>165100</v>
+        <v>171100</v>
       </c>
       <c r="H57" s="3">
-        <v>152400</v>
+        <v>158000</v>
       </c>
       <c r="I57" s="3">
-        <v>147900</v>
+        <v>153300</v>
       </c>
       <c r="J57" s="3">
-        <v>122300</v>
+        <v>126800</v>
       </c>
       <c r="K57" s="3">
         <v>142200</v>
@@ -2443,16 +2443,16 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1005400</v>
+        <v>1042000</v>
       </c>
       <c r="E58" s="3">
-        <v>94400</v>
+        <v>97900</v>
       </c>
       <c r="F58" s="3">
-        <v>84700</v>
+        <v>87800</v>
       </c>
       <c r="G58" s="3">
-        <v>357300</v>
+        <v>370300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>51</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2340700</v>
+        <v>2426000</v>
       </c>
       <c r="E59" s="3">
-        <v>1860600</v>
+        <v>1928400</v>
       </c>
       <c r="F59" s="3">
-        <v>1869000</v>
+        <v>1937100</v>
       </c>
       <c r="G59" s="3">
-        <v>1542500</v>
+        <v>1598700</v>
       </c>
       <c r="H59" s="3">
-        <v>1406800</v>
+        <v>1458100</v>
       </c>
       <c r="I59" s="3">
-        <v>1348300</v>
+        <v>1397400</v>
       </c>
       <c r="J59" s="3">
-        <v>1216900</v>
+        <v>1261200</v>
       </c>
       <c r="K59" s="3">
         <v>1486200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3542500</v>
+        <v>3671600</v>
       </c>
       <c r="E60" s="3">
-        <v>2130300</v>
+        <v>2207900</v>
       </c>
       <c r="F60" s="3">
-        <v>2178300</v>
+        <v>2257700</v>
       </c>
       <c r="G60" s="3">
-        <v>2064900</v>
+        <v>2140100</v>
       </c>
       <c r="H60" s="3">
-        <v>1559200</v>
+        <v>1616100</v>
       </c>
       <c r="I60" s="3">
-        <v>1496100</v>
+        <v>1550600</v>
       </c>
       <c r="J60" s="3">
-        <v>1339200</v>
+        <v>1388000</v>
       </c>
       <c r="K60" s="3">
         <v>1238000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3556500</v>
+        <v>3686100</v>
       </c>
       <c r="E61" s="3">
-        <v>4837400</v>
+        <v>5013700</v>
       </c>
       <c r="F61" s="3">
-        <v>5318000</v>
+        <v>5511800</v>
       </c>
       <c r="G61" s="3">
-        <v>663500</v>
+        <v>687700</v>
       </c>
       <c r="H61" s="3">
-        <v>1020800</v>
+        <v>1058000</v>
       </c>
       <c r="I61" s="3">
-        <v>1020800</v>
+        <v>1058000</v>
       </c>
       <c r="J61" s="3">
-        <v>1020800</v>
+        <v>1058000</v>
       </c>
       <c r="K61" s="3">
         <v>381800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1075300</v>
+        <v>1114500</v>
       </c>
       <c r="E62" s="3">
-        <v>1053900</v>
+        <v>1092300</v>
       </c>
       <c r="F62" s="3">
-        <v>1292900</v>
+        <v>1340100</v>
       </c>
       <c r="G62" s="3">
-        <v>689300</v>
+        <v>714500</v>
       </c>
       <c r="H62" s="3">
-        <v>516800</v>
+        <v>535700</v>
       </c>
       <c r="I62" s="3">
-        <v>607000</v>
+        <v>629100</v>
       </c>
       <c r="J62" s="3">
-        <v>522500</v>
+        <v>541600</v>
       </c>
       <c r="K62" s="3">
         <v>1132500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8188200</v>
+        <v>8486600</v>
       </c>
       <c r="E66" s="3">
-        <v>8067300</v>
+        <v>8361300</v>
       </c>
       <c r="F66" s="3">
-        <v>8844200</v>
+        <v>9166500</v>
       </c>
       <c r="G66" s="3">
-        <v>3483000</v>
+        <v>3609900</v>
       </c>
       <c r="H66" s="3">
-        <v>3098800</v>
+        <v>3211700</v>
       </c>
       <c r="I66" s="3">
-        <v>3147000</v>
+        <v>3261600</v>
       </c>
       <c r="J66" s="3">
-        <v>2902000</v>
+        <v>3007800</v>
       </c>
       <c r="K66" s="3">
         <v>2202500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5831400</v>
+        <v>6043900</v>
       </c>
       <c r="E72" s="3">
-        <v>5148600</v>
+        <v>5336200</v>
       </c>
       <c r="F72" s="3">
-        <v>4750000</v>
+        <v>4923100</v>
       </c>
       <c r="G72" s="3">
-        <v>4086800</v>
+        <v>4235700</v>
       </c>
       <c r="H72" s="3">
-        <v>3653400</v>
+        <v>3786600</v>
       </c>
       <c r="I72" s="3">
-        <v>3239700</v>
+        <v>3357700</v>
       </c>
       <c r="J72" s="3">
-        <v>2855700</v>
+        <v>2959800</v>
       </c>
       <c r="K72" s="3">
         <v>2716000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6326200</v>
+        <v>6556700</v>
       </c>
       <c r="E76" s="3">
-        <v>5166700</v>
+        <v>5355000</v>
       </c>
       <c r="F76" s="3">
-        <v>5317100</v>
+        <v>5510900</v>
       </c>
       <c r="G76" s="3">
-        <v>4656900</v>
+        <v>4826600</v>
       </c>
       <c r="H76" s="3">
-        <v>4077300</v>
+        <v>4225800</v>
       </c>
       <c r="I76" s="3">
-        <v>3940500</v>
+        <v>4084100</v>
       </c>
       <c r="J76" s="3">
-        <v>3540700</v>
+        <v>3669700</v>
       </c>
       <c r="K76" s="3">
         <v>3211000</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>789800</v>
+        <v>818600</v>
       </c>
       <c r="E81" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="F81" s="3">
-        <v>628100</v>
+        <v>651000</v>
       </c>
       <c r="G81" s="3">
-        <v>581200</v>
+        <v>602400</v>
       </c>
       <c r="H81" s="3">
-        <v>530200</v>
+        <v>549500</v>
       </c>
       <c r="I81" s="3">
-        <v>456500</v>
+        <v>473100</v>
       </c>
       <c r="J81" s="3">
-        <v>410500</v>
+        <v>425500</v>
       </c>
       <c r="K81" s="3">
         <v>317700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>572200</v>
+        <v>639600</v>
       </c>
       <c r="E83" s="3">
-        <v>617100</v>
+        <v>419000</v>
       </c>
       <c r="F83" s="3">
-        <v>404200</v>
+        <v>251500</v>
       </c>
       <c r="G83" s="3">
-        <v>242600</v>
+        <v>230300</v>
       </c>
       <c r="H83" s="3">
-        <v>222200</v>
+        <v>218400</v>
       </c>
       <c r="I83" s="3">
-        <v>210700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>215800</v>
+        <v>223700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K83" s="3">
         <v>192400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1646700</v>
+        <v>1313300</v>
       </c>
       <c r="E89" s="3">
-        <v>1267100</v>
+        <v>1254800</v>
       </c>
       <c r="F89" s="3">
-        <v>1210700</v>
+        <v>950700</v>
       </c>
       <c r="G89" s="3">
-        <v>917300</v>
+        <v>788200</v>
       </c>
       <c r="H89" s="3">
-        <v>760500</v>
+        <v>657800</v>
       </c>
       <c r="I89" s="3">
-        <v>634700</v>
+        <v>670000</v>
       </c>
       <c r="J89" s="3">
-        <v>646400</v>
+        <v>528400</v>
       </c>
       <c r="K89" s="3">
         <v>544900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105900</v>
+        <v>-134400</v>
       </c>
       <c r="E91" s="3">
-        <v>-129600</v>
+        <v>-104000</v>
       </c>
       <c r="F91" s="3">
-        <v>-100300</v>
+        <v>-76600</v>
       </c>
       <c r="G91" s="3">
-        <v>-73900</v>
+        <v>-89400</v>
       </c>
       <c r="H91" s="3">
-        <v>-86300</v>
+        <v>-59900</v>
       </c>
       <c r="I91" s="3">
-        <v>-57800</v>
+        <v>-46100</v>
       </c>
       <c r="J91" s="3">
-        <v>-44500</v>
+        <v>-48000</v>
       </c>
       <c r="K91" s="3">
         <v>-49500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163700</v>
+        <v>-220100</v>
       </c>
       <c r="E94" s="3">
-        <v>-212300</v>
+        <v>-5644200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5445800</v>
+        <v>-341900</v>
       </c>
       <c r="G94" s="3">
-        <v>-329900</v>
+        <v>-388700</v>
       </c>
       <c r="H94" s="3">
-        <v>-375100</v>
+        <v>-316300</v>
       </c>
       <c r="I94" s="3">
-        <v>-305100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-61800</v>
+        <v>-64000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K94" s="3">
         <v>-1091800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-150200</v>
+        <v>-193100</v>
       </c>
       <c r="E96" s="3">
-        <v>-186300</v>
+        <v>-178600</v>
       </c>
       <c r="F96" s="3">
-        <v>-172300</v>
+        <v>-40200</v>
       </c>
       <c r="G96" s="3">
-        <v>-38800</v>
+        <v>-54300</v>
       </c>
       <c r="H96" s="3">
-        <v>-52300</v>
+        <v>-107900</v>
       </c>
       <c r="I96" s="3">
         <v>-104100</v>
       </c>
       <c r="J96" s="3">
-        <v>-100500</v>
+        <v>-37800</v>
       </c>
       <c r="K96" s="3">
         <v>-39000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-726700</v>
+        <v>-784900</v>
       </c>
       <c r="E100" s="3">
-        <v>-757300</v>
+        <v>3435900</v>
       </c>
       <c r="F100" s="3">
-        <v>3315000</v>
+        <v>-307700</v>
       </c>
       <c r="G100" s="3">
-        <v>-296800</v>
+        <v>-168700</v>
       </c>
       <c r="H100" s="3">
-        <v>-162700</v>
+        <v>-214100</v>
       </c>
       <c r="I100" s="3">
-        <v>-206600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>559800</v>
+        <v>580200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K100" s="3">
         <v>-185700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>91700</v>
+        <v>-92500</v>
       </c>
       <c r="E101" s="3">
-        <v>-89200</v>
+        <v>39000</v>
       </c>
       <c r="F101" s="3">
-        <v>37700</v>
+        <v>69100</v>
       </c>
       <c r="G101" s="3">
-        <v>66700</v>
+        <v>-206800</v>
       </c>
       <c r="H101" s="3">
-        <v>-199500</v>
+        <v>37800</v>
       </c>
       <c r="I101" s="3">
-        <v>36500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>56300</v>
+        <v>58400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K101" s="3">
         <v>41400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>847900</v>
+        <v>215800</v>
       </c>
       <c r="E102" s="3">
-        <v>208200</v>
+        <v>-914500</v>
       </c>
       <c r="F102" s="3">
-        <v>-882400</v>
+        <v>370200</v>
       </c>
       <c r="G102" s="3">
-        <v>357200</v>
+        <v>24100</v>
       </c>
       <c r="H102" s="3">
-        <v>23200</v>
+        <v>165200</v>
       </c>
       <c r="I102" s="3">
-        <v>159400</v>
+        <v>1244600</v>
       </c>
       <c r="J102" s="3">
-        <v>1200800</v>
+        <v>-670400</v>
       </c>
       <c r="K102" s="3">
         <v>-691300</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>DASTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5142000</v>
+        <v>6101000</v>
       </c>
       <c r="E8" s="3">
-        <v>4710400</v>
+        <v>5233800</v>
       </c>
       <c r="F8" s="3">
-        <v>4251300</v>
+        <v>4794600</v>
       </c>
       <c r="G8" s="3">
-        <v>3679100</v>
+        <v>4327200</v>
       </c>
       <c r="H8" s="3">
-        <v>3415200</v>
+        <v>3744800</v>
       </c>
       <c r="I8" s="3">
-        <v>3232800</v>
+        <v>3476200</v>
       </c>
       <c r="J8" s="3">
+        <v>3290600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3004100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2502900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2471500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2227100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2093000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>836100</v>
+        <v>990000</v>
       </c>
       <c r="E9" s="3">
-        <v>793100</v>
+        <v>851100</v>
       </c>
       <c r="F9" s="3">
-        <v>670300</v>
+        <v>807200</v>
       </c>
       <c r="G9" s="3">
-        <v>540400</v>
+        <v>682300</v>
       </c>
       <c r="H9" s="3">
-        <v>501500</v>
+        <v>550100</v>
       </c>
       <c r="I9" s="3">
-        <v>490500</v>
+        <v>510400</v>
       </c>
       <c r="J9" s="3">
+        <v>499200</v>
+      </c>
+      <c r="K9" s="3">
         <v>463300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>374500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>312600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>293200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>292800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4305800</v>
+        <v>5111000</v>
       </c>
       <c r="E10" s="3">
-        <v>3917400</v>
+        <v>4382800</v>
       </c>
       <c r="F10" s="3">
-        <v>3580900</v>
+        <v>3987300</v>
       </c>
       <c r="G10" s="3">
-        <v>3138700</v>
+        <v>3644900</v>
       </c>
       <c r="H10" s="3">
-        <v>2913800</v>
+        <v>3194700</v>
       </c>
       <c r="I10" s="3">
-        <v>2742300</v>
+        <v>2965800</v>
       </c>
       <c r="J10" s="3">
+        <v>2791300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2540800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2128400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2158900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1933900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89500</v>
+        <v>67400</v>
       </c>
       <c r="E12" s="3">
-        <v>80100</v>
+        <v>91100</v>
       </c>
       <c r="F12" s="3">
-        <v>73500</v>
+        <v>81500</v>
       </c>
       <c r="G12" s="3">
-        <v>667700</v>
+        <v>74800</v>
       </c>
       <c r="H12" s="3">
-        <v>610000</v>
+        <v>679600</v>
       </c>
       <c r="I12" s="3">
-        <v>571900</v>
+        <v>620900</v>
       </c>
       <c r="J12" s="3">
+        <v>582100</v>
+      </c>
+      <c r="K12" s="3">
         <v>521100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>446900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>449200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>404200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>386500</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>33200</v>
+        <v>17200</v>
       </c>
       <c r="E14" s="3">
-        <v>59100</v>
+        <v>33800</v>
       </c>
       <c r="F14" s="3">
-        <v>36000</v>
+        <v>60200</v>
       </c>
       <c r="G14" s="3">
-        <v>40600</v>
+        <v>36600</v>
       </c>
       <c r="H14" s="3">
-        <v>31700</v>
+        <v>41400</v>
       </c>
       <c r="I14" s="3">
-        <v>42900</v>
+        <v>32200</v>
       </c>
       <c r="J14" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K14" s="3">
         <v>12900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>390400</v>
+        <v>432800</v>
       </c>
       <c r="E15" s="3">
-        <v>417400</v>
+        <v>397400</v>
       </c>
       <c r="F15" s="3">
-        <v>258200</v>
+        <v>424800</v>
       </c>
       <c r="G15" s="3">
-        <v>181600</v>
+        <v>262800</v>
       </c>
       <c r="H15" s="3">
-        <v>169600</v>
+        <v>184800</v>
       </c>
       <c r="I15" s="3">
-        <v>164900</v>
+        <v>172600</v>
       </c>
       <c r="J15" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K15" s="3">
         <v>168800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>145500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>120800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>102900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>98200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4063500</v>
+        <v>4697900</v>
       </c>
       <c r="E17" s="3">
-        <v>4001900</v>
+        <v>4136000</v>
       </c>
       <c r="F17" s="3">
-        <v>3391300</v>
+        <v>4073400</v>
       </c>
       <c r="G17" s="3">
-        <v>2866300</v>
+        <v>3451900</v>
       </c>
       <c r="H17" s="3">
-        <v>2643900</v>
+        <v>2917500</v>
       </c>
       <c r="I17" s="3">
-        <v>2521800</v>
+        <v>2691200</v>
       </c>
       <c r="J17" s="3">
+        <v>2566800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2334200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2032900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1869800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1677100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1590700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1078500</v>
+        <v>1403100</v>
       </c>
       <c r="E18" s="3">
-        <v>708500</v>
+        <v>1097800</v>
       </c>
       <c r="F18" s="3">
-        <v>859900</v>
+        <v>721200</v>
       </c>
       <c r="G18" s="3">
-        <v>812800</v>
+        <v>875300</v>
       </c>
       <c r="H18" s="3">
-        <v>771300</v>
+        <v>827300</v>
       </c>
       <c r="I18" s="3">
-        <v>711000</v>
+        <v>785100</v>
       </c>
       <c r="J18" s="3">
+        <v>723700</v>
+      </c>
+      <c r="K18" s="3">
         <v>669900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>470000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>601700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>550100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>502300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>30900</v>
       </c>
       <c r="E20" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="3">
-        <v>29900</v>
+        <v>14900</v>
       </c>
       <c r="G20" s="3">
-        <v>32800</v>
+        <v>30500</v>
       </c>
       <c r="H20" s="3">
-        <v>36900</v>
+        <v>33400</v>
       </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>37500</v>
       </c>
       <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1729800</v>
+        <v>2080900</v>
       </c>
       <c r="E21" s="3">
-        <v>1140700</v>
+        <v>1719400</v>
       </c>
       <c r="F21" s="3">
-        <v>1140500</v>
+        <v>1391300</v>
       </c>
       <c r="G21" s="3">
-        <v>1075100</v>
+        <v>1335000</v>
       </c>
       <c r="H21" s="3">
-        <v>1025800</v>
+        <v>1118300</v>
       </c>
       <c r="I21" s="3">
-        <v>936200</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1058500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>949800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>687800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>795200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>723700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>644800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>29800</v>
+        <v>28000</v>
       </c>
       <c r="E22" s="3">
-        <v>39400</v>
+        <v>30400</v>
       </c>
       <c r="F22" s="3">
-        <v>26700</v>
+        <v>40100</v>
       </c>
       <c r="G22" s="3">
-        <v>16300</v>
+        <v>27100</v>
       </c>
       <c r="H22" s="3">
-        <v>13100</v>
+        <v>16600</v>
       </c>
       <c r="I22" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1062500</v>
+        <v>1406000</v>
       </c>
       <c r="E23" s="3">
-        <v>683800</v>
+        <v>1081500</v>
       </c>
       <c r="F23" s="3">
-        <v>863200</v>
+        <v>696000</v>
       </c>
       <c r="G23" s="3">
-        <v>829300</v>
+        <v>878600</v>
       </c>
       <c r="H23" s="3">
-        <v>795000</v>
+        <v>844100</v>
       </c>
       <c r="I23" s="3">
-        <v>699900</v>
+        <v>809200</v>
       </c>
       <c r="J23" s="3">
+        <v>712400</v>
+      </c>
+      <c r="K23" s="3">
         <v>669800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>486300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>623200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>569900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>503600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>243800</v>
+        <v>404300</v>
       </c>
       <c r="E24" s="3">
-        <v>170100</v>
+        <v>248100</v>
       </c>
       <c r="F24" s="3">
-        <v>221800</v>
+        <v>173200</v>
       </c>
       <c r="G24" s="3">
-        <v>233200</v>
+        <v>225700</v>
       </c>
       <c r="H24" s="3">
-        <v>244700</v>
+        <v>237300</v>
       </c>
       <c r="I24" s="3">
-        <v>221400</v>
+        <v>249100</v>
       </c>
       <c r="J24" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K24" s="3">
         <v>240300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>167200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>198400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>197900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>162600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>818800</v>
+        <v>1001700</v>
       </c>
       <c r="E26" s="3">
-        <v>513700</v>
+        <v>833400</v>
       </c>
       <c r="F26" s="3">
-        <v>641500</v>
+        <v>522800</v>
       </c>
       <c r="G26" s="3">
-        <v>596100</v>
+        <v>652900</v>
       </c>
       <c r="H26" s="3">
-        <v>550300</v>
+        <v>606700</v>
       </c>
       <c r="I26" s="3">
-        <v>478400</v>
+        <v>560100</v>
       </c>
       <c r="J26" s="3">
+        <v>487000</v>
+      </c>
+      <c r="K26" s="3">
         <v>429500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>319000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>424900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>372000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>341000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>818600</v>
+        <v>1003100</v>
       </c>
       <c r="E27" s="3">
-        <v>519500</v>
+        <v>833200</v>
       </c>
       <c r="F27" s="3">
-        <v>651000</v>
+        <v>528800</v>
       </c>
       <c r="G27" s="3">
-        <v>602400</v>
+        <v>662600</v>
       </c>
       <c r="H27" s="3">
-        <v>549500</v>
+        <v>613200</v>
       </c>
       <c r="I27" s="3">
-        <v>473100</v>
+        <v>559400</v>
       </c>
       <c r="J27" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K27" s="3">
         <v>425500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>317700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>421400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>367600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>339400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-30900</v>
       </c>
       <c r="E32" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="F32" s="3">
-        <v>-29900</v>
+        <v>-14900</v>
       </c>
       <c r="G32" s="3">
-        <v>-32800</v>
+        <v>-30500</v>
       </c>
       <c r="H32" s="3">
-        <v>-36900</v>
+        <v>-33400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-37500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>818600</v>
+        <v>1003100</v>
       </c>
       <c r="E33" s="3">
-        <v>519500</v>
+        <v>833200</v>
       </c>
       <c r="F33" s="3">
-        <v>651000</v>
+        <v>528800</v>
       </c>
       <c r="G33" s="3">
-        <v>602400</v>
+        <v>662600</v>
       </c>
       <c r="H33" s="3">
-        <v>549500</v>
+        <v>613200</v>
       </c>
       <c r="I33" s="3">
-        <v>473100</v>
+        <v>559400</v>
       </c>
       <c r="J33" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K33" s="3">
         <v>425500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>317700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>421400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>367600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>339400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>818600</v>
+        <v>1003100</v>
       </c>
       <c r="E35" s="3">
-        <v>519500</v>
+        <v>833200</v>
       </c>
       <c r="F35" s="3">
-        <v>651000</v>
+        <v>528800</v>
       </c>
       <c r="G35" s="3">
-        <v>602400</v>
+        <v>662600</v>
       </c>
       <c r="H35" s="3">
-        <v>549500</v>
+        <v>613200</v>
       </c>
       <c r="I35" s="3">
-        <v>473100</v>
+        <v>559400</v>
       </c>
       <c r="J35" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K35" s="3">
         <v>425500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>317700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>421400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>367600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>339400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3152300</v>
+        <v>2981900</v>
       </c>
       <c r="E41" s="3">
-        <v>2273500</v>
+        <v>3208600</v>
       </c>
       <c r="F41" s="3">
-        <v>2057700</v>
+        <v>2314200</v>
       </c>
       <c r="G41" s="3">
-        <v>2972200</v>
+        <v>2094500</v>
       </c>
       <c r="H41" s="3">
-        <v>2602100</v>
+        <v>3025300</v>
       </c>
       <c r="I41" s="3">
-        <v>2578000</v>
+        <v>2648600</v>
       </c>
       <c r="J41" s="3">
+        <v>2624100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2412800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1204600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2078800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1272900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1354900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1871,72 +1960,78 @@
       <c r="F42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1400</v>
       </c>
-      <c r="I42" s="3">
-        <v>59300</v>
-      </c>
       <c r="J42" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K42" s="3">
         <v>74900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>77800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>78700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>175400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>315400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1620000</v>
+        <v>1975700</v>
       </c>
       <c r="E43" s="3">
-        <v>1530000</v>
+        <v>1648900</v>
       </c>
       <c r="F43" s="3">
-        <v>1640000</v>
+        <v>1557300</v>
       </c>
       <c r="G43" s="3">
-        <v>1345600</v>
+        <v>1669300</v>
       </c>
       <c r="H43" s="3">
-        <v>1087800</v>
+        <v>1369600</v>
       </c>
       <c r="I43" s="3">
-        <v>1034700</v>
+        <v>1107200</v>
       </c>
       <c r="J43" s="3">
+        <v>1053200</v>
+      </c>
+      <c r="K43" s="3">
         <v>875800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1493300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>670200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1208000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>693500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,204 +2068,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>220400</v>
+        <v>259200</v>
       </c>
       <c r="E45" s="3">
-        <v>174900</v>
+        <v>224300</v>
       </c>
       <c r="F45" s="3">
-        <v>184100</v>
+        <v>178000</v>
       </c>
       <c r="G45" s="3">
-        <v>127100</v>
+        <v>187400</v>
       </c>
       <c r="H45" s="3">
-        <v>117100</v>
+        <v>129300</v>
       </c>
       <c r="I45" s="3">
-        <v>105400</v>
+        <v>119200</v>
       </c>
       <c r="J45" s="3">
+        <v>107300</v>
+      </c>
+      <c r="K45" s="3">
         <v>65700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>263100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>102600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4992700</v>
+        <v>5216800</v>
       </c>
       <c r="E46" s="3">
-        <v>3978400</v>
+        <v>5081900</v>
       </c>
       <c r="F46" s="3">
-        <v>3881800</v>
+        <v>4049500</v>
       </c>
       <c r="G46" s="3">
-        <v>4445500</v>
+        <v>3951100</v>
       </c>
       <c r="H46" s="3">
-        <v>3808300</v>
+        <v>4524900</v>
       </c>
       <c r="I46" s="3">
-        <v>3777500</v>
+        <v>3876300</v>
       </c>
       <c r="J46" s="3">
+        <v>3845000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3429200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2160600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2894800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2120700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2414200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>218100</v>
+        <v>76700</v>
       </c>
       <c r="E47" s="3">
-        <v>183700</v>
+        <v>221900</v>
       </c>
       <c r="F47" s="3">
-        <v>188200</v>
+        <v>186900</v>
       </c>
       <c r="G47" s="3">
-        <v>176900</v>
+        <v>191600</v>
       </c>
       <c r="H47" s="3">
-        <v>167400</v>
+        <v>180100</v>
       </c>
       <c r="I47" s="3">
-        <v>180800</v>
+        <v>170400</v>
       </c>
       <c r="J47" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K47" s="3">
         <v>131000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>864400</v>
+        <v>883000</v>
       </c>
       <c r="E48" s="3">
-        <v>911000</v>
+        <v>879800</v>
       </c>
       <c r="F48" s="3">
-        <v>951900</v>
+        <v>927300</v>
       </c>
       <c r="G48" s="3">
-        <v>188500</v>
+        <v>968900</v>
       </c>
       <c r="H48" s="3">
-        <v>178800</v>
+        <v>191900</v>
       </c>
       <c r="I48" s="3">
-        <v>143300</v>
+        <v>182000</v>
       </c>
       <c r="J48" s="3">
+        <v>145800</v>
+      </c>
+      <c r="K48" s="3">
         <v>143200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>298300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>299700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8649000</v>
+        <v>8909700</v>
       </c>
       <c r="E49" s="3">
-        <v>8397700</v>
+        <v>8803500</v>
       </c>
       <c r="F49" s="3">
-        <v>9434200</v>
+        <v>8547700</v>
       </c>
       <c r="G49" s="3">
-        <v>3451500</v>
+        <v>9602700</v>
       </c>
       <c r="H49" s="3">
-        <v>3163600</v>
+        <v>3513200</v>
       </c>
       <c r="I49" s="3">
-        <v>3096300</v>
+        <v>3220100</v>
       </c>
       <c r="J49" s="3">
+        <v>3151600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2843000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5869800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1832300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3942000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1457700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>319200</v>
+        <v>271600</v>
       </c>
       <c r="E52" s="3">
-        <v>245400</v>
+        <v>324900</v>
       </c>
       <c r="F52" s="3">
-        <v>221100</v>
+        <v>249700</v>
       </c>
       <c r="G52" s="3">
-        <v>174000</v>
+        <v>225100</v>
       </c>
       <c r="H52" s="3">
-        <v>119500</v>
+        <v>177200</v>
       </c>
       <c r="I52" s="3">
-        <v>147900</v>
+        <v>121600</v>
       </c>
       <c r="J52" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K52" s="3">
         <v>131100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>264300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>238500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15043400</v>
+        <v>15357800</v>
       </c>
       <c r="E54" s="3">
-        <v>13716100</v>
+        <v>15312100</v>
       </c>
       <c r="F54" s="3">
-        <v>14677200</v>
+        <v>13961100</v>
       </c>
       <c r="G54" s="3">
-        <v>8436500</v>
+        <v>14939400</v>
       </c>
       <c r="H54" s="3">
-        <v>7437500</v>
+        <v>8587200</v>
       </c>
       <c r="I54" s="3">
-        <v>7345800</v>
+        <v>7570400</v>
       </c>
       <c r="J54" s="3">
+        <v>7477000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6677500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5413500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5009600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3966400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4128000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>203600</v>
+        <v>232900</v>
       </c>
       <c r="E57" s="3">
-        <v>181700</v>
+        <v>207200</v>
       </c>
       <c r="F57" s="3">
-        <v>232800</v>
+        <v>184900</v>
       </c>
       <c r="G57" s="3">
-        <v>171100</v>
+        <v>236900</v>
       </c>
       <c r="H57" s="3">
-        <v>158000</v>
+        <v>174100</v>
       </c>
       <c r="I57" s="3">
-        <v>153300</v>
+        <v>160800</v>
       </c>
       <c r="J57" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K57" s="3">
         <v>126800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>142200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>101600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1042000</v>
+        <v>366100</v>
       </c>
       <c r="E58" s="3">
-        <v>97900</v>
+        <v>1060600</v>
       </c>
       <c r="F58" s="3">
-        <v>87800</v>
+        <v>99600</v>
       </c>
       <c r="G58" s="3">
-        <v>370300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>51</v>
+        <v>89400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>376900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>10900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>503500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2426000</v>
+        <v>2503500</v>
       </c>
       <c r="E59" s="3">
-        <v>1928400</v>
+        <v>2469300</v>
       </c>
       <c r="F59" s="3">
-        <v>1937100</v>
+        <v>1962900</v>
       </c>
       <c r="G59" s="3">
-        <v>1598700</v>
+        <v>1971700</v>
       </c>
       <c r="H59" s="3">
-        <v>1458100</v>
+        <v>1627300</v>
       </c>
       <c r="I59" s="3">
-        <v>1397400</v>
+        <v>1484100</v>
       </c>
       <c r="J59" s="3">
+        <v>1422300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1261200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1486200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1011400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>965900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>950100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3671600</v>
+        <v>3102500</v>
       </c>
       <c r="E60" s="3">
-        <v>2207900</v>
+        <v>3737200</v>
       </c>
       <c r="F60" s="3">
-        <v>2257700</v>
+        <v>2247400</v>
       </c>
       <c r="G60" s="3">
-        <v>2140100</v>
+        <v>2298000</v>
       </c>
       <c r="H60" s="3">
-        <v>1616100</v>
+        <v>2178400</v>
       </c>
       <c r="I60" s="3">
-        <v>1550600</v>
+        <v>1644900</v>
       </c>
       <c r="J60" s="3">
+        <v>1578300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1388000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1238000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1062500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1019500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1336000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3686100</v>
+        <v>3483800</v>
       </c>
       <c r="E61" s="3">
-        <v>5013700</v>
+        <v>3751900</v>
       </c>
       <c r="F61" s="3">
-        <v>5511800</v>
+        <v>5103200</v>
       </c>
       <c r="G61" s="3">
-        <v>687700</v>
+        <v>5610200</v>
       </c>
       <c r="H61" s="3">
+        <v>700000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1058000</v>
       </c>
-      <c r="I61" s="3">
-        <v>1058000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1058000</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>381800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>430700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>84900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1114500</v>
+        <v>883400</v>
       </c>
       <c r="E62" s="3">
-        <v>1092300</v>
+        <v>1134400</v>
       </c>
       <c r="F62" s="3">
-        <v>1340100</v>
+        <v>1111800</v>
       </c>
       <c r="G62" s="3">
-        <v>714500</v>
+        <v>1364000</v>
       </c>
       <c r="H62" s="3">
-        <v>535700</v>
+        <v>727200</v>
       </c>
       <c r="I62" s="3">
-        <v>629100</v>
+        <v>545200</v>
       </c>
       <c r="J62" s="3">
+        <v>640300</v>
+      </c>
+      <c r="K62" s="3">
         <v>541600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1132500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>632000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>517900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>267100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8486600</v>
+        <v>7485000</v>
       </c>
       <c r="E66" s="3">
-        <v>8361300</v>
+        <v>8638200</v>
       </c>
       <c r="F66" s="3">
-        <v>9166500</v>
+        <v>8510600</v>
       </c>
       <c r="G66" s="3">
-        <v>3609900</v>
+        <v>9330300</v>
       </c>
       <c r="H66" s="3">
-        <v>3211700</v>
+        <v>3674400</v>
       </c>
       <c r="I66" s="3">
-        <v>3261600</v>
+        <v>3269100</v>
       </c>
       <c r="J66" s="3">
+        <v>3319900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3007800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2202500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1886800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1702700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6043900</v>
+        <v>6792900</v>
       </c>
       <c r="E72" s="3">
-        <v>5336200</v>
+        <v>6151900</v>
       </c>
       <c r="F72" s="3">
-        <v>4923100</v>
+        <v>5431600</v>
       </c>
       <c r="G72" s="3">
-        <v>4235700</v>
+        <v>5011000</v>
       </c>
       <c r="H72" s="3">
-        <v>3786600</v>
+        <v>4311400</v>
       </c>
       <c r="I72" s="3">
-        <v>3357700</v>
+        <v>3854200</v>
       </c>
       <c r="J72" s="3">
+        <v>3417700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2959800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2716000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2770700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2228200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2069500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6556700</v>
+        <v>7872800</v>
       </c>
       <c r="E76" s="3">
-        <v>5355000</v>
+        <v>6673900</v>
       </c>
       <c r="F76" s="3">
-        <v>5510900</v>
+        <v>5450600</v>
       </c>
       <c r="G76" s="3">
-        <v>4826600</v>
+        <v>5609400</v>
       </c>
       <c r="H76" s="3">
-        <v>4225800</v>
+        <v>4912800</v>
       </c>
       <c r="I76" s="3">
-        <v>4084100</v>
+        <v>4301300</v>
       </c>
       <c r="J76" s="3">
+        <v>4157100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3669700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3211000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3122700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2566000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2425300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>818600</v>
+        <v>1003100</v>
       </c>
       <c r="E81" s="3">
-        <v>519500</v>
+        <v>833200</v>
       </c>
       <c r="F81" s="3">
-        <v>651000</v>
+        <v>528800</v>
       </c>
       <c r="G81" s="3">
-        <v>602400</v>
+        <v>662600</v>
       </c>
       <c r="H81" s="3">
-        <v>549500</v>
+        <v>613200</v>
       </c>
       <c r="I81" s="3">
-        <v>473100</v>
+        <v>559400</v>
       </c>
       <c r="J81" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K81" s="3">
         <v>425500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>317700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>421400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>367600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>339400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>639600</v>
+        <v>642700</v>
       </c>
       <c r="E83" s="3">
-        <v>419000</v>
+        <v>603600</v>
       </c>
       <c r="F83" s="3">
-        <v>251500</v>
+        <v>651000</v>
       </c>
       <c r="G83" s="3">
-        <v>230300</v>
+        <v>426500</v>
       </c>
       <c r="H83" s="3">
-        <v>218400</v>
+        <v>256000</v>
       </c>
       <c r="I83" s="3">
-        <v>223700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>234400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>192400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>169100</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>131800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1313300</v>
+        <v>1642500</v>
       </c>
       <c r="E89" s="3">
-        <v>1254800</v>
+        <v>1737100</v>
       </c>
       <c r="F89" s="3">
-        <v>950700</v>
+        <v>1336800</v>
       </c>
       <c r="G89" s="3">
-        <v>788200</v>
+        <v>1277200</v>
       </c>
       <c r="H89" s="3">
-        <v>657800</v>
+        <v>967700</v>
       </c>
       <c r="I89" s="3">
-        <v>670000</v>
+        <v>802300</v>
       </c>
       <c r="J89" s="3">
+        <v>669600</v>
+      </c>
+      <c r="K89" s="3">
         <v>528400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>544900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>606300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>621800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>529200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-134400</v>
+        <v>-142500</v>
       </c>
       <c r="E91" s="3">
-        <v>-104000</v>
+        <v>-111700</v>
       </c>
       <c r="F91" s="3">
-        <v>-76600</v>
+        <v>-136800</v>
       </c>
       <c r="G91" s="3">
-        <v>-89400</v>
+        <v>-105900</v>
       </c>
       <c r="H91" s="3">
-        <v>-59900</v>
+        <v>-78000</v>
       </c>
       <c r="I91" s="3">
-        <v>-46100</v>
+        <v>-91000</v>
       </c>
       <c r="J91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220100</v>
+        <v>-230300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5644200</v>
+        <v>-172700</v>
       </c>
       <c r="F94" s="3">
-        <v>-341900</v>
+        <v>-224000</v>
       </c>
       <c r="G94" s="3">
-        <v>-388700</v>
+        <v>-5745000</v>
       </c>
       <c r="H94" s="3">
-        <v>-316300</v>
+        <v>-348100</v>
       </c>
       <c r="I94" s="3">
-        <v>-64000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-395700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-321900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1091800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-201700</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-252200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-193100</v>
+        <v>-240700</v>
       </c>
       <c r="E96" s="3">
-        <v>-178600</v>
+        <v>-158400</v>
       </c>
       <c r="F96" s="3">
-        <v>-40200</v>
+        <v>-196500</v>
       </c>
       <c r="G96" s="3">
-        <v>-54300</v>
+        <v>-181800</v>
       </c>
       <c r="H96" s="3">
-        <v>-107900</v>
+        <v>-40900</v>
       </c>
       <c r="I96" s="3">
-        <v>-104100</v>
+        <v>-55200</v>
       </c>
       <c r="J96" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-37800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-39000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-41600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-96400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-784900</v>
+        <v>-1714900</v>
       </c>
       <c r="E100" s="3">
-        <v>3435900</v>
+        <v>-766600</v>
       </c>
       <c r="F100" s="3">
-        <v>-307700</v>
+        <v>-799000</v>
       </c>
       <c r="G100" s="3">
-        <v>-168700</v>
+        <v>3497200</v>
       </c>
       <c r="H100" s="3">
-        <v>-214100</v>
+        <v>-313200</v>
       </c>
       <c r="I100" s="3">
-        <v>580200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-171700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-185700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>330400</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-92500</v>
+        <v>76000</v>
       </c>
       <c r="E101" s="3">
-        <v>39000</v>
+        <v>96700</v>
       </c>
       <c r="F101" s="3">
-        <v>69100</v>
+        <v>-94100</v>
       </c>
       <c r="G101" s="3">
-        <v>-206800</v>
+        <v>39700</v>
       </c>
       <c r="H101" s="3">
-        <v>37800</v>
+        <v>70300</v>
       </c>
       <c r="I101" s="3">
-        <v>58400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-210500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42900</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>215800</v>
+        <v>-226700</v>
       </c>
       <c r="E102" s="3">
-        <v>-914500</v>
+        <v>894500</v>
       </c>
       <c r="F102" s="3">
-        <v>370200</v>
+        <v>219700</v>
       </c>
       <c r="G102" s="3">
-        <v>24100</v>
+        <v>-930900</v>
       </c>
       <c r="H102" s="3">
-        <v>165200</v>
+        <v>376800</v>
       </c>
       <c r="I102" s="3">
-        <v>1244600</v>
+        <v>24500</v>
       </c>
       <c r="J102" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-670400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-691300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>692100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>208700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6101000</v>
+        <v>6141800</v>
       </c>
       <c r="E8" s="3">
-        <v>5233800</v>
+        <v>5268800</v>
       </c>
       <c r="F8" s="3">
-        <v>4794600</v>
+        <v>4826600</v>
       </c>
       <c r="G8" s="3">
-        <v>4327200</v>
+        <v>4356100</v>
       </c>
       <c r="H8" s="3">
-        <v>3744800</v>
+        <v>3769800</v>
       </c>
       <c r="I8" s="3">
-        <v>3476200</v>
+        <v>3499500</v>
       </c>
       <c r="J8" s="3">
-        <v>3290600</v>
+        <v>3312600</v>
       </c>
       <c r="K8" s="3">
         <v>3004100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>990000</v>
+        <v>996600</v>
       </c>
       <c r="E9" s="3">
-        <v>851100</v>
+        <v>856800</v>
       </c>
       <c r="F9" s="3">
-        <v>807200</v>
+        <v>812600</v>
       </c>
       <c r="G9" s="3">
-        <v>682300</v>
+        <v>686900</v>
       </c>
       <c r="H9" s="3">
-        <v>550100</v>
+        <v>553800</v>
       </c>
       <c r="I9" s="3">
-        <v>510400</v>
+        <v>513800</v>
       </c>
       <c r="J9" s="3">
-        <v>499200</v>
+        <v>502600</v>
       </c>
       <c r="K9" s="3">
         <v>463300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5111000</v>
+        <v>5145100</v>
       </c>
       <c r="E10" s="3">
-        <v>4382800</v>
+        <v>4412100</v>
       </c>
       <c r="F10" s="3">
-        <v>3987300</v>
+        <v>4014000</v>
       </c>
       <c r="G10" s="3">
-        <v>3644900</v>
+        <v>3669200</v>
       </c>
       <c r="H10" s="3">
-        <v>3194700</v>
+        <v>3216100</v>
       </c>
       <c r="I10" s="3">
-        <v>2965800</v>
+        <v>2985700</v>
       </c>
       <c r="J10" s="3">
-        <v>2791300</v>
+        <v>2810000</v>
       </c>
       <c r="K10" s="3">
         <v>2540800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="E12" s="3">
-        <v>91100</v>
+        <v>91700</v>
       </c>
       <c r="F12" s="3">
-        <v>81500</v>
+        <v>82100</v>
       </c>
       <c r="G12" s="3">
-        <v>74800</v>
+        <v>75300</v>
       </c>
       <c r="H12" s="3">
-        <v>679600</v>
+        <v>684200</v>
       </c>
       <c r="I12" s="3">
-        <v>620900</v>
+        <v>625100</v>
       </c>
       <c r="J12" s="3">
-        <v>582100</v>
+        <v>586000</v>
       </c>
       <c r="K12" s="3">
         <v>521100</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="E14" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="F14" s="3">
-        <v>60200</v>
+        <v>60600</v>
       </c>
       <c r="G14" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="H14" s="3">
-        <v>41400</v>
+        <v>41600</v>
       </c>
       <c r="I14" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="J14" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="K14" s="3">
         <v>12900</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>432800</v>
+        <v>435700</v>
       </c>
       <c r="E15" s="3">
-        <v>397400</v>
+        <v>400000</v>
       </c>
       <c r="F15" s="3">
-        <v>424800</v>
+        <v>427700</v>
       </c>
       <c r="G15" s="3">
-        <v>262800</v>
+        <v>264500</v>
       </c>
       <c r="H15" s="3">
-        <v>184800</v>
+        <v>186000</v>
       </c>
       <c r="I15" s="3">
-        <v>172600</v>
+        <v>173800</v>
       </c>
       <c r="J15" s="3">
-        <v>167800</v>
+        <v>168900</v>
       </c>
       <c r="K15" s="3">
         <v>168800</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4697900</v>
+        <v>4729300</v>
       </c>
       <c r="E17" s="3">
-        <v>4136000</v>
+        <v>4163700</v>
       </c>
       <c r="F17" s="3">
-        <v>4073400</v>
+        <v>4100600</v>
       </c>
       <c r="G17" s="3">
-        <v>3451900</v>
+        <v>3475000</v>
       </c>
       <c r="H17" s="3">
-        <v>2917500</v>
+        <v>2937000</v>
       </c>
       <c r="I17" s="3">
-        <v>2691200</v>
+        <v>2709200</v>
       </c>
       <c r="J17" s="3">
-        <v>2566800</v>
+        <v>2584000</v>
       </c>
       <c r="K17" s="3">
         <v>2334200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1403100</v>
+        <v>1412500</v>
       </c>
       <c r="E18" s="3">
-        <v>1097800</v>
+        <v>1105100</v>
       </c>
       <c r="F18" s="3">
-        <v>721200</v>
+        <v>726000</v>
       </c>
       <c r="G18" s="3">
-        <v>875300</v>
+        <v>881200</v>
       </c>
       <c r="H18" s="3">
-        <v>827300</v>
+        <v>832800</v>
       </c>
       <c r="I18" s="3">
-        <v>785100</v>
+        <v>790300</v>
       </c>
       <c r="J18" s="3">
-        <v>723700</v>
+        <v>728600</v>
       </c>
       <c r="K18" s="3">
         <v>669900</v>
@@ -1155,22 +1155,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="E20" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="3">
-        <v>30500</v>
+        <v>30700</v>
       </c>
       <c r="H20" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="I20" s="3">
-        <v>37500</v>
+        <v>37800</v>
       </c>
       <c r="J20" s="3">
         <v>2400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2080900</v>
+        <v>2090600</v>
       </c>
       <c r="E21" s="3">
-        <v>1719400</v>
+        <v>1727000</v>
       </c>
       <c r="F21" s="3">
-        <v>1391300</v>
+        <v>1396300</v>
       </c>
       <c r="G21" s="3">
-        <v>1335000</v>
+        <v>1341100</v>
       </c>
       <c r="H21" s="3">
-        <v>1118300</v>
+        <v>1124100</v>
       </c>
       <c r="I21" s="3">
-        <v>1058500</v>
+        <v>1064100</v>
       </c>
       <c r="J21" s="3">
-        <v>949800</v>
+        <v>954700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>51</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E22" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F22" s="3">
-        <v>40100</v>
+        <v>40300</v>
       </c>
       <c r="G22" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="H22" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="I22" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J22" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K22" s="3">
         <v>7800</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1406000</v>
+        <v>1415400</v>
       </c>
       <c r="E23" s="3">
-        <v>1081500</v>
+        <v>1088800</v>
       </c>
       <c r="F23" s="3">
-        <v>696000</v>
+        <v>700700</v>
       </c>
       <c r="G23" s="3">
-        <v>878600</v>
+        <v>884500</v>
       </c>
       <c r="H23" s="3">
-        <v>844100</v>
+        <v>849700</v>
       </c>
       <c r="I23" s="3">
-        <v>809200</v>
+        <v>814600</v>
       </c>
       <c r="J23" s="3">
-        <v>712400</v>
+        <v>717100</v>
       </c>
       <c r="K23" s="3">
         <v>669800</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>404300</v>
+        <v>407000</v>
       </c>
       <c r="E24" s="3">
-        <v>248100</v>
+        <v>249800</v>
       </c>
       <c r="F24" s="3">
-        <v>173200</v>
+        <v>174300</v>
       </c>
       <c r="G24" s="3">
-        <v>225700</v>
+        <v>227200</v>
       </c>
       <c r="H24" s="3">
-        <v>237300</v>
+        <v>238900</v>
       </c>
       <c r="I24" s="3">
-        <v>249100</v>
+        <v>250700</v>
       </c>
       <c r="J24" s="3">
-        <v>225400</v>
+        <v>226900</v>
       </c>
       <c r="K24" s="3">
         <v>240300</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1001700</v>
+        <v>1008400</v>
       </c>
       <c r="E26" s="3">
-        <v>833400</v>
+        <v>839000</v>
       </c>
       <c r="F26" s="3">
-        <v>522800</v>
+        <v>526300</v>
       </c>
       <c r="G26" s="3">
-        <v>652900</v>
+        <v>657300</v>
       </c>
       <c r="H26" s="3">
-        <v>606700</v>
+        <v>610800</v>
       </c>
       <c r="I26" s="3">
-        <v>560100</v>
+        <v>563900</v>
       </c>
       <c r="J26" s="3">
-        <v>487000</v>
+        <v>490200</v>
       </c>
       <c r="K26" s="3">
         <v>429500</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1003100</v>
+        <v>1009800</v>
       </c>
       <c r="E27" s="3">
-        <v>833200</v>
+        <v>838800</v>
       </c>
       <c r="F27" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="G27" s="3">
-        <v>662600</v>
+        <v>667000</v>
       </c>
       <c r="H27" s="3">
-        <v>613200</v>
+        <v>617300</v>
       </c>
       <c r="I27" s="3">
-        <v>559400</v>
+        <v>563100</v>
       </c>
       <c r="J27" s="3">
-        <v>481600</v>
+        <v>484800</v>
       </c>
       <c r="K27" s="3">
         <v>425500</v>
@@ -1659,22 +1659,22 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-30900</v>
+        <v>-31100</v>
       </c>
       <c r="E32" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14900</v>
+        <v>-15000</v>
       </c>
       <c r="G32" s="3">
-        <v>-30500</v>
+        <v>-30700</v>
       </c>
       <c r="H32" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="I32" s="3">
-        <v>-37500</v>
+        <v>-37800</v>
       </c>
       <c r="J32" s="3">
         <v>-2400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1003100</v>
+        <v>1009800</v>
       </c>
       <c r="E33" s="3">
-        <v>833200</v>
+        <v>838800</v>
       </c>
       <c r="F33" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="G33" s="3">
-        <v>662600</v>
+        <v>667000</v>
       </c>
       <c r="H33" s="3">
-        <v>613200</v>
+        <v>617300</v>
       </c>
       <c r="I33" s="3">
-        <v>559400</v>
+        <v>563100</v>
       </c>
       <c r="J33" s="3">
-        <v>481600</v>
+        <v>484800</v>
       </c>
       <c r="K33" s="3">
         <v>425500</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1003100</v>
+        <v>1009800</v>
       </c>
       <c r="E35" s="3">
-        <v>833200</v>
+        <v>838800</v>
       </c>
       <c r="F35" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="G35" s="3">
-        <v>662600</v>
+        <v>667000</v>
       </c>
       <c r="H35" s="3">
-        <v>613200</v>
+        <v>617300</v>
       </c>
       <c r="I35" s="3">
-        <v>559400</v>
+        <v>563100</v>
       </c>
       <c r="J35" s="3">
-        <v>481600</v>
+        <v>484800</v>
       </c>
       <c r="K35" s="3">
         <v>425500</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2981900</v>
+        <v>3001900</v>
       </c>
       <c r="E41" s="3">
-        <v>3208600</v>
+        <v>3230100</v>
       </c>
       <c r="F41" s="3">
-        <v>2314200</v>
+        <v>2329600</v>
       </c>
       <c r="G41" s="3">
-        <v>2094500</v>
+        <v>2108500</v>
       </c>
       <c r="H41" s="3">
-        <v>3025300</v>
+        <v>3045600</v>
       </c>
       <c r="I41" s="3">
-        <v>2648600</v>
+        <v>2666300</v>
       </c>
       <c r="J41" s="3">
-        <v>2624100</v>
+        <v>2641600</v>
       </c>
       <c r="K41" s="3">
         <v>2412800</v>
@@ -1964,13 +1964,13 @@
         <v>51</v>
       </c>
       <c r="H42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I42" s="3">
         <v>1400</v>
       </c>
       <c r="J42" s="3">
-        <v>60400</v>
+        <v>60800</v>
       </c>
       <c r="K42" s="3">
         <v>74900</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1975700</v>
+        <v>1988900</v>
       </c>
       <c r="E43" s="3">
-        <v>1648900</v>
+        <v>1660000</v>
       </c>
       <c r="F43" s="3">
-        <v>1557300</v>
+        <v>1567700</v>
       </c>
       <c r="G43" s="3">
-        <v>1669300</v>
+        <v>1680500</v>
       </c>
       <c r="H43" s="3">
-        <v>1369600</v>
+        <v>1378800</v>
       </c>
       <c r="I43" s="3">
-        <v>1107200</v>
+        <v>1114600</v>
       </c>
       <c r="J43" s="3">
-        <v>1053200</v>
+        <v>1060300</v>
       </c>
       <c r="K43" s="3">
         <v>875800</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>259200</v>
+        <v>260900</v>
       </c>
       <c r="E45" s="3">
-        <v>224300</v>
+        <v>225800</v>
       </c>
       <c r="F45" s="3">
-        <v>178000</v>
+        <v>179200</v>
       </c>
       <c r="G45" s="3">
-        <v>187400</v>
+        <v>188600</v>
       </c>
       <c r="H45" s="3">
-        <v>129300</v>
+        <v>130200</v>
       </c>
       <c r="I45" s="3">
-        <v>119200</v>
+        <v>119900</v>
       </c>
       <c r="J45" s="3">
-        <v>107300</v>
+        <v>108000</v>
       </c>
       <c r="K45" s="3">
         <v>65700</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5216800</v>
+        <v>5251700</v>
       </c>
       <c r="E46" s="3">
-        <v>5081900</v>
+        <v>5115900</v>
       </c>
       <c r="F46" s="3">
-        <v>4049500</v>
+        <v>4076500</v>
       </c>
       <c r="G46" s="3">
-        <v>3951100</v>
+        <v>3977600</v>
       </c>
       <c r="H46" s="3">
-        <v>4524900</v>
+        <v>4555200</v>
       </c>
       <c r="I46" s="3">
-        <v>3876300</v>
+        <v>3902200</v>
       </c>
       <c r="J46" s="3">
-        <v>3845000</v>
+        <v>3870700</v>
       </c>
       <c r="K46" s="3">
         <v>3429200</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>76700</v>
+        <v>77200</v>
       </c>
       <c r="E47" s="3">
-        <v>221900</v>
+        <v>223400</v>
       </c>
       <c r="F47" s="3">
-        <v>186900</v>
+        <v>188200</v>
       </c>
       <c r="G47" s="3">
-        <v>191600</v>
+        <v>192900</v>
       </c>
       <c r="H47" s="3">
-        <v>180100</v>
+        <v>181300</v>
       </c>
       <c r="I47" s="3">
-        <v>170400</v>
+        <v>171600</v>
       </c>
       <c r="J47" s="3">
-        <v>184000</v>
+        <v>185300</v>
       </c>
       <c r="K47" s="3">
         <v>131000</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>883000</v>
+        <v>888900</v>
       </c>
       <c r="E48" s="3">
-        <v>879800</v>
+        <v>885700</v>
       </c>
       <c r="F48" s="3">
-        <v>927300</v>
+        <v>933500</v>
       </c>
       <c r="G48" s="3">
-        <v>968900</v>
+        <v>975400</v>
       </c>
       <c r="H48" s="3">
-        <v>191900</v>
+        <v>193200</v>
       </c>
       <c r="I48" s="3">
-        <v>182000</v>
+        <v>183200</v>
       </c>
       <c r="J48" s="3">
-        <v>145800</v>
+        <v>146800</v>
       </c>
       <c r="K48" s="3">
         <v>143200</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8909700</v>
+        <v>8969300</v>
       </c>
       <c r="E49" s="3">
-        <v>8803500</v>
+        <v>8862400</v>
       </c>
       <c r="F49" s="3">
-        <v>8547700</v>
+        <v>8604800</v>
       </c>
       <c r="G49" s="3">
-        <v>9602700</v>
+        <v>9666900</v>
       </c>
       <c r="H49" s="3">
-        <v>3513200</v>
+        <v>3536700</v>
       </c>
       <c r="I49" s="3">
-        <v>3220100</v>
+        <v>3241600</v>
       </c>
       <c r="J49" s="3">
-        <v>3151600</v>
+        <v>3172600</v>
       </c>
       <c r="K49" s="3">
         <v>2843000</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>271600</v>
+        <v>273400</v>
       </c>
       <c r="E52" s="3">
-        <v>324900</v>
+        <v>327100</v>
       </c>
       <c r="F52" s="3">
-        <v>249700</v>
+        <v>251400</v>
       </c>
       <c r="G52" s="3">
-        <v>225100</v>
+        <v>226600</v>
       </c>
       <c r="H52" s="3">
-        <v>177200</v>
+        <v>178300</v>
       </c>
       <c r="I52" s="3">
-        <v>121600</v>
+        <v>122400</v>
       </c>
       <c r="J52" s="3">
-        <v>150600</v>
+        <v>151600</v>
       </c>
       <c r="K52" s="3">
         <v>131100</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15357800</v>
+        <v>15460500</v>
       </c>
       <c r="E54" s="3">
-        <v>15312100</v>
+        <v>15414500</v>
       </c>
       <c r="F54" s="3">
-        <v>13961100</v>
+        <v>14054500</v>
       </c>
       <c r="G54" s="3">
-        <v>14939400</v>
+        <v>15039300</v>
       </c>
       <c r="H54" s="3">
-        <v>8587200</v>
+        <v>8644600</v>
       </c>
       <c r="I54" s="3">
-        <v>7570400</v>
+        <v>7621000</v>
       </c>
       <c r="J54" s="3">
-        <v>7477000</v>
+        <v>7527000</v>
       </c>
       <c r="K54" s="3">
         <v>6677500</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>232900</v>
+        <v>234500</v>
       </c>
       <c r="E57" s="3">
-        <v>207200</v>
+        <v>208600</v>
       </c>
       <c r="F57" s="3">
-        <v>184900</v>
+        <v>186100</v>
       </c>
       <c r="G57" s="3">
-        <v>236900</v>
+        <v>238500</v>
       </c>
       <c r="H57" s="3">
-        <v>174100</v>
+        <v>175300</v>
       </c>
       <c r="I57" s="3">
-        <v>160800</v>
+        <v>161900</v>
       </c>
       <c r="J57" s="3">
-        <v>156000</v>
+        <v>157000</v>
       </c>
       <c r="K57" s="3">
         <v>126800</v>
@@ -2576,19 +2576,19 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>366100</v>
+        <v>368600</v>
       </c>
       <c r="E58" s="3">
-        <v>1060600</v>
+        <v>1067700</v>
       </c>
       <c r="F58" s="3">
-        <v>99600</v>
+        <v>100300</v>
       </c>
       <c r="G58" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="H58" s="3">
-        <v>376900</v>
+        <v>379400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>51</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2503500</v>
+        <v>2520200</v>
       </c>
       <c r="E59" s="3">
-        <v>2469300</v>
+        <v>2485800</v>
       </c>
       <c r="F59" s="3">
-        <v>1962900</v>
+        <v>1976000</v>
       </c>
       <c r="G59" s="3">
-        <v>1971700</v>
+        <v>1984900</v>
       </c>
       <c r="H59" s="3">
-        <v>1627300</v>
+        <v>1638200</v>
       </c>
       <c r="I59" s="3">
-        <v>1484100</v>
+        <v>1494000</v>
       </c>
       <c r="J59" s="3">
-        <v>1422300</v>
+        <v>1431900</v>
       </c>
       <c r="K59" s="3">
         <v>1261200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3102500</v>
+        <v>3123300</v>
       </c>
       <c r="E60" s="3">
-        <v>3737200</v>
+        <v>3762200</v>
       </c>
       <c r="F60" s="3">
-        <v>2247400</v>
+        <v>2262400</v>
       </c>
       <c r="G60" s="3">
-        <v>2298000</v>
+        <v>2313400</v>
       </c>
       <c r="H60" s="3">
-        <v>2178400</v>
+        <v>2192900</v>
       </c>
       <c r="I60" s="3">
-        <v>1644900</v>
+        <v>1655900</v>
       </c>
       <c r="J60" s="3">
-        <v>1578300</v>
+        <v>1588900</v>
       </c>
       <c r="K60" s="3">
         <v>1388000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3483800</v>
+        <v>3507100</v>
       </c>
       <c r="E61" s="3">
-        <v>3751900</v>
+        <v>3777000</v>
       </c>
       <c r="F61" s="3">
-        <v>5103200</v>
+        <v>5137300</v>
       </c>
       <c r="G61" s="3">
-        <v>5610200</v>
+        <v>5647700</v>
       </c>
       <c r="H61" s="3">
-        <v>700000</v>
+        <v>704700</v>
       </c>
       <c r="I61" s="3">
-        <v>1076900</v>
+        <v>1084100</v>
       </c>
       <c r="J61" s="3">
-        <v>1076900</v>
+        <v>1084100</v>
       </c>
       <c r="K61" s="3">
         <v>1058000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>883400</v>
+        <v>889300</v>
       </c>
       <c r="E62" s="3">
-        <v>1134400</v>
+        <v>1142000</v>
       </c>
       <c r="F62" s="3">
-        <v>1111800</v>
+        <v>1119200</v>
       </c>
       <c r="G62" s="3">
-        <v>1364000</v>
+        <v>1373100</v>
       </c>
       <c r="H62" s="3">
-        <v>727200</v>
+        <v>732100</v>
       </c>
       <c r="I62" s="3">
-        <v>545200</v>
+        <v>548900</v>
       </c>
       <c r="J62" s="3">
-        <v>640300</v>
+        <v>644600</v>
       </c>
       <c r="K62" s="3">
         <v>541600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7485000</v>
+        <v>7535000</v>
       </c>
       <c r="E66" s="3">
-        <v>8638200</v>
+        <v>8696000</v>
       </c>
       <c r="F66" s="3">
-        <v>8510600</v>
+        <v>8567500</v>
       </c>
       <c r="G66" s="3">
-        <v>9330300</v>
+        <v>9392600</v>
       </c>
       <c r="H66" s="3">
-        <v>3674400</v>
+        <v>3698900</v>
       </c>
       <c r="I66" s="3">
-        <v>3269100</v>
+        <v>3290900</v>
       </c>
       <c r="J66" s="3">
-        <v>3319900</v>
+        <v>3342100</v>
       </c>
       <c r="K66" s="3">
         <v>3007800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6792900</v>
+        <v>6838300</v>
       </c>
       <c r="E72" s="3">
-        <v>6151900</v>
+        <v>6193000</v>
       </c>
       <c r="F72" s="3">
-        <v>5431600</v>
+        <v>5467900</v>
       </c>
       <c r="G72" s="3">
-        <v>5011000</v>
+        <v>5044500</v>
       </c>
       <c r="H72" s="3">
-        <v>4311400</v>
+        <v>4340200</v>
       </c>
       <c r="I72" s="3">
-        <v>3854200</v>
+        <v>3880000</v>
       </c>
       <c r="J72" s="3">
-        <v>3417700</v>
+        <v>3440500</v>
       </c>
       <c r="K72" s="3">
         <v>2959800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7872800</v>
+        <v>7925400</v>
       </c>
       <c r="E76" s="3">
-        <v>6673900</v>
+        <v>6718500</v>
       </c>
       <c r="F76" s="3">
-        <v>5450600</v>
+        <v>5487100</v>
       </c>
       <c r="G76" s="3">
-        <v>5609400</v>
+        <v>5646900</v>
       </c>
       <c r="H76" s="3">
-        <v>4912800</v>
+        <v>4945700</v>
       </c>
       <c r="I76" s="3">
-        <v>4301300</v>
+        <v>4330100</v>
       </c>
       <c r="J76" s="3">
-        <v>4157100</v>
+        <v>4184900</v>
       </c>
       <c r="K76" s="3">
         <v>3669700</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1003100</v>
+        <v>1009800</v>
       </c>
       <c r="E81" s="3">
-        <v>833200</v>
+        <v>838800</v>
       </c>
       <c r="F81" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="G81" s="3">
-        <v>662600</v>
+        <v>667000</v>
       </c>
       <c r="H81" s="3">
-        <v>613200</v>
+        <v>617300</v>
       </c>
       <c r="I81" s="3">
-        <v>559400</v>
+        <v>563100</v>
       </c>
       <c r="J81" s="3">
-        <v>481600</v>
+        <v>484800</v>
       </c>
       <c r="K81" s="3">
         <v>425500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>642700</v>
+        <v>647000</v>
       </c>
       <c r="E83" s="3">
-        <v>603600</v>
+        <v>607600</v>
       </c>
       <c r="F83" s="3">
-        <v>651000</v>
+        <v>655300</v>
       </c>
       <c r="G83" s="3">
-        <v>426500</v>
+        <v>429300</v>
       </c>
       <c r="H83" s="3">
-        <v>256000</v>
+        <v>257700</v>
       </c>
       <c r="I83" s="3">
-        <v>234400</v>
+        <v>236000</v>
       </c>
       <c r="J83" s="3">
-        <v>222300</v>
+        <v>223800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1642500</v>
+        <v>1653500</v>
       </c>
       <c r="E89" s="3">
-        <v>1737100</v>
+        <v>1748800</v>
       </c>
       <c r="F89" s="3">
-        <v>1336800</v>
+        <v>1345700</v>
       </c>
       <c r="G89" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="H89" s="3">
-        <v>967700</v>
+        <v>974200</v>
       </c>
       <c r="I89" s="3">
-        <v>802300</v>
+        <v>807700</v>
       </c>
       <c r="J89" s="3">
-        <v>669600</v>
+        <v>674000</v>
       </c>
       <c r="K89" s="3">
         <v>528400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-142500</v>
+        <v>-143400</v>
       </c>
       <c r="E91" s="3">
-        <v>-111700</v>
+        <v>-112400</v>
       </c>
       <c r="F91" s="3">
-        <v>-136800</v>
+        <v>-137700</v>
       </c>
       <c r="G91" s="3">
-        <v>-105900</v>
+        <v>-106600</v>
       </c>
       <c r="H91" s="3">
-        <v>-78000</v>
+        <v>-78500</v>
       </c>
       <c r="I91" s="3">
-        <v>-91000</v>
+        <v>-91600</v>
       </c>
       <c r="J91" s="3">
-        <v>-61000</v>
+        <v>-61400</v>
       </c>
       <c r="K91" s="3">
         <v>-48000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-230300</v>
+        <v>-231900</v>
       </c>
       <c r="E94" s="3">
-        <v>-172700</v>
+        <v>-173900</v>
       </c>
       <c r="F94" s="3">
-        <v>-224000</v>
+        <v>-225500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5745000</v>
+        <v>-5783500</v>
       </c>
       <c r="H94" s="3">
-        <v>-348100</v>
+        <v>-350400</v>
       </c>
       <c r="I94" s="3">
-        <v>-395700</v>
+        <v>-398300</v>
       </c>
       <c r="J94" s="3">
-        <v>-321900</v>
+        <v>-324100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-240700</v>
+        <v>-242300</v>
       </c>
       <c r="E96" s="3">
-        <v>-158400</v>
+        <v>-159500</v>
       </c>
       <c r="F96" s="3">
-        <v>-196500</v>
+        <v>-197800</v>
       </c>
       <c r="G96" s="3">
-        <v>-181800</v>
+        <v>-183000</v>
       </c>
       <c r="H96" s="3">
-        <v>-40900</v>
+        <v>-41200</v>
       </c>
       <c r="I96" s="3">
-        <v>-55200</v>
+        <v>-55600</v>
       </c>
       <c r="J96" s="3">
-        <v>-109800</v>
+        <v>-110500</v>
       </c>
       <c r="K96" s="3">
         <v>-37800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1714900</v>
+        <v>-1726300</v>
       </c>
       <c r="E100" s="3">
-        <v>-766600</v>
+        <v>-771800</v>
       </c>
       <c r="F100" s="3">
-        <v>-799000</v>
+        <v>-804300</v>
       </c>
       <c r="G100" s="3">
-        <v>3497200</v>
+        <v>3520600</v>
       </c>
       <c r="H100" s="3">
-        <v>-313200</v>
+        <v>-315300</v>
       </c>
       <c r="I100" s="3">
-        <v>-171700</v>
+        <v>-172800</v>
       </c>
       <c r="J100" s="3">
-        <v>-217900</v>
+        <v>-219400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76000</v>
+        <v>76500</v>
       </c>
       <c r="E101" s="3">
-        <v>96700</v>
+        <v>97400</v>
       </c>
       <c r="F101" s="3">
-        <v>-94100</v>
+        <v>-94800</v>
       </c>
       <c r="G101" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="H101" s="3">
-        <v>70300</v>
+        <v>70800</v>
       </c>
       <c r="I101" s="3">
-        <v>-210500</v>
+        <v>-211900</v>
       </c>
       <c r="J101" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-226700</v>
+        <v>-228200</v>
       </c>
       <c r="E102" s="3">
-        <v>894500</v>
+        <v>900500</v>
       </c>
       <c r="F102" s="3">
-        <v>219700</v>
+        <v>221200</v>
       </c>
       <c r="G102" s="3">
-        <v>-930900</v>
+        <v>-937100</v>
       </c>
       <c r="H102" s="3">
-        <v>376800</v>
+        <v>379300</v>
       </c>
       <c r="I102" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="J102" s="3">
-        <v>168200</v>
+        <v>169300</v>
       </c>
       <c r="K102" s="3">
         <v>-670400</v>

--- a/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DASTY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6141800</v>
+        <v>6146900</v>
       </c>
       <c r="E8" s="3">
-        <v>5268800</v>
+        <v>5273200</v>
       </c>
       <c r="F8" s="3">
-        <v>4826600</v>
+        <v>4830600</v>
       </c>
       <c r="G8" s="3">
-        <v>4356100</v>
+        <v>4359700</v>
       </c>
       <c r="H8" s="3">
-        <v>3769800</v>
+        <v>3773000</v>
       </c>
       <c r="I8" s="3">
-        <v>3499500</v>
+        <v>3502400</v>
       </c>
       <c r="J8" s="3">
-        <v>3312600</v>
+        <v>3315300</v>
       </c>
       <c r="K8" s="3">
         <v>3004100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>996600</v>
+        <v>997400</v>
       </c>
       <c r="E9" s="3">
-        <v>856800</v>
+        <v>857500</v>
       </c>
       <c r="F9" s="3">
-        <v>812600</v>
+        <v>813300</v>
       </c>
       <c r="G9" s="3">
-        <v>686900</v>
+        <v>687500</v>
       </c>
       <c r="H9" s="3">
-        <v>553800</v>
+        <v>554200</v>
       </c>
       <c r="I9" s="3">
-        <v>513800</v>
+        <v>514300</v>
       </c>
       <c r="J9" s="3">
-        <v>502600</v>
+        <v>503000</v>
       </c>
       <c r="K9" s="3">
         <v>463300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5145100</v>
+        <v>5149400</v>
       </c>
       <c r="E10" s="3">
-        <v>4412100</v>
+        <v>4415700</v>
       </c>
       <c r="F10" s="3">
-        <v>4014000</v>
+        <v>4017300</v>
       </c>
       <c r="G10" s="3">
-        <v>3669200</v>
+        <v>3672300</v>
       </c>
       <c r="H10" s="3">
-        <v>3216100</v>
+        <v>3218800</v>
       </c>
       <c r="I10" s="3">
-        <v>2985700</v>
+        <v>2988100</v>
       </c>
       <c r="J10" s="3">
-        <v>2810000</v>
+        <v>2812300</v>
       </c>
       <c r="K10" s="3">
         <v>2540800</v>
@@ -873,22 +873,22 @@
         <v>67900</v>
       </c>
       <c r="E12" s="3">
-        <v>91700</v>
+        <v>91800</v>
       </c>
       <c r="F12" s="3">
         <v>82100</v>
       </c>
       <c r="G12" s="3">
-        <v>75300</v>
+        <v>75400</v>
       </c>
       <c r="H12" s="3">
-        <v>684200</v>
+        <v>684700</v>
       </c>
       <c r="I12" s="3">
-        <v>625100</v>
+        <v>625600</v>
       </c>
       <c r="J12" s="3">
-        <v>586000</v>
+        <v>586400</v>
       </c>
       <c r="K12" s="3">
         <v>521100</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E14" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="F14" s="3">
-        <v>60600</v>
+        <v>60700</v>
       </c>
       <c r="G14" s="3">
         <v>36900</v>
       </c>
       <c r="H14" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="I14" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="J14" s="3">
         <v>44000</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>435700</v>
+        <v>436100</v>
       </c>
       <c r="E15" s="3">
-        <v>400000</v>
+        <v>400400</v>
       </c>
       <c r="F15" s="3">
-        <v>427700</v>
+        <v>428000</v>
       </c>
       <c r="G15" s="3">
-        <v>264500</v>
+        <v>264700</v>
       </c>
       <c r="H15" s="3">
-        <v>186000</v>
+        <v>186200</v>
       </c>
       <c r="I15" s="3">
-        <v>173800</v>
+        <v>173900</v>
       </c>
       <c r="J15" s="3">
-        <v>168900</v>
+        <v>169100</v>
       </c>
       <c r="K15" s="3">
         <v>168800</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4729300</v>
+        <v>4733200</v>
       </c>
       <c r="E17" s="3">
-        <v>4163700</v>
+        <v>4167200</v>
       </c>
       <c r="F17" s="3">
-        <v>4100600</v>
+        <v>4104000</v>
       </c>
       <c r="G17" s="3">
-        <v>3475000</v>
+        <v>3477900</v>
       </c>
       <c r="H17" s="3">
-        <v>2937000</v>
+        <v>2939500</v>
       </c>
       <c r="I17" s="3">
-        <v>2709200</v>
+        <v>2711400</v>
       </c>
       <c r="J17" s="3">
-        <v>2584000</v>
+        <v>2586200</v>
       </c>
       <c r="K17" s="3">
         <v>2334200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1412500</v>
+        <v>1413600</v>
       </c>
       <c r="E18" s="3">
-        <v>1105100</v>
+        <v>1106000</v>
       </c>
       <c r="F18" s="3">
-        <v>726000</v>
+        <v>726600</v>
       </c>
       <c r="G18" s="3">
-        <v>881200</v>
+        <v>881900</v>
       </c>
       <c r="H18" s="3">
-        <v>832800</v>
+        <v>833500</v>
       </c>
       <c r="I18" s="3">
-        <v>790300</v>
+        <v>791000</v>
       </c>
       <c r="J18" s="3">
-        <v>728600</v>
+        <v>729200</v>
       </c>
       <c r="K18" s="3">
         <v>669900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2090600</v>
+        <v>2092100</v>
       </c>
       <c r="E21" s="3">
-        <v>1727000</v>
+        <v>1728200</v>
       </c>
       <c r="F21" s="3">
-        <v>1396300</v>
+        <v>1397200</v>
       </c>
       <c r="G21" s="3">
-        <v>1341100</v>
+        <v>1342100</v>
       </c>
       <c r="H21" s="3">
-        <v>1124100</v>
+        <v>1124900</v>
       </c>
       <c r="I21" s="3">
-        <v>1064100</v>
+        <v>1064900</v>
       </c>
       <c r="J21" s="3">
-        <v>954700</v>
+        <v>955400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>51</v>
@@ -1245,7 +1245,7 @@
         <v>30600</v>
       </c>
       <c r="F22" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="G22" s="3">
         <v>27300</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1415400</v>
+        <v>1416600</v>
       </c>
       <c r="E23" s="3">
-        <v>1088800</v>
+        <v>1089700</v>
       </c>
       <c r="F23" s="3">
-        <v>700700</v>
+        <v>701200</v>
       </c>
       <c r="G23" s="3">
-        <v>884500</v>
+        <v>885300</v>
       </c>
       <c r="H23" s="3">
-        <v>849700</v>
+        <v>850400</v>
       </c>
       <c r="I23" s="3">
-        <v>814600</v>
+        <v>815300</v>
       </c>
       <c r="J23" s="3">
-        <v>717100</v>
+        <v>717700</v>
       </c>
       <c r="K23" s="3">
         <v>669800</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>407000</v>
+        <v>407300</v>
       </c>
       <c r="E24" s="3">
-        <v>249800</v>
+        <v>250000</v>
       </c>
       <c r="F24" s="3">
-        <v>174300</v>
+        <v>174500</v>
       </c>
       <c r="G24" s="3">
-        <v>227200</v>
+        <v>227400</v>
       </c>
       <c r="H24" s="3">
-        <v>238900</v>
+        <v>239100</v>
       </c>
       <c r="I24" s="3">
-        <v>250700</v>
+        <v>250900</v>
       </c>
       <c r="J24" s="3">
-        <v>226900</v>
+        <v>227100</v>
       </c>
       <c r="K24" s="3">
         <v>240300</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1008400</v>
+        <v>1009300</v>
       </c>
       <c r="E26" s="3">
-        <v>839000</v>
+        <v>839700</v>
       </c>
       <c r="F26" s="3">
-        <v>526300</v>
+        <v>526800</v>
       </c>
       <c r="G26" s="3">
-        <v>657300</v>
+        <v>657800</v>
       </c>
       <c r="H26" s="3">
-        <v>610800</v>
+        <v>611300</v>
       </c>
       <c r="I26" s="3">
-        <v>563900</v>
+        <v>564400</v>
       </c>
       <c r="J26" s="3">
-        <v>490200</v>
+        <v>490600</v>
       </c>
       <c r="K26" s="3">
         <v>429500</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1009800</v>
+        <v>1010700</v>
       </c>
       <c r="E27" s="3">
-        <v>838800</v>
+        <v>839500</v>
       </c>
       <c r="F27" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="G27" s="3">
-        <v>667000</v>
+        <v>667600</v>
       </c>
       <c r="H27" s="3">
-        <v>617300</v>
+        <v>617800</v>
       </c>
       <c r="I27" s="3">
-        <v>563100</v>
+        <v>563600</v>
       </c>
       <c r="J27" s="3">
-        <v>484800</v>
+        <v>485200</v>
       </c>
       <c r="K27" s="3">
         <v>425500</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1009800</v>
+        <v>1010700</v>
       </c>
       <c r="E33" s="3">
-        <v>838800</v>
+        <v>839500</v>
       </c>
       <c r="F33" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="G33" s="3">
-        <v>667000</v>
+        <v>667600</v>
       </c>
       <c r="H33" s="3">
-        <v>617300</v>
+        <v>617800</v>
       </c>
       <c r="I33" s="3">
-        <v>563100</v>
+        <v>563600</v>
       </c>
       <c r="J33" s="3">
-        <v>484800</v>
+        <v>485200</v>
       </c>
       <c r="K33" s="3">
         <v>425500</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1009800</v>
+        <v>1010700</v>
       </c>
       <c r="E35" s="3">
-        <v>838800</v>
+        <v>839500</v>
       </c>
       <c r="F35" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="G35" s="3">
-        <v>667000</v>
+        <v>667600</v>
       </c>
       <c r="H35" s="3">
-        <v>617300</v>
+        <v>617800</v>
       </c>
       <c r="I35" s="3">
-        <v>563100</v>
+        <v>563600</v>
       </c>
       <c r="J35" s="3">
-        <v>484800</v>
+        <v>485200</v>
       </c>
       <c r="K35" s="3">
         <v>425500</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3001900</v>
+        <v>3004400</v>
       </c>
       <c r="E41" s="3">
-        <v>3230100</v>
+        <v>3232800</v>
       </c>
       <c r="F41" s="3">
-        <v>2329600</v>
+        <v>2331600</v>
       </c>
       <c r="G41" s="3">
-        <v>2108500</v>
+        <v>2110200</v>
       </c>
       <c r="H41" s="3">
-        <v>3045600</v>
+        <v>3048100</v>
       </c>
       <c r="I41" s="3">
-        <v>2666300</v>
+        <v>2668500</v>
       </c>
       <c r="J41" s="3">
-        <v>2641600</v>
+        <v>2643800</v>
       </c>
       <c r="K41" s="3">
         <v>2412800</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1988900</v>
+        <v>1990500</v>
       </c>
       <c r="E43" s="3">
-        <v>1660000</v>
+        <v>1661400</v>
       </c>
       <c r="F43" s="3">
-        <v>1567700</v>
+        <v>1569000</v>
       </c>
       <c r="G43" s="3">
-        <v>1680500</v>
+        <v>1681900</v>
       </c>
       <c r="H43" s="3">
-        <v>1378800</v>
+        <v>1379900</v>
       </c>
       <c r="I43" s="3">
-        <v>1114600</v>
+        <v>1115500</v>
       </c>
       <c r="J43" s="3">
-        <v>1060300</v>
+        <v>1061100</v>
       </c>
       <c r="K43" s="3">
         <v>875800</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>260900</v>
+        <v>261200</v>
       </c>
       <c r="E45" s="3">
-        <v>225800</v>
+        <v>226000</v>
       </c>
       <c r="F45" s="3">
-        <v>179200</v>
+        <v>179400</v>
       </c>
       <c r="G45" s="3">
-        <v>188600</v>
+        <v>188800</v>
       </c>
       <c r="H45" s="3">
-        <v>130200</v>
+        <v>130300</v>
       </c>
       <c r="I45" s="3">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="J45" s="3">
-        <v>108000</v>
+        <v>108100</v>
       </c>
       <c r="K45" s="3">
         <v>65700</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5251700</v>
+        <v>5256100</v>
       </c>
       <c r="E46" s="3">
-        <v>5115900</v>
+        <v>5120100</v>
       </c>
       <c r="F46" s="3">
-        <v>4076500</v>
+        <v>4079900</v>
       </c>
       <c r="G46" s="3">
-        <v>3977600</v>
+        <v>3980900</v>
       </c>
       <c r="H46" s="3">
-        <v>4555200</v>
+        <v>4559000</v>
       </c>
       <c r="I46" s="3">
-        <v>3902200</v>
+        <v>3905500</v>
       </c>
       <c r="J46" s="3">
-        <v>3870700</v>
+        <v>3873900</v>
       </c>
       <c r="K46" s="3">
         <v>3429200</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>77200</v>
+        <v>77300</v>
       </c>
       <c r="E47" s="3">
-        <v>223400</v>
+        <v>223600</v>
       </c>
       <c r="F47" s="3">
-        <v>188200</v>
+        <v>188400</v>
       </c>
       <c r="G47" s="3">
-        <v>192900</v>
+        <v>193000</v>
       </c>
       <c r="H47" s="3">
-        <v>181300</v>
+        <v>181400</v>
       </c>
       <c r="I47" s="3">
-        <v>171600</v>
+        <v>171700</v>
       </c>
       <c r="J47" s="3">
-        <v>185300</v>
+        <v>185400</v>
       </c>
       <c r="K47" s="3">
         <v>131000</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>888900</v>
+        <v>889600</v>
       </c>
       <c r="E48" s="3">
-        <v>885700</v>
+        <v>886400</v>
       </c>
       <c r="F48" s="3">
-        <v>933500</v>
+        <v>934300</v>
       </c>
       <c r="G48" s="3">
-        <v>975400</v>
+        <v>976200</v>
       </c>
       <c r="H48" s="3">
-        <v>193200</v>
+        <v>193300</v>
       </c>
       <c r="I48" s="3">
-        <v>183200</v>
+        <v>183300</v>
       </c>
       <c r="J48" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="K48" s="3">
         <v>143200</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8969300</v>
+        <v>8976700</v>
       </c>
       <c r="E49" s="3">
-        <v>8862400</v>
+        <v>8869800</v>
       </c>
       <c r="F49" s="3">
-        <v>8604800</v>
+        <v>8612000</v>
       </c>
       <c r="G49" s="3">
-        <v>9666900</v>
+        <v>9674900</v>
       </c>
       <c r="H49" s="3">
-        <v>3536700</v>
+        <v>3539600</v>
       </c>
       <c r="I49" s="3">
-        <v>3241600</v>
+        <v>3244300</v>
       </c>
       <c r="J49" s="3">
-        <v>3172600</v>
+        <v>3175300</v>
       </c>
       <c r="K49" s="3">
         <v>2843000</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>273400</v>
+        <v>273600</v>
       </c>
       <c r="E52" s="3">
-        <v>327100</v>
+        <v>327300</v>
       </c>
       <c r="F52" s="3">
-        <v>251400</v>
+        <v>251600</v>
       </c>
       <c r="G52" s="3">
-        <v>226600</v>
+        <v>226800</v>
       </c>
       <c r="H52" s="3">
-        <v>178300</v>
+        <v>178500</v>
       </c>
       <c r="I52" s="3">
-        <v>122400</v>
+        <v>122500</v>
       </c>
       <c r="J52" s="3">
-        <v>151600</v>
+        <v>151700</v>
       </c>
       <c r="K52" s="3">
         <v>131100</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15460500</v>
+        <v>15473300</v>
       </c>
       <c r="E54" s="3">
-        <v>15414500</v>
+        <v>15427300</v>
       </c>
       <c r="F54" s="3">
-        <v>14054500</v>
+        <v>14066200</v>
       </c>
       <c r="G54" s="3">
-        <v>15039300</v>
+        <v>15051800</v>
       </c>
       <c r="H54" s="3">
-        <v>8644600</v>
+        <v>8651800</v>
       </c>
       <c r="I54" s="3">
-        <v>7621000</v>
+        <v>7627300</v>
       </c>
       <c r="J54" s="3">
-        <v>7527000</v>
+        <v>7533200</v>
       </c>
       <c r="K54" s="3">
         <v>6677500</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>234500</v>
+        <v>234700</v>
       </c>
       <c r="E57" s="3">
-        <v>208600</v>
+        <v>208800</v>
       </c>
       <c r="F57" s="3">
-        <v>186100</v>
+        <v>186300</v>
       </c>
       <c r="G57" s="3">
-        <v>238500</v>
+        <v>238700</v>
       </c>
       <c r="H57" s="3">
-        <v>175300</v>
+        <v>175400</v>
       </c>
       <c r="I57" s="3">
-        <v>161900</v>
+        <v>162000</v>
       </c>
       <c r="J57" s="3">
-        <v>157000</v>
+        <v>157200</v>
       </c>
       <c r="K57" s="3">
         <v>126800</v>
@@ -2576,19 +2576,19 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>368600</v>
+        <v>368900</v>
       </c>
       <c r="E58" s="3">
-        <v>1067700</v>
+        <v>1068600</v>
       </c>
       <c r="F58" s="3">
-        <v>100300</v>
+        <v>100400</v>
       </c>
       <c r="G58" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="H58" s="3">
-        <v>379400</v>
+        <v>379800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>51</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2520200</v>
+        <v>2522300</v>
       </c>
       <c r="E59" s="3">
-        <v>2485800</v>
+        <v>2487900</v>
       </c>
       <c r="F59" s="3">
-        <v>1976000</v>
+        <v>1977600</v>
       </c>
       <c r="G59" s="3">
-        <v>1984900</v>
+        <v>1986500</v>
       </c>
       <c r="H59" s="3">
-        <v>1638200</v>
+        <v>1639500</v>
       </c>
       <c r="I59" s="3">
-        <v>1494000</v>
+        <v>1495300</v>
       </c>
       <c r="J59" s="3">
-        <v>1431900</v>
+        <v>1433000</v>
       </c>
       <c r="K59" s="3">
         <v>1261200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3123300</v>
+        <v>3125900</v>
       </c>
       <c r="E60" s="3">
-        <v>3762200</v>
+        <v>3765300</v>
       </c>
       <c r="F60" s="3">
-        <v>2262400</v>
+        <v>2264300</v>
       </c>
       <c r="G60" s="3">
-        <v>2313400</v>
+        <v>2315300</v>
       </c>
       <c r="H60" s="3">
-        <v>2192900</v>
+        <v>2194700</v>
       </c>
       <c r="I60" s="3">
-        <v>1655900</v>
+        <v>1657300</v>
       </c>
       <c r="J60" s="3">
-        <v>1588900</v>
+        <v>1590200</v>
       </c>
       <c r="K60" s="3">
         <v>1388000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3507100</v>
+        <v>3510000</v>
       </c>
       <c r="E61" s="3">
-        <v>3777000</v>
+        <v>3780100</v>
       </c>
       <c r="F61" s="3">
-        <v>5137300</v>
+        <v>5141600</v>
       </c>
       <c r="G61" s="3">
-        <v>5647700</v>
+        <v>5652400</v>
       </c>
       <c r="H61" s="3">
-        <v>704700</v>
+        <v>705300</v>
       </c>
       <c r="I61" s="3">
-        <v>1084100</v>
+        <v>1085000</v>
       </c>
       <c r="J61" s="3">
-        <v>1084100</v>
+        <v>1085000</v>
       </c>
       <c r="K61" s="3">
         <v>1058000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>889300</v>
+        <v>890000</v>
       </c>
       <c r="E62" s="3">
-        <v>1142000</v>
+        <v>1142900</v>
       </c>
       <c r="F62" s="3">
-        <v>1119200</v>
+        <v>1120200</v>
       </c>
       <c r="G62" s="3">
-        <v>1373100</v>
+        <v>1374300</v>
       </c>
       <c r="H62" s="3">
-        <v>732100</v>
+        <v>732700</v>
       </c>
       <c r="I62" s="3">
-        <v>548900</v>
+        <v>549300</v>
       </c>
       <c r="J62" s="3">
-        <v>644600</v>
+        <v>645100</v>
       </c>
       <c r="K62" s="3">
         <v>541600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7535000</v>
+        <v>7541300</v>
       </c>
       <c r="E66" s="3">
-        <v>8696000</v>
+        <v>8703200</v>
       </c>
       <c r="F66" s="3">
-        <v>8567500</v>
+        <v>8574600</v>
       </c>
       <c r="G66" s="3">
-        <v>9392600</v>
+        <v>9400400</v>
       </c>
       <c r="H66" s="3">
-        <v>3698900</v>
+        <v>3702000</v>
       </c>
       <c r="I66" s="3">
-        <v>3290900</v>
+        <v>3293700</v>
       </c>
       <c r="J66" s="3">
-        <v>3342100</v>
+        <v>3344900</v>
       </c>
       <c r="K66" s="3">
         <v>3007800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6838300</v>
+        <v>6844000</v>
       </c>
       <c r="E72" s="3">
-        <v>6193000</v>
+        <v>6198200</v>
       </c>
       <c r="F72" s="3">
-        <v>5467900</v>
+        <v>5472400</v>
       </c>
       <c r="G72" s="3">
-        <v>5044500</v>
+        <v>5048700</v>
       </c>
       <c r="H72" s="3">
-        <v>4340200</v>
+        <v>4343800</v>
       </c>
       <c r="I72" s="3">
-        <v>3880000</v>
+        <v>3883200</v>
       </c>
       <c r="J72" s="3">
-        <v>3440500</v>
+        <v>3443400</v>
       </c>
       <c r="K72" s="3">
         <v>2959800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7925400</v>
+        <v>7932000</v>
       </c>
       <c r="E76" s="3">
-        <v>6718500</v>
+        <v>6724100</v>
       </c>
       <c r="F76" s="3">
-        <v>5487100</v>
+        <v>5491600</v>
       </c>
       <c r="G76" s="3">
-        <v>5646900</v>
+        <v>5651500</v>
       </c>
       <c r="H76" s="3">
-        <v>4945700</v>
+        <v>4949800</v>
       </c>
       <c r="I76" s="3">
-        <v>4330100</v>
+        <v>4333700</v>
       </c>
       <c r="J76" s="3">
-        <v>4184900</v>
+        <v>4188300</v>
       </c>
       <c r="K76" s="3">
         <v>3669700</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1009800</v>
+        <v>1010700</v>
       </c>
       <c r="E81" s="3">
-        <v>838800</v>
+        <v>839500</v>
       </c>
       <c r="F81" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="G81" s="3">
-        <v>667000</v>
+        <v>667600</v>
       </c>
       <c r="H81" s="3">
-        <v>617300</v>
+        <v>617800</v>
       </c>
       <c r="I81" s="3">
-        <v>563100</v>
+        <v>563600</v>
       </c>
       <c r="J81" s="3">
-        <v>484800</v>
+        <v>485200</v>
       </c>
       <c r="K81" s="3">
         <v>425500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>647000</v>
+        <v>647500</v>
       </c>
       <c r="E83" s="3">
-        <v>607600</v>
+        <v>608100</v>
       </c>
       <c r="F83" s="3">
-        <v>655300</v>
+        <v>655900</v>
       </c>
       <c r="G83" s="3">
-        <v>429300</v>
+        <v>429700</v>
       </c>
       <c r="H83" s="3">
-        <v>257700</v>
+        <v>257900</v>
       </c>
       <c r="I83" s="3">
-        <v>236000</v>
+        <v>236200</v>
       </c>
       <c r="J83" s="3">
-        <v>223800</v>
+        <v>224000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1653500</v>
+        <v>1654800</v>
       </c>
       <c r="E89" s="3">
-        <v>1748800</v>
+        <v>1750200</v>
       </c>
       <c r="F89" s="3">
-        <v>1345700</v>
+        <v>1346800</v>
       </c>
       <c r="G89" s="3">
-        <v>1285700</v>
+        <v>1286800</v>
       </c>
       <c r="H89" s="3">
-        <v>974200</v>
+        <v>975000</v>
       </c>
       <c r="I89" s="3">
-        <v>807700</v>
+        <v>808400</v>
       </c>
       <c r="J89" s="3">
-        <v>674000</v>
+        <v>674600</v>
       </c>
       <c r="K89" s="3">
         <v>528400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-143400</v>
+        <v>-143500</v>
       </c>
       <c r="E91" s="3">
-        <v>-112400</v>
+        <v>-112500</v>
       </c>
       <c r="F91" s="3">
-        <v>-137700</v>
+        <v>-137800</v>
       </c>
       <c r="G91" s="3">
-        <v>-106600</v>
+        <v>-106700</v>
       </c>
       <c r="H91" s="3">
-        <v>-78500</v>
+        <v>-78600</v>
       </c>
       <c r="I91" s="3">
-        <v>-91600</v>
+        <v>-91700</v>
       </c>
       <c r="J91" s="3">
-        <v>-61400</v>
+        <v>-61500</v>
       </c>
       <c r="K91" s="3">
         <v>-48000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-231900</v>
+        <v>-232100</v>
       </c>
       <c r="E94" s="3">
-        <v>-173900</v>
+        <v>-174000</v>
       </c>
       <c r="F94" s="3">
-        <v>-225500</v>
+        <v>-225700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5783500</v>
+        <v>-5788300</v>
       </c>
       <c r="H94" s="3">
-        <v>-350400</v>
+        <v>-350700</v>
       </c>
       <c r="I94" s="3">
-        <v>-398300</v>
+        <v>-398700</v>
       </c>
       <c r="J94" s="3">
-        <v>-324100</v>
+        <v>-324300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
@@ -3997,16 +3997,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-242300</v>
+        <v>-242500</v>
       </c>
       <c r="E96" s="3">
-        <v>-159500</v>
+        <v>-159600</v>
       </c>
       <c r="F96" s="3">
-        <v>-197800</v>
+        <v>-198000</v>
       </c>
       <c r="G96" s="3">
-        <v>-183000</v>
+        <v>-183100</v>
       </c>
       <c r="H96" s="3">
         <v>-41200</v>
@@ -4015,7 +4015,7 @@
         <v>-55600</v>
       </c>
       <c r="J96" s="3">
-        <v>-110500</v>
+        <v>-110600</v>
       </c>
       <c r="K96" s="3">
         <v>-37800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1726300</v>
+        <v>-1727800</v>
       </c>
       <c r="E100" s="3">
-        <v>-771800</v>
+        <v>-772400</v>
       </c>
       <c r="F100" s="3">
-        <v>-804300</v>
+        <v>-805000</v>
       </c>
       <c r="G100" s="3">
-        <v>3520600</v>
+        <v>3523500</v>
       </c>
       <c r="H100" s="3">
-        <v>-315300</v>
+        <v>-315500</v>
       </c>
       <c r="I100" s="3">
-        <v>-172800</v>
+        <v>-173000</v>
       </c>
       <c r="J100" s="3">
-        <v>-219400</v>
+        <v>-219600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76500</v>
+        <v>76600</v>
       </c>
       <c r="E101" s="3">
         <v>97400</v>
@@ -4219,13 +4219,13 @@
         <v>40000</v>
       </c>
       <c r="H101" s="3">
-        <v>70800</v>
+        <v>70900</v>
       </c>
       <c r="I101" s="3">
-        <v>-211900</v>
+        <v>-212000</v>
       </c>
       <c r="J101" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-228200</v>
+        <v>-228400</v>
       </c>
       <c r="E102" s="3">
-        <v>900500</v>
+        <v>901200</v>
       </c>
       <c r="F102" s="3">
-        <v>221200</v>
+        <v>221300</v>
       </c>
       <c r="G102" s="3">
-        <v>-937100</v>
+        <v>-937900</v>
       </c>
       <c r="H102" s="3">
-        <v>379300</v>
+        <v>379600</v>
       </c>
       <c r="I102" s="3">
         <v>24700</v>
       </c>
       <c r="J102" s="3">
-        <v>169300</v>
+        <v>169400</v>
       </c>
       <c r="K102" s="3">
         <v>-670400</v>
